--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -18931,8 +18931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
-      <selection activeCell="G1069" sqref="G1069"/>
+    <sheetView tabSelected="1" topLeftCell="A1489" workbookViewId="0">
+      <selection activeCell="C1501" sqref="C1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -60417,7 +60417,7 @@
         <v>4168</v>
       </c>
       <c r="B1501" s="4" t="s">
-        <v>34</v>
+        <v>4547</v>
       </c>
       <c r="C1501" s="1" t="s">
         <v>2609</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -18931,8 +18931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1489" workbookViewId="0">
-      <selection activeCell="C1501" sqref="C1501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1589" sqref="C1589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -60417,7 +60417,7 @@
         <v>4168</v>
       </c>
       <c r="B1501" s="4" t="s">
-        <v>4547</v>
+        <v>34</v>
       </c>
       <c r="C1501" s="1" t="s">
         <v>2609</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13902" uniqueCount="5249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13928" uniqueCount="5267">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18556,6 +18556,75 @@
   <si>
     <t>select char_length(left(current_timestamp,19))</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键顺序和建表列顺序不一致的多分区表第一个主键范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeScan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_partition49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $partition49 where name between 'Ww' and 'mp'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1607</t>
+  </si>
+  <si>
+    <t>主键顺序和建表列顺序不一致的多分区表第二个主键范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $partition49 where id between 49 and 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/RangeScan/queryc1_1606.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/RangeScan/queryc1_1607.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1608</t>
+  </si>
+  <si>
+    <t>explain输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select * from $schema17 where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justExec</t>
   </si>
 </sst>
 </file>
@@ -18929,10 +18998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1606"/>
+  <dimension ref="A1:K1609"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1589" sqref="C1589"/>
+    <sheetView tabSelected="1" topLeftCell="A1587" workbookViewId="0">
+      <selection activeCell="H1609" sqref="H1609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -63876,6 +63945,90 @@
         <v>44</v>
       </c>
     </row>
+    <row r="1607" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1607" s="1" t="s">
+        <v>5249</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1607" s="1" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D1607" s="1" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F1607" s="1" t="s">
+        <v>5252</v>
+      </c>
+      <c r="G1607" s="1" t="s">
+        <v>5253</v>
+      </c>
+      <c r="I1607" s="1" t="s">
+        <v>5254</v>
+      </c>
+      <c r="J1607" s="1" t="s">
+        <v>5258</v>
+      </c>
+      <c r="K1607" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1608" s="1" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B1608" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1608" s="1" t="s">
+        <v>5256</v>
+      </c>
+      <c r="D1608" s="1" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>5252</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>5249</v>
+      </c>
+      <c r="I1608" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="J1608" s="1" t="s">
+        <v>5259</v>
+      </c>
+      <c r="K1608" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1609" s="1" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1609" s="1" t="s">
+        <v>5261</v>
+      </c>
+      <c r="D1609" s="1" t="s">
+        <v>5262</v>
+      </c>
+      <c r="F1609" s="1" t="s">
+        <v>5263</v>
+      </c>
+      <c r="G1609" s="1" t="s">
+        <v>5264</v>
+      </c>
+      <c r="I1609" s="1" t="s">
+        <v>5265</v>
+      </c>
+      <c r="K1609" s="1" t="s">
+        <v>5266</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -63883,7 +64036,7 @@
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>"csv_equals,csv_containsAll,string_equals,double_equals,assertNull,SQLException"</formula1>
+      <formula1>"csv_equals,csv_containsAll,string_equals,double_equals,assertNull,justExec,SQLException"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -19000,8 +19000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1587" workbookViewId="0">
-      <selection activeCell="H1609" sqref="H1609"/>
+    <sheetView tabSelected="1" topLeftCell="A1578" workbookViewId="0">
+      <selection activeCell="E1621" sqref="E1621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -16136,14 +16136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\,./{}|:"&lt;&gt;?'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\,./{}|:"&lt;&gt;?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select '10.24' - '10.24'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16156,10 +16148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abc~!@#$%^&amp;*()_+=-|][}{:/.,?&gt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select concat('Hello',' World')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16547,18 +16535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select 'abc'||'~!@#$%^&amp;*()_+=-|][}{:/.,?&gt;&lt;'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select repeat('http://www.baidu.com ',3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.baidu.com http://www.baidu.com http://www.baidu.com </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select repeat('~!@#$%^&amp;*()_+=-|][}{:/.,?&gt;&lt;',2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18625,6 +18601,30 @@
   </si>
   <si>
     <t>justExec</t>
+  </si>
+  <si>
+    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select repeat('http://www.baidu.com; ',3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.baidu.com; http://www.baidu.com; http://www.baidu.com; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'abc'||'~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -19000,8 +19000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1578" workbookViewId="0">
-      <selection activeCell="E1621" sqref="E1621"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19087,10 +19087,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>4481</v>
+        <v>5261</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>4482</v>
+        <v>5262</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -19185,7 +19185,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4483</v>
+        <v>4481</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
@@ -19208,7 +19208,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
@@ -19344,7 +19344,7 @@
         <v>138</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>4644</v>
+        <v>4638</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>44</v>
@@ -19376,7 +19376,7 @@
         <v>140</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>4645</v>
+        <v>4639</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>44</v>
@@ -19405,7 +19405,7 @@
         <v>154</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>4646</v>
+        <v>4640</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>155</v>
@@ -19555,10 +19555,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>4596</v>
+        <v>5265</v>
       </c>
       <c r="J21" t="s">
-        <v>4486</v>
+        <v>5266</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>9</v>
@@ -19581,7 +19581,7 @@
         <v>136</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>152</v>
@@ -19607,7 +19607,7 @@
         <v>136</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>153</v>
@@ -19633,7 +19633,7 @@
         <v>136</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>4488</v>
+        <v>4485</v>
       </c>
       <c r="J24" t="s">
         <v>150</v>
@@ -19668,7 +19668,7 @@
         <v>43</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>4647</v>
+        <v>4641</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>44</v>
@@ -19700,7 +19700,7 @@
         <v>162</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>4648</v>
+        <v>4642</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>44</v>
@@ -19732,7 +19732,7 @@
         <v>158</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>4649</v>
+        <v>4643</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>44</v>
@@ -19764,7 +19764,7 @@
         <v>160</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>4650</v>
+        <v>4644</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>44</v>
@@ -20212,7 +20212,7 @@
         <v>46</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>4651</v>
+        <v>4645</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>44</v>
@@ -20339,7 +20339,7 @@
         <v>195</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>4594</v>
+        <v>4591</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>197</v>
@@ -20365,7 +20365,7 @@
         <v>195</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>4595</v>
+        <v>4592</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>201</v>
@@ -21622,7 +21622,7 @@
         <v>50</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>4652</v>
+        <v>4646</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>44</v>
@@ -21940,7 +21940,7 @@
         <v>298</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>4653</v>
+        <v>4647</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>44</v>
@@ -22258,7 +22258,7 @@
         <v>61</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>4654</v>
+        <v>4648</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>44</v>
@@ -22290,7 +22290,7 @@
         <v>343</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>4655</v>
+        <v>4649</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>44</v>
@@ -23064,7 +23064,7 @@
         <v>63</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>4656</v>
+        <v>4650</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>44</v>
@@ -23096,7 +23096,7 @@
         <v>403</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>4657</v>
+        <v>4651</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>44</v>
@@ -23922,7 +23922,7 @@
         <v>65</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>4658</v>
+        <v>4652</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>44</v>
@@ -24023,10 +24023,10 @@
         <v>415</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>4597</v>
+        <v>5263</v>
       </c>
       <c r="J191" t="s">
-        <v>4598</v>
+        <v>5264</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>9</v>
@@ -24049,10 +24049,10 @@
         <v>415</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>4599</v>
+        <v>4593</v>
       </c>
       <c r="J192" t="s">
-        <v>4600</v>
+        <v>4594</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>9</v>
@@ -24170,7 +24170,7 @@
         <v>415</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>4601</v>
+        <v>4595</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>9</v>
@@ -24193,7 +24193,7 @@
         <v>415</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>4602</v>
+        <v>4596</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>9</v>
@@ -24525,7 +24525,7 @@
         <v>451</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>4659</v>
+        <v>4653</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>155</v>
@@ -24557,7 +24557,7 @@
         <v>978</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>4660</v>
+        <v>4654</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>44</v>
@@ -24684,7 +24684,7 @@
         <v>453</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>4603</v>
+        <v>4597</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>462</v>
@@ -24736,10 +24736,10 @@
         <v>453</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>4604</v>
+        <v>4598</v>
       </c>
       <c r="J219" t="s">
-        <v>4605</v>
+        <v>4599</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>9</v>
@@ -24866,10 +24866,10 @@
         <v>453</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>4606</v>
+        <v>4600</v>
       </c>
       <c r="J224" t="s">
-        <v>4607</v>
+        <v>4601</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>9</v>
@@ -25808,7 +25808,7 @@
         <v>68</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>4661</v>
+        <v>4655</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>44</v>
@@ -25840,7 +25840,7 @@
         <v>727</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>4662</v>
+        <v>4656</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>155</v>
@@ -26045,10 +26045,10 @@
         <v>539</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>4608</v>
+        <v>4602</v>
       </c>
       <c r="J269" t="s">
-        <v>4609</v>
+        <v>4603</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>9</v>
@@ -26351,10 +26351,10 @@
         <v>539</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="J281" t="s">
-        <v>4611</v>
+        <v>4605</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>9</v>
@@ -26657,10 +26657,10 @@
         <v>539</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>4612</v>
+        <v>4606</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>4613</v>
+        <v>4607</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>9</v>
@@ -26963,10 +26963,10 @@
         <v>539</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>4614</v>
+        <v>4608</v>
       </c>
       <c r="J305" t="s">
-        <v>4609</v>
+        <v>4603</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>9</v>
@@ -28482,7 +28482,7 @@
         <v>70</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>4663</v>
+        <v>4657</v>
       </c>
       <c r="K364" s="1" t="s">
         <v>44</v>
@@ -28687,10 +28687,10 @@
         <v>702</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>4615</v>
+        <v>4609</v>
       </c>
       <c r="J372" t="s">
-        <v>4611</v>
+        <v>4605</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>9</v>
@@ -28820,7 +28820,7 @@
         <v>73</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>4664</v>
+        <v>4658</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>44</v>
@@ -29025,10 +29025,10 @@
         <v>714</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>4616</v>
+        <v>4610</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>4613</v>
+        <v>4607</v>
       </c>
       <c r="K385" s="1" t="s">
         <v>9</v>
@@ -29158,7 +29158,7 @@
         <v>75</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>4665</v>
+        <v>4659</v>
       </c>
       <c r="K390" s="1" t="s">
         <v>44</v>
@@ -29190,7 +29190,7 @@
         <v>76</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>4666</v>
+        <v>4660</v>
       </c>
       <c r="K391" s="1" t="s">
         <v>44</v>
@@ -30599,7 +30599,7 @@
         <v>77</v>
       </c>
       <c r="J446" s="1" t="s">
-        <v>4667</v>
+        <v>4661</v>
       </c>
       <c r="K446" s="1" t="s">
         <v>44</v>
@@ -31982,7 +31982,7 @@
         <v>920</v>
       </c>
       <c r="J500" s="1" t="s">
-        <v>4668</v>
+        <v>4662</v>
       </c>
       <c r="K500" s="1" t="s">
         <v>44</v>
@@ -32014,7 +32014,7 @@
         <v>79</v>
       </c>
       <c r="J501" s="1" t="s">
-        <v>4669</v>
+        <v>4663</v>
       </c>
       <c r="K501" s="1" t="s">
         <v>44</v>
@@ -32528,10 +32528,10 @@
         <v>81</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="J521" s="1" t="s">
-        <v>4618</v>
+        <v>4612</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>9</v>
@@ -32710,10 +32710,10 @@
         <v>81</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>4619</v>
+        <v>4613</v>
       </c>
       <c r="J528" s="1" t="s">
-        <v>4620</v>
+        <v>4614</v>
       </c>
       <c r="K528" s="1" t="s">
         <v>9</v>
@@ -33204,7 +33204,7 @@
         <v>81</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>5246</v>
+        <v>5240</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>99</v>
@@ -33230,7 +33230,7 @@
         <v>81</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>5247</v>
+        <v>5241</v>
       </c>
       <c r="J548" s="1" t="s">
         <v>89</v>
@@ -33282,7 +33282,7 @@
         <v>81</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>5248</v>
+        <v>5242</v>
       </c>
       <c r="J550" s="1" t="s">
         <v>99</v>
@@ -33308,7 +33308,7 @@
         <v>81</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>5245</v>
+        <v>5239</v>
       </c>
       <c r="J551" s="1" t="s">
         <v>127</v>
@@ -33369,7 +33369,7 @@
         <v>131</v>
       </c>
       <c r="J553" s="1" t="s">
-        <v>4670</v>
+        <v>4664</v>
       </c>
       <c r="K553" s="1" t="s">
         <v>44</v>
@@ -33401,7 +33401,7 @@
         <v>133</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>4671</v>
+        <v>4665</v>
       </c>
       <c r="K554" s="1" t="s">
         <v>44</v>
@@ -33427,7 +33427,7 @@
         <v>982</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>4621</v>
+        <v>4615</v>
       </c>
       <c r="K555" s="1" t="s">
         <v>9</v>
@@ -33453,7 +33453,7 @@
         <v>984</v>
       </c>
       <c r="J556" s="1" t="s">
-        <v>4622</v>
+        <v>4616</v>
       </c>
       <c r="K556" s="1" t="s">
         <v>9</v>
@@ -33479,7 +33479,7 @@
         <v>985</v>
       </c>
       <c r="J557" s="1" t="s">
-        <v>4623</v>
+        <v>4617</v>
       </c>
       <c r="K557" s="1" t="s">
         <v>9</v>
@@ -33505,7 +33505,7 @@
         <v>986</v>
       </c>
       <c r="J558" s="1" t="s">
-        <v>4624</v>
+        <v>4618</v>
       </c>
       <c r="K558" s="1" t="s">
         <v>9</v>
@@ -33531,7 +33531,7 @@
         <v>987</v>
       </c>
       <c r="J559" s="1" t="s">
-        <v>4625</v>
+        <v>4619</v>
       </c>
       <c r="K559" s="1" t="s">
         <v>9</v>
@@ -33557,7 +33557,7 @@
         <v>988</v>
       </c>
       <c r="J560" s="1" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="K560" s="1" t="s">
         <v>9</v>
@@ -33583,7 +33583,7 @@
         <v>989</v>
       </c>
       <c r="J561" s="1" t="s">
-        <v>4627</v>
+        <v>4621</v>
       </c>
       <c r="K561" s="1" t="s">
         <v>9</v>
@@ -33609,7 +33609,7 @@
         <v>990</v>
       </c>
       <c r="J562" s="1" t="s">
-        <v>4628</v>
+        <v>4622</v>
       </c>
       <c r="K562" s="1" t="s">
         <v>9</v>
@@ -33635,7 +33635,7 @@
         <v>991</v>
       </c>
       <c r="J563" s="1" t="s">
-        <v>4629</v>
+        <v>4623</v>
       </c>
       <c r="K563" s="1" t="s">
         <v>9</v>
@@ -33661,7 +33661,7 @@
         <v>993</v>
       </c>
       <c r="J564" s="1" t="s">
-        <v>4630</v>
+        <v>4624</v>
       </c>
       <c r="K564" s="1" t="s">
         <v>9</v>
@@ -33687,7 +33687,7 @@
         <v>994</v>
       </c>
       <c r="J565" s="1" t="s">
-        <v>4631</v>
+        <v>4625</v>
       </c>
       <c r="K565" s="1" t="s">
         <v>9</v>
@@ -33713,7 +33713,7 @@
         <v>995</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>4632</v>
+        <v>4626</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>9</v>
@@ -33739,7 +33739,7 @@
         <v>996</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>4633</v>
+        <v>4627</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>9</v>
@@ -33765,7 +33765,7 @@
         <v>997</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="K568" s="1" t="s">
         <v>9</v>
@@ -33791,7 +33791,7 @@
         <v>1001</v>
       </c>
       <c r="J569" s="1" t="s">
-        <v>4622</v>
+        <v>4616</v>
       </c>
       <c r="K569" s="1" t="s">
         <v>9</v>
@@ -34395,7 +34395,7 @@
         <v>1047</v>
       </c>
       <c r="J592" s="1" t="s">
-        <v>4672</v>
+        <v>4666</v>
       </c>
       <c r="K592" s="1" t="s">
         <v>44</v>
@@ -35230,7 +35230,7 @@
         <v>1108</v>
       </c>
       <c r="J624" s="1" t="s">
-        <v>4673</v>
+        <v>4667</v>
       </c>
       <c r="K624" s="1" t="s">
         <v>44</v>
@@ -36195,7 +36195,7 @@
         <v>1182</v>
       </c>
       <c r="J661" s="1" t="s">
-        <v>4674</v>
+        <v>4668</v>
       </c>
       <c r="K661" s="1" t="s">
         <v>44</v>
@@ -38616,7 +38616,7 @@
         <v>1357</v>
       </c>
       <c r="J754" s="1" t="s">
-        <v>4675</v>
+        <v>4669</v>
       </c>
       <c r="K754" s="1" t="s">
         <v>155</v>
@@ -39298,7 +39298,7 @@
         <v>1405</v>
       </c>
       <c r="J780" s="1" t="s">
-        <v>4676</v>
+        <v>4670</v>
       </c>
       <c r="K780" s="1" t="s">
         <v>44</v>
@@ -40401,7 +40401,7 @@
         <v>3507</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>1489</v>
@@ -40427,7 +40427,7 @@
         <v>3508</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>1489</v>
@@ -40453,7 +40453,7 @@
         <v>3509</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>1489</v>
@@ -40479,7 +40479,7 @@
         <v>3510</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>1489</v>
@@ -40505,7 +40505,7 @@
         <v>3511</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>1489</v>
@@ -40760,7 +40760,7 @@
         <v>1840</v>
       </c>
       <c r="J836" s="1" t="s">
-        <v>4677</v>
+        <v>4671</v>
       </c>
       <c r="K836" s="1" t="s">
         <v>44</v>
@@ -40792,7 +40792,7 @@
         <v>1843</v>
       </c>
       <c r="J837" s="1" t="s">
-        <v>4678</v>
+        <v>4672</v>
       </c>
       <c r="K837" s="1" t="s">
         <v>44</v>
@@ -41063,7 +41063,7 @@
         <v>3531</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>1500</v>
@@ -41089,7 +41089,7 @@
         <v>3532</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>1500</v>
@@ -41115,7 +41115,7 @@
         <v>3533</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>1500</v>
@@ -41791,7 +41791,7 @@
         <v>3559</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>1500</v>
@@ -41817,7 +41817,7 @@
         <v>3560</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>1500</v>
@@ -41843,7 +41843,7 @@
         <v>3561</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>1500</v>
@@ -41973,7 +41973,7 @@
         <v>3566</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>1500</v>
@@ -41999,7 +41999,7 @@
         <v>3567</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>1500</v>
@@ -42332,7 +42332,7 @@
         <v>1847</v>
       </c>
       <c r="J896" s="1" t="s">
-        <v>4679</v>
+        <v>4673</v>
       </c>
       <c r="K896" s="1" t="s">
         <v>44</v>
@@ -42343,7 +42343,7 @@
         <v>3580</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>1845</v>
@@ -42364,7 +42364,7 @@
         <v>1849</v>
       </c>
       <c r="J897" s="1" t="s">
-        <v>4680</v>
+        <v>4674</v>
       </c>
       <c r="K897" s="1" t="s">
         <v>44</v>
@@ -42375,7 +42375,7 @@
         <v>3581</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>1846</v>
@@ -42396,7 +42396,7 @@
         <v>1848</v>
       </c>
       <c r="J898" s="1" t="s">
-        <v>4681</v>
+        <v>4675</v>
       </c>
       <c r="K898" s="1" t="s">
         <v>44</v>
@@ -42745,7 +42745,7 @@
         <v>3595</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>1607</v>
@@ -42771,7 +42771,7 @@
         <v>3596</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>1607</v>
@@ -42797,7 +42797,7 @@
         <v>3597</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>1607</v>
@@ -42901,7 +42901,7 @@
         <v>3601</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>1850</v>
@@ -42922,7 +42922,7 @@
         <v>1851</v>
       </c>
       <c r="J918" s="1" t="s">
-        <v>4682</v>
+        <v>4676</v>
       </c>
       <c r="K918" s="1" t="s">
         <v>44</v>
@@ -43479,7 +43479,7 @@
         <v>3623</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>1654</v>
@@ -43505,7 +43505,7 @@
         <v>3624</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>1654</v>
@@ -43531,7 +43531,7 @@
         <v>3625</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>1654</v>
@@ -43557,7 +43557,7 @@
         <v>3626</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>1654</v>
@@ -43661,7 +43661,7 @@
         <v>3630</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>1852</v>
@@ -43682,7 +43682,7 @@
         <v>1853</v>
       </c>
       <c r="J947" s="1" t="s">
-        <v>4683</v>
+        <v>4677</v>
       </c>
       <c r="K947" s="1" t="s">
         <v>44</v>
@@ -44057,7 +44057,7 @@
         <v>3645</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C962" s="1" t="s">
         <v>1685</v>
@@ -44187,7 +44187,7 @@
         <v>3650</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C967" s="1" t="s">
         <v>1685</v>
@@ -44317,7 +44317,7 @@
         <v>3655</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C972" s="1" t="s">
         <v>1685</v>
@@ -44343,7 +44343,7 @@
         <v>3656</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>1685</v>
@@ -44369,7 +44369,7 @@
         <v>3657</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>1685</v>
@@ -44494,7 +44494,7 @@
         <v>1855</v>
       </c>
       <c r="J978" s="1" t="s">
-        <v>4684</v>
+        <v>4678</v>
       </c>
       <c r="K978" s="1" t="s">
         <v>44</v>
@@ -46294,7 +46294,7 @@
         <v>1857</v>
       </c>
       <c r="J1047" s="1" t="s">
-        <v>4685</v>
+        <v>4679</v>
       </c>
       <c r="K1047" s="1" t="s">
         <v>44</v>
@@ -46326,7 +46326,7 @@
         <v>1858</v>
       </c>
       <c r="J1048" s="1" t="s">
-        <v>4686</v>
+        <v>4680</v>
       </c>
       <c r="K1048" s="1" t="s">
         <v>44</v>
@@ -46358,7 +46358,7 @@
         <v>1859</v>
       </c>
       <c r="J1049" s="1" t="s">
-        <v>4687</v>
+        <v>4681</v>
       </c>
       <c r="K1049" s="1" t="s">
         <v>44</v>
@@ -46390,7 +46390,7 @@
         <v>1860</v>
       </c>
       <c r="J1050" s="1" t="s">
-        <v>4688</v>
+        <v>4682</v>
       </c>
       <c r="K1050" s="1" t="s">
         <v>44</v>
@@ -46422,7 +46422,7 @@
         <v>1861</v>
       </c>
       <c r="J1051" s="1" t="s">
-        <v>4689</v>
+        <v>4683</v>
       </c>
       <c r="K1051" s="1" t="s">
         <v>44</v>
@@ -46454,7 +46454,7 @@
         <v>1863</v>
       </c>
       <c r="J1052" s="1" t="s">
-        <v>4690</v>
+        <v>4684</v>
       </c>
       <c r="K1052" s="1" t="s">
         <v>44</v>
@@ -46486,7 +46486,7 @@
         <v>1864</v>
       </c>
       <c r="J1053" s="1" t="s">
-        <v>4691</v>
+        <v>4685</v>
       </c>
       <c r="K1053" s="1" t="s">
         <v>44</v>
@@ -46515,7 +46515,7 @@
         <v>1869</v>
       </c>
       <c r="J1054" s="1" t="s">
-        <v>4692</v>
+        <v>4686</v>
       </c>
       <c r="K1054" s="1" t="s">
         <v>44</v>
@@ -46544,7 +46544,7 @@
         <v>1871</v>
       </c>
       <c r="J1055" s="1" t="s">
-        <v>4693</v>
+        <v>4687</v>
       </c>
       <c r="K1055" s="1" t="s">
         <v>44</v>
@@ -46573,7 +46573,7 @@
         <v>1873</v>
       </c>
       <c r="J1056" s="1" t="s">
-        <v>4694</v>
+        <v>4688</v>
       </c>
       <c r="K1056" s="1" t="s">
         <v>44</v>
@@ -46602,7 +46602,7 @@
         <v>1874</v>
       </c>
       <c r="J1057" s="1" t="s">
-        <v>4695</v>
+        <v>4689</v>
       </c>
       <c r="K1057" s="1" t="s">
         <v>44</v>
@@ -46631,7 +46631,7 @@
         <v>1875</v>
       </c>
       <c r="J1058" s="1" t="s">
-        <v>4696</v>
+        <v>4690</v>
       </c>
       <c r="K1058" s="1" t="s">
         <v>44</v>
@@ -46660,7 +46660,7 @@
         <v>1876</v>
       </c>
       <c r="J1059" s="1" t="s">
-        <v>4697</v>
+        <v>4691</v>
       </c>
       <c r="K1059" s="1" t="s">
         <v>44</v>
@@ -46689,7 +46689,7 @@
         <v>1882</v>
       </c>
       <c r="J1060" s="1" t="s">
-        <v>4698</v>
+        <v>4692</v>
       </c>
       <c r="K1060" s="1" t="s">
         <v>44</v>
@@ -46718,7 +46718,7 @@
         <v>1883</v>
       </c>
       <c r="J1061" s="1" t="s">
-        <v>4699</v>
+        <v>4693</v>
       </c>
       <c r="K1061" s="1" t="s">
         <v>44</v>
@@ -46750,7 +46750,7 @@
         <v>1886</v>
       </c>
       <c r="J1062" s="1" t="s">
-        <v>4700</v>
+        <v>4694</v>
       </c>
       <c r="K1062" s="1" t="s">
         <v>44</v>
@@ -46782,7 +46782,7 @@
         <v>1888</v>
       </c>
       <c r="J1063" s="1" t="s">
-        <v>4701</v>
+        <v>4695</v>
       </c>
       <c r="K1063" s="1" t="s">
         <v>44</v>
@@ -46814,7 +46814,7 @@
         <v>1890</v>
       </c>
       <c r="J1064" s="1" t="s">
-        <v>4702</v>
+        <v>4696</v>
       </c>
       <c r="K1064" s="1" t="s">
         <v>44</v>
@@ -46846,7 +46846,7 @@
         <v>1892</v>
       </c>
       <c r="J1065" s="1" t="s">
-        <v>4703</v>
+        <v>4697</v>
       </c>
       <c r="K1065" s="1" t="s">
         <v>44</v>
@@ -46878,7 +46878,7 @@
         <v>1893</v>
       </c>
       <c r="J1066" s="1" t="s">
-        <v>4704</v>
+        <v>4698</v>
       </c>
       <c r="K1066" s="1" t="s">
         <v>44</v>
@@ -46910,7 +46910,7 @@
         <v>1894</v>
       </c>
       <c r="J1067" s="1" t="s">
-        <v>4705</v>
+        <v>4699</v>
       </c>
       <c r="K1067" s="1" t="s">
         <v>44</v>
@@ -46942,7 +46942,7 @@
         <v>1895</v>
       </c>
       <c r="J1068" s="1" t="s">
-        <v>4706</v>
+        <v>4700</v>
       </c>
       <c r="K1068" s="1" t="s">
         <v>44</v>
@@ -46974,7 +46974,7 @@
         <v>1896</v>
       </c>
       <c r="J1069" s="1" t="s">
-        <v>4707</v>
+        <v>4701</v>
       </c>
       <c r="K1069" s="1" t="s">
         <v>44</v>
@@ -47006,7 +47006,7 @@
         <v>1900</v>
       </c>
       <c r="J1070" s="1" t="s">
-        <v>4708</v>
+        <v>4702</v>
       </c>
       <c r="K1070" s="1" t="s">
         <v>44</v>
@@ -47038,7 +47038,7 @@
         <v>1902</v>
       </c>
       <c r="J1071" s="1" t="s">
-        <v>4709</v>
+        <v>4703</v>
       </c>
       <c r="K1071" s="1" t="s">
         <v>155</v>
@@ -47070,7 +47070,7 @@
         <v>1903</v>
       </c>
       <c r="J1072" s="1" t="s">
-        <v>4710</v>
+        <v>4704</v>
       </c>
       <c r="K1072" s="1" t="s">
         <v>155</v>
@@ -47102,7 +47102,7 @@
         <v>1904</v>
       </c>
       <c r="J1073" s="1" t="s">
-        <v>4711</v>
+        <v>4705</v>
       </c>
       <c r="K1073" s="1" t="s">
         <v>155</v>
@@ -47134,7 +47134,7 @@
         <v>1905</v>
       </c>
       <c r="J1074" s="1" t="s">
-        <v>4712</v>
+        <v>4706</v>
       </c>
       <c r="K1074" s="1" t="s">
         <v>155</v>
@@ -47166,7 +47166,7 @@
         <v>1906</v>
       </c>
       <c r="J1075" s="1" t="s">
-        <v>4713</v>
+        <v>4707</v>
       </c>
       <c r="K1075" s="1" t="s">
         <v>155</v>
@@ -47198,7 +47198,7 @@
         <v>1907</v>
       </c>
       <c r="J1076" s="1" t="s">
-        <v>4714</v>
+        <v>4708</v>
       </c>
       <c r="K1076" s="1" t="s">
         <v>155</v>
@@ -47230,7 +47230,7 @@
         <v>1909</v>
       </c>
       <c r="J1077" s="1" t="s">
-        <v>4715</v>
+        <v>4709</v>
       </c>
       <c r="K1077" s="1" t="s">
         <v>44</v>
@@ -47262,7 +47262,7 @@
         <v>1910</v>
       </c>
       <c r="J1078" s="1" t="s">
-        <v>4716</v>
+        <v>4710</v>
       </c>
       <c r="K1078" s="1" t="s">
         <v>44</v>
@@ -47294,7 +47294,7 @@
         <v>1911</v>
       </c>
       <c r="J1079" s="1" t="s">
-        <v>4717</v>
+        <v>4711</v>
       </c>
       <c r="K1079" s="1" t="s">
         <v>44</v>
@@ -47326,7 +47326,7 @@
         <v>1912</v>
       </c>
       <c r="J1080" s="1" t="s">
-        <v>4718</v>
+        <v>4712</v>
       </c>
       <c r="K1080" s="1" t="s">
         <v>44</v>
@@ -47358,7 +47358,7 @@
         <v>1913</v>
       </c>
       <c r="J1081" s="1" t="s">
-        <v>4719</v>
+        <v>4713</v>
       </c>
       <c r="K1081" s="1" t="s">
         <v>44</v>
@@ -47390,7 +47390,7 @@
         <v>1914</v>
       </c>
       <c r="J1082" s="1" t="s">
-        <v>4720</v>
+        <v>4714</v>
       </c>
       <c r="K1082" s="1" t="s">
         <v>44</v>
@@ -47422,7 +47422,7 @@
         <v>1915</v>
       </c>
       <c r="J1083" s="1" t="s">
-        <v>4721</v>
+        <v>4715</v>
       </c>
       <c r="K1083" s="1" t="s">
         <v>44</v>
@@ -47454,7 +47454,7 @@
         <v>1917</v>
       </c>
       <c r="J1084" s="1" t="s">
-        <v>4722</v>
+        <v>4716</v>
       </c>
       <c r="K1084" s="1" t="s">
         <v>44</v>
@@ -47486,7 +47486,7 @@
         <v>1918</v>
       </c>
       <c r="J1085" s="1" t="s">
-        <v>4723</v>
+        <v>4717</v>
       </c>
       <c r="K1085" s="1" t="s">
         <v>44</v>
@@ -47518,7 +47518,7 @@
         <v>1919</v>
       </c>
       <c r="J1086" s="1" t="s">
-        <v>4724</v>
+        <v>4718</v>
       </c>
       <c r="K1086" s="1" t="s">
         <v>44</v>
@@ -47550,7 +47550,7 @@
         <v>1920</v>
       </c>
       <c r="J1087" s="1" t="s">
-        <v>4725</v>
+        <v>4719</v>
       </c>
       <c r="K1087" s="1" t="s">
         <v>44</v>
@@ -47582,7 +47582,7 @@
         <v>1921</v>
       </c>
       <c r="J1088" s="1" t="s">
-        <v>4726</v>
+        <v>4720</v>
       </c>
       <c r="K1088" s="1" t="s">
         <v>44</v>
@@ -47614,7 +47614,7 @@
         <v>1922</v>
       </c>
       <c r="J1089" s="1" t="s">
-        <v>4727</v>
+        <v>4721</v>
       </c>
       <c r="K1089" s="1" t="s">
         <v>44</v>
@@ -47646,7 +47646,7 @@
         <v>1924</v>
       </c>
       <c r="J1090" s="1" t="s">
-        <v>4728</v>
+        <v>4722</v>
       </c>
       <c r="K1090" s="1" t="s">
         <v>155</v>
@@ -47678,7 +47678,7 @@
         <v>1925</v>
       </c>
       <c r="J1091" s="1" t="s">
-        <v>4729</v>
+        <v>4723</v>
       </c>
       <c r="K1091" s="1" t="s">
         <v>155</v>
@@ -47710,7 +47710,7 @@
         <v>1926</v>
       </c>
       <c r="J1092" s="1" t="s">
-        <v>4730</v>
+        <v>4724</v>
       </c>
       <c r="K1092" s="1" t="s">
         <v>155</v>
@@ -47742,7 +47742,7 @@
         <v>1927</v>
       </c>
       <c r="J1093" s="1" t="s">
-        <v>4731</v>
+        <v>4725</v>
       </c>
       <c r="K1093" s="1" t="s">
         <v>155</v>
@@ -47774,7 +47774,7 @@
         <v>1928</v>
       </c>
       <c r="J1094" s="1" t="s">
-        <v>4732</v>
+        <v>4726</v>
       </c>
       <c r="K1094" s="1" t="s">
         <v>155</v>
@@ -47806,7 +47806,7 @@
         <v>1929</v>
       </c>
       <c r="J1095" s="1" t="s">
-        <v>4733</v>
+        <v>4727</v>
       </c>
       <c r="K1095" s="1" t="s">
         <v>155</v>
@@ -47838,7 +47838,7 @@
         <v>1930</v>
       </c>
       <c r="J1096" s="1" t="s">
-        <v>4734</v>
+        <v>4728</v>
       </c>
       <c r="K1096" s="1" t="s">
         <v>155</v>
@@ -47870,7 +47870,7 @@
         <v>1933</v>
       </c>
       <c r="J1097" s="1" t="s">
-        <v>4735</v>
+        <v>4729</v>
       </c>
       <c r="K1097" s="1" t="s">
         <v>44</v>
@@ -47902,7 +47902,7 @@
         <v>1934</v>
       </c>
       <c r="J1098" s="1" t="s">
-        <v>4736</v>
+        <v>4730</v>
       </c>
       <c r="K1098" s="1" t="s">
         <v>44</v>
@@ -47934,7 +47934,7 @@
         <v>1935</v>
       </c>
       <c r="J1099" s="1" t="s">
-        <v>4737</v>
+        <v>4731</v>
       </c>
       <c r="K1099" s="1" t="s">
         <v>44</v>
@@ -47966,7 +47966,7 @@
         <v>1936</v>
       </c>
       <c r="J1100" s="1" t="s">
-        <v>4738</v>
+        <v>4732</v>
       </c>
       <c r="K1100" s="1" t="s">
         <v>44</v>
@@ -47998,7 +47998,7 @@
         <v>1937</v>
       </c>
       <c r="J1101" s="1" t="s">
-        <v>4739</v>
+        <v>4733</v>
       </c>
       <c r="K1101" s="1" t="s">
         <v>44</v>
@@ -48030,7 +48030,7 @@
         <v>1938</v>
       </c>
       <c r="J1102" s="1" t="s">
-        <v>4740</v>
+        <v>4734</v>
       </c>
       <c r="K1102" s="1" t="s">
         <v>44</v>
@@ -48062,7 +48062,7 @@
         <v>1940</v>
       </c>
       <c r="J1103" s="1" t="s">
-        <v>4741</v>
+        <v>4735</v>
       </c>
       <c r="K1103" s="1" t="s">
         <v>155</v>
@@ -48094,7 +48094,7 @@
         <v>1941</v>
       </c>
       <c r="J1104" s="1" t="s">
-        <v>4742</v>
+        <v>4736</v>
       </c>
       <c r="K1104" s="1" t="s">
         <v>155</v>
@@ -48126,7 +48126,7 @@
         <v>1942</v>
       </c>
       <c r="J1105" s="1" t="s">
-        <v>4743</v>
+        <v>4737</v>
       </c>
       <c r="K1105" s="1" t="s">
         <v>155</v>
@@ -48158,7 +48158,7 @@
         <v>1943</v>
       </c>
       <c r="J1106" s="1" t="s">
-        <v>4744</v>
+        <v>4738</v>
       </c>
       <c r="K1106" s="1" t="s">
         <v>155</v>
@@ -48190,7 +48190,7 @@
         <v>1946</v>
       </c>
       <c r="J1107" s="1" t="s">
-        <v>4745</v>
+        <v>4739</v>
       </c>
       <c r="K1107" s="1" t="s">
         <v>44</v>
@@ -48222,7 +48222,7 @@
         <v>1948</v>
       </c>
       <c r="J1108" s="1" t="s">
-        <v>4746</v>
+        <v>4740</v>
       </c>
       <c r="K1108" s="1" t="s">
         <v>44</v>
@@ -48254,7 +48254,7 @@
         <v>1949</v>
       </c>
       <c r="J1109" s="1" t="s">
-        <v>4747</v>
+        <v>4741</v>
       </c>
       <c r="K1109" s="1" t="s">
         <v>44</v>
@@ -48286,7 +48286,7 @@
         <v>1955</v>
       </c>
       <c r="J1110" s="1" t="s">
-        <v>4748</v>
+        <v>4742</v>
       </c>
       <c r="K1110" s="1" t="s">
         <v>44</v>
@@ -48318,7 +48318,7 @@
         <v>1956</v>
       </c>
       <c r="J1111" s="1" t="s">
-        <v>4749</v>
+        <v>4743</v>
       </c>
       <c r="K1111" s="1" t="s">
         <v>44</v>
@@ -48350,7 +48350,7 @@
         <v>1957</v>
       </c>
       <c r="J1112" s="1" t="s">
-        <v>4750</v>
+        <v>4744</v>
       </c>
       <c r="K1112" s="1" t="s">
         <v>44</v>
@@ -48382,7 +48382,7 @@
         <v>1958</v>
       </c>
       <c r="J1113" s="1" t="s">
-        <v>4751</v>
+        <v>4745</v>
       </c>
       <c r="K1113" s="1" t="s">
         <v>44</v>
@@ -48414,7 +48414,7 @@
         <v>1959</v>
       </c>
       <c r="J1114" s="1" t="s">
-        <v>4752</v>
+        <v>4746</v>
       </c>
       <c r="K1114" s="1" t="s">
         <v>44</v>
@@ -48446,7 +48446,7 @@
         <v>1961</v>
       </c>
       <c r="J1115" s="1" t="s">
-        <v>4753</v>
+        <v>4747</v>
       </c>
       <c r="K1115" s="1" t="s">
         <v>44</v>
@@ -48478,7 +48478,7 @@
         <v>1962</v>
       </c>
       <c r="J1116" s="1" t="s">
-        <v>4754</v>
+        <v>4748</v>
       </c>
       <c r="K1116" s="1" t="s">
         <v>44</v>
@@ -48510,7 +48510,7 @@
         <v>1963</v>
       </c>
       <c r="J1117" s="1" t="s">
-        <v>4755</v>
+        <v>4749</v>
       </c>
       <c r="K1117" s="1" t="s">
         <v>44</v>
@@ -48542,7 +48542,7 @@
         <v>1964</v>
       </c>
       <c r="J1118" s="1" t="s">
-        <v>4756</v>
+        <v>4750</v>
       </c>
       <c r="K1118" s="1" t="s">
         <v>44</v>
@@ -48574,7 +48574,7 @@
         <v>1965</v>
       </c>
       <c r="J1119" s="1" t="s">
-        <v>4757</v>
+        <v>4751</v>
       </c>
       <c r="K1119" s="1" t="s">
         <v>44</v>
@@ -48606,7 +48606,7 @@
         <v>2057</v>
       </c>
       <c r="J1120" s="1" t="s">
-        <v>4758</v>
+        <v>4752</v>
       </c>
       <c r="K1120" s="1" t="s">
         <v>44</v>
@@ -48638,7 +48638,7 @@
         <v>1968</v>
       </c>
       <c r="J1121" s="1" t="s">
-        <v>4759</v>
+        <v>4753</v>
       </c>
       <c r="K1121" s="1" t="s">
         <v>44</v>
@@ -48670,7 +48670,7 @@
         <v>1969</v>
       </c>
       <c r="J1122" s="1" t="s">
-        <v>4760</v>
+        <v>4754</v>
       </c>
       <c r="K1122" s="1" t="s">
         <v>44</v>
@@ -48702,7 +48702,7 @@
         <v>1970</v>
       </c>
       <c r="J1123" s="1" t="s">
-        <v>4761</v>
+        <v>4755</v>
       </c>
       <c r="K1123" s="1" t="s">
         <v>44</v>
@@ -48734,7 +48734,7 @@
         <v>1971</v>
       </c>
       <c r="J1124" s="1" t="s">
-        <v>4762</v>
+        <v>4756</v>
       </c>
       <c r="K1124" s="1" t="s">
         <v>44</v>
@@ -48766,7 +48766,7 @@
         <v>1972</v>
       </c>
       <c r="J1125" s="1" t="s">
-        <v>4763</v>
+        <v>4757</v>
       </c>
       <c r="K1125" s="1" t="s">
         <v>44</v>
@@ -48798,7 +48798,7 @@
         <v>1973</v>
       </c>
       <c r="J1126" s="1" t="s">
-        <v>4764</v>
+        <v>4758</v>
       </c>
       <c r="K1126" s="1" t="s">
         <v>44</v>
@@ -48830,7 +48830,7 @@
         <v>1967</v>
       </c>
       <c r="J1127" s="1" t="s">
-        <v>4765</v>
+        <v>4759</v>
       </c>
       <c r="K1127" s="1" t="s">
         <v>44</v>
@@ -48862,7 +48862,7 @@
         <v>1974</v>
       </c>
       <c r="J1128" s="1" t="s">
-        <v>4766</v>
+        <v>4760</v>
       </c>
       <c r="K1128" s="1" t="s">
         <v>155</v>
@@ -48894,7 +48894,7 @@
         <v>1975</v>
       </c>
       <c r="J1129" s="1" t="s">
-        <v>4767</v>
+        <v>4761</v>
       </c>
       <c r="K1129" s="1" t="s">
         <v>155</v>
@@ -48926,7 +48926,7 @@
         <v>1976</v>
       </c>
       <c r="J1130" s="1" t="s">
-        <v>4768</v>
+        <v>4762</v>
       </c>
       <c r="K1130" s="1" t="s">
         <v>155</v>
@@ -48958,7 +48958,7 @@
         <v>1977</v>
       </c>
       <c r="J1131" s="1" t="s">
-        <v>4769</v>
+        <v>4763</v>
       </c>
       <c r="K1131" s="1" t="s">
         <v>155</v>
@@ -48990,7 +48990,7 @@
         <v>1978</v>
       </c>
       <c r="J1132" s="1" t="s">
-        <v>4770</v>
+        <v>4764</v>
       </c>
       <c r="K1132" s="1" t="s">
         <v>155</v>
@@ -49022,7 +49022,7 @@
         <v>1979</v>
       </c>
       <c r="J1133" s="1" t="s">
-        <v>4771</v>
+        <v>4765</v>
       </c>
       <c r="K1133" s="1" t="s">
         <v>155</v>
@@ -49054,7 +49054,7 @@
         <v>1981</v>
       </c>
       <c r="J1134" s="1" t="s">
-        <v>4772</v>
+        <v>4766</v>
       </c>
       <c r="K1134" s="1" t="s">
         <v>155</v>
@@ -49086,7 +49086,7 @@
         <v>1982</v>
       </c>
       <c r="J1135" s="1" t="s">
-        <v>4773</v>
+        <v>4767</v>
       </c>
       <c r="K1135" s="1" t="s">
         <v>155</v>
@@ -49118,7 +49118,7 @@
         <v>1983</v>
       </c>
       <c r="J1136" s="1" t="s">
-        <v>4774</v>
+        <v>4768</v>
       </c>
       <c r="K1136" s="1" t="s">
         <v>155</v>
@@ -49150,7 +49150,7 @@
         <v>1985</v>
       </c>
       <c r="J1137" s="1" t="s">
-        <v>4775</v>
+        <v>4769</v>
       </c>
       <c r="K1137" s="1" t="s">
         <v>44</v>
@@ -49182,7 +49182,7 @@
         <v>1986</v>
       </c>
       <c r="J1138" s="1" t="s">
-        <v>4776</v>
+        <v>4770</v>
       </c>
       <c r="K1138" s="1" t="s">
         <v>44</v>
@@ -49214,7 +49214,7 @@
         <v>1987</v>
       </c>
       <c r="J1139" s="1" t="s">
-        <v>4777</v>
+        <v>4771</v>
       </c>
       <c r="K1139" s="1" t="s">
         <v>44</v>
@@ -49246,7 +49246,7 @@
         <v>1988</v>
       </c>
       <c r="J1140" s="1" t="s">
-        <v>4778</v>
+        <v>4772</v>
       </c>
       <c r="K1140" s="1" t="s">
         <v>44</v>
@@ -49278,7 +49278,7 @@
         <v>1989</v>
       </c>
       <c r="J1141" s="1" t="s">
-        <v>4779</v>
+        <v>4773</v>
       </c>
       <c r="K1141" s="1" t="s">
         <v>44</v>
@@ -49310,7 +49310,7 @@
         <v>1990</v>
       </c>
       <c r="J1142" s="1" t="s">
-        <v>4780</v>
+        <v>4774</v>
       </c>
       <c r="K1142" s="1" t="s">
         <v>44</v>
@@ -49342,7 +49342,7 @@
         <v>1991</v>
       </c>
       <c r="J1143" s="1" t="s">
-        <v>4781</v>
+        <v>4775</v>
       </c>
       <c r="K1143" s="1" t="s">
         <v>44</v>
@@ -49374,7 +49374,7 @@
         <v>2056</v>
       </c>
       <c r="J1144" s="1" t="s">
-        <v>4782</v>
+        <v>4776</v>
       </c>
       <c r="K1144" s="1" t="s">
         <v>44</v>
@@ -49406,7 +49406,7 @@
         <v>1993</v>
       </c>
       <c r="J1145" s="1" t="s">
-        <v>4783</v>
+        <v>4777</v>
       </c>
       <c r="K1145" s="1" t="s">
         <v>44</v>
@@ -49438,7 +49438,7 @@
         <v>1995</v>
       </c>
       <c r="J1146" s="1" t="s">
-        <v>4784</v>
+        <v>4778</v>
       </c>
       <c r="K1146" s="1" t="s">
         <v>155</v>
@@ -49470,7 +49470,7 @@
         <v>1996</v>
       </c>
       <c r="J1147" s="1" t="s">
-        <v>4785</v>
+        <v>4779</v>
       </c>
       <c r="K1147" s="1" t="s">
         <v>155</v>
@@ -49502,7 +49502,7 @@
         <v>1997</v>
       </c>
       <c r="J1148" s="1" t="s">
-        <v>4786</v>
+        <v>4780</v>
       </c>
       <c r="K1148" s="1" t="s">
         <v>155</v>
@@ -49531,7 +49531,7 @@
         <v>1999</v>
       </c>
       <c r="J1149" s="1" t="s">
-        <v>4787</v>
+        <v>4781</v>
       </c>
       <c r="K1149" s="1" t="s">
         <v>44</v>
@@ -49560,7 +49560,7 @@
         <v>2000</v>
       </c>
       <c r="J1150" s="1" t="s">
-        <v>4788</v>
+        <v>4782</v>
       </c>
       <c r="K1150" s="1" t="s">
         <v>44</v>
@@ -49589,7 +49589,7 @@
         <v>2003</v>
       </c>
       <c r="J1151" s="1" t="s">
-        <v>4789</v>
+        <v>4783</v>
       </c>
       <c r="K1151" s="1" t="s">
         <v>44</v>
@@ -49618,7 +49618,7 @@
         <v>2004</v>
       </c>
       <c r="J1152" s="1" t="s">
-        <v>4790</v>
+        <v>4784</v>
       </c>
       <c r="K1152" s="1" t="s">
         <v>155</v>
@@ -49647,7 +49647,7 @@
         <v>2009</v>
       </c>
       <c r="J1153" s="1" t="s">
-        <v>4791</v>
+        <v>4785</v>
       </c>
       <c r="K1153" s="1" t="s">
         <v>155</v>
@@ -49676,7 +49676,7 @@
         <v>2010</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>4792</v>
+        <v>4786</v>
       </c>
       <c r="K1154" s="1" t="s">
         <v>155</v>
@@ -49705,7 +49705,7 @@
         <v>2011</v>
       </c>
       <c r="J1155" s="1" t="s">
-        <v>4793</v>
+        <v>4787</v>
       </c>
       <c r="K1155" s="1" t="s">
         <v>44</v>
@@ -49734,7 +49734,7 @@
         <v>2012</v>
       </c>
       <c r="J1156" s="1" t="s">
-        <v>4794</v>
+        <v>4788</v>
       </c>
       <c r="K1156" s="1" t="s">
         <v>44</v>
@@ -49763,7 +49763,7 @@
         <v>2015</v>
       </c>
       <c r="J1157" s="1" t="s">
-        <v>4795</v>
+        <v>4789</v>
       </c>
       <c r="K1157" s="1" t="s">
         <v>155</v>
@@ -49792,7 +49792,7 @@
         <v>2016</v>
       </c>
       <c r="J1158" s="1" t="s">
-        <v>4796</v>
+        <v>4790</v>
       </c>
       <c r="K1158" s="1" t="s">
         <v>155</v>
@@ -49821,7 +49821,7 @@
         <v>2017</v>
       </c>
       <c r="J1159" s="1" t="s">
-        <v>4797</v>
+        <v>4791</v>
       </c>
       <c r="K1159" s="1" t="s">
         <v>155</v>
@@ -49850,7 +49850,7 @@
         <v>2018</v>
       </c>
       <c r="J1160" s="1" t="s">
-        <v>4798</v>
+        <v>4792</v>
       </c>
       <c r="K1160" s="1" t="s">
         <v>155</v>
@@ -49879,7 +49879,7 @@
         <v>2019</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>4799</v>
+        <v>4793</v>
       </c>
       <c r="K1161" s="1" t="s">
         <v>155</v>
@@ -49908,7 +49908,7 @@
         <v>2020</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>4800</v>
+        <v>4794</v>
       </c>
       <c r="K1162" s="1" t="s">
         <v>155</v>
@@ -49937,7 +49937,7 @@
         <v>2021</v>
       </c>
       <c r="J1163" s="1" t="s">
-        <v>4801</v>
+        <v>4795</v>
       </c>
       <c r="K1163" s="1" t="s">
         <v>155</v>
@@ -49966,7 +49966,7 @@
         <v>2022</v>
       </c>
       <c r="J1164" s="1" t="s">
-        <v>4802</v>
+        <v>4796</v>
       </c>
       <c r="K1164" s="1" t="s">
         <v>155</v>
@@ -49995,7 +49995,7 @@
         <v>2023</v>
       </c>
       <c r="J1165" s="1" t="s">
-        <v>4803</v>
+        <v>4797</v>
       </c>
       <c r="K1165" s="1" t="s">
         <v>155</v>
@@ -50024,7 +50024,7 @@
         <v>2024</v>
       </c>
       <c r="J1166" s="1" t="s">
-        <v>4804</v>
+        <v>4798</v>
       </c>
       <c r="K1166" s="1" t="s">
         <v>155</v>
@@ -50053,7 +50053,7 @@
         <v>2025</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>4805</v>
+        <v>4799</v>
       </c>
       <c r="K1167" s="1" t="s">
         <v>155</v>
@@ -50082,7 +50082,7 @@
         <v>2026</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>4806</v>
+        <v>4800</v>
       </c>
       <c r="K1168" s="1" t="s">
         <v>155</v>
@@ -50111,7 +50111,7 @@
         <v>2027</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>4807</v>
+        <v>4801</v>
       </c>
       <c r="K1169" s="1" t="s">
         <v>44</v>
@@ -50140,7 +50140,7 @@
         <v>2032</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>4808</v>
+        <v>4802</v>
       </c>
       <c r="K1170" s="1" t="s">
         <v>44</v>
@@ -50169,7 +50169,7 @@
         <v>2037</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>4809</v>
+        <v>4803</v>
       </c>
       <c r="K1171" s="1" t="s">
         <v>44</v>
@@ -50198,7 +50198,7 @@
         <v>2042</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>4810</v>
+        <v>4804</v>
       </c>
       <c r="K1172" s="1" t="s">
         <v>44</v>
@@ -50206,7 +50206,7 @@
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1173" s="1" t="s">
-        <v>4636</v>
+        <v>4630</v>
       </c>
       <c r="B1173" s="4" t="s">
         <v>34</v>
@@ -50227,7 +50227,7 @@
         <v>2043</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>4811</v>
+        <v>4805</v>
       </c>
       <c r="K1173" s="1" t="s">
         <v>44</v>
@@ -50247,7 +50247,7 @@
         <v>1885</v>
       </c>
       <c r="F1174" s="1" t="s">
-        <v>4635</v>
+        <v>4629</v>
       </c>
       <c r="H1174" s="1" t="s">
         <v>4202</v>
@@ -50256,7 +50256,7 @@
         <v>2044</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>4812</v>
+        <v>4806</v>
       </c>
       <c r="K1174" s="1" t="s">
         <v>44</v>
@@ -50285,7 +50285,7 @@
         <v>2048</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>4813</v>
+        <v>4807</v>
       </c>
       <c r="K1175" s="1" t="s">
         <v>44</v>
@@ -50314,7 +50314,7 @@
         <v>2049</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>4814</v>
+        <v>4808</v>
       </c>
       <c r="K1176" s="1" t="s">
         <v>44</v>
@@ -50343,7 +50343,7 @@
         <v>2050</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>4815</v>
+        <v>4809</v>
       </c>
       <c r="K1177" s="1" t="s">
         <v>44</v>
@@ -50372,7 +50372,7 @@
         <v>2055</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>4816</v>
+        <v>4810</v>
       </c>
       <c r="K1178" s="1" t="s">
         <v>44</v>
@@ -50401,7 +50401,7 @@
         <v>2054</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>4817</v>
+        <v>4811</v>
       </c>
       <c r="K1179" s="1" t="s">
         <v>44</v>
@@ -50430,7 +50430,7 @@
         <v>2051</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>4818</v>
+        <v>4812</v>
       </c>
       <c r="K1180" s="1" t="s">
         <v>44</v>
@@ -50459,7 +50459,7 @@
         <v>2052</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>4819</v>
+        <v>4813</v>
       </c>
       <c r="K1181" s="1" t="s">
         <v>44</v>
@@ -50488,7 +50488,7 @@
         <v>2053</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>4820</v>
+        <v>4814</v>
       </c>
       <c r="K1182" s="1" t="s">
         <v>44</v>
@@ -50520,7 +50520,7 @@
         <v>2061</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>4821</v>
+        <v>4815</v>
       </c>
       <c r="K1183" s="1" t="s">
         <v>44</v>
@@ -50552,7 +50552,7 @@
         <v>2062</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>4822</v>
+        <v>4816</v>
       </c>
       <c r="K1184" s="1" t="s">
         <v>44</v>
@@ -50584,7 +50584,7 @@
         <v>2063</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>4823</v>
+        <v>4817</v>
       </c>
       <c r="K1185" s="1" t="s">
         <v>44</v>
@@ -50616,7 +50616,7 @@
         <v>2066</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>4824</v>
+        <v>4818</v>
       </c>
       <c r="K1186" s="1" t="s">
         <v>44</v>
@@ -50648,7 +50648,7 @@
         <v>2067</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>4825</v>
+        <v>4819</v>
       </c>
       <c r="K1187" s="1" t="s">
         <v>44</v>
@@ -50680,7 +50680,7 @@
         <v>2068</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>4826</v>
+        <v>4820</v>
       </c>
       <c r="K1188" s="1" t="s">
         <v>44</v>
@@ -50712,7 +50712,7 @@
         <v>2069</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>4827</v>
+        <v>4821</v>
       </c>
       <c r="K1189" s="1" t="s">
         <v>44</v>
@@ -50744,7 +50744,7 @@
         <v>2070</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>4828</v>
+        <v>4822</v>
       </c>
       <c r="K1190" s="1" t="s">
         <v>44</v>
@@ -50776,7 +50776,7 @@
         <v>2071</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>4829</v>
+        <v>4823</v>
       </c>
       <c r="K1191" s="1" t="s">
         <v>44</v>
@@ -50808,7 +50808,7 @@
         <v>2072</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>4830</v>
+        <v>4824</v>
       </c>
       <c r="K1192" s="1" t="s">
         <v>44</v>
@@ -50840,7 +50840,7 @@
         <v>2073</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>4831</v>
+        <v>4825</v>
       </c>
       <c r="K1193" s="1" t="s">
         <v>44</v>
@@ -50872,7 +50872,7 @@
         <v>2074</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>4832</v>
+        <v>4826</v>
       </c>
       <c r="K1194" s="1" t="s">
         <v>44</v>
@@ -50904,7 +50904,7 @@
         <v>2075</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>4833</v>
+        <v>4827</v>
       </c>
       <c r="K1195" s="1" t="s">
         <v>44</v>
@@ -50936,7 +50936,7 @@
         <v>2076</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>4834</v>
+        <v>4828</v>
       </c>
       <c r="K1196" s="1" t="s">
         <v>44</v>
@@ -50968,7 +50968,7 @@
         <v>2077</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>4835</v>
+        <v>4829</v>
       </c>
       <c r="K1197" s="1" t="s">
         <v>44</v>
@@ -51000,7 +51000,7 @@
         <v>2078</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>4836</v>
+        <v>4830</v>
       </c>
       <c r="K1198" s="1" t="s">
         <v>44</v>
@@ -51032,7 +51032,7 @@
         <v>2079</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>4837</v>
+        <v>4831</v>
       </c>
       <c r="K1199" s="1" t="s">
         <v>44</v>
@@ -51064,7 +51064,7 @@
         <v>2080</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>4838</v>
+        <v>4832</v>
       </c>
       <c r="K1200" s="1" t="s">
         <v>44</v>
@@ -51096,7 +51096,7 @@
         <v>2081</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>4839</v>
+        <v>4833</v>
       </c>
       <c r="K1201" s="1" t="s">
         <v>44</v>
@@ -51128,7 +51128,7 @@
         <v>2082</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>4840</v>
+        <v>4834</v>
       </c>
       <c r="K1202" s="1" t="s">
         <v>44</v>
@@ -51160,7 +51160,7 @@
         <v>2083</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>4841</v>
+        <v>4835</v>
       </c>
       <c r="K1203" s="1" t="s">
         <v>44</v>
@@ -51192,7 +51192,7 @@
         <v>2084</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>4842</v>
+        <v>4836</v>
       </c>
       <c r="K1204" s="1" t="s">
         <v>44</v>
@@ -51224,7 +51224,7 @@
         <v>2085</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>4843</v>
+        <v>4837</v>
       </c>
       <c r="K1205" s="1" t="s">
         <v>44</v>
@@ -51256,7 +51256,7 @@
         <v>2086</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>4844</v>
+        <v>4838</v>
       </c>
       <c r="K1206" s="1" t="s">
         <v>44</v>
@@ -51288,7 +51288,7 @@
         <v>2087</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>4845</v>
+        <v>4839</v>
       </c>
       <c r="K1207" s="1" t="s">
         <v>44</v>
@@ -51320,7 +51320,7 @@
         <v>2088</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>4846</v>
+        <v>4840</v>
       </c>
       <c r="K1208" s="1" t="s">
         <v>44</v>
@@ -51352,7 +51352,7 @@
         <v>2089</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="K1209" s="1" t="s">
         <v>44</v>
@@ -51384,7 +51384,7 @@
         <v>2090</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="K1210" s="1" t="s">
         <v>44</v>
@@ -51416,7 +51416,7 @@
         <v>2091</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>4849</v>
+        <v>4843</v>
       </c>
       <c r="K1211" s="1" t="s">
         <v>44</v>
@@ -51448,7 +51448,7 @@
         <v>2092</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>4850</v>
+        <v>4844</v>
       </c>
       <c r="K1212" s="1" t="s">
         <v>44</v>
@@ -51480,7 +51480,7 @@
         <v>2093</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>4851</v>
+        <v>4845</v>
       </c>
       <c r="K1213" s="1" t="s">
         <v>44</v>
@@ -51512,7 +51512,7 @@
         <v>2094</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>4852</v>
+        <v>4846</v>
       </c>
       <c r="K1214" s="1" t="s">
         <v>44</v>
@@ -51544,7 +51544,7 @@
         <v>2095</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>4853</v>
+        <v>4847</v>
       </c>
       <c r="K1215" s="1" t="s">
         <v>44</v>
@@ -51576,7 +51576,7 @@
         <v>2096</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>4854</v>
+        <v>4848</v>
       </c>
       <c r="K1216" s="1" t="s">
         <v>44</v>
@@ -51608,7 +51608,7 @@
         <v>2097</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>4855</v>
+        <v>4849</v>
       </c>
       <c r="K1217" s="1" t="s">
         <v>44</v>
@@ -51640,7 +51640,7 @@
         <v>2098</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>4856</v>
+        <v>4850</v>
       </c>
       <c r="K1218" s="1" t="s">
         <v>44</v>
@@ -51672,7 +51672,7 @@
         <v>2099</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>4857</v>
+        <v>4851</v>
       </c>
       <c r="K1219" s="1" t="s">
         <v>44</v>
@@ -51704,7 +51704,7 @@
         <v>2100</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>4858</v>
+        <v>4852</v>
       </c>
       <c r="K1220" s="1" t="s">
         <v>44</v>
@@ -51736,7 +51736,7 @@
         <v>2101</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>4859</v>
+        <v>4853</v>
       </c>
       <c r="K1221" s="1" t="s">
         <v>44</v>
@@ -51768,7 +51768,7 @@
         <v>2102</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>4860</v>
+        <v>4854</v>
       </c>
       <c r="K1222" s="1" t="s">
         <v>44</v>
@@ -51800,7 +51800,7 @@
         <v>2103</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>4861</v>
+        <v>4855</v>
       </c>
       <c r="K1223" s="1" t="s">
         <v>44</v>
@@ -51832,7 +51832,7 @@
         <v>2104</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>4862</v>
+        <v>4856</v>
       </c>
       <c r="K1224" s="1" t="s">
         <v>44</v>
@@ -51864,7 +51864,7 @@
         <v>2105</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>4863</v>
+        <v>4857</v>
       </c>
       <c r="K1225" s="1" t="s">
         <v>44</v>
@@ -51896,7 +51896,7 @@
         <v>2106</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>4864</v>
+        <v>4858</v>
       </c>
       <c r="K1226" s="1" t="s">
         <v>44</v>
@@ -51928,7 +51928,7 @@
         <v>2107</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>4865</v>
+        <v>4859</v>
       </c>
       <c r="K1227" s="1" t="s">
         <v>44</v>
@@ -51960,7 +51960,7 @@
         <v>2108</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>4866</v>
+        <v>4860</v>
       </c>
       <c r="K1228" s="1" t="s">
         <v>44</v>
@@ -51992,7 +51992,7 @@
         <v>2109</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>4867</v>
+        <v>4861</v>
       </c>
       <c r="K1229" s="1" t="s">
         <v>44</v>
@@ -52024,7 +52024,7 @@
         <v>2110</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>4868</v>
+        <v>4862</v>
       </c>
       <c r="K1230" s="1" t="s">
         <v>44</v>
@@ -52056,7 +52056,7 @@
         <v>2111</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>4869</v>
+        <v>4863</v>
       </c>
       <c r="K1231" s="1" t="s">
         <v>44</v>
@@ -52088,7 +52088,7 @@
         <v>2112</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>4870</v>
+        <v>4864</v>
       </c>
       <c r="K1232" s="1" t="s">
         <v>44</v>
@@ -52120,7 +52120,7 @@
         <v>2113</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>4871</v>
+        <v>4865</v>
       </c>
       <c r="K1233" s="1" t="s">
         <v>44</v>
@@ -52152,7 +52152,7 @@
         <v>2114</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>4872</v>
+        <v>4866</v>
       </c>
       <c r="K1234" s="1" t="s">
         <v>44</v>
@@ -52184,7 +52184,7 @@
         <v>2115</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>4873</v>
+        <v>4867</v>
       </c>
       <c r="K1235" s="1" t="s">
         <v>44</v>
@@ -52216,7 +52216,7 @@
         <v>2185</v>
       </c>
       <c r="J1236" s="1" t="s">
-        <v>4874</v>
+        <v>4868</v>
       </c>
       <c r="K1236" s="1" t="s">
         <v>44</v>
@@ -52248,7 +52248,7 @@
         <v>2116</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>4875</v>
+        <v>4869</v>
       </c>
       <c r="K1237" s="1" t="s">
         <v>44</v>
@@ -52280,7 +52280,7 @@
         <v>2117</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>4876</v>
+        <v>4870</v>
       </c>
       <c r="K1238" s="1" t="s">
         <v>44</v>
@@ -52312,7 +52312,7 @@
         <v>2118</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>4877</v>
+        <v>4871</v>
       </c>
       <c r="K1239" s="1" t="s">
         <v>44</v>
@@ -52344,7 +52344,7 @@
         <v>2119</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>4878</v>
+        <v>4872</v>
       </c>
       <c r="K1240" s="1" t="s">
         <v>44</v>
@@ -52376,7 +52376,7 @@
         <v>2120</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>4879</v>
+        <v>4873</v>
       </c>
       <c r="K1241" s="1" t="s">
         <v>44</v>
@@ -52408,7 +52408,7 @@
         <v>2121</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>4880</v>
+        <v>4874</v>
       </c>
       <c r="K1242" s="1" t="s">
         <v>44</v>
@@ -52440,7 +52440,7 @@
         <v>2122</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>4881</v>
+        <v>4875</v>
       </c>
       <c r="K1243" s="1" t="s">
         <v>44</v>
@@ -52472,7 +52472,7 @@
         <v>2123</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>4882</v>
+        <v>4876</v>
       </c>
       <c r="K1244" s="1" t="s">
         <v>44</v>
@@ -52504,7 +52504,7 @@
         <v>2124</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>4883</v>
+        <v>4877</v>
       </c>
       <c r="K1245" s="1" t="s">
         <v>44</v>
@@ -52536,7 +52536,7 @@
         <v>2125</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>4884</v>
+        <v>4878</v>
       </c>
       <c r="K1246" s="1" t="s">
         <v>44</v>
@@ -52568,7 +52568,7 @@
         <v>2126</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>4885</v>
+        <v>4879</v>
       </c>
       <c r="K1247" s="1" t="s">
         <v>44</v>
@@ -52600,7 +52600,7 @@
         <v>2127</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>4886</v>
+        <v>4880</v>
       </c>
       <c r="K1248" s="1" t="s">
         <v>44</v>
@@ -52632,7 +52632,7 @@
         <v>2128</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>4887</v>
+        <v>4881</v>
       </c>
       <c r="K1249" s="1" t="s">
         <v>44</v>
@@ -52664,7 +52664,7 @@
         <v>2129</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>4888</v>
+        <v>4882</v>
       </c>
       <c r="K1250" s="1" t="s">
         <v>44</v>
@@ -52696,7 +52696,7 @@
         <v>2130</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>4889</v>
+        <v>4883</v>
       </c>
       <c r="K1251" s="1" t="s">
         <v>44</v>
@@ -52728,7 +52728,7 @@
         <v>2135</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>4890</v>
+        <v>4884</v>
       </c>
       <c r="K1252" s="1" t="s">
         <v>44</v>
@@ -52760,7 +52760,7 @@
         <v>2136</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>4891</v>
+        <v>4885</v>
       </c>
       <c r="K1253" s="1" t="s">
         <v>44</v>
@@ -52792,7 +52792,7 @@
         <v>2137</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>4892</v>
+        <v>4886</v>
       </c>
       <c r="K1254" s="1" t="s">
         <v>44</v>
@@ -52824,7 +52824,7 @@
         <v>2138</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>4893</v>
+        <v>4887</v>
       </c>
       <c r="K1255" s="1" t="s">
         <v>44</v>
@@ -52856,7 +52856,7 @@
         <v>2139</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>4894</v>
+        <v>4888</v>
       </c>
       <c r="K1256" s="1" t="s">
         <v>44</v>
@@ -52888,7 +52888,7 @@
         <v>2140</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>4895</v>
+        <v>4889</v>
       </c>
       <c r="K1257" s="1" t="s">
         <v>44</v>
@@ -52920,7 +52920,7 @@
         <v>2141</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>4896</v>
+        <v>4890</v>
       </c>
       <c r="K1258" s="1" t="s">
         <v>44</v>
@@ -52952,7 +52952,7 @@
         <v>2142</v>
       </c>
       <c r="J1259" s="1" t="s">
-        <v>4897</v>
+        <v>4891</v>
       </c>
       <c r="K1259" s="1" t="s">
         <v>44</v>
@@ -52984,7 +52984,7 @@
         <v>2143</v>
       </c>
       <c r="J1260" s="1" t="s">
-        <v>4898</v>
+        <v>4892</v>
       </c>
       <c r="K1260" s="1" t="s">
         <v>44</v>
@@ -53013,7 +53013,7 @@
         <v>2144</v>
       </c>
       <c r="J1261" s="1" t="s">
-        <v>4899</v>
+        <v>4893</v>
       </c>
       <c r="K1261" s="1" t="s">
         <v>44</v>
@@ -53042,7 +53042,7 @@
         <v>2145</v>
       </c>
       <c r="J1262" s="1" t="s">
-        <v>4900</v>
+        <v>4894</v>
       </c>
       <c r="K1262" s="1" t="s">
         <v>44</v>
@@ -53071,7 +53071,7 @@
         <v>2146</v>
       </c>
       <c r="J1263" s="1" t="s">
-        <v>4901</v>
+        <v>4895</v>
       </c>
       <c r="K1263" s="1" t="s">
         <v>44</v>
@@ -53100,7 +53100,7 @@
         <v>2147</v>
       </c>
       <c r="J1264" s="1" t="s">
-        <v>4902</v>
+        <v>4896</v>
       </c>
       <c r="K1264" s="1" t="s">
         <v>44</v>
@@ -53129,7 +53129,7 @@
         <v>2148</v>
       </c>
       <c r="J1265" s="1" t="s">
-        <v>4903</v>
+        <v>4897</v>
       </c>
       <c r="K1265" s="1" t="s">
         <v>44</v>
@@ -53158,7 +53158,7 @@
         <v>2149</v>
       </c>
       <c r="J1266" s="1" t="s">
-        <v>4904</v>
+        <v>4898</v>
       </c>
       <c r="K1266" s="1" t="s">
         <v>44</v>
@@ -53187,7 +53187,7 @@
         <v>2150</v>
       </c>
       <c r="J1267" s="1" t="s">
-        <v>4905</v>
+        <v>4899</v>
       </c>
       <c r="K1267" s="1" t="s">
         <v>44</v>
@@ -53216,7 +53216,7 @@
         <v>2151</v>
       </c>
       <c r="J1268" s="1" t="s">
-        <v>4906</v>
+        <v>4900</v>
       </c>
       <c r="K1268" s="1" t="s">
         <v>44</v>
@@ -53245,7 +53245,7 @@
         <v>2152</v>
       </c>
       <c r="J1269" s="1" t="s">
-        <v>4907</v>
+        <v>4901</v>
       </c>
       <c r="K1269" s="1" t="s">
         <v>44</v>
@@ -53274,7 +53274,7 @@
         <v>2153</v>
       </c>
       <c r="J1270" s="1" t="s">
-        <v>4908</v>
+        <v>4902</v>
       </c>
       <c r="K1270" s="1" t="s">
         <v>44</v>
@@ -53303,7 +53303,7 @@
         <v>2154</v>
       </c>
       <c r="J1271" s="1" t="s">
-        <v>4909</v>
+        <v>4903</v>
       </c>
       <c r="K1271" s="1" t="s">
         <v>44</v>
@@ -53332,7 +53332,7 @@
         <v>2155</v>
       </c>
       <c r="J1272" s="1" t="s">
-        <v>4910</v>
+        <v>4904</v>
       </c>
       <c r="K1272" s="1" t="s">
         <v>44</v>
@@ -53361,7 +53361,7 @@
         <v>2156</v>
       </c>
       <c r="J1273" s="1" t="s">
-        <v>4911</v>
+        <v>4905</v>
       </c>
       <c r="K1273" s="1" t="s">
         <v>44</v>
@@ -53390,7 +53390,7 @@
         <v>2157</v>
       </c>
       <c r="J1274" s="1" t="s">
-        <v>4912</v>
+        <v>4906</v>
       </c>
       <c r="K1274" s="1" t="s">
         <v>44</v>
@@ -53419,7 +53419,7 @@
         <v>2186</v>
       </c>
       <c r="J1275" s="1" t="s">
-        <v>4913</v>
+        <v>4907</v>
       </c>
       <c r="K1275" s="1" t="s">
         <v>44</v>
@@ -53448,7 +53448,7 @@
         <v>2158</v>
       </c>
       <c r="J1276" s="1" t="s">
-        <v>4914</v>
+        <v>4908</v>
       </c>
       <c r="K1276" s="1" t="s">
         <v>44</v>
@@ -53477,7 +53477,7 @@
         <v>2159</v>
       </c>
       <c r="J1277" s="1" t="s">
-        <v>4915</v>
+        <v>4909</v>
       </c>
       <c r="K1277" s="1" t="s">
         <v>44</v>
@@ -53506,7 +53506,7 @@
         <v>2160</v>
       </c>
       <c r="J1278" s="1" t="s">
-        <v>4916</v>
+        <v>4910</v>
       </c>
       <c r="K1278" s="1" t="s">
         <v>44</v>
@@ -53535,7 +53535,7 @@
         <v>2161</v>
       </c>
       <c r="J1279" s="1" t="s">
-        <v>4917</v>
+        <v>4911</v>
       </c>
       <c r="K1279" s="1" t="s">
         <v>44</v>
@@ -53564,7 +53564,7 @@
         <v>2162</v>
       </c>
       <c r="J1280" s="1" t="s">
-        <v>4918</v>
+        <v>4912</v>
       </c>
       <c r="K1280" s="1" t="s">
         <v>44</v>
@@ -53593,7 +53593,7 @@
         <v>2163</v>
       </c>
       <c r="J1281" s="1" t="s">
-        <v>4919</v>
+        <v>4913</v>
       </c>
       <c r="K1281" s="1" t="s">
         <v>44</v>
@@ -53622,7 +53622,7 @@
         <v>2164</v>
       </c>
       <c r="J1282" s="1" t="s">
-        <v>4920</v>
+        <v>4914</v>
       </c>
       <c r="K1282" s="1" t="s">
         <v>44</v>
@@ -53651,7 +53651,7 @@
         <v>2165</v>
       </c>
       <c r="J1283" s="1" t="s">
-        <v>4921</v>
+        <v>4915</v>
       </c>
       <c r="K1283" s="1" t="s">
         <v>44</v>
@@ -53680,7 +53680,7 @@
         <v>2166</v>
       </c>
       <c r="J1284" s="1" t="s">
-        <v>4922</v>
+        <v>4916</v>
       </c>
       <c r="K1284" s="1" t="s">
         <v>44</v>
@@ -53709,7 +53709,7 @@
         <v>2167</v>
       </c>
       <c r="J1285" s="1" t="s">
-        <v>4923</v>
+        <v>4917</v>
       </c>
       <c r="K1285" s="1" t="s">
         <v>44</v>
@@ -53738,7 +53738,7 @@
         <v>2168</v>
       </c>
       <c r="J1286" s="1" t="s">
-        <v>4924</v>
+        <v>4918</v>
       </c>
       <c r="K1286" s="1" t="s">
         <v>44</v>
@@ -53767,7 +53767,7 @@
         <v>2169</v>
       </c>
       <c r="J1287" s="1" t="s">
-        <v>4925</v>
+        <v>4919</v>
       </c>
       <c r="K1287" s="1" t="s">
         <v>44</v>
@@ -53796,7 +53796,7 @@
         <v>2170</v>
       </c>
       <c r="J1288" s="1" t="s">
-        <v>4926</v>
+        <v>4920</v>
       </c>
       <c r="K1288" s="1" t="s">
         <v>44</v>
@@ -53825,7 +53825,7 @@
         <v>2187</v>
       </c>
       <c r="J1289" s="1" t="s">
-        <v>4927</v>
+        <v>4921</v>
       </c>
       <c r="K1289" s="1" t="s">
         <v>44</v>
@@ -53854,7 +53854,7 @@
         <v>2174</v>
       </c>
       <c r="J1290" s="1" t="s">
-        <v>4928</v>
+        <v>4922</v>
       </c>
       <c r="K1290" s="1" t="s">
         <v>44</v>
@@ -53883,7 +53883,7 @@
         <v>2175</v>
       </c>
       <c r="J1291" s="1" t="s">
-        <v>4929</v>
+        <v>4923</v>
       </c>
       <c r="K1291" s="1" t="s">
         <v>44</v>
@@ -53912,7 +53912,7 @@
         <v>2177</v>
       </c>
       <c r="J1292" s="1" t="s">
-        <v>4930</v>
+        <v>4924</v>
       </c>
       <c r="K1292" s="1" t="s">
         <v>44</v>
@@ -53941,7 +53941,7 @@
         <v>2178</v>
       </c>
       <c r="J1293" s="1" t="s">
-        <v>4931</v>
+        <v>4925</v>
       </c>
       <c r="K1293" s="1" t="s">
         <v>44</v>
@@ -53970,7 +53970,7 @@
         <v>2179</v>
       </c>
       <c r="J1294" s="1" t="s">
-        <v>4932</v>
+        <v>4926</v>
       </c>
       <c r="K1294" s="1" t="s">
         <v>44</v>
@@ -53999,7 +53999,7 @@
         <v>2200</v>
       </c>
       <c r="J1295" s="1" t="s">
-        <v>4933</v>
+        <v>4927</v>
       </c>
       <c r="K1295" s="1" t="s">
         <v>44</v>
@@ -54028,7 +54028,7 @@
         <v>2188</v>
       </c>
       <c r="J1296" s="1" t="s">
-        <v>4934</v>
+        <v>4928</v>
       </c>
       <c r="K1296" s="1" t="s">
         <v>44</v>
@@ -54057,7 +54057,7 @@
         <v>2189</v>
       </c>
       <c r="J1297" s="1" t="s">
-        <v>4935</v>
+        <v>4929</v>
       </c>
       <c r="K1297" s="1" t="s">
         <v>44</v>
@@ -54086,7 +54086,7 @@
         <v>2190</v>
       </c>
       <c r="J1298" s="1" t="s">
-        <v>4936</v>
+        <v>4930</v>
       </c>
       <c r="K1298" s="1" t="s">
         <v>44</v>
@@ -54115,7 +54115,7 @@
         <v>2191</v>
       </c>
       <c r="J1299" s="1" t="s">
-        <v>4937</v>
+        <v>4931</v>
       </c>
       <c r="K1299" s="1" t="s">
         <v>44</v>
@@ -54144,7 +54144,7 @@
         <v>2192</v>
       </c>
       <c r="J1300" s="1" t="s">
-        <v>4938</v>
+        <v>4932</v>
       </c>
       <c r="K1300" s="1" t="s">
         <v>155</v>
@@ -54173,7 +54173,7 @@
         <v>2193</v>
       </c>
       <c r="J1301" s="1" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1301" s="1" t="s">
         <v>155</v>
@@ -54202,7 +54202,7 @@
         <v>2194</v>
       </c>
       <c r="J1302" s="1" t="s">
-        <v>4940</v>
+        <v>4934</v>
       </c>
       <c r="K1302" s="1" t="s">
         <v>155</v>
@@ -54231,7 +54231,7 @@
         <v>2195</v>
       </c>
       <c r="J1303" s="1" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
       <c r="K1303" s="1" t="s">
         <v>155</v>
@@ -54260,7 +54260,7 @@
         <v>2196</v>
       </c>
       <c r="J1304" s="1" t="s">
-        <v>4942</v>
+        <v>4936</v>
       </c>
       <c r="K1304" s="1" t="s">
         <v>155</v>
@@ -54289,7 +54289,7 @@
         <v>2197</v>
       </c>
       <c r="J1305" s="1" t="s">
-        <v>4943</v>
+        <v>4937</v>
       </c>
       <c r="K1305" s="1" t="s">
         <v>155</v>
@@ -54318,7 +54318,7 @@
         <v>2198</v>
       </c>
       <c r="J1306" s="1" t="s">
-        <v>4944</v>
+        <v>4938</v>
       </c>
       <c r="K1306" s="1" t="s">
         <v>155</v>
@@ -54347,7 +54347,7 @@
         <v>2199</v>
       </c>
       <c r="J1307" s="1" t="s">
-        <v>4945</v>
+        <v>4939</v>
       </c>
       <c r="K1307" s="1" t="s">
         <v>155</v>
@@ -54379,7 +54379,7 @@
         <v>2220</v>
       </c>
       <c r="J1308" s="1" t="s">
-        <v>4946</v>
+        <v>4940</v>
       </c>
       <c r="K1308" s="1" t="s">
         <v>44</v>
@@ -54411,7 +54411,7 @@
         <v>2221</v>
       </c>
       <c r="J1309" s="1" t="s">
-        <v>4947</v>
+        <v>4941</v>
       </c>
       <c r="K1309" s="1" t="s">
         <v>44</v>
@@ -54443,7 +54443,7 @@
         <v>2222</v>
       </c>
       <c r="J1310" s="1" t="s">
-        <v>4948</v>
+        <v>4942</v>
       </c>
       <c r="K1310" s="1" t="s">
         <v>44</v>
@@ -54475,7 +54475,7 @@
         <v>2223</v>
       </c>
       <c r="J1311" s="1" t="s">
-        <v>4949</v>
+        <v>4943</v>
       </c>
       <c r="K1311" s="1" t="s">
         <v>44</v>
@@ -54507,7 +54507,7 @@
         <v>2224</v>
       </c>
       <c r="J1312" s="1" t="s">
-        <v>4950</v>
+        <v>4944</v>
       </c>
       <c r="K1312" s="1" t="s">
         <v>44</v>
@@ -54539,7 +54539,7 @@
         <v>2225</v>
       </c>
       <c r="J1313" s="1" t="s">
-        <v>4951</v>
+        <v>4945</v>
       </c>
       <c r="K1313" s="1" t="s">
         <v>44</v>
@@ -54571,7 +54571,7 @@
         <v>2226</v>
       </c>
       <c r="J1314" s="1" t="s">
-        <v>4952</v>
+        <v>4946</v>
       </c>
       <c r="K1314" s="1" t="s">
         <v>44</v>
@@ -54603,7 +54603,7 @@
         <v>2227</v>
       </c>
       <c r="J1315" s="1" t="s">
-        <v>4953</v>
+        <v>4947</v>
       </c>
       <c r="K1315" s="1" t="s">
         <v>44</v>
@@ -54635,7 +54635,7 @@
         <v>2315</v>
       </c>
       <c r="J1316" s="1" t="s">
-        <v>4954</v>
+        <v>4948</v>
       </c>
       <c r="K1316" s="1" t="s">
         <v>44</v>
@@ -54667,7 +54667,7 @@
         <v>2316</v>
       </c>
       <c r="J1317" s="1" t="s">
-        <v>4955</v>
+        <v>4949</v>
       </c>
       <c r="K1317" s="1" t="s">
         <v>44</v>
@@ -54699,7 +54699,7 @@
         <v>2228</v>
       </c>
       <c r="J1318" s="1" t="s">
-        <v>4956</v>
+        <v>4950</v>
       </c>
       <c r="K1318" s="1" t="s">
         <v>44</v>
@@ -54731,7 +54731,7 @@
         <v>2317</v>
       </c>
       <c r="J1319" s="1" t="s">
-        <v>4957</v>
+        <v>4951</v>
       </c>
       <c r="K1319" s="1" t="s">
         <v>44</v>
@@ -54763,7 +54763,7 @@
         <v>2229</v>
       </c>
       <c r="J1320" s="1" t="s">
-        <v>4958</v>
+        <v>4952</v>
       </c>
       <c r="K1320" s="1" t="s">
         <v>44</v>
@@ -54795,7 +54795,7 @@
         <v>2230</v>
       </c>
       <c r="J1321" s="1" t="s">
-        <v>4959</v>
+        <v>4953</v>
       </c>
       <c r="K1321" s="1" t="s">
         <v>44</v>
@@ -54827,7 +54827,7 @@
         <v>2231</v>
       </c>
       <c r="J1322" s="1" t="s">
-        <v>4960</v>
+        <v>4954</v>
       </c>
       <c r="K1322" s="1" t="s">
         <v>44</v>
@@ -54859,7 +54859,7 @@
         <v>2366</v>
       </c>
       <c r="J1323" s="1" t="s">
-        <v>4961</v>
+        <v>4955</v>
       </c>
       <c r="K1323" s="1" t="s">
         <v>44</v>
@@ -54891,7 +54891,7 @@
         <v>2324</v>
       </c>
       <c r="J1324" s="1" t="s">
-        <v>4962</v>
+        <v>4956</v>
       </c>
       <c r="K1324" s="1" t="s">
         <v>44</v>
@@ -54923,7 +54923,7 @@
         <v>2325</v>
       </c>
       <c r="J1325" s="1" t="s">
-        <v>4963</v>
+        <v>4957</v>
       </c>
       <c r="K1325" s="1" t="s">
         <v>44</v>
@@ -54955,7 +54955,7 @@
         <v>2321</v>
       </c>
       <c r="J1326" s="1" t="s">
-        <v>4964</v>
+        <v>4958</v>
       </c>
       <c r="K1326" s="1" t="s">
         <v>44</v>
@@ -54987,7 +54987,7 @@
         <v>2240</v>
       </c>
       <c r="J1327" s="1" t="s">
-        <v>4965</v>
+        <v>4959</v>
       </c>
       <c r="K1327" s="1" t="s">
         <v>44</v>
@@ -55019,7 +55019,7 @@
         <v>2241</v>
       </c>
       <c r="J1328" s="1" t="s">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="K1328" s="1" t="s">
         <v>44</v>
@@ -55051,7 +55051,7 @@
         <v>2245</v>
       </c>
       <c r="J1329" s="1" t="s">
-        <v>4967</v>
+        <v>4961</v>
       </c>
       <c r="K1329" s="1" t="s">
         <v>44</v>
@@ -55083,7 +55083,7 @@
         <v>2247</v>
       </c>
       <c r="J1330" s="1" t="s">
-        <v>4968</v>
+        <v>4962</v>
       </c>
       <c r="K1330" s="1" t="s">
         <v>155</v>
@@ -55115,7 +55115,7 @@
         <v>2318</v>
       </c>
       <c r="J1331" s="1" t="s">
-        <v>4969</v>
+        <v>4963</v>
       </c>
       <c r="K1331" s="1" t="s">
         <v>155</v>
@@ -55147,7 +55147,7 @@
         <v>2264</v>
       </c>
       <c r="J1332" s="1" t="s">
-        <v>4970</v>
+        <v>4964</v>
       </c>
       <c r="K1332" s="1" t="s">
         <v>44</v>
@@ -55179,7 +55179,7 @@
         <v>2258</v>
       </c>
       <c r="J1333" s="1" t="s">
-        <v>4971</v>
+        <v>4965</v>
       </c>
       <c r="K1333" s="1" t="s">
         <v>44</v>
@@ -55211,7 +55211,7 @@
         <v>2367</v>
       </c>
       <c r="J1334" s="1" t="s">
-        <v>4972</v>
+        <v>4966</v>
       </c>
       <c r="K1334" s="1" t="s">
         <v>44</v>
@@ -55243,7 +55243,7 @@
         <v>2259</v>
       </c>
       <c r="J1335" s="1" t="s">
-        <v>4973</v>
+        <v>4967</v>
       </c>
       <c r="K1335" s="1" t="s">
         <v>44</v>
@@ -55275,7 +55275,7 @@
         <v>2326</v>
       </c>
       <c r="J1336" s="1" t="s">
-        <v>4974</v>
+        <v>4968</v>
       </c>
       <c r="K1336" s="1" t="s">
         <v>44</v>
@@ -55307,7 +55307,7 @@
         <v>2280</v>
       </c>
       <c r="J1337" s="1" t="s">
-        <v>4975</v>
+        <v>4969</v>
       </c>
       <c r="K1337" s="1" t="s">
         <v>44</v>
@@ -55339,7 +55339,7 @@
         <v>2281</v>
       </c>
       <c r="J1338" s="1" t="s">
-        <v>4976</v>
+        <v>4970</v>
       </c>
       <c r="K1338" s="1" t="s">
         <v>44</v>
@@ -55371,7 +55371,7 @@
         <v>2282</v>
       </c>
       <c r="J1339" s="1" t="s">
-        <v>4977</v>
+        <v>4971</v>
       </c>
       <c r="K1339" s="1" t="s">
         <v>44</v>
@@ -55403,7 +55403,7 @@
         <v>2283</v>
       </c>
       <c r="J1340" s="1" t="s">
-        <v>4978</v>
+        <v>4972</v>
       </c>
       <c r="K1340" s="1" t="s">
         <v>44</v>
@@ -55435,7 +55435,7 @@
         <v>2284</v>
       </c>
       <c r="J1341" s="1" t="s">
-        <v>4979</v>
+        <v>4973</v>
       </c>
       <c r="K1341" s="1" t="s">
         <v>44</v>
@@ -55464,7 +55464,7 @@
         <v>2319</v>
       </c>
       <c r="J1342" s="1" t="s">
-        <v>4980</v>
+        <v>4974</v>
       </c>
       <c r="K1342" s="1" t="s">
         <v>155</v>
@@ -55496,7 +55496,7 @@
         <v>2285</v>
       </c>
       <c r="J1343" s="1" t="s">
-        <v>4981</v>
+        <v>4975</v>
       </c>
       <c r="K1343" s="1" t="s">
         <v>155</v>
@@ -55528,7 +55528,7 @@
         <v>2286</v>
       </c>
       <c r="J1344" s="1" t="s">
-        <v>4982</v>
+        <v>4976</v>
       </c>
       <c r="K1344" s="1" t="s">
         <v>155</v>
@@ -55560,7 +55560,7 @@
         <v>2368</v>
       </c>
       <c r="J1345" s="1" t="s">
-        <v>4983</v>
+        <v>4977</v>
       </c>
       <c r="K1345" s="1" t="s">
         <v>44</v>
@@ -55592,7 +55592,7 @@
         <v>2389</v>
       </c>
       <c r="J1346" s="1" t="s">
-        <v>4984</v>
+        <v>4978</v>
       </c>
       <c r="K1346" s="1" t="s">
         <v>44</v>
@@ -55624,7 +55624,7 @@
         <v>2290</v>
       </c>
       <c r="J1347" s="1" t="s">
-        <v>4985</v>
+        <v>4979</v>
       </c>
       <c r="K1347" s="1" t="s">
         <v>155</v>
@@ -55656,7 +55656,7 @@
         <v>2287</v>
       </c>
       <c r="J1348" s="1" t="s">
-        <v>4986</v>
+        <v>4980</v>
       </c>
       <c r="K1348" s="1" t="s">
         <v>155</v>
@@ -55688,7 +55688,7 @@
         <v>2288</v>
       </c>
       <c r="J1349" s="1" t="s">
-        <v>4987</v>
+        <v>4981</v>
       </c>
       <c r="K1349" s="1" t="s">
         <v>155</v>
@@ -55720,7 +55720,7 @@
         <v>2289</v>
       </c>
       <c r="J1350" s="1" t="s">
-        <v>4988</v>
+        <v>4982</v>
       </c>
       <c r="K1350" s="1" t="s">
         <v>155</v>
@@ -55752,7 +55752,7 @@
         <v>2309</v>
       </c>
       <c r="J1351" s="1" t="s">
-        <v>4989</v>
+        <v>4983</v>
       </c>
       <c r="K1351" s="1" t="s">
         <v>44</v>
@@ -55784,7 +55784,7 @@
         <v>2310</v>
       </c>
       <c r="J1352" s="1" t="s">
-        <v>4990</v>
+        <v>4984</v>
       </c>
       <c r="K1352" s="1" t="s">
         <v>44</v>
@@ -55816,7 +55816,7 @@
         <v>2313</v>
       </c>
       <c r="J1353" s="1" t="s">
-        <v>4991</v>
+        <v>4985</v>
       </c>
       <c r="K1353" s="1" t="s">
         <v>44</v>
@@ -55848,7 +55848,7 @@
         <v>2311</v>
       </c>
       <c r="J1354" s="1" t="s">
-        <v>4992</v>
+        <v>4986</v>
       </c>
       <c r="K1354" s="1" t="s">
         <v>155</v>
@@ -55880,7 +55880,7 @@
         <v>2311</v>
       </c>
       <c r="J1355" s="1" t="s">
-        <v>4993</v>
+        <v>4987</v>
       </c>
       <c r="K1355" s="1" t="s">
         <v>44</v>
@@ -55912,7 +55912,7 @@
         <v>2312</v>
       </c>
       <c r="J1356" s="1" t="s">
-        <v>4994</v>
+        <v>4988</v>
       </c>
       <c r="K1356" s="1" t="s">
         <v>44</v>
@@ -55944,7 +55944,7 @@
         <v>2314</v>
       </c>
       <c r="J1357" s="1" t="s">
-        <v>4995</v>
+        <v>4989</v>
       </c>
       <c r="K1357" s="1" t="s">
         <v>44</v>
@@ -55976,7 +55976,7 @@
         <v>2308</v>
       </c>
       <c r="J1358" s="1" t="s">
-        <v>4996</v>
+        <v>4990</v>
       </c>
       <c r="K1358" s="1" t="s">
         <v>44</v>
@@ -56008,7 +56008,7 @@
         <v>2327</v>
       </c>
       <c r="J1359" s="1" t="s">
-        <v>4997</v>
+        <v>4991</v>
       </c>
       <c r="K1359" s="1" t="s">
         <v>44</v>
@@ -56040,7 +56040,7 @@
         <v>2328</v>
       </c>
       <c r="J1360" s="1" t="s">
-        <v>4998</v>
+        <v>4992</v>
       </c>
       <c r="K1360" s="1" t="s">
         <v>44</v>
@@ -56072,7 +56072,7 @@
         <v>2329</v>
       </c>
       <c r="J1361" s="1" t="s">
-        <v>4999</v>
+        <v>4993</v>
       </c>
       <c r="K1361" s="1" t="s">
         <v>44</v>
@@ -56104,7 +56104,7 @@
         <v>2330</v>
       </c>
       <c r="J1362" s="1" t="s">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="K1362" s="1" t="s">
         <v>44</v>
@@ -56136,7 +56136,7 @@
         <v>2331</v>
       </c>
       <c r="J1363" s="1" t="s">
-        <v>5001</v>
+        <v>4995</v>
       </c>
       <c r="K1363" s="1" t="s">
         <v>44</v>
@@ -56168,7 +56168,7 @@
         <v>2332</v>
       </c>
       <c r="J1364" s="1" t="s">
-        <v>5002</v>
+        <v>4996</v>
       </c>
       <c r="K1364" s="1" t="s">
         <v>44</v>
@@ -56200,7 +56200,7 @@
         <v>2333</v>
       </c>
       <c r="J1365" s="1" t="s">
-        <v>5003</v>
+        <v>4997</v>
       </c>
       <c r="K1365" s="1" t="s">
         <v>44</v>
@@ -56232,7 +56232,7 @@
         <v>2357</v>
       </c>
       <c r="J1366" s="1" t="s">
-        <v>5004</v>
+        <v>4998</v>
       </c>
       <c r="K1366" s="1" t="s">
         <v>44</v>
@@ -56264,7 +56264,7 @@
         <v>2358</v>
       </c>
       <c r="J1367" s="1" t="s">
-        <v>5005</v>
+        <v>4999</v>
       </c>
       <c r="K1367" s="1" t="s">
         <v>44</v>
@@ -56296,7 +56296,7 @@
         <v>2361</v>
       </c>
       <c r="J1368" s="1" t="s">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="K1368" s="1" t="s">
         <v>44</v>
@@ -56328,7 +56328,7 @@
         <v>2341</v>
       </c>
       <c r="J1369" s="1" t="s">
-        <v>5007</v>
+        <v>5001</v>
       </c>
       <c r="K1369" s="1" t="s">
         <v>44</v>
@@ -56360,7 +56360,7 @@
         <v>2344</v>
       </c>
       <c r="J1370" s="1" t="s">
-        <v>5008</v>
+        <v>5002</v>
       </c>
       <c r="K1370" s="1" t="s">
         <v>44</v>
@@ -56392,7 +56392,7 @@
         <v>2344</v>
       </c>
       <c r="J1371" s="1" t="s">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="K1371" s="1" t="s">
         <v>155</v>
@@ -56424,7 +56424,7 @@
         <v>2359</v>
       </c>
       <c r="J1372" s="1" t="s">
-        <v>5010</v>
+        <v>5004</v>
       </c>
       <c r="K1372" s="1" t="s">
         <v>44</v>
@@ -56456,7 +56456,7 @@
         <v>2346</v>
       </c>
       <c r="J1373" s="1" t="s">
-        <v>5011</v>
+        <v>5005</v>
       </c>
       <c r="K1373" s="1" t="s">
         <v>44</v>
@@ -56488,7 +56488,7 @@
         <v>2348</v>
       </c>
       <c r="J1374" s="1" t="s">
-        <v>5012</v>
+        <v>5006</v>
       </c>
       <c r="K1374" s="1" t="s">
         <v>44</v>
@@ -56520,7 +56520,7 @@
         <v>2350</v>
       </c>
       <c r="J1375" s="1" t="s">
-        <v>5013</v>
+        <v>5007</v>
       </c>
       <c r="K1375" s="1" t="s">
         <v>44</v>
@@ -56552,7 +56552,7 @@
         <v>2354</v>
       </c>
       <c r="J1376" s="1" t="s">
-        <v>5014</v>
+        <v>5008</v>
       </c>
       <c r="K1376" s="1" t="s">
         <v>44</v>
@@ -56584,7 +56584,7 @@
         <v>2351</v>
       </c>
       <c r="J1377" s="1" t="s">
-        <v>5015</v>
+        <v>5009</v>
       </c>
       <c r="K1377" s="1" t="s">
         <v>44</v>
@@ -56616,7 +56616,7 @@
         <v>2352</v>
       </c>
       <c r="J1378" s="1" t="s">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="K1378" s="1" t="s">
         <v>44</v>
@@ -56648,7 +56648,7 @@
         <v>2355</v>
       </c>
       <c r="J1379" s="1" t="s">
-        <v>5017</v>
+        <v>5011</v>
       </c>
       <c r="K1379" s="1" t="s">
         <v>44</v>
@@ -56680,7 +56680,7 @@
         <v>2356</v>
       </c>
       <c r="J1380" s="1" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="K1380" s="1" t="s">
         <v>44</v>
@@ -56712,7 +56712,7 @@
         <v>2353</v>
       </c>
       <c r="J1381" s="1" t="s">
-        <v>5019</v>
+        <v>5013</v>
       </c>
       <c r="K1381" s="1" t="s">
         <v>44</v>
@@ -56744,7 +56744,7 @@
         <v>2360</v>
       </c>
       <c r="J1382" s="1" t="s">
-        <v>5020</v>
+        <v>5014</v>
       </c>
       <c r="K1382" s="1" t="s">
         <v>44</v>
@@ -56773,7 +56773,7 @@
         <v>2379</v>
       </c>
       <c r="J1383" s="1" t="s">
-        <v>5021</v>
+        <v>5015</v>
       </c>
       <c r="K1383" s="1" t="s">
         <v>44</v>
@@ -56802,7 +56802,7 @@
         <v>2380</v>
       </c>
       <c r="J1384" s="1" t="s">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="K1384" s="1" t="s">
         <v>44</v>
@@ -56831,7 +56831,7 @@
         <v>2382</v>
       </c>
       <c r="J1385" s="1" t="s">
-        <v>5023</v>
+        <v>5017</v>
       </c>
       <c r="K1385" s="1" t="s">
         <v>44</v>
@@ -56860,7 +56860,7 @@
         <v>2381</v>
       </c>
       <c r="J1386" s="1" t="s">
-        <v>5024</v>
+        <v>5018</v>
       </c>
       <c r="K1386" s="1" t="s">
         <v>44</v>
@@ -56886,10 +56886,10 @@
         <v>2383</v>
       </c>
       <c r="I1387" s="1" t="s">
-        <v>4643</v>
+        <v>4637</v>
       </c>
       <c r="J1387" s="1" t="s">
-        <v>5025</v>
+        <v>5019</v>
       </c>
       <c r="K1387" s="1" t="s">
         <v>155</v>
@@ -56921,7 +56921,7 @@
         <v>2415</v>
       </c>
       <c r="J1388" s="1" t="s">
-        <v>5026</v>
+        <v>5020</v>
       </c>
       <c r="K1388" s="1" t="s">
         <v>155</v>
@@ -56953,7 +56953,7 @@
         <v>2416</v>
       </c>
       <c r="J1389" s="1" t="s">
-        <v>5027</v>
+        <v>5021</v>
       </c>
       <c r="K1389" s="1" t="s">
         <v>155</v>
@@ -56985,7 +56985,7 @@
         <v>2417</v>
       </c>
       <c r="J1390" s="1" t="s">
-        <v>5028</v>
+        <v>5022</v>
       </c>
       <c r="K1390" s="1" t="s">
         <v>155</v>
@@ -57017,7 +57017,7 @@
         <v>2418</v>
       </c>
       <c r="J1391" s="1" t="s">
-        <v>5029</v>
+        <v>5023</v>
       </c>
       <c r="K1391" s="1" t="s">
         <v>155</v>
@@ -57046,7 +57046,7 @@
         <v>2415</v>
       </c>
       <c r="J1392" s="1" t="s">
-        <v>5030</v>
+        <v>5024</v>
       </c>
       <c r="K1392" s="1" t="s">
         <v>155</v>
@@ -57078,7 +57078,7 @@
         <v>2414</v>
       </c>
       <c r="J1393" s="1" t="s">
-        <v>5031</v>
+        <v>5025</v>
       </c>
       <c r="K1393" s="1" t="s">
         <v>155</v>
@@ -57110,7 +57110,7 @@
         <v>2430</v>
       </c>
       <c r="J1394" s="1" t="s">
-        <v>5032</v>
+        <v>5026</v>
       </c>
       <c r="K1394" s="1" t="s">
         <v>155</v>
@@ -57142,7 +57142,7 @@
         <v>2431</v>
       </c>
       <c r="J1395" s="1" t="s">
-        <v>5033</v>
+        <v>5027</v>
       </c>
       <c r="K1395" s="1" t="s">
         <v>155</v>
@@ -57174,7 +57174,7 @@
         <v>2432</v>
       </c>
       <c r="J1396" s="1" t="s">
-        <v>5034</v>
+        <v>5028</v>
       </c>
       <c r="K1396" s="1" t="s">
         <v>155</v>
@@ -57203,10 +57203,10 @@
         <v>4057</v>
       </c>
       <c r="I1397" s="1" t="s">
-        <v>4640</v>
+        <v>4634</v>
       </c>
       <c r="J1397" s="1" t="s">
-        <v>5035</v>
+        <v>5029</v>
       </c>
       <c r="K1397" s="1" t="s">
         <v>155</v>
@@ -57235,10 +57235,10 @@
         <v>4057</v>
       </c>
       <c r="I1398" s="1" t="s">
-        <v>4641</v>
+        <v>4635</v>
       </c>
       <c r="J1398" s="1" t="s">
-        <v>5036</v>
+        <v>5030</v>
       </c>
       <c r="K1398" s="1" t="s">
         <v>155</v>
@@ -57267,7 +57267,7 @@
         <v>2655</v>
       </c>
       <c r="J1399" s="1" t="s">
-        <v>5037</v>
+        <v>5031</v>
       </c>
       <c r="K1399" s="1" t="s">
         <v>155</v>
@@ -57296,7 +57296,7 @@
         <v>2655</v>
       </c>
       <c r="J1400" s="1" t="s">
-        <v>5038</v>
+        <v>5032</v>
       </c>
       <c r="K1400" s="1" t="s">
         <v>155</v>
@@ -57325,7 +57325,7 @@
         <v>2655</v>
       </c>
       <c r="J1401" s="1" t="s">
-        <v>5039</v>
+        <v>5033</v>
       </c>
       <c r="K1401" s="1" t="s">
         <v>155</v>
@@ -57354,7 +57354,7 @@
         <v>2435</v>
       </c>
       <c r="J1402" s="1" t="s">
-        <v>5040</v>
+        <v>5034</v>
       </c>
       <c r="K1402" s="1" t="s">
         <v>155</v>
@@ -57386,7 +57386,7 @@
         <v>2436</v>
       </c>
       <c r="J1403" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="K1403" s="1" t="s">
         <v>44</v>
@@ -57418,7 +57418,7 @@
         <v>2656</v>
       </c>
       <c r="J1404" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="K1404" s="1" t="s">
         <v>44</v>
@@ -57450,7 +57450,7 @@
         <v>2437</v>
       </c>
       <c r="J1405" s="1" t="s">
-        <v>5043</v>
+        <v>5037</v>
       </c>
       <c r="K1405" s="1" t="s">
         <v>44</v>
@@ -57482,7 +57482,7 @@
         <v>2438</v>
       </c>
       <c r="J1406" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="K1406" s="1" t="s">
         <v>44</v>
@@ -57514,7 +57514,7 @@
         <v>2439</v>
       </c>
       <c r="J1407" s="1" t="s">
-        <v>5045</v>
+        <v>5039</v>
       </c>
       <c r="K1407" s="1" t="s">
         <v>44</v>
@@ -57546,7 +57546,7 @@
         <v>2440</v>
       </c>
       <c r="J1408" s="1" t="s">
-        <v>5046</v>
+        <v>5040</v>
       </c>
       <c r="K1408" s="1" t="s">
         <v>44</v>
@@ -57578,7 +57578,7 @@
         <v>2657</v>
       </c>
       <c r="J1409" s="1" t="s">
-        <v>5047</v>
+        <v>5041</v>
       </c>
       <c r="K1409" s="1" t="s">
         <v>44</v>
@@ -57610,7 +57610,7 @@
         <v>2442</v>
       </c>
       <c r="J1410" s="1" t="s">
-        <v>5048</v>
+        <v>5042</v>
       </c>
       <c r="K1410" s="1" t="s">
         <v>44</v>
@@ -57642,7 +57642,7 @@
         <v>2441</v>
       </c>
       <c r="J1411" s="1" t="s">
-        <v>5049</v>
+        <v>5043</v>
       </c>
       <c r="K1411" s="1" t="s">
         <v>44</v>
@@ -57674,7 +57674,7 @@
         <v>2443</v>
       </c>
       <c r="J1412" s="1" t="s">
-        <v>5050</v>
+        <v>5044</v>
       </c>
       <c r="K1412" s="1" t="s">
         <v>44</v>
@@ -57706,7 +57706,7 @@
         <v>2446</v>
       </c>
       <c r="J1413" s="1" t="s">
-        <v>5051</v>
+        <v>5045</v>
       </c>
       <c r="K1413" s="1" t="s">
         <v>44</v>
@@ -57738,7 +57738,7 @@
         <v>2447</v>
       </c>
       <c r="J1414" s="1" t="s">
-        <v>5052</v>
+        <v>5046</v>
       </c>
       <c r="K1414" s="1" t="s">
         <v>44</v>
@@ -57770,7 +57770,7 @@
         <v>2451</v>
       </c>
       <c r="J1415" s="1" t="s">
-        <v>5053</v>
+        <v>5047</v>
       </c>
       <c r="K1415" s="1" t="s">
         <v>44</v>
@@ -57802,7 +57802,7 @@
         <v>2452</v>
       </c>
       <c r="J1416" s="1" t="s">
-        <v>5054</v>
+        <v>5048</v>
       </c>
       <c r="K1416" s="1" t="s">
         <v>44</v>
@@ -57834,7 +57834,7 @@
         <v>2453</v>
       </c>
       <c r="J1417" s="1" t="s">
-        <v>5055</v>
+        <v>5049</v>
       </c>
       <c r="K1417" s="1" t="s">
         <v>44</v>
@@ -57866,7 +57866,7 @@
         <v>2474</v>
       </c>
       <c r="J1418" s="1" t="s">
-        <v>5056</v>
+        <v>5050</v>
       </c>
       <c r="K1418" s="1" t="s">
         <v>155</v>
@@ -57898,7 +57898,7 @@
         <v>2475</v>
       </c>
       <c r="J1419" s="1" t="s">
-        <v>5057</v>
+        <v>5051</v>
       </c>
       <c r="K1419" s="1" t="s">
         <v>155</v>
@@ -57930,7 +57930,7 @@
         <v>2658</v>
       </c>
       <c r="J1420" s="1" t="s">
-        <v>5058</v>
+        <v>5052</v>
       </c>
       <c r="K1420" s="1" t="s">
         <v>155</v>
@@ -57962,7 +57962,7 @@
         <v>2659</v>
       </c>
       <c r="J1421" s="1" t="s">
-        <v>5059</v>
+        <v>5053</v>
       </c>
       <c r="K1421" s="1" t="s">
         <v>155</v>
@@ -57994,7 +57994,7 @@
         <v>2480</v>
       </c>
       <c r="J1422" s="1" t="s">
-        <v>5060</v>
+        <v>5054</v>
       </c>
       <c r="K1422" s="1" t="s">
         <v>155</v>
@@ -58026,7 +58026,7 @@
         <v>2481</v>
       </c>
       <c r="J1423" s="1" t="s">
-        <v>5061</v>
+        <v>5055</v>
       </c>
       <c r="K1423" s="1" t="s">
         <v>155</v>
@@ -58058,7 +58058,7 @@
         <v>2482</v>
       </c>
       <c r="J1424" s="1" t="s">
-        <v>5062</v>
+        <v>5056</v>
       </c>
       <c r="K1424" s="1" t="s">
         <v>155</v>
@@ -58090,7 +58090,7 @@
         <v>2660</v>
       </c>
       <c r="J1425" s="1" t="s">
-        <v>5063</v>
+        <v>5057</v>
       </c>
       <c r="K1425" s="1" t="s">
         <v>155</v>
@@ -58122,7 +58122,7 @@
         <v>2483</v>
       </c>
       <c r="J1426" s="1" t="s">
-        <v>5064</v>
+        <v>5058</v>
       </c>
       <c r="K1426" s="1" t="s">
         <v>155</v>
@@ -58154,7 +58154,7 @@
         <v>2484</v>
       </c>
       <c r="J1427" s="1" t="s">
-        <v>5065</v>
+        <v>5059</v>
       </c>
       <c r="K1427" s="1" t="s">
         <v>155</v>
@@ -58186,7 +58186,7 @@
         <v>2485</v>
       </c>
       <c r="J1428" s="1" t="s">
-        <v>5066</v>
+        <v>5060</v>
       </c>
       <c r="K1428" s="1" t="s">
         <v>155</v>
@@ -58218,7 +58218,7 @@
         <v>2486</v>
       </c>
       <c r="J1429" s="1" t="s">
-        <v>5067</v>
+        <v>5061</v>
       </c>
       <c r="K1429" s="1" t="s">
         <v>155</v>
@@ -58250,7 +58250,7 @@
         <v>2487</v>
       </c>
       <c r="J1430" s="1" t="s">
-        <v>5068</v>
+        <v>5062</v>
       </c>
       <c r="K1430" s="1" t="s">
         <v>155</v>
@@ -58282,7 +58282,7 @@
         <v>2488</v>
       </c>
       <c r="J1431" s="1" t="s">
-        <v>5069</v>
+        <v>5063</v>
       </c>
       <c r="K1431" s="1" t="s">
         <v>155</v>
@@ -58314,7 +58314,7 @@
         <v>2489</v>
       </c>
       <c r="J1432" s="1" t="s">
-        <v>5070</v>
+        <v>5064</v>
       </c>
       <c r="K1432" s="1" t="s">
         <v>155</v>
@@ -58346,7 +58346,7 @@
         <v>2490</v>
       </c>
       <c r="J1433" s="1" t="s">
-        <v>5071</v>
+        <v>5065</v>
       </c>
       <c r="K1433" s="1" t="s">
         <v>155</v>
@@ -58378,7 +58378,7 @@
         <v>2491</v>
       </c>
       <c r="J1434" s="1" t="s">
-        <v>5072</v>
+        <v>5066</v>
       </c>
       <c r="K1434" s="1" t="s">
         <v>155</v>
@@ -58410,7 +58410,7 @@
         <v>2661</v>
       </c>
       <c r="J1435" s="1" t="s">
-        <v>5073</v>
+        <v>5067</v>
       </c>
       <c r="K1435" s="1" t="s">
         <v>155</v>
@@ -58442,7 +58442,7 @@
         <v>2478</v>
       </c>
       <c r="J1436" s="1" t="s">
-        <v>5074</v>
+        <v>5068</v>
       </c>
       <c r="K1436" s="1" t="s">
         <v>155</v>
@@ -58474,7 +58474,7 @@
         <v>2479</v>
       </c>
       <c r="J1437" s="1" t="s">
-        <v>5075</v>
+        <v>5069</v>
       </c>
       <c r="K1437" s="1" t="s">
         <v>155</v>
@@ -58506,7 +58506,7 @@
         <v>2492</v>
       </c>
       <c r="J1438" s="1" t="s">
-        <v>5076</v>
+        <v>5070</v>
       </c>
       <c r="K1438" s="1" t="s">
         <v>155</v>
@@ -58538,7 +58538,7 @@
         <v>2495</v>
       </c>
       <c r="J1439" s="1" t="s">
-        <v>5077</v>
+        <v>5071</v>
       </c>
       <c r="K1439" s="1" t="s">
         <v>155</v>
@@ -58570,7 +58570,7 @@
         <v>2662</v>
       </c>
       <c r="J1440" s="1" t="s">
-        <v>5078</v>
+        <v>5072</v>
       </c>
       <c r="K1440" s="1" t="s">
         <v>155</v>
@@ -58602,7 +58602,7 @@
         <v>2663</v>
       </c>
       <c r="J1441" s="1" t="s">
-        <v>5079</v>
+        <v>5073</v>
       </c>
       <c r="K1441" s="1" t="s">
         <v>155</v>
@@ -58634,7 +58634,7 @@
         <v>2498</v>
       </c>
       <c r="J1442" s="1" t="s">
-        <v>5080</v>
+        <v>5074</v>
       </c>
       <c r="K1442" s="1" t="s">
         <v>155</v>
@@ -58666,7 +58666,7 @@
         <v>2511</v>
       </c>
       <c r="J1443" s="1" t="s">
-        <v>5081</v>
+        <v>5075</v>
       </c>
       <c r="K1443" s="1" t="s">
         <v>155</v>
@@ -58698,7 +58698,7 @@
         <v>2512</v>
       </c>
       <c r="J1444" s="1" t="s">
-        <v>5082</v>
+        <v>5076</v>
       </c>
       <c r="K1444" s="1" t="s">
         <v>155</v>
@@ -58730,7 +58730,7 @@
         <v>2502</v>
       </c>
       <c r="J1445" s="1" t="s">
-        <v>5083</v>
+        <v>5077</v>
       </c>
       <c r="K1445" s="1" t="s">
         <v>155</v>
@@ -58762,7 +58762,7 @@
         <v>2513</v>
       </c>
       <c r="J1446" s="1" t="s">
-        <v>5084</v>
+        <v>5078</v>
       </c>
       <c r="K1446" s="1" t="s">
         <v>155</v>
@@ -58794,7 +58794,7 @@
         <v>2514</v>
       </c>
       <c r="J1447" s="1" t="s">
-        <v>5085</v>
+        <v>5079</v>
       </c>
       <c r="K1447" s="1" t="s">
         <v>155</v>
@@ -58826,7 +58826,7 @@
         <v>2515</v>
       </c>
       <c r="J1448" s="1" t="s">
-        <v>5086</v>
+        <v>5080</v>
       </c>
       <c r="K1448" s="1" t="s">
         <v>155</v>
@@ -58858,7 +58858,7 @@
         <v>2516</v>
       </c>
       <c r="J1449" s="1" t="s">
-        <v>5087</v>
+        <v>5081</v>
       </c>
       <c r="K1449" s="1" t="s">
         <v>155</v>
@@ -58890,7 +58890,7 @@
         <v>2517</v>
       </c>
       <c r="J1450" s="1" t="s">
-        <v>5088</v>
+        <v>5082</v>
       </c>
       <c r="K1450" s="1" t="s">
         <v>155</v>
@@ -58922,7 +58922,7 @@
         <v>2509</v>
       </c>
       <c r="J1451" s="1" t="s">
-        <v>5089</v>
+        <v>5083</v>
       </c>
       <c r="K1451" s="1" t="s">
         <v>155</v>
@@ -58954,7 +58954,7 @@
         <v>2510</v>
       </c>
       <c r="J1452" s="1" t="s">
-        <v>5090</v>
+        <v>5084</v>
       </c>
       <c r="K1452" s="1" t="s">
         <v>155</v>
@@ -58986,7 +58986,7 @@
         <v>2526</v>
       </c>
       <c r="J1453" s="1" t="s">
-        <v>5091</v>
+        <v>5085</v>
       </c>
       <c r="K1453" s="1" t="s">
         <v>44</v>
@@ -59018,7 +59018,7 @@
         <v>2664</v>
       </c>
       <c r="J1454" s="1" t="s">
-        <v>5092</v>
+        <v>5086</v>
       </c>
       <c r="K1454" s="1" t="s">
         <v>44</v>
@@ -59050,7 +59050,7 @@
         <v>2524</v>
       </c>
       <c r="J1455" s="1" t="s">
-        <v>5093</v>
+        <v>5087</v>
       </c>
       <c r="K1455" s="1" t="s">
         <v>44</v>
@@ -59082,7 +59082,7 @@
         <v>2527</v>
       </c>
       <c r="J1456" s="1" t="s">
-        <v>5094</v>
+        <v>5088</v>
       </c>
       <c r="K1456" s="1" t="s">
         <v>155</v>
@@ -59114,7 +59114,7 @@
         <v>2612</v>
       </c>
       <c r="J1457" s="1" t="s">
-        <v>5095</v>
+        <v>5089</v>
       </c>
       <c r="K1457" s="1" t="s">
         <v>44</v>
@@ -59143,10 +59143,10 @@
         <v>4226</v>
       </c>
       <c r="I1458" s="1" t="s">
-        <v>4642</v>
+        <v>4636</v>
       </c>
       <c r="J1458" s="1" t="s">
-        <v>5096</v>
+        <v>5090</v>
       </c>
       <c r="K1458" s="1" t="s">
         <v>155</v>
@@ -59178,7 +59178,7 @@
         <v>2531</v>
       </c>
       <c r="J1459" s="1" t="s">
-        <v>5097</v>
+        <v>5091</v>
       </c>
       <c r="K1459" s="1" t="s">
         <v>155</v>
@@ -59201,16 +59201,16 @@
         <v>2532</v>
       </c>
       <c r="F1460" s="1" t="s">
-        <v>4637</v>
+        <v>4631</v>
       </c>
       <c r="H1460" s="1" t="s">
         <v>4201</v>
       </c>
       <c r="I1460" s="1" t="s">
-        <v>4638</v>
+        <v>4632</v>
       </c>
       <c r="J1460" s="1" t="s">
-        <v>5098</v>
+        <v>5092</v>
       </c>
       <c r="K1460" s="1" t="s">
         <v>44</v>
@@ -59242,7 +59242,7 @@
         <v>2536</v>
       </c>
       <c r="J1461" s="1" t="s">
-        <v>5099</v>
+        <v>5093</v>
       </c>
       <c r="K1461" s="1" t="s">
         <v>44</v>
@@ -59274,7 +59274,7 @@
         <v>2548</v>
       </c>
       <c r="J1462" s="1" t="s">
-        <v>5100</v>
+        <v>5094</v>
       </c>
       <c r="K1462" s="1" t="s">
         <v>44</v>
@@ -59306,7 +59306,7 @@
         <v>2539</v>
       </c>
       <c r="J1463" s="1" t="s">
-        <v>5101</v>
+        <v>5095</v>
       </c>
       <c r="K1463" s="1" t="s">
         <v>44</v>
@@ -59338,7 +59338,7 @@
         <v>2549</v>
       </c>
       <c r="J1464" s="1" t="s">
-        <v>5102</v>
+        <v>5096</v>
       </c>
       <c r="K1464" s="1" t="s">
         <v>44</v>
@@ -59370,7 +59370,7 @@
         <v>2550</v>
       </c>
       <c r="J1465" s="1" t="s">
-        <v>5103</v>
+        <v>5097</v>
       </c>
       <c r="K1465" s="1" t="s">
         <v>44</v>
@@ -59402,7 +59402,7 @@
         <v>2551</v>
       </c>
       <c r="J1466" s="1" t="s">
-        <v>5104</v>
+        <v>5098</v>
       </c>
       <c r="K1466" s="1" t="s">
         <v>155</v>
@@ -59434,7 +59434,7 @@
         <v>2552</v>
       </c>
       <c r="J1467" s="1" t="s">
-        <v>5105</v>
+        <v>5099</v>
       </c>
       <c r="K1467" s="1" t="s">
         <v>155</v>
@@ -59466,7 +59466,7 @@
         <v>2553</v>
       </c>
       <c r="J1468" s="1" t="s">
-        <v>5106</v>
+        <v>5100</v>
       </c>
       <c r="K1468" s="1" t="s">
         <v>155</v>
@@ -59498,7 +59498,7 @@
         <v>2554</v>
       </c>
       <c r="J1469" s="1" t="s">
-        <v>5107</v>
+        <v>5101</v>
       </c>
       <c r="K1469" s="1" t="s">
         <v>155</v>
@@ -59530,7 +59530,7 @@
         <v>2555</v>
       </c>
       <c r="J1470" s="1" t="s">
-        <v>5108</v>
+        <v>5102</v>
       </c>
       <c r="K1470" s="1" t="s">
         <v>44</v>
@@ -59559,10 +59559,10 @@
         <v>4212</v>
       </c>
       <c r="I1471" s="1" t="s">
-        <v>4639</v>
+        <v>4633</v>
       </c>
       <c r="J1471" s="1" t="s">
-        <v>5109</v>
+        <v>5103</v>
       </c>
       <c r="K1471" s="1" t="s">
         <v>44</v>
@@ -59594,7 +59594,7 @@
         <v>2557</v>
       </c>
       <c r="J1472" s="1" t="s">
-        <v>5110</v>
+        <v>5104</v>
       </c>
       <c r="K1472" s="1" t="s">
         <v>155</v>
@@ -59626,7 +59626,7 @@
         <v>2557</v>
       </c>
       <c r="J1473" s="1" t="s">
-        <v>5111</v>
+        <v>5105</v>
       </c>
       <c r="K1473" s="1" t="s">
         <v>155</v>
@@ -59658,7 +59658,7 @@
         <v>2576</v>
       </c>
       <c r="J1474" s="1" t="s">
-        <v>5112</v>
+        <v>5106</v>
       </c>
       <c r="K1474" s="1" t="s">
         <v>44</v>
@@ -59690,7 +59690,7 @@
         <v>2577</v>
       </c>
       <c r="J1475" s="1" t="s">
-        <v>5113</v>
+        <v>5107</v>
       </c>
       <c r="K1475" s="1" t="s">
         <v>44</v>
@@ -59722,7 +59722,7 @@
         <v>2578</v>
       </c>
       <c r="J1476" s="1" t="s">
-        <v>5114</v>
+        <v>5108</v>
       </c>
       <c r="K1476" s="1" t="s">
         <v>44</v>
@@ -59754,7 +59754,7 @@
         <v>2670</v>
       </c>
       <c r="J1477" s="1" t="s">
-        <v>5115</v>
+        <v>5109</v>
       </c>
       <c r="K1477" s="1" t="s">
         <v>44</v>
@@ -59786,7 +59786,7 @@
         <v>2579</v>
       </c>
       <c r="J1478" s="1" t="s">
-        <v>5116</v>
+        <v>5110</v>
       </c>
       <c r="K1478" s="1" t="s">
         <v>44</v>
@@ -59818,7 +59818,7 @@
         <v>2665</v>
       </c>
       <c r="J1479" s="1" t="s">
-        <v>5117</v>
+        <v>5111</v>
       </c>
       <c r="K1479" s="1" t="s">
         <v>44</v>
@@ -59850,7 +59850,7 @@
         <v>2580</v>
       </c>
       <c r="J1480" s="1" t="s">
-        <v>5118</v>
+        <v>5112</v>
       </c>
       <c r="K1480" s="1" t="s">
         <v>44</v>
@@ -59882,7 +59882,7 @@
         <v>2581</v>
       </c>
       <c r="J1481" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="K1481" s="1" t="s">
         <v>44</v>
@@ -59914,7 +59914,7 @@
         <v>2671</v>
       </c>
       <c r="J1482" s="1" t="s">
-        <v>5120</v>
+        <v>5114</v>
       </c>
       <c r="K1482" s="1" t="s">
         <v>44</v>
@@ -59946,7 +59946,7 @@
         <v>2618</v>
       </c>
       <c r="J1483" s="1" t="s">
-        <v>5121</v>
+        <v>5115</v>
       </c>
       <c r="K1483" s="1" t="s">
         <v>44</v>
@@ -59978,7 +59978,7 @@
         <v>2666</v>
       </c>
       <c r="J1484" s="1" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="K1484" s="1" t="s">
         <v>44</v>
@@ -60010,7 +60010,7 @@
         <v>2575</v>
       </c>
       <c r="J1485" s="1" t="s">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="K1485" s="1" t="s">
         <v>44</v>
@@ -60042,7 +60042,7 @@
         <v>2583</v>
       </c>
       <c r="J1486" s="1" t="s">
-        <v>5124</v>
+        <v>5118</v>
       </c>
       <c r="K1486" s="1" t="s">
         <v>44</v>
@@ -60074,7 +60074,7 @@
         <v>2588</v>
       </c>
       <c r="J1487" s="1" t="s">
-        <v>5125</v>
+        <v>5119</v>
       </c>
       <c r="K1487" s="1" t="s">
         <v>44</v>
@@ -60106,7 +60106,7 @@
         <v>2589</v>
       </c>
       <c r="J1488" s="1" t="s">
-        <v>5126</v>
+        <v>5120</v>
       </c>
       <c r="K1488" s="1" t="s">
         <v>44</v>
@@ -60138,7 +60138,7 @@
         <v>2590</v>
       </c>
       <c r="J1489" s="1" t="s">
-        <v>5127</v>
+        <v>5121</v>
       </c>
       <c r="K1489" s="1" t="s">
         <v>44</v>
@@ -60170,7 +60170,7 @@
         <v>2591</v>
       </c>
       <c r="J1490" s="1" t="s">
-        <v>5128</v>
+        <v>5122</v>
       </c>
       <c r="K1490" s="1" t="s">
         <v>44</v>
@@ -60202,7 +60202,7 @@
         <v>2592</v>
       </c>
       <c r="J1491" s="1" t="s">
-        <v>5129</v>
+        <v>5123</v>
       </c>
       <c r="K1491" s="1" t="s">
         <v>44</v>
@@ -60234,7 +60234,7 @@
         <v>2593</v>
       </c>
       <c r="J1492" s="1" t="s">
-        <v>5130</v>
+        <v>5124</v>
       </c>
       <c r="K1492" s="1" t="s">
         <v>44</v>
@@ -60266,7 +60266,7 @@
         <v>2595</v>
       </c>
       <c r="J1493" s="1" t="s">
-        <v>5131</v>
+        <v>5125</v>
       </c>
       <c r="K1493" s="1" t="s">
         <v>44</v>
@@ -60298,7 +60298,7 @@
         <v>2597</v>
       </c>
       <c r="J1494" s="1" t="s">
-        <v>5132</v>
+        <v>5126</v>
       </c>
       <c r="K1494" s="1" t="s">
         <v>44</v>
@@ -60330,7 +60330,7 @@
         <v>2602</v>
       </c>
       <c r="J1495" s="1" t="s">
-        <v>5133</v>
+        <v>5127</v>
       </c>
       <c r="K1495" s="1" t="s">
         <v>44</v>
@@ -60359,7 +60359,7 @@
         <v>2603</v>
       </c>
       <c r="J1496" s="1" t="s">
-        <v>5134</v>
+        <v>5128</v>
       </c>
       <c r="K1496" s="1" t="s">
         <v>44</v>
@@ -60388,7 +60388,7 @@
         <v>2604</v>
       </c>
       <c r="J1497" s="1" t="s">
-        <v>5135</v>
+        <v>5129</v>
       </c>
       <c r="K1497" s="1" t="s">
         <v>44</v>
@@ -60417,7 +60417,7 @@
         <v>2605</v>
       </c>
       <c r="J1498" s="1" t="s">
-        <v>5136</v>
+        <v>5130</v>
       </c>
       <c r="K1498" s="1" t="s">
         <v>44</v>
@@ -60446,7 +60446,7 @@
         <v>2608</v>
       </c>
       <c r="J1499" s="1" t="s">
-        <v>5137</v>
+        <v>5131</v>
       </c>
       <c r="K1499" s="1" t="s">
         <v>44</v>
@@ -60475,7 +60475,7 @@
         <v>2610</v>
       </c>
       <c r="J1500" s="1" t="s">
-        <v>5138</v>
+        <v>5132</v>
       </c>
       <c r="K1500" s="1" t="s">
         <v>44</v>
@@ -60504,7 +60504,7 @@
         <v>2611</v>
       </c>
       <c r="J1501" s="1" t="s">
-        <v>5139</v>
+        <v>5133</v>
       </c>
       <c r="K1501" s="1" t="s">
         <v>44</v>
@@ -60533,7 +60533,7 @@
         <v>2613</v>
       </c>
       <c r="J1502" s="1" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="K1502" s="1" t="s">
         <v>44</v>
@@ -60565,7 +60565,7 @@
         <v>2639</v>
       </c>
       <c r="J1503" s="1" t="s">
-        <v>5141</v>
+        <v>5135</v>
       </c>
       <c r="K1503" s="1" t="s">
         <v>44</v>
@@ -60597,7 +60597,7 @@
         <v>2640</v>
       </c>
       <c r="J1504" s="1" t="s">
-        <v>5142</v>
+        <v>5136</v>
       </c>
       <c r="K1504" s="1" t="s">
         <v>44</v>
@@ -60629,7 +60629,7 @@
         <v>2641</v>
       </c>
       <c r="J1505" s="1" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
       <c r="K1505" s="1" t="s">
         <v>44</v>
@@ -60661,7 +60661,7 @@
         <v>2642</v>
       </c>
       <c r="J1506" s="1" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
       <c r="K1506" s="1" t="s">
         <v>44</v>
@@ -60693,7 +60693,7 @@
         <v>2621</v>
       </c>
       <c r="J1507" s="1" t="s">
-        <v>5145</v>
+        <v>5139</v>
       </c>
       <c r="K1507" s="1" t="s">
         <v>44</v>
@@ -60725,7 +60725,7 @@
         <v>2638</v>
       </c>
       <c r="J1508" s="1" t="s">
-        <v>5146</v>
+        <v>5140</v>
       </c>
       <c r="K1508" s="1" t="s">
         <v>44</v>
@@ -60757,7 +60757,7 @@
         <v>2643</v>
       </c>
       <c r="J1509" s="1" t="s">
-        <v>5147</v>
+        <v>5141</v>
       </c>
       <c r="K1509" s="1" t="s">
         <v>44</v>
@@ -60789,7 +60789,7 @@
         <v>2644</v>
       </c>
       <c r="J1510" s="1" t="s">
-        <v>5148</v>
+        <v>5142</v>
       </c>
       <c r="K1510" s="1" t="s">
         <v>44</v>
@@ -60821,7 +60821,7 @@
         <v>2645</v>
       </c>
       <c r="J1511" s="1" t="s">
-        <v>5149</v>
+        <v>5143</v>
       </c>
       <c r="K1511" s="1" t="s">
         <v>44</v>
@@ -60853,7 +60853,7 @@
         <v>2646</v>
       </c>
       <c r="J1512" s="1" t="s">
-        <v>5150</v>
+        <v>5144</v>
       </c>
       <c r="K1512" s="1" t="s">
         <v>44</v>
@@ -60885,7 +60885,7 @@
         <v>2647</v>
       </c>
       <c r="J1513" s="1" t="s">
-        <v>5151</v>
+        <v>5145</v>
       </c>
       <c r="K1513" s="1" t="s">
         <v>44</v>
@@ -60917,7 +60917,7 @@
         <v>2648</v>
       </c>
       <c r="J1514" s="1" t="s">
-        <v>5152</v>
+        <v>5146</v>
       </c>
       <c r="K1514" s="1" t="s">
         <v>44</v>
@@ -60949,7 +60949,7 @@
         <v>2649</v>
       </c>
       <c r="J1515" s="1" t="s">
-        <v>5153</v>
+        <v>5147</v>
       </c>
       <c r="K1515" s="1" t="s">
         <v>44</v>
@@ -60981,7 +60981,7 @@
         <v>2650</v>
       </c>
       <c r="J1516" s="1" t="s">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="K1516" s="1" t="s">
         <v>44</v>
@@ -61013,7 +61013,7 @@
         <v>2651</v>
       </c>
       <c r="J1517" s="1" t="s">
-        <v>5155</v>
+        <v>5149</v>
       </c>
       <c r="K1517" s="1" t="s">
         <v>44</v>
@@ -61045,7 +61045,7 @@
         <v>2652</v>
       </c>
       <c r="J1518" s="1" t="s">
-        <v>5156</v>
+        <v>5150</v>
       </c>
       <c r="K1518" s="1" t="s">
         <v>44</v>
@@ -61077,7 +61077,7 @@
         <v>2653</v>
       </c>
       <c r="J1519" s="1" t="s">
-        <v>5157</v>
+        <v>5151</v>
       </c>
       <c r="K1519" s="1" t="s">
         <v>44</v>
@@ -61109,7 +61109,7 @@
         <v>2654</v>
       </c>
       <c r="J1520" s="1" t="s">
-        <v>5158</v>
+        <v>5152</v>
       </c>
       <c r="K1520" s="1" t="s">
         <v>44</v>
@@ -61141,7 +61141,7 @@
         <v>2669</v>
       </c>
       <c r="J1521" s="1" t="s">
-        <v>5159</v>
+        <v>5153</v>
       </c>
       <c r="K1521" s="1" t="s">
         <v>155</v>
@@ -61173,7 +61173,7 @@
         <v>2675</v>
       </c>
       <c r="J1522" s="1" t="s">
-        <v>5160</v>
+        <v>5154</v>
       </c>
       <c r="K1522" s="1" t="s">
         <v>155</v>
@@ -61205,7 +61205,7 @@
         <v>2676</v>
       </c>
       <c r="J1523" s="1" t="s">
-        <v>5161</v>
+        <v>5155</v>
       </c>
       <c r="K1523" s="1" t="s">
         <v>155</v>
@@ -61237,7 +61237,7 @@
         <v>2679</v>
       </c>
       <c r="J1524" s="1" t="s">
-        <v>5162</v>
+        <v>5156</v>
       </c>
       <c r="K1524" s="1" t="s">
         <v>44</v>
@@ -61269,7 +61269,7 @@
         <v>2677</v>
       </c>
       <c r="J1525" s="1" t="s">
-        <v>5163</v>
+        <v>5157</v>
       </c>
       <c r="K1525" s="1" t="s">
         <v>44</v>
@@ -61301,7 +61301,7 @@
         <v>2683</v>
       </c>
       <c r="J1526" s="1" t="s">
-        <v>5164</v>
+        <v>5158</v>
       </c>
       <c r="K1526" s="1" t="s">
         <v>44</v>
@@ -61312,7 +61312,7 @@
         <v>4232</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1527" s="1" t="s">
         <v>4235</v>
@@ -61333,7 +61333,7 @@
         <v>4238</v>
       </c>
       <c r="J1527" s="1" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="K1527" s="1" t="s">
         <v>44</v>
@@ -61344,7 +61344,7 @@
         <v>4240</v>
       </c>
       <c r="B1528" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1528" s="1" t="s">
         <v>4256</v>
@@ -61365,7 +61365,7 @@
         <v>4259</v>
       </c>
       <c r="J1528" s="1" t="s">
-        <v>5166</v>
+        <v>5160</v>
       </c>
       <c r="K1528" s="1" t="s">
         <v>44</v>
@@ -61376,7 +61376,7 @@
         <v>4241</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1529" s="1" t="s">
         <v>4260</v>
@@ -61397,7 +61397,7 @@
         <v>4263</v>
       </c>
       <c r="J1529" s="1" t="s">
-        <v>5167</v>
+        <v>5161</v>
       </c>
       <c r="K1529" s="1" t="s">
         <v>44</v>
@@ -61408,7 +61408,7 @@
         <v>4242</v>
       </c>
       <c r="B1530" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1530" s="1" t="s">
         <v>4264</v>
@@ -61429,7 +61429,7 @@
         <v>4267</v>
       </c>
       <c r="J1530" s="1" t="s">
-        <v>5168</v>
+        <v>5162</v>
       </c>
       <c r="K1530" s="1" t="s">
         <v>44</v>
@@ -61440,7 +61440,7 @@
         <v>4243</v>
       </c>
       <c r="B1531" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1531" s="1" t="s">
         <v>4268</v>
@@ -61461,7 +61461,7 @@
         <v>4271</v>
       </c>
       <c r="J1531" s="1" t="s">
-        <v>5169</v>
+        <v>5163</v>
       </c>
       <c r="K1531" s="1" t="s">
         <v>44</v>
@@ -61472,7 +61472,7 @@
         <v>4244</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1532" s="1" t="s">
         <v>4272</v>
@@ -61493,7 +61493,7 @@
         <v>4275</v>
       </c>
       <c r="J1532" s="1" t="s">
-        <v>5170</v>
+        <v>5164</v>
       </c>
       <c r="K1532" s="1" t="s">
         <v>44</v>
@@ -61504,7 +61504,7 @@
         <v>4245</v>
       </c>
       <c r="B1533" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1533" s="1" t="s">
         <v>4276</v>
@@ -61525,7 +61525,7 @@
         <v>4279</v>
       </c>
       <c r="J1533" s="1" t="s">
-        <v>5171</v>
+        <v>5165</v>
       </c>
       <c r="K1533" s="1" t="s">
         <v>44</v>
@@ -61536,7 +61536,7 @@
         <v>4246</v>
       </c>
       <c r="B1534" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1534" s="1" t="s">
         <v>4280</v>
@@ -61557,7 +61557,7 @@
         <v>4283</v>
       </c>
       <c r="J1534" s="1" t="s">
-        <v>5172</v>
+        <v>5166</v>
       </c>
       <c r="K1534" s="1" t="s">
         <v>44</v>
@@ -61568,7 +61568,7 @@
         <v>4247</v>
       </c>
       <c r="B1535" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1535" s="1" t="s">
         <v>4284</v>
@@ -61589,7 +61589,7 @@
         <v>4287</v>
       </c>
       <c r="J1535" s="1" t="s">
-        <v>5173</v>
+        <v>5167</v>
       </c>
       <c r="K1535" s="1" t="s">
         <v>44</v>
@@ -61600,7 +61600,7 @@
         <v>4248</v>
       </c>
       <c r="B1536" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1536" s="1" t="s">
         <v>4290</v>
@@ -61621,7 +61621,7 @@
         <v>4292</v>
       </c>
       <c r="J1536" s="1" t="s">
-        <v>5174</v>
+        <v>5168</v>
       </c>
       <c r="K1536" s="1" t="s">
         <v>44</v>
@@ -61632,7 +61632,7 @@
         <v>4249</v>
       </c>
       <c r="B1537" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1537" s="1" t="s">
         <v>4288</v>
@@ -61653,7 +61653,7 @@
         <v>4293</v>
       </c>
       <c r="J1537" s="1" t="s">
-        <v>5175</v>
+        <v>5169</v>
       </c>
       <c r="K1537" s="1" t="s">
         <v>44</v>
@@ -61664,7 +61664,7 @@
         <v>4250</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1538" s="1" t="s">
         <v>4314</v>
@@ -61685,7 +61685,7 @@
         <v>4294</v>
       </c>
       <c r="J1538" s="1" t="s">
-        <v>5176</v>
+        <v>5170</v>
       </c>
       <c r="K1538" s="1" t="s">
         <v>44</v>
@@ -61696,7 +61696,7 @@
         <v>4251</v>
       </c>
       <c r="B1539" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1539" s="1" t="s">
         <v>4315</v>
@@ -61717,7 +61717,7 @@
         <v>4295</v>
       </c>
       <c r="J1539" s="1" t="s">
-        <v>5177</v>
+        <v>5171</v>
       </c>
       <c r="K1539" s="1" t="s">
         <v>44</v>
@@ -61728,7 +61728,7 @@
         <v>4252</v>
       </c>
       <c r="B1540" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1540" s="1" t="s">
         <v>4316</v>
@@ -61749,7 +61749,7 @@
         <v>4296</v>
       </c>
       <c r="J1540" s="1" t="s">
-        <v>5178</v>
+        <v>5172</v>
       </c>
       <c r="K1540" s="1" t="s">
         <v>44</v>
@@ -61760,7 +61760,7 @@
         <v>4253</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1541" s="1" t="s">
         <v>4317</v>
@@ -61781,7 +61781,7 @@
         <v>4297</v>
       </c>
       <c r="J1541" s="1" t="s">
-        <v>5179</v>
+        <v>5173</v>
       </c>
       <c r="K1541" s="1" t="s">
         <v>44</v>
@@ -61792,7 +61792,7 @@
         <v>4254</v>
       </c>
       <c r="B1542" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1542" s="1" t="s">
         <v>4318</v>
@@ -61813,7 +61813,7 @@
         <v>4298</v>
       </c>
       <c r="J1542" s="1" t="s">
-        <v>5180</v>
+        <v>5174</v>
       </c>
       <c r="K1542" s="1" t="s">
         <v>44</v>
@@ -61824,7 +61824,7 @@
         <v>4255</v>
       </c>
       <c r="B1543" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1543" s="1" t="s">
         <v>4319</v>
@@ -61845,7 +61845,7 @@
         <v>4299</v>
       </c>
       <c r="J1543" s="1" t="s">
-        <v>5181</v>
+        <v>5175</v>
       </c>
       <c r="K1543" s="1" t="s">
         <v>44</v>
@@ -61856,7 +61856,7 @@
         <v>4320</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1544" s="1" t="s">
         <v>4326</v>
@@ -61877,7 +61877,7 @@
         <v>4328</v>
       </c>
       <c r="J1544" s="1" t="s">
-        <v>5182</v>
+        <v>5176</v>
       </c>
       <c r="K1544" s="1" t="s">
         <v>44</v>
@@ -61888,7 +61888,7 @@
         <v>4357</v>
       </c>
       <c r="B1545" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1545" s="1" t="s">
         <v>4350</v>
@@ -61909,7 +61909,7 @@
         <v>4349</v>
       </c>
       <c r="J1545" s="1" t="s">
-        <v>5183</v>
+        <v>5177</v>
       </c>
       <c r="K1545" s="1" t="s">
         <v>44</v>
@@ -61920,7 +61920,7 @@
         <v>4321</v>
       </c>
       <c r="B1546" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1546" s="1" t="s">
         <v>4352</v>
@@ -61944,7 +61944,7 @@
         <v>4355</v>
       </c>
       <c r="J1546" s="1" t="s">
-        <v>5184</v>
+        <v>5178</v>
       </c>
       <c r="K1546" s="1" t="s">
         <v>44</v>
@@ -61955,7 +61955,7 @@
         <v>4322</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1547" s="1" t="s">
         <v>4351</v>
@@ -61979,7 +61979,7 @@
         <v>4356</v>
       </c>
       <c r="J1547" s="1" t="s">
-        <v>5185</v>
+        <v>5179</v>
       </c>
       <c r="K1547" s="1" t="s">
         <v>44</v>
@@ -61990,7 +61990,7 @@
         <v>4392</v>
       </c>
       <c r="B1548" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1548" s="1" t="s">
         <v>4361</v>
@@ -62011,7 +62011,7 @@
         <v>4366</v>
       </c>
       <c r="J1548" s="1" t="s">
-        <v>5186</v>
+        <v>5180</v>
       </c>
       <c r="K1548" s="1" t="s">
         <v>44</v>
@@ -62022,7 +62022,7 @@
         <v>4323</v>
       </c>
       <c r="B1549" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1549" s="1" t="s">
         <v>4359</v>
@@ -62046,7 +62046,7 @@
         <v>4367</v>
       </c>
       <c r="J1549" s="1" t="s">
-        <v>5187</v>
+        <v>5181</v>
       </c>
       <c r="K1549" s="1" t="s">
         <v>44</v>
@@ -62057,7 +62057,7 @@
         <v>4324</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1550" s="1" t="s">
         <v>4360</v>
@@ -62081,7 +62081,7 @@
         <v>4368</v>
       </c>
       <c r="J1550" s="1" t="s">
-        <v>5188</v>
+        <v>5182</v>
       </c>
       <c r="K1550" s="1" t="s">
         <v>44</v>
@@ -62092,7 +62092,7 @@
         <v>4447</v>
       </c>
       <c r="B1551" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1551" s="1" t="s">
         <v>4369</v>
@@ -62113,7 +62113,7 @@
         <v>4372</v>
       </c>
       <c r="J1551" s="1" t="s">
-        <v>5189</v>
+        <v>5183</v>
       </c>
       <c r="K1551" s="1" t="s">
         <v>44</v>
@@ -62124,7 +62124,7 @@
         <v>4325</v>
       </c>
       <c r="B1552" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1552" s="1" t="s">
         <v>4373</v>
@@ -62145,7 +62145,7 @@
         <v>4386</v>
       </c>
       <c r="J1552" s="1" t="s">
-        <v>5190</v>
+        <v>5184</v>
       </c>
       <c r="K1552" s="1" t="s">
         <v>44</v>
@@ -62156,7 +62156,7 @@
         <v>4394</v>
       </c>
       <c r="B1553" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1553" s="1" t="s">
         <v>4374</v>
@@ -62180,7 +62180,7 @@
         <v>4387</v>
       </c>
       <c r="J1553" s="1" t="s">
-        <v>5191</v>
+        <v>5185</v>
       </c>
       <c r="K1553" s="1" t="s">
         <v>44</v>
@@ -62191,7 +62191,7 @@
         <v>4329</v>
       </c>
       <c r="B1554" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1554" s="1" t="s">
         <v>4375</v>
@@ -62215,7 +62215,7 @@
         <v>4388</v>
       </c>
       <c r="J1554" s="1" t="s">
-        <v>5192</v>
+        <v>5186</v>
       </c>
       <c r="K1554" s="1" t="s">
         <v>44</v>
@@ -62226,7 +62226,7 @@
         <v>4330</v>
       </c>
       <c r="B1555" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1555" s="1" t="s">
         <v>4376</v>
@@ -62250,7 +62250,7 @@
         <v>4389</v>
       </c>
       <c r="J1555" s="1" t="s">
-        <v>5193</v>
+        <v>5187</v>
       </c>
       <c r="K1555" s="1" t="s">
         <v>44</v>
@@ -62261,7 +62261,7 @@
         <v>4331</v>
       </c>
       <c r="B1556" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1556" s="1" t="s">
         <v>4377</v>
@@ -62285,7 +62285,7 @@
         <v>4390</v>
       </c>
       <c r="J1556" s="1" t="s">
-        <v>5194</v>
+        <v>5188</v>
       </c>
       <c r="K1556" s="1" t="s">
         <v>44</v>
@@ -62296,7 +62296,7 @@
         <v>4332</v>
       </c>
       <c r="B1557" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1557" s="1" t="s">
         <v>4378</v>
@@ -62320,7 +62320,7 @@
         <v>4391</v>
       </c>
       <c r="J1557" s="1" t="s">
-        <v>5195</v>
+        <v>5189</v>
       </c>
       <c r="K1557" s="1" t="s">
         <v>44</v>
@@ -62331,7 +62331,7 @@
         <v>4333</v>
       </c>
       <c r="B1558" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1558" s="1" t="s">
         <v>4396</v>
@@ -62352,7 +62352,7 @@
         <v>4405</v>
       </c>
       <c r="J1558" s="1" t="s">
-        <v>5196</v>
+        <v>5190</v>
       </c>
       <c r="K1558" s="1" t="s">
         <v>44</v>
@@ -62363,7 +62363,7 @@
         <v>4334</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1559" s="1" t="s">
         <v>4396</v>
@@ -62387,7 +62387,7 @@
         <v>4404</v>
       </c>
       <c r="J1559" s="1" t="s">
-        <v>5197</v>
+        <v>5191</v>
       </c>
       <c r="K1559" s="1" t="s">
         <v>44</v>
@@ -62398,7 +62398,7 @@
         <v>4335</v>
       </c>
       <c r="B1560" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1560" s="1" t="s">
         <v>4396</v>
@@ -62422,7 +62422,7 @@
         <v>4406</v>
       </c>
       <c r="J1560" s="1" t="s">
-        <v>5198</v>
+        <v>5192</v>
       </c>
       <c r="K1560" s="1" t="s">
         <v>44</v>
@@ -62433,7 +62433,7 @@
         <v>4336</v>
       </c>
       <c r="B1561" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1561" s="1" t="s">
         <v>4396</v>
@@ -62457,7 +62457,7 @@
         <v>4407</v>
       </c>
       <c r="J1561" s="1" t="s">
-        <v>5199</v>
+        <v>5193</v>
       </c>
       <c r="K1561" s="1" t="s">
         <v>44</v>
@@ -62468,7 +62468,7 @@
         <v>4337</v>
       </c>
       <c r="B1562" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1562" s="1" t="s">
         <v>4396</v>
@@ -62492,7 +62492,7 @@
         <v>4408</v>
       </c>
       <c r="J1562" s="1" t="s">
-        <v>5200</v>
+        <v>5194</v>
       </c>
       <c r="K1562" s="1" t="s">
         <v>44</v>
@@ -62503,7 +62503,7 @@
         <v>4338</v>
       </c>
       <c r="B1563" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1563" s="1" t="s">
         <v>4409</v>
@@ -62524,7 +62524,7 @@
         <v>4415</v>
       </c>
       <c r="J1563" s="1" t="s">
-        <v>5201</v>
+        <v>5195</v>
       </c>
       <c r="K1563" s="1" t="s">
         <v>44</v>
@@ -62535,7 +62535,7 @@
         <v>4339</v>
       </c>
       <c r="B1564" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1564" s="1" t="s">
         <v>4409</v>
@@ -62559,7 +62559,7 @@
         <v>4416</v>
       </c>
       <c r="J1564" s="1" t="s">
-        <v>5202</v>
+        <v>5196</v>
       </c>
       <c r="K1564" s="1" t="s">
         <v>44</v>
@@ -62570,7 +62570,7 @@
         <v>4340</v>
       </c>
       <c r="B1565" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1565" s="1" t="s">
         <v>4409</v>
@@ -62594,7 +62594,7 @@
         <v>4417</v>
       </c>
       <c r="J1565" s="1" t="s">
-        <v>5203</v>
+        <v>5197</v>
       </c>
       <c r="K1565" s="1" t="s">
         <v>44</v>
@@ -62605,7 +62605,7 @@
         <v>4341</v>
       </c>
       <c r="B1566" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1566" s="1" t="s">
         <v>4418</v>
@@ -62626,7 +62626,7 @@
         <v>4424</v>
       </c>
       <c r="J1566" s="1" t="s">
-        <v>5204</v>
+        <v>5198</v>
       </c>
       <c r="K1566" s="1" t="s">
         <v>44</v>
@@ -62637,7 +62637,7 @@
         <v>4342</v>
       </c>
       <c r="B1567" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1567" s="1" t="s">
         <v>4423</v>
@@ -62661,7 +62661,7 @@
         <v>4425</v>
       </c>
       <c r="J1567" s="1" t="s">
-        <v>5205</v>
+        <v>5199</v>
       </c>
       <c r="K1567" s="1" t="s">
         <v>44</v>
@@ -62672,7 +62672,7 @@
         <v>4343</v>
       </c>
       <c r="B1568" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1568" s="1" t="s">
         <v>4426</v>
@@ -62696,7 +62696,7 @@
         <v>4428</v>
       </c>
       <c r="J1568" s="1" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="K1568" s="1" t="s">
         <v>44</v>
@@ -62707,7 +62707,7 @@
         <v>4344</v>
       </c>
       <c r="B1569" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1569" s="1" t="s">
         <v>4433</v>
@@ -62731,7 +62731,7 @@
         <v>4440</v>
       </c>
       <c r="J1569" s="1" t="s">
-        <v>5207</v>
+        <v>5201</v>
       </c>
       <c r="K1569" s="1" t="s">
         <v>44</v>
@@ -62742,7 +62742,7 @@
         <v>4345</v>
       </c>
       <c r="B1570" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1570" s="1" t="s">
         <v>4434</v>
@@ -62766,7 +62766,7 @@
         <v>4443</v>
       </c>
       <c r="J1570" s="1" t="s">
-        <v>5208</v>
+        <v>5202</v>
       </c>
       <c r="K1570" s="1" t="s">
         <v>44</v>
@@ -62777,7 +62777,7 @@
         <v>4346</v>
       </c>
       <c r="B1571" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1571" s="1" t="s">
         <v>4435</v>
@@ -62801,7 +62801,7 @@
         <v>4445</v>
       </c>
       <c r="J1571" s="1" t="s">
-        <v>5209</v>
+        <v>5203</v>
       </c>
       <c r="K1571" s="1" t="s">
         <v>44</v>
@@ -62812,7 +62812,7 @@
         <v>4419</v>
       </c>
       <c r="B1572" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1572" s="1" t="s">
         <v>4436</v>
@@ -62836,7 +62836,7 @@
         <v>4448</v>
       </c>
       <c r="J1572" s="1" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
       <c r="K1572" s="1" t="s">
         <v>44</v>
@@ -62847,7 +62847,7 @@
         <v>4429</v>
       </c>
       <c r="B1573" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1573" s="1" t="s">
         <v>4437</v>
@@ -62871,7 +62871,7 @@
         <v>4450</v>
       </c>
       <c r="J1573" s="1" t="s">
-        <v>5211</v>
+        <v>5205</v>
       </c>
       <c r="K1573" s="1" t="s">
         <v>44</v>
@@ -62882,7 +62882,7 @@
         <v>4430</v>
       </c>
       <c r="B1574" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1574" s="1" t="s">
         <v>4438</v>
@@ -62906,7 +62906,7 @@
         <v>4452</v>
       </c>
       <c r="J1574" s="1" t="s">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="K1574" s="1" t="s">
         <v>44</v>
@@ -62917,7 +62917,7 @@
         <v>4431</v>
       </c>
       <c r="B1575" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1575" s="1" t="s">
         <v>4439</v>
@@ -62941,7 +62941,7 @@
         <v>4454</v>
       </c>
       <c r="J1575" s="1" t="s">
-        <v>5213</v>
+        <v>5207</v>
       </c>
       <c r="K1575" s="1" t="s">
         <v>44</v>
@@ -62952,7 +62952,7 @@
         <v>4432</v>
       </c>
       <c r="B1576" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1576" s="1" t="s">
         <v>4456</v>
@@ -62976,7 +62976,7 @@
         <v>4459</v>
       </c>
       <c r="J1576" s="1" t="s">
-        <v>5214</v>
+        <v>5208</v>
       </c>
       <c r="K1576" s="1" t="s">
         <v>44</v>
@@ -62987,7 +62987,7 @@
         <v>4455</v>
       </c>
       <c r="B1577" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1577" s="1" t="s">
         <v>4457</v>
@@ -63011,7 +63011,7 @@
         <v>4461</v>
       </c>
       <c r="J1577" s="1" t="s">
-        <v>5215</v>
+        <v>5209</v>
       </c>
       <c r="K1577" s="1" t="s">
         <v>44</v>
@@ -63022,7 +63022,7 @@
         <v>4473</v>
       </c>
       <c r="B1578" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1578" s="1" t="s">
         <v>4467</v>
@@ -63043,7 +63043,7 @@
         <v>4466</v>
       </c>
       <c r="J1578" s="1" t="s">
-        <v>5216</v>
+        <v>5210</v>
       </c>
       <c r="K1578" s="1" t="s">
         <v>44</v>
@@ -63054,7 +63054,7 @@
         <v>4462</v>
       </c>
       <c r="B1579" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1579" s="1" t="s">
         <v>4468</v>
@@ -63075,7 +63075,7 @@
         <v>4471</v>
       </c>
       <c r="J1579" s="1" t="s">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="K1579" s="1" t="s">
         <v>44</v>
@@ -63086,7 +63086,7 @@
         <v>4463</v>
       </c>
       <c r="B1580" s="4" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1580" s="1" t="s">
         <v>4468</v>
@@ -63107,7 +63107,7 @@
         <v>4472</v>
       </c>
       <c r="J1580" s="1" t="s">
-        <v>5218</v>
+        <v>5212</v>
       </c>
       <c r="K1580" s="1" t="s">
         <v>44</v>
@@ -63139,7 +63139,7 @@
         <v>4480</v>
       </c>
       <c r="J1581" s="1" t="s">
-        <v>5219</v>
+        <v>5213</v>
       </c>
       <c r="K1581" s="1" t="s">
         <v>44</v>
@@ -63147,13 +63147,13 @@
     </row>
     <row r="1582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1582" s="1" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1582" s="1" t="s">
-        <v>4494</v>
+        <v>4491</v>
       </c>
       <c r="D1582" s="1" t="s">
         <v>4233</v>
@@ -63165,13 +63165,13 @@
         <v>4478</v>
       </c>
       <c r="G1582" s="1" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
       <c r="I1582" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1582" s="1" t="s">
-        <v>5220</v>
+        <v>5214</v>
       </c>
       <c r="K1582" s="1" t="s">
         <v>44</v>
@@ -63179,13 +63179,13 @@
     </row>
     <row r="1583" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1583" s="1" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
       <c r="D1583" s="1" t="s">
         <v>4233</v>
@@ -63197,13 +63197,13 @@
         <v>4478</v>
       </c>
       <c r="G1583" s="1" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
       <c r="I1583" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1583" s="1" t="s">
-        <v>5221</v>
+        <v>5215</v>
       </c>
       <c r="K1583" s="1" t="s">
         <v>44</v>
@@ -63211,13 +63211,13 @@
     </row>
     <row r="1584" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1584" s="1" t="s">
-        <v>4491</v>
+        <v>4488</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1584" s="1" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
       <c r="D1584" s="1" t="s">
         <v>4233</v>
@@ -63229,13 +63229,13 @@
         <v>4478</v>
       </c>
       <c r="G1584" s="1" t="s">
-        <v>4500</v>
+        <v>4497</v>
       </c>
       <c r="I1584" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1584" s="1" t="s">
-        <v>5222</v>
+        <v>5216</v>
       </c>
       <c r="K1584" s="1" t="s">
         <v>44</v>
@@ -63243,13 +63243,13 @@
     </row>
     <row r="1585" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1585" s="1" t="s">
-        <v>4492</v>
+        <v>4489</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1585" s="1" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="D1585" s="1" t="s">
         <v>4233</v>
@@ -63261,13 +63261,13 @@
         <v>4478</v>
       </c>
       <c r="G1585" s="1" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="I1585" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1585" s="1" t="s">
-        <v>5223</v>
+        <v>5217</v>
       </c>
       <c r="K1585" s="1" t="s">
         <v>44</v>
@@ -63275,13 +63275,13 @@
     </row>
     <row r="1586" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1586" s="1" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1586" s="1" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
       <c r="D1586" s="1" t="s">
         <v>4233</v>
@@ -63293,13 +63293,13 @@
         <v>4478</v>
       </c>
       <c r="G1586" s="1" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
       <c r="I1586" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1586" s="1" t="s">
-        <v>5224</v>
+        <v>5218</v>
       </c>
       <c r="K1586" s="1" t="s">
         <v>44</v>
@@ -63307,13 +63307,13 @@
     </row>
     <row r="1587" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1587" s="1" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1587" s="1" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
       <c r="D1587" s="1" t="s">
         <v>4233</v>
@@ -63325,13 +63325,13 @@
         <v>4478</v>
       </c>
       <c r="G1587" s="1" t="s">
-        <v>4518</v>
+        <v>4515</v>
       </c>
       <c r="I1587" s="1" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
       <c r="J1587" s="1" t="s">
-        <v>5225</v>
+        <v>5219</v>
       </c>
       <c r="K1587" s="1" t="s">
         <v>44</v>
@@ -63339,13 +63339,13 @@
     </row>
     <row r="1588" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1588" s="1" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1588" s="1" t="s">
-        <v>4509</v>
+        <v>4506</v>
       </c>
       <c r="D1588" s="1" t="s">
         <v>4233</v>
@@ -63354,16 +63354,16 @@
         <v>4477</v>
       </c>
       <c r="F1588" s="1" t="s">
-        <v>4511</v>
+        <v>4508</v>
       </c>
       <c r="G1588" s="1" t="s">
-        <v>4510</v>
+        <v>4507</v>
       </c>
       <c r="I1588" s="1" t="s">
-        <v>4512</v>
+        <v>4509</v>
       </c>
       <c r="J1588" s="1" t="s">
-        <v>5226</v>
+        <v>5220</v>
       </c>
       <c r="K1588" s="1" t="s">
         <v>44</v>
@@ -63371,13 +63371,13 @@
     </row>
     <row r="1589" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1589" s="1" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1589" s="1" t="s">
-        <v>4513</v>
+        <v>4510</v>
       </c>
       <c r="D1589" s="1" t="s">
         <v>4233</v>
@@ -63386,16 +63386,16 @@
         <v>4477</v>
       </c>
       <c r="F1589" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="G1589" s="1" t="s">
         <v>4511</v>
-      </c>
-      <c r="G1589" s="1" t="s">
-        <v>4514</v>
       </c>
       <c r="I1589" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1589" s="1" t="s">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="K1589" s="1" t="s">
         <v>44</v>
@@ -63403,13 +63403,13 @@
     </row>
     <row r="1590" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1590" s="1" t="s">
-        <v>4515</v>
+        <v>4512</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1590" s="1" t="s">
-        <v>4516</v>
+        <v>4513</v>
       </c>
       <c r="D1590" s="1" t="s">
         <v>4233</v>
@@ -63418,16 +63418,16 @@
         <v>4477</v>
       </c>
       <c r="F1590" s="1" t="s">
-        <v>4511</v>
+        <v>4508</v>
       </c>
       <c r="G1590" s="1" t="s">
-        <v>4517</v>
+        <v>4514</v>
       </c>
       <c r="I1590" s="1" t="s">
         <v>4480</v>
       </c>
       <c r="J1590" s="1" t="s">
-        <v>5228</v>
+        <v>5222</v>
       </c>
       <c r="K1590" s="1" t="s">
         <v>44</v>
@@ -63435,13 +63435,13 @@
     </row>
     <row r="1591" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1591" s="1" t="s">
-        <v>4519</v>
+        <v>4516</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1591" s="1" t="s">
-        <v>4520</v>
+        <v>4517</v>
       </c>
       <c r="D1591" s="1" t="s">
         <v>4233</v>
@@ -63450,16 +63450,16 @@
         <v>4477</v>
       </c>
       <c r="F1591" s="1" t="s">
-        <v>4521</v>
+        <v>4518</v>
       </c>
       <c r="G1591" s="1" t="s">
-        <v>4522</v>
+        <v>4519</v>
       </c>
       <c r="I1591" s="1" t="s">
-        <v>4526</v>
+        <v>4523</v>
       </c>
       <c r="J1591" s="1" t="s">
-        <v>5229</v>
+        <v>5223</v>
       </c>
       <c r="K1591" s="1" t="s">
         <v>44</v>
@@ -63467,13 +63467,13 @@
     </row>
     <row r="1592" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1592" s="1" t="s">
-        <v>4523</v>
+        <v>4520</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1592" s="1" t="s">
-        <v>4524</v>
+        <v>4521</v>
       </c>
       <c r="D1592" s="1" t="s">
         <v>4233</v>
@@ -63482,16 +63482,16 @@
         <v>4477</v>
       </c>
       <c r="F1592" s="1" t="s">
-        <v>4521</v>
+        <v>4518</v>
       </c>
       <c r="G1592" s="1" t="s">
-        <v>4525</v>
+        <v>4522</v>
       </c>
       <c r="I1592" s="1" t="s">
-        <v>4527</v>
+        <v>4524</v>
       </c>
       <c r="J1592" s="1" t="s">
-        <v>5230</v>
+        <v>5224</v>
       </c>
       <c r="K1592" s="1" t="s">
         <v>44</v>
@@ -63499,13 +63499,13 @@
     </row>
     <row r="1593" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1593" s="1" t="s">
-        <v>4533</v>
+        <v>4530</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1593" s="1" t="s">
-        <v>4528</v>
+        <v>4525</v>
       </c>
       <c r="D1593" s="1" t="s">
         <v>4233</v>
@@ -63514,16 +63514,16 @@
         <v>4477</v>
       </c>
       <c r="F1593" s="1" t="s">
-        <v>4529</v>
+        <v>4526</v>
       </c>
       <c r="G1593" s="1" t="s">
-        <v>4530</v>
+        <v>4527</v>
       </c>
       <c r="I1593" s="1" t="s">
-        <v>4531</v>
+        <v>4528</v>
       </c>
       <c r="J1593" s="1" t="s">
-        <v>5231</v>
+        <v>5225</v>
       </c>
       <c r="K1593" s="1" t="s">
         <v>44</v>
@@ -63531,13 +63531,13 @@
     </row>
     <row r="1594" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1594" s="1" t="s">
-        <v>4532</v>
+        <v>4529</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1594" s="1" t="s">
-        <v>4528</v>
+        <v>4525</v>
       </c>
       <c r="D1594" s="1" t="s">
         <v>4233</v>
@@ -63546,16 +63546,16 @@
         <v>4477</v>
       </c>
       <c r="F1594" s="1" t="s">
-        <v>4529</v>
+        <v>4526</v>
       </c>
       <c r="H1594" s="1" t="s">
-        <v>4533</v>
+        <v>4530</v>
       </c>
       <c r="I1594" s="1" t="s">
-        <v>4534</v>
+        <v>4531</v>
       </c>
       <c r="J1594" s="1" t="s">
-        <v>5232</v>
+        <v>5226</v>
       </c>
       <c r="K1594" s="1" t="s">
         <v>44</v>
@@ -63563,31 +63563,31 @@
     </row>
     <row r="1595" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1595" s="1" t="s">
-        <v>4535</v>
+        <v>4532</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1595" s="1" t="s">
-        <v>4542</v>
+        <v>4539</v>
       </c>
       <c r="D1595" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1595" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1595" s="1" t="s">
-        <v>4557</v>
+        <v>4554</v>
       </c>
       <c r="G1595" s="1" t="s">
-        <v>4567</v>
+        <v>4564</v>
       </c>
       <c r="I1595" s="1" t="s">
-        <v>4568</v>
+        <v>4565</v>
       </c>
       <c r="J1595" s="1" t="s">
-        <v>5233</v>
+        <v>5227</v>
       </c>
       <c r="K1595" s="1" t="s">
         <v>44</v>
@@ -63595,31 +63595,31 @@
     </row>
     <row r="1596" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1596" s="1" t="s">
-        <v>4536</v>
+        <v>4533</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1596" s="1" t="s">
-        <v>4543</v>
+        <v>4540</v>
       </c>
       <c r="D1596" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1596" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1596" s="1" t="s">
-        <v>4558</v>
+        <v>4555</v>
       </c>
       <c r="G1596" s="1" t="s">
-        <v>4569</v>
+        <v>4566</v>
       </c>
       <c r="I1596" s="1" t="s">
-        <v>4578</v>
+        <v>4575</v>
       </c>
       <c r="J1596" s="1" t="s">
-        <v>5234</v>
+        <v>5228</v>
       </c>
       <c r="K1596" s="1" t="s">
         <v>44</v>
@@ -63627,31 +63627,31 @@
     </row>
     <row r="1597" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1597" s="1" t="s">
-        <v>4537</v>
+        <v>4534</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1597" s="1" t="s">
-        <v>4546</v>
+        <v>4543</v>
       </c>
       <c r="D1597" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1597" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1597" s="1" t="s">
-        <v>4559</v>
+        <v>4556</v>
       </c>
       <c r="G1597" s="1" t="s">
-        <v>4570</v>
+        <v>4567</v>
       </c>
       <c r="I1597" s="1" t="s">
-        <v>4579</v>
+        <v>4576</v>
       </c>
       <c r="J1597" s="1" t="s">
-        <v>5235</v>
+        <v>5229</v>
       </c>
       <c r="K1597" s="1" t="s">
         <v>44</v>
@@ -63659,31 +63659,31 @@
     </row>
     <row r="1598" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1598" s="1" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1598" s="1" t="s">
-        <v>4548</v>
+        <v>4545</v>
       </c>
       <c r="D1598" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1598" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1598" s="1" t="s">
-        <v>4560</v>
+        <v>4557</v>
       </c>
       <c r="G1598" s="1" t="s">
-        <v>4571</v>
+        <v>4568</v>
       </c>
       <c r="I1598" s="1" t="s">
-        <v>4580</v>
+        <v>4577</v>
       </c>
       <c r="J1598" s="1" t="s">
-        <v>5236</v>
+        <v>5230</v>
       </c>
       <c r="K1598" s="1" t="s">
         <v>44</v>
@@ -63691,31 +63691,31 @@
     </row>
     <row r="1599" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1599" s="1" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1599" s="1" t="s">
-        <v>4549</v>
+        <v>4546</v>
       </c>
       <c r="D1599" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1599" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1599" s="1" t="s">
-        <v>4561</v>
+        <v>4558</v>
       </c>
       <c r="G1599" s="1" t="s">
-        <v>4572</v>
+        <v>4569</v>
       </c>
       <c r="I1599" s="1" t="s">
-        <v>4581</v>
+        <v>4578</v>
       </c>
       <c r="J1599" s="1" t="s">
-        <v>5237</v>
+        <v>5231</v>
       </c>
       <c r="K1599" s="1" t="s">
         <v>44</v>
@@ -63723,31 +63723,31 @@
     </row>
     <row r="1600" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1600" s="1" t="s">
-        <v>4540</v>
+        <v>4537</v>
       </c>
       <c r="B1600" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1600" s="1" t="s">
         <v>4547</v>
-      </c>
-      <c r="C1600" s="1" t="s">
-        <v>4550</v>
       </c>
       <c r="D1600" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1600" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1600" s="1" t="s">
-        <v>4562</v>
+        <v>4559</v>
       </c>
       <c r="G1600" s="1" t="s">
-        <v>4573</v>
+        <v>4570</v>
       </c>
       <c r="I1600" s="1" t="s">
-        <v>4582</v>
+        <v>4579</v>
       </c>
       <c r="J1600" s="1" t="s">
-        <v>5238</v>
+        <v>5232</v>
       </c>
       <c r="K1600" s="1" t="s">
         <v>44</v>
@@ -63755,31 +63755,31 @@
     </row>
     <row r="1601" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1601" s="1" t="s">
-        <v>4541</v>
+        <v>4538</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1601" s="1" t="s">
-        <v>4551</v>
+        <v>4548</v>
       </c>
       <c r="D1601" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1601" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1601" s="1" t="s">
-        <v>4563</v>
+        <v>4560</v>
       </c>
       <c r="G1601" s="1" t="s">
-        <v>4574</v>
+        <v>4571</v>
       </c>
       <c r="I1601" s="1" t="s">
-        <v>4583</v>
+        <v>4580</v>
       </c>
       <c r="J1601" s="1" t="s">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="K1601" s="1" t="s">
         <v>44</v>
@@ -63787,31 +63787,31 @@
     </row>
     <row r="1602" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1602" s="1" t="s">
-        <v>4545</v>
+        <v>4542</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1602" s="1" t="s">
-        <v>4552</v>
+        <v>4549</v>
       </c>
       <c r="D1602" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1602" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1602" s="1" t="s">
-        <v>4564</v>
+        <v>4561</v>
       </c>
       <c r="G1602" s="1" t="s">
-        <v>4575</v>
+        <v>4572</v>
       </c>
       <c r="I1602" s="1" t="s">
-        <v>4584</v>
+        <v>4581</v>
       </c>
       <c r="J1602" s="1" t="s">
-        <v>5240</v>
+        <v>5234</v>
       </c>
       <c r="K1602" s="1" t="s">
         <v>44</v>
@@ -63819,31 +63819,31 @@
     </row>
     <row r="1603" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1603" s="1" t="s">
-        <v>4553</v>
+        <v>4550</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1603" s="1" t="s">
-        <v>4555</v>
+        <v>4552</v>
       </c>
       <c r="D1603" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1603" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1603" s="1" t="s">
-        <v>4565</v>
+        <v>4562</v>
       </c>
       <c r="G1603" s="1" t="s">
-        <v>4576</v>
+        <v>4573</v>
       </c>
       <c r="I1603" s="1" t="s">
-        <v>4585</v>
+        <v>4582</v>
       </c>
       <c r="J1603" s="1" t="s">
-        <v>5241</v>
+        <v>5235</v>
       </c>
       <c r="K1603" s="1" t="s">
         <v>44</v>
@@ -63851,31 +63851,31 @@
     </row>
     <row r="1604" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1604" s="1" t="s">
-        <v>4554</v>
+        <v>4551</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1604" s="1" t="s">
-        <v>4556</v>
+        <v>4553</v>
       </c>
       <c r="D1604" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1604" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1604" s="1" t="s">
-        <v>4566</v>
+        <v>4563</v>
       </c>
       <c r="G1604" s="1" t="s">
-        <v>4577</v>
+        <v>4574</v>
       </c>
       <c r="I1604" s="1" t="s">
-        <v>4586</v>
+        <v>4583</v>
       </c>
       <c r="J1604" s="1" t="s">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="K1604" s="1" t="s">
         <v>44</v>
@@ -63883,31 +63883,31 @@
     </row>
     <row r="1605" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1605" s="1" t="s">
-        <v>4591</v>
+        <v>4588</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
       <c r="C1605" s="1" t="s">
-        <v>4589</v>
+        <v>4586</v>
       </c>
       <c r="D1605" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1605" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1605" s="1" t="s">
-        <v>4559</v>
+        <v>4556</v>
       </c>
       <c r="G1605" s="1" t="s">
-        <v>4588</v>
+        <v>4585</v>
       </c>
       <c r="I1605" s="1" t="s">
-        <v>4593</v>
+        <v>4590</v>
       </c>
       <c r="J1605" s="1" t="s">
-        <v>5243</v>
+        <v>5237</v>
       </c>
       <c r="K1605" s="1" t="s">
         <v>44</v>
@@ -63915,31 +63915,31 @@
     </row>
     <row r="1606" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1606" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B1606" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1606" s="1" t="s">
         <v>4587</v>
-      </c>
-      <c r="B1606" s="1" t="s">
-        <v>4547</v>
-      </c>
-      <c r="C1606" s="1" t="s">
-        <v>4590</v>
       </c>
       <c r="D1606" s="1" t="s">
         <v>4233</v>
       </c>
       <c r="E1606" s="1" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="F1606" s="1" t="s">
-        <v>4559</v>
+        <v>4556</v>
       </c>
       <c r="H1606" s="1" t="s">
-        <v>4592</v>
+        <v>4589</v>
       </c>
       <c r="I1606" s="1" t="s">
-        <v>4534</v>
+        <v>4531</v>
       </c>
       <c r="J1606" s="1" t="s">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="K1606" s="1" t="s">
         <v>44</v>
@@ -63947,28 +63947,28 @@
     </row>
     <row r="1607" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1607" s="1" t="s">
-        <v>5249</v>
+        <v>5243</v>
       </c>
       <c r="B1607" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1607" s="1" t="s">
-        <v>5250</v>
+        <v>5244</v>
       </c>
       <c r="D1607" s="1" t="s">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="F1607" s="1" t="s">
+        <v>5246</v>
+      </c>
+      <c r="G1607" s="1" t="s">
+        <v>5247</v>
+      </c>
+      <c r="I1607" s="1" t="s">
+        <v>5248</v>
+      </c>
+      <c r="J1607" s="1" t="s">
         <v>5252</v>
-      </c>
-      <c r="G1607" s="1" t="s">
-        <v>5253</v>
-      </c>
-      <c r="I1607" s="1" t="s">
-        <v>5254</v>
-      </c>
-      <c r="J1607" s="1" t="s">
-        <v>5258</v>
       </c>
       <c r="K1607" s="1" t="s">
         <v>44</v>
@@ -63976,28 +63976,28 @@
     </row>
     <row r="1608" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1608" s="1" t="s">
-        <v>5255</v>
+        <v>5249</v>
       </c>
       <c r="B1608" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1608" s="1" t="s">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="D1608" s="1" t="s">
+        <v>5245</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>5246</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>5243</v>
+      </c>
+      <c r="I1608" s="1" t="s">
         <v>5251</v>
       </c>
-      <c r="F1608" s="1" t="s">
-        <v>5252</v>
-      </c>
-      <c r="H1608" s="1" t="s">
-        <v>5249</v>
-      </c>
-      <c r="I1608" s="1" t="s">
-        <v>5257</v>
-      </c>
       <c r="J1608" s="1" t="s">
-        <v>5259</v>
+        <v>5253</v>
       </c>
       <c r="K1608" s="1" t="s">
         <v>44</v>
@@ -64005,28 +64005,28 @@
     </row>
     <row r="1609" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1609" s="1" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1609" s="1" t="s">
+        <v>5255</v>
+      </c>
+      <c r="D1609" s="1" t="s">
+        <v>5256</v>
+      </c>
+      <c r="F1609" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="G1609" s="1" t="s">
+        <v>5258</v>
+      </c>
+      <c r="I1609" s="1" t="s">
+        <v>5259</v>
+      </c>
+      <c r="K1609" s="1" t="s">
         <v>5260</v>
-      </c>
-      <c r="B1609" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1609" s="1" t="s">
-        <v>5261</v>
-      </c>
-      <c r="D1609" s="1" t="s">
-        <v>5262</v>
-      </c>
-      <c r="F1609" s="1" t="s">
-        <v>5263</v>
-      </c>
-      <c r="G1609" s="1" t="s">
-        <v>5264</v>
-      </c>
-      <c r="I1609" s="1" t="s">
-        <v>5265</v>
-      </c>
-      <c r="K1609" s="1" t="s">
-        <v>5266</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13928" uniqueCount="5267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13938" uniqueCount="5274">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18624,6 +18624,33 @@
   </si>
   <si>
     <t>select abs(-9223372036854775808)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1609</t>
+  </si>
+  <si>
+    <t>byte_array字段查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte_array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select byte_array from $schema32 order by gmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1609.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19012,10 +19039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1609"/>
+  <dimension ref="A1:K1610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1553" workbookViewId="0">
-      <selection activeCell="B1592" sqref="B1592"/>
+    <sheetView tabSelected="1" topLeftCell="A1577" workbookViewId="0">
+      <selection activeCell="C1613" sqref="C1613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -64041,6 +64068,38 @@
       </c>
       <c r="K1609" s="1" t="s">
         <v>5259</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1610" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B1610" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1610" s="1" t="s">
+        <v>5268</v>
+      </c>
+      <c r="D1610" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="E1610" s="1" t="s">
+        <v>5269</v>
+      </c>
+      <c r="F1610" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="G1610" s="1" t="s">
+        <v>5271</v>
+      </c>
+      <c r="I1610" s="1" t="s">
+        <v>5272</v>
+      </c>
+      <c r="J1610" s="1" t="s">
+        <v>5273</v>
+      </c>
+      <c r="K1610" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -19041,8 +19041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1577" workbookViewId="0">
-      <selection activeCell="C1613" sqref="C1613"/>
+    <sheetView tabSelected="1" topLeftCell="A1448" workbookViewId="0">
+      <selection activeCell="C1455" sqref="C1455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -19041,8 +19041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1448" workbookViewId="0">
-      <selection activeCell="C1455" sqref="C1455"/>
+    <sheetView tabSelected="1" topLeftCell="A1582" workbookViewId="0">
+      <selection activeCell="B1591" sqref="B1591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -61353,7 +61353,7 @@
         <v>4231</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1527" s="1" t="s">
         <v>4234</v>
@@ -61385,7 +61385,7 @@
         <v>4239</v>
       </c>
       <c r="B1528" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1528" s="1" t="s">
         <v>4255</v>
@@ -61417,7 +61417,7 @@
         <v>4240</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1529" s="1" t="s">
         <v>4259</v>
@@ -61449,7 +61449,7 @@
         <v>4241</v>
       </c>
       <c r="B1530" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1530" s="1" t="s">
         <v>4263</v>
@@ -61481,7 +61481,7 @@
         <v>4242</v>
       </c>
       <c r="B1531" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1531" s="1" t="s">
         <v>4267</v>
@@ -61513,7 +61513,7 @@
         <v>4243</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1532" s="1" t="s">
         <v>4271</v>
@@ -61545,7 +61545,7 @@
         <v>4244</v>
       </c>
       <c r="B1533" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1533" s="1" t="s">
         <v>4275</v>
@@ -61577,7 +61577,7 @@
         <v>4245</v>
       </c>
       <c r="B1534" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1534" s="1" t="s">
         <v>4279</v>
@@ -61609,7 +61609,7 @@
         <v>4246</v>
       </c>
       <c r="B1535" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1535" s="1" t="s">
         <v>4283</v>
@@ -61641,7 +61641,7 @@
         <v>4247</v>
       </c>
       <c r="B1536" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1536" s="1" t="s">
         <v>4289</v>
@@ -61673,7 +61673,7 @@
         <v>4248</v>
       </c>
       <c r="B1537" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1537" s="1" t="s">
         <v>4287</v>
@@ -61705,7 +61705,7 @@
         <v>4249</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1538" s="1" t="s">
         <v>4313</v>
@@ -61737,7 +61737,7 @@
         <v>4250</v>
       </c>
       <c r="B1539" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1539" s="1" t="s">
         <v>4314</v>
@@ -61769,7 +61769,7 @@
         <v>4251</v>
       </c>
       <c r="B1540" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1540" s="1" t="s">
         <v>4315</v>
@@ -61801,7 +61801,7 @@
         <v>4252</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1541" s="1" t="s">
         <v>4316</v>
@@ -61833,7 +61833,7 @@
         <v>4253</v>
       </c>
       <c r="B1542" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1542" s="1" t="s">
         <v>4317</v>
@@ -61865,7 +61865,7 @@
         <v>4254</v>
       </c>
       <c r="B1543" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1543" s="1" t="s">
         <v>4318</v>
@@ -61897,7 +61897,7 @@
         <v>4319</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1544" s="1" t="s">
         <v>4325</v>
@@ -61929,7 +61929,7 @@
         <v>4356</v>
       </c>
       <c r="B1545" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1545" s="1" t="s">
         <v>4349</v>
@@ -61961,7 +61961,7 @@
         <v>4320</v>
       </c>
       <c r="B1546" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1546" s="1" t="s">
         <v>4351</v>
@@ -61996,7 +61996,7 @@
         <v>4321</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1547" s="1" t="s">
         <v>4350</v>
@@ -62031,7 +62031,7 @@
         <v>4391</v>
       </c>
       <c r="B1548" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1548" s="1" t="s">
         <v>4360</v>
@@ -62063,7 +62063,7 @@
         <v>4322</v>
       </c>
       <c r="B1549" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1549" s="1" t="s">
         <v>4358</v>
@@ -62098,7 +62098,7 @@
         <v>4323</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1550" s="1" t="s">
         <v>4359</v>
@@ -62133,7 +62133,7 @@
         <v>4446</v>
       </c>
       <c r="B1551" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1551" s="1" t="s">
         <v>4368</v>
@@ -62165,7 +62165,7 @@
         <v>4324</v>
       </c>
       <c r="B1552" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1552" s="1" t="s">
         <v>4372</v>
@@ -62197,7 +62197,7 @@
         <v>4393</v>
       </c>
       <c r="B1553" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1553" s="1" t="s">
         <v>4373</v>
@@ -62232,7 +62232,7 @@
         <v>4328</v>
       </c>
       <c r="B1554" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1554" s="1" t="s">
         <v>4374</v>
@@ -62267,7 +62267,7 @@
         <v>4329</v>
       </c>
       <c r="B1555" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1555" s="1" t="s">
         <v>4375</v>
@@ -62302,7 +62302,7 @@
         <v>4330</v>
       </c>
       <c r="B1556" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1556" s="1" t="s">
         <v>4376</v>
@@ -62337,7 +62337,7 @@
         <v>4331</v>
       </c>
       <c r="B1557" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1557" s="1" t="s">
         <v>4377</v>
@@ -62372,7 +62372,7 @@
         <v>4332</v>
       </c>
       <c r="B1558" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1558" s="1" t="s">
         <v>4395</v>
@@ -62404,7 +62404,7 @@
         <v>4333</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1559" s="1" t="s">
         <v>4395</v>
@@ -62439,7 +62439,7 @@
         <v>4334</v>
       </c>
       <c r="B1560" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1560" s="1" t="s">
         <v>4395</v>
@@ -62474,7 +62474,7 @@
         <v>4335</v>
       </c>
       <c r="B1561" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1561" s="1" t="s">
         <v>4395</v>
@@ -62509,7 +62509,7 @@
         <v>4336</v>
       </c>
       <c r="B1562" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1562" s="1" t="s">
         <v>4395</v>
@@ -62544,7 +62544,7 @@
         <v>4337</v>
       </c>
       <c r="B1563" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1563" s="1" t="s">
         <v>4408</v>
@@ -62576,7 +62576,7 @@
         <v>4338</v>
       </c>
       <c r="B1564" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1564" s="1" t="s">
         <v>4408</v>
@@ -62611,7 +62611,7 @@
         <v>4339</v>
       </c>
       <c r="B1565" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1565" s="1" t="s">
         <v>4408</v>
@@ -62646,7 +62646,7 @@
         <v>4340</v>
       </c>
       <c r="B1566" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1566" s="1" t="s">
         <v>4417</v>
@@ -62678,7 +62678,7 @@
         <v>4341</v>
       </c>
       <c r="B1567" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1567" s="1" t="s">
         <v>4422</v>
@@ -62713,7 +62713,7 @@
         <v>4342</v>
       </c>
       <c r="B1568" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1568" s="1" t="s">
         <v>4425</v>
@@ -62748,7 +62748,7 @@
         <v>4343</v>
       </c>
       <c r="B1569" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1569" s="1" t="s">
         <v>4432</v>
@@ -62783,7 +62783,7 @@
         <v>4344</v>
       </c>
       <c r="B1570" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1570" s="1" t="s">
         <v>4433</v>
@@ -62818,7 +62818,7 @@
         <v>4345</v>
       </c>
       <c r="B1571" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1571" s="1" t="s">
         <v>4434</v>
@@ -62853,7 +62853,7 @@
         <v>4418</v>
       </c>
       <c r="B1572" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1572" s="1" t="s">
         <v>4435</v>
@@ -62888,7 +62888,7 @@
         <v>4428</v>
       </c>
       <c r="B1573" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1573" s="1" t="s">
         <v>4436</v>
@@ -62923,7 +62923,7 @@
         <v>4429</v>
       </c>
       <c r="B1574" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1574" s="1" t="s">
         <v>4437</v>
@@ -62958,7 +62958,7 @@
         <v>4430</v>
       </c>
       <c r="B1575" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1575" s="1" t="s">
         <v>4438</v>
@@ -62993,7 +62993,7 @@
         <v>4431</v>
       </c>
       <c r="B1576" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1576" s="1" t="s">
         <v>4455</v>
@@ -63028,7 +63028,7 @@
         <v>4454</v>
       </c>
       <c r="B1577" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1577" s="1" t="s">
         <v>4456</v>
@@ -63063,7 +63063,7 @@
         <v>4472</v>
       </c>
       <c r="B1578" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1578" s="1" t="s">
         <v>4466</v>
@@ -63095,7 +63095,7 @@
         <v>4461</v>
       </c>
       <c r="B1579" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1579" s="1" t="s">
         <v>4467</v>
@@ -63127,7 +63127,7 @@
         <v>4462</v>
       </c>
       <c r="B1580" s="4" t="s">
-        <v>4543</v>
+        <v>34</v>
       </c>
       <c r="C1580" s="1" t="s">
         <v>4467</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13938" uniqueCount="5274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15294" uniqueCount="5878">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18650,8 +18650,1825 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1609.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1755.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like查询匹配符号</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>schema27</t>
+  </si>
+  <si>
+    <t>qc1_value23</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%`%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1610</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%~'</t>
+  </si>
+  <si>
+    <t>dqlc1_1611</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%!'</t>
+  </si>
+  <si>
+    <t>dqlc1_1612</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%@%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1613</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%##'</t>
+  </si>
+  <si>
+    <t>dqlc1_1614</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\$\$'</t>
+  </si>
+  <si>
+    <t>dqlc1_1615</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like binary '%\%\%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1616</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%&amp;%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1617</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\*'</t>
+  </si>
+  <si>
+    <t>dqlc1_1618</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\(%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1619</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\)%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1620</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%-%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1621</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\_'</t>
+  </si>
+  <si>
+    <t>dqlc1_1622</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%=%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1623</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\+%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1624</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\{%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1625</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%]%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1626</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\}%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1627</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\|\| '</t>
+  </si>
+  <si>
+    <t>dqlc1_1628</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\;%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1629</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%:%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1630</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%"%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1631</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%&lt;%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1632</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%,%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1633</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%&gt;%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1634</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\.%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1635</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%/%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1636</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\?%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1637</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '`%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1638</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%123%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1639</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like binary '%Abc%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1640</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like 'test_'</t>
+  </si>
+  <si>
+    <t>dqlc1_1641</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like binary 'test__'</t>
+  </si>
+  <si>
+    <t>dqlc1_1642</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like 'test[~@\*=\]/ "\?]%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1643</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '__ [!#\%&amp;-\.]%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1644</t>
+  </si>
+  <si>
+    <t>scan表函数-查询全表数据</t>
+  </si>
+  <si>
+    <t>TableFunc</t>
+  </si>
+  <si>
+    <t>schema7</t>
+  </si>
+  <si>
+    <t>qc1_value11</t>
+  </si>
+  <si>
+    <t>select * from scan($schema7)</t>
+  </si>
+  <si>
+    <t>dqlc1_1645</t>
+  </si>
+  <si>
+    <t>scan表函数-查询指定多个字段</t>
+  </si>
+  <si>
+    <t>select id,name,phone from scan($schema7)</t>
+  </si>
+  <si>
+    <t>dqlc1_1646</t>
+  </si>
+  <si>
+    <t>scan表函数-范围条件过滤</t>
+  </si>
+  <si>
+    <t>select * from scan($schema7) where id &gt;5 and id &lt; 10</t>
+  </si>
+  <si>
+    <t>dqlc1_1647</t>
+  </si>
+  <si>
+    <t>scan表函数-like过滤</t>
+  </si>
+  <si>
+    <t>schema1</t>
+  </si>
+  <si>
+    <t>qc1_value01</t>
+  </si>
+  <si>
+    <t>select amount from scan($schema1) where address like '%beijing%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1648</t>
+  </si>
+  <si>
+    <t>scan表函数-表为空</t>
+  </si>
+  <si>
+    <t>select * from scan($schema1)</t>
+  </si>
+  <si>
+    <t>dqlc1_1649</t>
+  </si>
+  <si>
+    <t>scan多分区表</t>
+  </si>
+  <si>
+    <t>qc1_value13</t>
+  </si>
+  <si>
+    <t>select id,name,age,amount from scan($schema10)</t>
+  </si>
+  <si>
+    <t>dqlc1_1650</t>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个主键字段，通过非主键值排序</t>
+  </si>
+  <si>
+    <t>SQLFunctions</t>
+  </si>
+  <si>
+    <t>order by</t>
+  </si>
+  <si>
+    <t>schema6</t>
+  </si>
+  <si>
+    <t>qc1_value09</t>
+  </si>
+  <si>
+    <t>select name from $schema6 order by age</t>
+  </si>
+  <si>
+    <t>dqlc1_1651</t>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个非主键字段，通过主键值排序</t>
+  </si>
+  <si>
+    <t>select age from $schema6 order by name</t>
+  </si>
+  <si>
+    <t>dqlc1_1652</t>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个非主键字段，通过非主键值排序</t>
+  </si>
+  <si>
+    <t>select age from $schema6 order by age</t>
+  </si>
+  <si>
+    <t>dqlc1_1653</t>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个主键字段，通过主键值排序</t>
+  </si>
+  <si>
+    <t>select name from $schema6 order by name</t>
+  </si>
+  <si>
+    <t>dqlc1_1654</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个主键字段，通过主键值排序</t>
+  </si>
+  <si>
+    <t>schema9</t>
+  </si>
+  <si>
+    <t>select id from $schema9 order by id</t>
+  </si>
+  <si>
+    <t>dqlc1_1655</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个主键字段，通过主键和非主键排序</t>
+  </si>
+  <si>
+    <t>select id from $schema9 order by id,name</t>
+  </si>
+  <si>
+    <t>dqlc1_1656</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询主键和非主键字段，排序字段和查询字段相同</t>
+  </si>
+  <si>
+    <t>select id,name from $schema9 order by id,name</t>
+  </si>
+  <si>
+    <t>dqlc1_1657</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询主键和非主键字段，排序字段和查询字段不相同</t>
+  </si>
+  <si>
+    <t>select id,name from $schema9 order by id,age</t>
+  </si>
+  <si>
+    <t>dqlc1_1658</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个主键字段，通过非主键值排序</t>
+  </si>
+  <si>
+    <t>select id from $schema9 order by name</t>
+  </si>
+  <si>
+    <t>dqlc1_1659</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个非主键字段，通过主键值排序</t>
+  </si>
+  <si>
+    <t>select name from $schema9 order by id</t>
+  </si>
+  <si>
+    <t>dqlc1_1660</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个非主键字段，通过非主键值排序</t>
+  </si>
+  <si>
+    <t>select amount from $schema9 order by name</t>
+  </si>
+  <si>
+    <t>dqlc1_1661</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个主键字段，通过同主键值排序</t>
+  </si>
+  <si>
+    <t>schema4</t>
+  </si>
+  <si>
+    <t>qc1_value07</t>
+  </si>
+  <si>
+    <t>select update_time from $schema4 order by update_time</t>
+  </si>
+  <si>
+    <t>dqlc1_1662</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个主键字段，通过单个非主键值排序</t>
+  </si>
+  <si>
+    <t>select name from $schema4 order by birthday</t>
+  </si>
+  <si>
+    <t>dqlc1_1663</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个非主键字段，通过单个主键值排序</t>
+  </si>
+  <si>
+    <t>select address from $schema4 order by amount desc</t>
+  </si>
+  <si>
+    <t>dqlc1_1664</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个非主键字段，通过多个非主键值排序</t>
+  </si>
+  <si>
+    <t>select address from $schema4 order by age,create_time</t>
+  </si>
+  <si>
+    <t>dqlc1_1665</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个主键字段，通过多个主键值排序</t>
+  </si>
+  <si>
+    <t>select id from $schema4 order by id,name,update_time</t>
+  </si>
+  <si>
+    <t>dqlc1_1666</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个非主键字段，通过多个主键值排序</t>
+  </si>
+  <si>
+    <t>select create_time from $schema4 order by id,name</t>
+  </si>
+  <si>
+    <t>dqlc1_1667</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个主键字段，通过单个不同主键值排序</t>
+  </si>
+  <si>
+    <t>schema32</t>
+  </si>
+  <si>
+    <t>qc1_value24</t>
+  </si>
+  <si>
+    <t>select DIMENSION from $schema32 where metric_id&gt;=5 order by metric_id</t>
+  </si>
+  <si>
+    <t>dqlc1_1668</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个主键字段，通过多个非主键值排序</t>
+  </si>
+  <si>
+    <t>select metric_id from $schema32 order by gmt,phone</t>
+  </si>
+  <si>
+    <t>dqlc1_1669</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个非主键字段，通过单个主键值排序</t>
+  </si>
+  <si>
+    <t>select phone from $schema32 order by DIMENSION</t>
+  </si>
+  <si>
+    <t>dqlc1_1670</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个非主键字段，通过单个非主键值排序</t>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+  </si>
+  <si>
+    <t>byte_array</t>
+  </si>
+  <si>
+    <t>select byte_array from $schema32 order by gmt</t>
+  </si>
+  <si>
+    <t>dqlc1_1671</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询多个主键字段，通过多个主键值排序</t>
+  </si>
+  <si>
+    <t>select dimension,metric_id from $schema32 order by metric_id,dimension</t>
+  </si>
+  <si>
+    <t>dqlc1_1672</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询多个非主键字段，通过多个主键值排序</t>
+  </si>
+  <si>
+    <t>select gmt,phone from $schema32 order by dimension,metric_id</t>
+  </si>
+  <si>
+    <t>dqlc1_1673</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询主键和非主键，通过多个非主键排序</t>
+  </si>
+  <si>
+    <t>select metric_id,gmt,phone from $schema32 order by gmt,phone</t>
+  </si>
+  <si>
+    <t>dqlc1_1674</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询主键和非主键，通过其他主键和非主键排序</t>
+  </si>
+  <si>
+    <t>select dimension,phone from $schema32 order by metric_id,gmt</t>
+  </si>
+  <si>
+    <t>dqlc1_1675</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询主键和非主键，通过非主键绝对值排序</t>
+  </si>
+  <si>
+    <t>select metric_id,gmt,phone from $schema32 order by abs(gmt),phone</t>
+  </si>
+  <si>
+    <t>dqlc1_1676</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询全部</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mixindex016</t>
+  </si>
+  <si>
+    <t>mix_common_value1</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016</t>
+  </si>
+  <si>
+    <t>dqlc1_1677</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询主键区间</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016 where id between 200 and 500</t>
+  </si>
+  <si>
+    <t>dqlc1_1678</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询联合主键区间</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016 where id between 200 and 500 and birthday between '2010-01-01' and '2020-12-31'</t>
+  </si>
+  <si>
+    <t>dqlc1_1679</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询not between</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016 where id not between 200 and 500</t>
+  </si>
+  <si>
+    <t>dqlc1_1680</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询索引字段hash分区区间</t>
+  </si>
+  <si>
+    <t>select count(name) cn from $mixindex016 where name between 'A' and 'Z'</t>
+  </si>
+  <si>
+    <t>dqlc1_1681</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询索引字段range分区区间</t>
+  </si>
+  <si>
+    <t>select count(age) cn from $mixindex016 where age between 22 and 40</t>
+  </si>
+  <si>
+    <t>dqlc1_1682</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询普通字段区间</t>
+  </si>
+  <si>
+    <t>select count(price) cn from $mixindex016 where price between 1 and 100</t>
+  </si>
+  <si>
+    <t>dqlc1_1683</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count主键字段区间</t>
+  </si>
+  <si>
+    <t>select count(id) cn from $mixindex016 where id between 200 and 500</t>
+  </si>
+  <si>
+    <t>dqlc1_1684</t>
+  </si>
+  <si>
+    <t>表range分区向量索引count查询全部</t>
+  </si>
+  <si>
+    <t>mixindex017</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex017</t>
+  </si>
+  <si>
+    <t>dqlc1_1685</t>
+  </si>
+  <si>
+    <t>表range分区向量索引count查询主键区间</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex017 where id between 199 and 600</t>
+  </si>
+  <si>
+    <t>dqlc1_1686</t>
+  </si>
+  <si>
+    <t>表range分区向量索引count查询主键区间（not between)</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex017 where id not between 199 and 600</t>
+  </si>
+  <si>
+    <t>dqlc1_1687</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键等值查询 - 首列</t>
+  </si>
+  <si>
+    <t>schema34</t>
+  </si>
+  <si>
+    <t>qc1_value25</t>
+  </si>
+  <si>
+    <t>select uuid from $schema34 where uuid='jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+  </si>
+  <si>
+    <t>dqlc1_1688</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键大于范围查询 - 首列</t>
+  </si>
+  <si>
+    <t>select uuid from $schema34 where uuid&lt;'Zero'</t>
+  </si>
+  <si>
+    <t>dqlc1_1689</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键小于范围查询 - 首列</t>
+  </si>
+  <si>
+    <t>select uuid from $schema34 where uuid&gt;'Zero'</t>
+  </si>
+  <si>
+    <t>dqlc1_1690</t>
+  </si>
+  <si>
+    <t>单分区-bigint型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema35</t>
+  </si>
+  <si>
+    <t>select gmt from $schema35 where gmt=58150934</t>
+  </si>
+  <si>
+    <t>dqlc1_1691</t>
+  </si>
+  <si>
+    <t>单分区-bigint型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select gmt from $schema35 where gmt&gt;58150934</t>
+  </si>
+  <si>
+    <t>dqlc1_1692</t>
+  </si>
+  <si>
+    <t>单分区-bigint型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select gmt from $schema35 where gmt&lt;58150934</t>
+  </si>
+  <si>
+    <t>dqlc1_1693</t>
+  </si>
+  <si>
+    <t>单分区-float型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema36</t>
+  </si>
+  <si>
+    <t>select price from $schema36 where price=605.77</t>
+  </si>
+  <si>
+    <t>dqlc1_1694</t>
+  </si>
+  <si>
+    <t>单分区-float型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select price from $schema36 where price&gt;605.77</t>
+  </si>
+  <si>
+    <t>dqlc1_1695</t>
+  </si>
+  <si>
+    <t>单分区-float型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select price from $schema36 where price&lt;605.77</t>
+  </si>
+  <si>
+    <t>dqlc1_1696</t>
+  </si>
+  <si>
+    <t>单分区-double型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema37</t>
+  </si>
+  <si>
+    <t>select amount from $schema37 where amount=122076.4086</t>
+  </si>
+  <si>
+    <t>dqlc1_1697</t>
+  </si>
+  <si>
+    <t>单分区-double型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select amount from $schema37 where amount&gt;122076.4086</t>
+  </si>
+  <si>
+    <t>dqlc1_1698</t>
+  </si>
+  <si>
+    <t>单分区-double型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select amount from $schema37 where amount&lt;122076.4086</t>
+  </si>
+  <si>
+    <t>dqlc1_1699</t>
+  </si>
+  <si>
+    <t>单分区-date型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema38</t>
+  </si>
+  <si>
+    <t>select birthday from $schema38 where birthday='2000-07-27'</t>
+  </si>
+  <si>
+    <t>dqlc1_1700</t>
+  </si>
+  <si>
+    <t>单分区-date型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select birthday from $schema38 where birthday&gt;'2000-07-27'</t>
+  </si>
+  <si>
+    <t>dqlc1_1701</t>
+  </si>
+  <si>
+    <t>单分区-date型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select birthday from $schema38 where birthday&lt;'2000-07-27'</t>
+  </si>
+  <si>
+    <t>dqlc1_1702</t>
+  </si>
+  <si>
+    <t>单分区-time型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema39</t>
+  </si>
+  <si>
+    <t>select create_time from $schema39 where create_time='12:07:47'</t>
+  </si>
+  <si>
+    <t>dqlc1_1703</t>
+  </si>
+  <si>
+    <t>单分区-time型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select create_time from $schema39 where create_time&gt;'12:07:47'</t>
+  </si>
+  <si>
+    <t>dqlc1_1704</t>
+  </si>
+  <si>
+    <t>单分区-time型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select create_time from $schema39 where create_time&lt;'12:07:47'</t>
+  </si>
+  <si>
+    <t>dqlc1_1705</t>
+  </si>
+  <si>
+    <t>单分区-timestamp型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema40</t>
+  </si>
+  <si>
+    <t>select update_time from $schema40 where update_time='2002-09-09 11:05:38'</t>
+  </si>
+  <si>
+    <t>dqlc1_1706</t>
+  </si>
+  <si>
+    <t>单分区-timestamp型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select update_time from $schema40 where update_time&gt;'2002-09-09 11:05:38'</t>
+  </si>
+  <si>
+    <t>dqlc1_1707</t>
+  </si>
+  <si>
+    <t>单分区-timestamp型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select update_time from $schema40 where update_time&lt;'2002-09-09 11:05:38'</t>
+  </si>
+  <si>
+    <t>dqlc1_1708</t>
+  </si>
+  <si>
+    <t>单分区-int型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema41</t>
+  </si>
+  <si>
+    <t>select age from $schema41 where age=50</t>
+  </si>
+  <si>
+    <t>dqlc1_1709</t>
+  </si>
+  <si>
+    <t>单分区-int型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select age from $schema41 where age&gt;50</t>
+  </si>
+  <si>
+    <t>dqlc1_1710</t>
+  </si>
+  <si>
+    <t>单分区-int型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select age from $schema41 where age&lt;50</t>
+  </si>
+  <si>
+    <t>dqlc1_1711</t>
+  </si>
+  <si>
+    <t>单分区-boolean型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema42</t>
+  </si>
+  <si>
+    <t>select is_delete from $schema42 where is_delete=true</t>
+  </si>
+  <si>
+    <t>dqlc1_1712</t>
+  </si>
+  <si>
+    <t>单分区-boolean型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select is_delete from $schema42 where is_delete&gt;true</t>
+  </si>
+  <si>
+    <t>dqlc1_1713</t>
+  </si>
+  <si>
+    <t>单分区-boolean型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select is_delete from $schema42 where is_delete&lt;true</t>
+  </si>
+  <si>
+    <t>dqlc1_1714</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键等值查询 - 非首列</t>
+  </si>
+  <si>
+    <t>schema43</t>
+  </si>
+  <si>
+    <t>select name from $schema43 where name='ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1715</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键大于范围查询 - 非首列</t>
+  </si>
+  <si>
+    <t>select name from $schema43 where name&gt;'ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1716</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键小于范围查询 - 非首列</t>
+  </si>
+  <si>
+    <t>select name from $schema43 where name&lt;'ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1717</t>
+  </si>
+  <si>
+    <t>hash分区-字符型主键等值查询 - 首列</t>
+  </si>
+  <si>
+    <t>schema44</t>
+  </si>
+  <si>
+    <t>qc1_value26</t>
+  </si>
+  <si>
+    <t>select uuid,gmt from $schema44 where uuid='jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+  </si>
+  <si>
+    <t>dqlc1_1718</t>
+  </si>
+  <si>
+    <t>hash分区-字符型主键大于范围查询 - 首列</t>
+  </si>
+  <si>
+    <t>select uuid,gmt from $schema44 where uuid&gt;'jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+  </si>
+  <si>
+    <t>dqlc1_1719</t>
+  </si>
+  <si>
+    <t>hash分区-字符型主键小于范围查询 - 首列</t>
+  </si>
+  <si>
+    <t>select * from $schema44 where uuid&lt;'jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+  </si>
+  <si>
+    <t>dqlc1_1720</t>
+  </si>
+  <si>
+    <t>hash分区-bigint型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema45</t>
+  </si>
+  <si>
+    <t>select gmt,name from $schema45 where gmt=58150934</t>
+  </si>
+  <si>
+    <t>dqlc1_1721</t>
+  </si>
+  <si>
+    <t>hash分区-bigint型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select gmt,name from $schema45 where gmt&gt;58150934</t>
+  </si>
+  <si>
+    <t>dqlc1_1722</t>
+  </si>
+  <si>
+    <t>hash分区-bigint型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema45 where gmt&lt;58150934</t>
+  </si>
+  <si>
+    <t>dqlc1_1723</t>
+  </si>
+  <si>
+    <t>hash分区-float型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema46</t>
+  </si>
+  <si>
+    <t>select price,age from $schema46 where price=605.77</t>
+  </si>
+  <si>
+    <t>dqlc1_1724</t>
+  </si>
+  <si>
+    <t>hash分区-float型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select price,age from $schema46 where price&gt;605.77</t>
+  </si>
+  <si>
+    <t>dqlc1_1725</t>
+  </si>
+  <si>
+    <t>hash分区-float型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema46 where price&lt;605.77</t>
+  </si>
+  <si>
+    <t>dqlc1_1726</t>
+  </si>
+  <si>
+    <t>hash分区-double型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema47</t>
+  </si>
+  <si>
+    <t>select amount,birthday from $schema47 where amount=122076.4086</t>
+  </si>
+  <si>
+    <t>dqlc1_1727</t>
+  </si>
+  <si>
+    <t>hash分区-double型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select amount,birthday from $schema47 where amount&gt;122076.4086</t>
+  </si>
+  <si>
+    <t>dqlc1_1728</t>
+  </si>
+  <si>
+    <t>hash分区-double型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema47 where amount&lt;122076.4086</t>
+  </si>
+  <si>
+    <t>dqlc1_1729</t>
+  </si>
+  <si>
+    <t>hash分区-date型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema48</t>
+  </si>
+  <si>
+    <t>select birthday,address from $schema48 where birthday='2000-07-27'</t>
+  </si>
+  <si>
+    <t>dqlc1_1730</t>
+  </si>
+  <si>
+    <t>hash分区-date型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select birthday,address from $schema48 where birthday&gt;'2000-07-27'</t>
+  </si>
+  <si>
+    <t>dqlc1_1731</t>
+  </si>
+  <si>
+    <t>hash分区-date型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema48 where birthday&lt;'2000-07-27'</t>
+  </si>
+  <si>
+    <t>dqlc1_1732</t>
+  </si>
+  <si>
+    <t>hash分区-time型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema49</t>
+  </si>
+  <si>
+    <t>select create_time,zip_code from $schema49 where create_time='12:07:47'</t>
+  </si>
+  <si>
+    <t>dqlc1_1733</t>
+  </si>
+  <si>
+    <t>hash分区-time型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select create_time,zip_code from $schema49 where create_time&gt;'12:07:47'</t>
+  </si>
+  <si>
+    <t>dqlc1_1734</t>
+  </si>
+  <si>
+    <t>hash分区-time型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema49 where create_time&lt;'12:07:47'</t>
+  </si>
+  <si>
+    <t>dqlc1_1735</t>
+  </si>
+  <si>
+    <t>hash分区-timestamp型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema50</t>
+  </si>
+  <si>
+    <t>select update_time,price from $schema50 where update_time='2002-09-09 11:05:38'</t>
+  </si>
+  <si>
+    <t>dqlc1_1736</t>
+  </si>
+  <si>
+    <t>hash分区-timestamp型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select update_time,price from $schema50 where update_time&gt;'2002-09-09 11:05:38'</t>
+  </si>
+  <si>
+    <t>dqlc1_1737</t>
+  </si>
+  <si>
+    <t>hash分区-timestamp型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema50 where update_time&lt;'2002-09-09 11:05:38'</t>
+  </si>
+  <si>
+    <t>dqlc1_1738</t>
+  </si>
+  <si>
+    <t>hash分区-int型主键等值查询</t>
+  </si>
+  <si>
+    <t>schema51</t>
+  </si>
+  <si>
+    <t>select age,name from $schema51 where age=50</t>
+  </si>
+  <si>
+    <t>dqlc1_1739</t>
+  </si>
+  <si>
+    <t>hash分区-int型主键大于范围查询</t>
+  </si>
+  <si>
+    <t>select age,name from $schema51 where age&gt;50</t>
+  </si>
+  <si>
+    <t>dqlc1_1740</t>
+  </si>
+  <si>
+    <t>hash分区-int型主键小于范围查询</t>
+  </si>
+  <si>
+    <t>select * from $schema51 where age&lt;50</t>
+  </si>
+  <si>
+    <t>dqlc1_1741</t>
+  </si>
+  <si>
+    <t>hash分区-字符型主键等值查询 - 非首列</t>
+  </si>
+  <si>
+    <t>schema52</t>
+  </si>
+  <si>
+    <t>select name,amount from $schema52 where name='ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1742</t>
+  </si>
+  <si>
+    <t>hash分区-字符型主键大于范围查询 - 非首列</t>
+  </si>
+  <si>
+    <t>select name,amount from $schema52 where name&gt;'ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1743</t>
+  </si>
+  <si>
+    <t>hash分区-字符型主键小于范围查询 - 非首列</t>
+  </si>
+  <si>
+    <t>select * from $schema52 where name&lt;'ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1744</t>
+  </si>
+  <si>
+    <t>通过主键字段等值查询非主键字段</t>
+  </si>
+  <si>
+    <t>select age from $schema52 where name='ME50'</t>
+  </si>
+  <si>
+    <t>dqlc1_1745</t>
+  </si>
+  <si>
+    <t>通过主键字段大于查询非主键字段</t>
+  </si>
+  <si>
+    <t>select uuid from $schema52 where name&gt;'ME50' order by uuid</t>
+  </si>
+  <si>
+    <t>dqlc1_1746</t>
+  </si>
+  <si>
+    <t>通过主键字段小于查询非主键字段</t>
+  </si>
+  <si>
+    <t>select birthday,amount from $schema52 where name&lt;'ME50' order by name</t>
+  </si>
+  <si>
+    <t>dqlc1_1747</t>
+  </si>
+  <si>
+    <t>hash分区-boolean型主键count查询</t>
+  </si>
+  <si>
+    <t>schema53</t>
+  </si>
+  <si>
+    <t>select count(is_delete) ci from $schema53</t>
+  </si>
+  <si>
+    <t>dqlc1_1748</t>
+  </si>
+  <si>
+    <t>通过主键字段like查询</t>
+  </si>
+  <si>
+    <t>select name from $schema52 where name like 'c6%'</t>
+  </si>
+  <si>
+    <t>dqlc1_1749</t>
+  </si>
+  <si>
+    <t>hash分区表inner join</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>schema54,schema55</t>
+  </si>
+  <si>
+    <t>qc1_value11,qc1_value12</t>
+  </si>
+  <si>
+    <t>select name, boyname from $schema54 inner join $schema55 on $schema54.boyfriend_id=$schema55.id where $schema54.id&lt;10</t>
+  </si>
+  <si>
+    <t>dqlc1_1750</t>
+  </si>
+  <si>
+    <t>hash分区表left join</t>
+  </si>
+  <si>
+    <t>left join</t>
+  </si>
+  <si>
+    <t>select a.id,a.name from $schema54 a left join $schema55 b on b.id=a.boyfriend_id where b.id is null and a.id&lt;7</t>
+  </si>
+  <si>
+    <t>dqlc1_1751</t>
+  </si>
+  <si>
+    <t>hash分区表right join</t>
+  </si>
+  <si>
+    <t>right join</t>
+  </si>
+  <si>
+    <t>select $schema54.boyfriend_id,$schema55.id,$schema55.boyname from $schema54 right join $schema55 on $schema55.id=$schema54.boyfriend_id where $schema54.boyfriend_id is null</t>
+  </si>
+  <si>
+    <t>dqlc1_1752</t>
+  </si>
+  <si>
+    <t>索引表inner join</t>
+  </si>
+  <si>
+    <t>mixindex010_0,mixindex010_1</t>
+  </si>
+  <si>
+    <t>mix_common_value1,mix_common_value2</t>
+  </si>
+  <si>
+    <t>select $mixindex010_0.id id1,$mixindex010_0.name name1,$mixindex010_0.price price1,$mixindex010_1.id id2,$mixindex010_1.name name2,$mixindex010_1.price price2 from $mixindex010_0 inner join $mixindex010_1 on $mixindex010_0.price=$mixindex010_1.price</t>
+  </si>
+  <si>
+    <t>dqlc1_1753</t>
+  </si>
+  <si>
+    <t>索引表left join</t>
+  </si>
+  <si>
+    <t>select $mixindex010_0.feature_id fid1,$mixindex010_0.name name1,$mixindex010_0.age age1,$mixindex010_1.feature_id fid2,$mixindex010_1.name name2,$mixindex010_1.age age2 from $mixindex010_0 left join $mixindex010_1 on $mixindex010_0.name=$mixindex010_1.name where $mixindex010_0.name&lt;&gt;'' and $mixindex010_0.age between 20 and 30 and $mixindex010_1.feature_id is not null</t>
+  </si>
+  <si>
+    <t>dqlc1_1754</t>
+  </si>
+  <si>
+    <t>索引表right join</t>
+  </si>
+  <si>
+    <t>select $mixindex010_1.id,$mixindex010_1.age from $mixindex010_0 right join $mixindex010_1 on $mixindex010_0.age=$mixindex010_1.age where $mixindex010_1.age=35 and $mixindex010_0.name='p'</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1609.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1610.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1611.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1612.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1613.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1614.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1615.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1616.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1617.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1618.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1619.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1620.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1621.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1622.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1623.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1624.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1625.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1626.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1627.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1628.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1629.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1630.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1631.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1632.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1633.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1634.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1635.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1636.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1637.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1638.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1639.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1640.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1641.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1642.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Like/queryc1_1643.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/TableFunction/queryc1_1644.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/TableFunction/queryc1_1645.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/TableFunction/queryc1_1646.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/TableFunction/queryc1_1647.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/TableFunction/queryc1_1648.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/TableFunction/queryc1_1649.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1650.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1651.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1652.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1653.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1654.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1655.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1656.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1657.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1658.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1659.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1660.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1661.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1662.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1663.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1664.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1665.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1666.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1667.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1668.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1669.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1670.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1671.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1672.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1673.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1674.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1675.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1676.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1677.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1678.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1679.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1680.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1681.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1682.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1683.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1684.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1685.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1686.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1687.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1688.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1689.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1690.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1691.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1692.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1693.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1694.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1695.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1696.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1697.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1698.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1699.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1700.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1701.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1702.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1703.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1704.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1705.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1706.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1707.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1708.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1709.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1710.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1711.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1712.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1713.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1714.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1715.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1716.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1717.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1718.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1719.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1720.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1721.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1722.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1723.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1724.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1725.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1726.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1727.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1728.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1729.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1730.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1731.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1732.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1733.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1734.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1735.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1736.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1737.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1738.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1739.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1740.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1741.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1742.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1743.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1744.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1745.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1746.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1747.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1748.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1749.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1750.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1751.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1752.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1753.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1754.csv</t>
   </si>
 </sst>
 </file>
@@ -18729,7 +20546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -18738,6 +20555,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19039,10 +20860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1610"/>
+  <dimension ref="A1:K1756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1582" workbookViewId="0">
-      <selection activeCell="B1591" sqref="B1591"/>
+    <sheetView tabSelected="1" topLeftCell="A1729" workbookViewId="0">
+      <selection activeCell="D1750" sqref="D1750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19056,7 +20877,7 @@
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="65.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -64071,44 +65892,4654 @@
       </c>
     </row>
     <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1610" s="1" t="s">
+      <c r="A1610" s="9" t="s">
         <v>5267</v>
       </c>
-      <c r="B1610" s="1" t="s">
+      <c r="B1610" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1610" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1610" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1610" s="8"/>
+      <c r="F1610" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1610" s="9" t="s">
+        <v>5278</v>
+      </c>
+      <c r="H1610" s="8"/>
+      <c r="I1610" s="9" t="s">
+        <v>5279</v>
+      </c>
+      <c r="J1610" s="9" t="s">
+        <v>5732</v>
+      </c>
+      <c r="K1610" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1611" s="9" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B1611" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1611" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1611" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1611" s="8"/>
+      <c r="F1611" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1611" s="8"/>
+      <c r="H1611" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1611" s="9" t="s">
+        <v>5281</v>
+      </c>
+      <c r="J1611" s="9" t="s">
+        <v>5733</v>
+      </c>
+      <c r="K1611" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1612" s="9" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B1612" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1612" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1612" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1612" s="8"/>
+      <c r="F1612" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1612" s="8"/>
+      <c r="H1612" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1612" s="9" t="s">
+        <v>5283</v>
+      </c>
+      <c r="J1612" s="9" t="s">
+        <v>5734</v>
+      </c>
+      <c r="K1612" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1613" s="9" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B1613" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1613" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1613" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1613" s="8"/>
+      <c r="F1613" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1613" s="8"/>
+      <c r="H1613" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1613" s="9" t="s">
+        <v>5285</v>
+      </c>
+      <c r="J1613" s="9" t="s">
+        <v>5735</v>
+      </c>
+      <c r="K1613" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1614" s="9" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B1614" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1614" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1614" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1614" s="8"/>
+      <c r="F1614" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1614" s="8"/>
+      <c r="H1614" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1614" s="9" t="s">
+        <v>5287</v>
+      </c>
+      <c r="J1614" s="9" t="s">
+        <v>5736</v>
+      </c>
+      <c r="K1614" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1615" s="9" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B1615" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1615" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1615" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1615" s="8"/>
+      <c r="F1615" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1615" s="8"/>
+      <c r="H1615" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1615" s="9" t="s">
+        <v>5289</v>
+      </c>
+      <c r="J1615" s="9" t="s">
+        <v>5737</v>
+      </c>
+      <c r="K1615" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1616" s="9" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B1616" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1616" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1616" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1616" s="8"/>
+      <c r="F1616" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1616" s="8"/>
+      <c r="H1616" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1616" s="9" t="s">
+        <v>5291</v>
+      </c>
+      <c r="J1616" s="9" t="s">
+        <v>5738</v>
+      </c>
+      <c r="K1616" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1617" s="9" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B1617" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1617" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1617" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1617" s="8"/>
+      <c r="F1617" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1617" s="8"/>
+      <c r="H1617" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1617" s="9" t="s">
+        <v>5293</v>
+      </c>
+      <c r="J1617" s="9" t="s">
+        <v>5739</v>
+      </c>
+      <c r="K1617" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1618" s="9" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B1618" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1618" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1618" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1618" s="8"/>
+      <c r="F1618" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1618" s="8"/>
+      <c r="H1618" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1618" s="9" t="s">
+        <v>5295</v>
+      </c>
+      <c r="J1618" s="9" t="s">
+        <v>5740</v>
+      </c>
+      <c r="K1618" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1619" s="9" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B1619" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1619" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1619" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1619" s="8"/>
+      <c r="F1619" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1619" s="8"/>
+      <c r="H1619" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1619" s="9" t="s">
+        <v>5297</v>
+      </c>
+      <c r="J1619" s="9" t="s">
+        <v>5741</v>
+      </c>
+      <c r="K1619" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1620" s="9" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B1620" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1620" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1620" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1620" s="8"/>
+      <c r="F1620" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1620" s="8"/>
+      <c r="H1620" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1620" s="9" t="s">
+        <v>5299</v>
+      </c>
+      <c r="J1620" s="9" t="s">
+        <v>5742</v>
+      </c>
+      <c r="K1620" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1621" s="9" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B1621" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1621" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1621" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1621" s="8"/>
+      <c r="F1621" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1621" s="8"/>
+      <c r="H1621" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1621" s="9" t="s">
+        <v>5301</v>
+      </c>
+      <c r="J1621" s="9" t="s">
+        <v>5743</v>
+      </c>
+      <c r="K1621" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1622" s="9" t="s">
+        <v>5302</v>
+      </c>
+      <c r="B1622" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1622" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1622" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1622" s="8"/>
+      <c r="F1622" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1622" s="8"/>
+      <c r="H1622" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1622" s="9" t="s">
+        <v>5303</v>
+      </c>
+      <c r="J1622" s="9" t="s">
+        <v>5744</v>
+      </c>
+      <c r="K1622" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1623" s="9" t="s">
+        <v>5304</v>
+      </c>
+      <c r="B1623" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1623" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1623" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1623" s="8"/>
+      <c r="F1623" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1623" s="8"/>
+      <c r="H1623" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1623" s="9" t="s">
+        <v>5305</v>
+      </c>
+      <c r="J1623" s="9" t="s">
+        <v>5745</v>
+      </c>
+      <c r="K1623" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1624" s="9" t="s">
+        <v>5306</v>
+      </c>
+      <c r="B1624" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1624" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1624" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1624" s="8"/>
+      <c r="F1624" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1624" s="8"/>
+      <c r="H1624" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1624" s="9" t="s">
+        <v>5307</v>
+      </c>
+      <c r="J1624" s="9" t="s">
+        <v>5746</v>
+      </c>
+      <c r="K1624" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1625" s="9" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B1625" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1625" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1625" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1625" s="8"/>
+      <c r="F1625" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1625" s="8"/>
+      <c r="H1625" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1625" s="9" t="s">
+        <v>5309</v>
+      </c>
+      <c r="J1625" s="9" t="s">
+        <v>5747</v>
+      </c>
+      <c r="K1625" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1626" s="9" t="s">
+        <v>5310</v>
+      </c>
+      <c r="B1626" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1626" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1626" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1626" s="8"/>
+      <c r="F1626" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1626" s="8"/>
+      <c r="H1626" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1626" s="9" t="s">
+        <v>5311</v>
+      </c>
+      <c r="J1626" s="9" t="s">
+        <v>5748</v>
+      </c>
+      <c r="K1626" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1627" s="9" t="s">
+        <v>5312</v>
+      </c>
+      <c r="B1627" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1627" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1627" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1627" s="8"/>
+      <c r="F1627" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1627" s="8"/>
+      <c r="H1627" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1627" s="9" t="s">
+        <v>5313</v>
+      </c>
+      <c r="J1627" s="9" t="s">
+        <v>5749</v>
+      </c>
+      <c r="K1627" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1628" s="9" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B1628" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1628" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1628" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1628" s="8"/>
+      <c r="F1628" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1628" s="8"/>
+      <c r="H1628" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1628" s="9" t="s">
+        <v>5315</v>
+      </c>
+      <c r="J1628" s="9" t="s">
+        <v>5750</v>
+      </c>
+      <c r="K1628" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1629" s="9" t="s">
+        <v>5316</v>
+      </c>
+      <c r="B1629" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1629" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1629" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1629" s="8"/>
+      <c r="F1629" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1629" s="8"/>
+      <c r="H1629" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1629" s="9" t="s">
+        <v>5317</v>
+      </c>
+      <c r="J1629" s="9" t="s">
+        <v>5751</v>
+      </c>
+      <c r="K1629" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1630" s="9" t="s">
+        <v>5318</v>
+      </c>
+      <c r="B1630" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1630" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1630" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1630" s="8"/>
+      <c r="F1630" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1630" s="8"/>
+      <c r="H1630" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1630" s="9" t="s">
+        <v>5319</v>
+      </c>
+      <c r="J1630" s="9" t="s">
+        <v>5752</v>
+      </c>
+      <c r="K1630" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1631" s="9" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B1631" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1631" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1631" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1631" s="8"/>
+      <c r="F1631" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1631" s="8"/>
+      <c r="H1631" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1631" s="9" t="s">
+        <v>5321</v>
+      </c>
+      <c r="J1631" s="9" t="s">
+        <v>5753</v>
+      </c>
+      <c r="K1631" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1632" s="9" t="s">
+        <v>5322</v>
+      </c>
+      <c r="B1632" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1632" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1632" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1632" s="8"/>
+      <c r="F1632" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1632" s="8"/>
+      <c r="H1632" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1632" s="9" t="s">
+        <v>5323</v>
+      </c>
+      <c r="J1632" s="9" t="s">
+        <v>5754</v>
+      </c>
+      <c r="K1632" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1633" s="9" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B1633" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1633" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1633" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1633" s="8"/>
+      <c r="F1633" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1633" s="8"/>
+      <c r="H1633" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1633" s="9" t="s">
+        <v>5325</v>
+      </c>
+      <c r="J1633" s="9" t="s">
+        <v>5755</v>
+      </c>
+      <c r="K1633" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1634" s="9" t="s">
+        <v>5326</v>
+      </c>
+      <c r="B1634" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1634" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1634" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1634" s="8"/>
+      <c r="F1634" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1634" s="8"/>
+      <c r="H1634" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1634" s="9" t="s">
+        <v>5327</v>
+      </c>
+      <c r="J1634" s="9" t="s">
+        <v>5756</v>
+      </c>
+      <c r="K1634" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1635" s="9" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B1635" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1635" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1635" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1635" s="8"/>
+      <c r="F1635" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1635" s="8"/>
+      <c r="H1635" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1635" s="9" t="s">
+        <v>5329</v>
+      </c>
+      <c r="J1635" s="9" t="s">
+        <v>5757</v>
+      </c>
+      <c r="K1635" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1636" s="9" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B1636" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1636" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1636" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1636" s="8"/>
+      <c r="F1636" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1636" s="8"/>
+      <c r="H1636" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1636" s="9" t="s">
+        <v>5331</v>
+      </c>
+      <c r="J1636" s="9" t="s">
+        <v>5758</v>
+      </c>
+      <c r="K1636" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1637" s="9" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B1637" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1637" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1637" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1637" s="8"/>
+      <c r="F1637" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1637" s="8"/>
+      <c r="H1637" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1637" s="9" t="s">
+        <v>5333</v>
+      </c>
+      <c r="J1637" s="9" t="s">
+        <v>5759</v>
+      </c>
+      <c r="K1637" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1638" s="9" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B1638" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1638" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1638" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1638" s="8"/>
+      <c r="F1638" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1638" s="8"/>
+      <c r="H1638" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1638" s="9" t="s">
+        <v>5335</v>
+      </c>
+      <c r="J1638" s="9" t="s">
+        <v>5760</v>
+      </c>
+      <c r="K1638" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1639" s="9" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B1639" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1639" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1639" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1639" s="8"/>
+      <c r="F1639" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1639" s="8"/>
+      <c r="H1639" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1639" s="9" t="s">
+        <v>5337</v>
+      </c>
+      <c r="J1639" s="9" t="s">
+        <v>5761</v>
+      </c>
+      <c r="K1639" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1640" s="9" t="s">
+        <v>5338</v>
+      </c>
+      <c r="B1640" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1640" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1640" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1640" s="8"/>
+      <c r="F1640" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1640" s="8"/>
+      <c r="H1640" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1640" s="9" t="s">
+        <v>5339</v>
+      </c>
+      <c r="J1640" s="9" t="s">
+        <v>5762</v>
+      </c>
+      <c r="K1640" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1641" s="9" t="s">
+        <v>5340</v>
+      </c>
+      <c r="B1641" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1641" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1641" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1641" s="8"/>
+      <c r="F1641" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1641" s="8"/>
+      <c r="H1641" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1641" s="9" t="s">
+        <v>5341</v>
+      </c>
+      <c r="J1641" s="9" t="s">
+        <v>5763</v>
+      </c>
+      <c r="K1641" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1642" s="9" t="s">
+        <v>5342</v>
+      </c>
+      <c r="B1642" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1642" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1642" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1642" s="8"/>
+      <c r="F1642" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1642" s="8"/>
+      <c r="H1642" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1642" s="9" t="s">
+        <v>5343</v>
+      </c>
+      <c r="J1642" s="9" t="s">
+        <v>5764</v>
+      </c>
+      <c r="K1642" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1643" s="9" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B1643" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1643" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1643" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1643" s="8"/>
+      <c r="F1643" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1643" s="8"/>
+      <c r="H1643" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1643" s="9" t="s">
+        <v>5345</v>
+      </c>
+      <c r="J1643" s="9" t="s">
+        <v>5765</v>
+      </c>
+      <c r="K1643" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1644" s="9" t="s">
+        <v>5346</v>
+      </c>
+      <c r="B1644" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1644" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D1644" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1644" s="8"/>
+      <c r="F1644" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G1644" s="8"/>
+      <c r="H1644" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="I1644" s="9" t="s">
+        <v>5347</v>
+      </c>
+      <c r="J1644" s="9" t="s">
+        <v>5766</v>
+      </c>
+      <c r="K1644" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1645" s="11" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B1645" s="9" t="s">
         <v>4543</v>
       </c>
-      <c r="C1610" s="1" t="s">
+      <c r="C1645" s="9" t="s">
+        <v>5349</v>
+      </c>
+      <c r="D1645" s="9" t="s">
+        <v>5350</v>
+      </c>
+      <c r="E1645" s="8"/>
+      <c r="F1645" s="9" t="s">
+        <v>5351</v>
+      </c>
+      <c r="G1645" s="9" t="s">
+        <v>5352</v>
+      </c>
+      <c r="H1645" s="8"/>
+      <c r="I1645" s="9" t="s">
+        <v>5353</v>
+      </c>
+      <c r="J1645" s="9" t="s">
+        <v>5767</v>
+      </c>
+      <c r="K1645" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1646" s="11" t="s">
+        <v>5354</v>
+      </c>
+      <c r="B1646" s="9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1646" s="9" t="s">
+        <v>5355</v>
+      </c>
+      <c r="D1646" s="9" t="s">
+        <v>5350</v>
+      </c>
+      <c r="E1646" s="8"/>
+      <c r="F1646" s="9" t="s">
+        <v>5351</v>
+      </c>
+      <c r="G1646" s="8"/>
+      <c r="H1646" s="9" t="s">
+        <v>5348</v>
+      </c>
+      <c r="I1646" s="9" t="s">
+        <v>5356</v>
+      </c>
+      <c r="J1646" s="9" t="s">
+        <v>5768</v>
+      </c>
+      <c r="K1646" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1647" s="11" t="s">
+        <v>5357</v>
+      </c>
+      <c r="B1647" s="9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1647" s="9" t="s">
+        <v>5358</v>
+      </c>
+      <c r="D1647" s="9" t="s">
+        <v>5350</v>
+      </c>
+      <c r="E1647" s="8"/>
+      <c r="F1647" s="9" t="s">
+        <v>5351</v>
+      </c>
+      <c r="G1647" s="8"/>
+      <c r="H1647" s="9" t="s">
+        <v>5348</v>
+      </c>
+      <c r="I1647" s="9" t="s">
+        <v>5359</v>
+      </c>
+      <c r="J1647" s="9" t="s">
+        <v>5769</v>
+      </c>
+      <c r="K1647" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1648" s="11" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B1648" s="9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1648" s="9" t="s">
+        <v>5361</v>
+      </c>
+      <c r="D1648" s="9" t="s">
+        <v>5350</v>
+      </c>
+      <c r="E1648" s="8"/>
+      <c r="F1648" s="9" t="s">
+        <v>5362</v>
+      </c>
+      <c r="G1648" s="9" t="s">
+        <v>5363</v>
+      </c>
+      <c r="H1648" s="8"/>
+      <c r="I1648" s="9" t="s">
+        <v>5364</v>
+      </c>
+      <c r="J1648" s="9" t="s">
+        <v>5770</v>
+      </c>
+      <c r="K1648" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1649" s="11" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B1649" s="9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1649" s="9" t="s">
+        <v>5366</v>
+      </c>
+      <c r="D1649" s="9" t="s">
+        <v>5350</v>
+      </c>
+      <c r="E1649" s="8"/>
+      <c r="F1649" s="9" t="s">
+        <v>5362</v>
+      </c>
+      <c r="G1649" s="8"/>
+      <c r="H1649" s="8"/>
+      <c r="I1649" s="9" t="s">
+        <v>5367</v>
+      </c>
+      <c r="J1649" s="9" t="s">
+        <v>5771</v>
+      </c>
+      <c r="K1649" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1650" s="11" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B1650" s="9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1650" s="9" t="s">
+        <v>5369</v>
+      </c>
+      <c r="D1650" s="9" t="s">
+        <v>5350</v>
+      </c>
+      <c r="E1650" s="8"/>
+      <c r="F1650" s="9" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1650" s="9" t="s">
+        <v>5370</v>
+      </c>
+      <c r="H1650" s="8"/>
+      <c r="I1650" s="9" t="s">
+        <v>5371</v>
+      </c>
+      <c r="J1650" s="9" t="s">
+        <v>5772</v>
+      </c>
+      <c r="K1650" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1651" s="9" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B1651" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1651" s="9" t="s">
+        <v>5373</v>
+      </c>
+      <c r="D1651" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1651" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1651" s="9" t="s">
+        <v>5376</v>
+      </c>
+      <c r="G1651" s="9" t="s">
+        <v>5377</v>
+      </c>
+      <c r="H1651" s="8"/>
+      <c r="I1651" s="9" t="s">
+        <v>5378</v>
+      </c>
+      <c r="J1651" s="9" t="s">
+        <v>5773</v>
+      </c>
+      <c r="K1651" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1652" s="9" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B1652" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1652" s="9" t="s">
+        <v>5380</v>
+      </c>
+      <c r="D1652" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1652" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1652" s="9" t="s">
+        <v>5376</v>
+      </c>
+      <c r="G1652" s="8"/>
+      <c r="H1652" s="9" t="s">
+        <v>5372</v>
+      </c>
+      <c r="I1652" s="9" t="s">
+        <v>5381</v>
+      </c>
+      <c r="J1652" s="9" t="s">
+        <v>5774</v>
+      </c>
+      <c r="K1652" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1653" s="9" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B1653" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1653" s="9" t="s">
+        <v>5383</v>
+      </c>
+      <c r="D1653" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1653" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1653" s="9" t="s">
+        <v>5376</v>
+      </c>
+      <c r="G1653" s="8"/>
+      <c r="H1653" s="9" t="s">
+        <v>5372</v>
+      </c>
+      <c r="I1653" s="9" t="s">
+        <v>5384</v>
+      </c>
+      <c r="J1653" s="9" t="s">
+        <v>5775</v>
+      </c>
+      <c r="K1653" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1654" s="9" t="s">
+        <v>5385</v>
+      </c>
+      <c r="B1654" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1654" s="9" t="s">
+        <v>5386</v>
+      </c>
+      <c r="D1654" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1654" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1654" s="9" t="s">
+        <v>5376</v>
+      </c>
+      <c r="G1654" s="8"/>
+      <c r="H1654" s="9" t="s">
+        <v>5372</v>
+      </c>
+      <c r="I1654" s="9" t="s">
+        <v>5387</v>
+      </c>
+      <c r="J1654" s="9" t="s">
+        <v>5776</v>
+      </c>
+      <c r="K1654" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1655" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="B1655" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1655" s="9" t="s">
+        <v>5389</v>
+      </c>
+      <c r="D1655" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1655" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1655" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1655" s="9" t="s">
+        <v>5370</v>
+      </c>
+      <c r="H1655" s="8"/>
+      <c r="I1655" s="9" t="s">
+        <v>5391</v>
+      </c>
+      <c r="J1655" s="9" t="s">
+        <v>5777</v>
+      </c>
+      <c r="K1655" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1656" s="9" t="s">
+        <v>5392</v>
+      </c>
+      <c r="B1656" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1656" s="9" t="s">
+        <v>5393</v>
+      </c>
+      <c r="D1656" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1656" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1656" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1656" s="8"/>
+      <c r="H1656" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I1656" s="9" t="s">
+        <v>5394</v>
+      </c>
+      <c r="J1656" s="9" t="s">
+        <v>5778</v>
+      </c>
+      <c r="K1656" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1657" s="9" t="s">
+        <v>5395</v>
+      </c>
+      <c r="B1657" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1657" s="9" t="s">
+        <v>5396</v>
+      </c>
+      <c r="D1657" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1657" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1657" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1657" s="8"/>
+      <c r="H1657" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I1657" s="9" t="s">
+        <v>5397</v>
+      </c>
+      <c r="J1657" s="9" t="s">
+        <v>5779</v>
+      </c>
+      <c r="K1657" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1658" s="9" t="s">
+        <v>5398</v>
+      </c>
+      <c r="B1658" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1658" s="9" t="s">
+        <v>5399</v>
+      </c>
+      <c r="D1658" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1658" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1658" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1658" s="8"/>
+      <c r="H1658" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I1658" s="9" t="s">
+        <v>5400</v>
+      </c>
+      <c r="J1658" s="9" t="s">
+        <v>5780</v>
+      </c>
+      <c r="K1658" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1659" s="9" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B1659" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1659" s="9" t="s">
+        <v>5402</v>
+      </c>
+      <c r="D1659" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1659" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1659" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1659" s="8"/>
+      <c r="H1659" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I1659" s="9" t="s">
+        <v>5403</v>
+      </c>
+      <c r="J1659" s="9" t="s">
+        <v>5781</v>
+      </c>
+      <c r="K1659" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1660" s="9" t="s">
+        <v>5404</v>
+      </c>
+      <c r="B1660" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1660" s="9" t="s">
+        <v>5405</v>
+      </c>
+      <c r="D1660" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1660" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1660" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1660" s="8"/>
+      <c r="H1660" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I1660" s="9" t="s">
+        <v>5406</v>
+      </c>
+      <c r="J1660" s="9" t="s">
+        <v>5782</v>
+      </c>
+      <c r="K1660" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1661" s="9" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B1661" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1661" s="9" t="s">
+        <v>5408</v>
+      </c>
+      <c r="D1661" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1661" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1661" s="9" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G1661" s="8"/>
+      <c r="H1661" s="9" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I1661" s="9" t="s">
+        <v>5409</v>
+      </c>
+      <c r="J1661" s="9" t="s">
+        <v>5783</v>
+      </c>
+      <c r="K1661" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1662" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="B1662" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1662" s="9" t="s">
+        <v>5411</v>
+      </c>
+      <c r="D1662" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1662" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1662" s="9" t="s">
+        <v>5412</v>
+      </c>
+      <c r="G1662" s="9" t="s">
+        <v>5413</v>
+      </c>
+      <c r="H1662" s="8"/>
+      <c r="I1662" s="9" t="s">
+        <v>5414</v>
+      </c>
+      <c r="J1662" s="9" t="s">
+        <v>5784</v>
+      </c>
+      <c r="K1662" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1663" s="9" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B1663" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1663" s="9" t="s">
+        <v>5416</v>
+      </c>
+      <c r="D1663" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1663" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1663" s="9" t="s">
+        <v>5412</v>
+      </c>
+      <c r="G1663" s="8"/>
+      <c r="H1663" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="I1663" s="9" t="s">
+        <v>5417</v>
+      </c>
+      <c r="J1663" s="9" t="s">
+        <v>5785</v>
+      </c>
+      <c r="K1663" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1664" s="9" t="s">
+        <v>5418</v>
+      </c>
+      <c r="B1664" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1664" s="9" t="s">
+        <v>5419</v>
+      </c>
+      <c r="D1664" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1664" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1664" s="9" t="s">
+        <v>5412</v>
+      </c>
+      <c r="G1664" s="8"/>
+      <c r="H1664" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="I1664" s="9" t="s">
+        <v>5420</v>
+      </c>
+      <c r="J1664" s="9" t="s">
+        <v>5786</v>
+      </c>
+      <c r="K1664" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1665" s="9" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B1665" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1665" s="9" t="s">
+        <v>5422</v>
+      </c>
+      <c r="D1665" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1665" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1665" s="9" t="s">
+        <v>5412</v>
+      </c>
+      <c r="G1665" s="8"/>
+      <c r="H1665" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="I1665" s="9" t="s">
+        <v>5423</v>
+      </c>
+      <c r="J1665" s="9" t="s">
+        <v>5787</v>
+      </c>
+      <c r="K1665" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1666" s="9" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B1666" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1666" s="9" t="s">
+        <v>5425</v>
+      </c>
+      <c r="D1666" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1666" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1666" s="9" t="s">
+        <v>5412</v>
+      </c>
+      <c r="G1666" s="8"/>
+      <c r="H1666" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="I1666" s="9" t="s">
+        <v>5426</v>
+      </c>
+      <c r="J1666" s="9" t="s">
+        <v>5788</v>
+      </c>
+      <c r="K1666" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1667" s="9" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B1667" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1667" s="9" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D1667" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1667" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1667" s="9" t="s">
+        <v>5412</v>
+      </c>
+      <c r="G1667" s="8"/>
+      <c r="H1667" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="I1667" s="9" t="s">
+        <v>5429</v>
+      </c>
+      <c r="J1667" s="9" t="s">
+        <v>5789</v>
+      </c>
+      <c r="K1667" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1668" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B1668" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1668" s="9" t="s">
+        <v>5431</v>
+      </c>
+      <c r="D1668" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1668" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1668" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1668" s="9" t="s">
+        <v>5433</v>
+      </c>
+      <c r="H1668" s="8"/>
+      <c r="I1668" s="9" t="s">
+        <v>5434</v>
+      </c>
+      <c r="J1668" s="9" t="s">
+        <v>5790</v>
+      </c>
+      <c r="K1668" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1669" s="9" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B1669" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1669" s="9" t="s">
+        <v>5436</v>
+      </c>
+      <c r="D1669" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1669" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1669" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1669" s="8"/>
+      <c r="H1669" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1669" s="9" t="s">
+        <v>5437</v>
+      </c>
+      <c r="J1669" s="9" t="s">
+        <v>5791</v>
+      </c>
+      <c r="K1669" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1670" s="9" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B1670" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1670" s="9" t="s">
+        <v>5439</v>
+      </c>
+      <c r="D1670" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1670" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1670" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1670" s="8"/>
+      <c r="H1670" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1670" s="9" t="s">
+        <v>5440</v>
+      </c>
+      <c r="J1670" s="9" t="s">
+        <v>5792</v>
+      </c>
+      <c r="K1670" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1671" s="9" t="s">
+        <v>5441</v>
+      </c>
+      <c r="B1671" s="9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1671" s="9" t="s">
+        <v>5442</v>
+      </c>
+      <c r="D1671" s="9" t="s">
+        <v>5443</v>
+      </c>
+      <c r="E1671" s="9" t="s">
+        <v>5444</v>
+      </c>
+      <c r="F1671" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1671" s="8"/>
+      <c r="H1671" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1671" s="9" t="s">
+        <v>5445</v>
+      </c>
+      <c r="J1671" s="9" t="s">
+        <v>5793</v>
+      </c>
+      <c r="K1671" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1672" s="9" t="s">
+        <v>5446</v>
+      </c>
+      <c r="B1672" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1672" s="9" t="s">
+        <v>5447</v>
+      </c>
+      <c r="D1672" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1672" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1672" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1672" s="8"/>
+      <c r="H1672" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1672" s="9" t="s">
+        <v>5448</v>
+      </c>
+      <c r="J1672" s="9" t="s">
+        <v>5794</v>
+      </c>
+      <c r="K1672" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1673" s="9" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B1673" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1673" s="9" t="s">
+        <v>5450</v>
+      </c>
+      <c r="D1673" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1673" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1673" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1673" s="8"/>
+      <c r="H1673" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1673" s="9" t="s">
+        <v>5451</v>
+      </c>
+      <c r="J1673" s="9" t="s">
+        <v>5795</v>
+      </c>
+      <c r="K1673" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1674" s="9" t="s">
+        <v>5452</v>
+      </c>
+      <c r="B1674" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1674" s="9" t="s">
+        <v>5453</v>
+      </c>
+      <c r="D1674" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1674" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1674" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1674" s="8"/>
+      <c r="H1674" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1674" s="9" t="s">
+        <v>5454</v>
+      </c>
+      <c r="J1674" s="9" t="s">
+        <v>5796</v>
+      </c>
+      <c r="K1674" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1675" s="9" t="s">
+        <v>5455</v>
+      </c>
+      <c r="B1675" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1675" s="9" t="s">
+        <v>5456</v>
+      </c>
+      <c r="D1675" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1675" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1675" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1675" s="8"/>
+      <c r="H1675" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1675" s="9" t="s">
+        <v>5457</v>
+      </c>
+      <c r="J1675" s="9" t="s">
+        <v>5797</v>
+      </c>
+      <c r="K1675" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1676" s="9" t="s">
+        <v>5458</v>
+      </c>
+      <c r="B1676" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1676" s="9" t="s">
+        <v>5459</v>
+      </c>
+      <c r="D1676" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1676" s="9" t="s">
+        <v>5375</v>
+      </c>
+      <c r="F1676" s="9" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G1676" s="8"/>
+      <c r="H1676" s="9" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I1676" s="9" t="s">
+        <v>5460</v>
+      </c>
+      <c r="J1676" s="9" t="s">
+        <v>5798</v>
+      </c>
+      <c r="K1676" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1677" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B1677" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1677" s="9" t="s">
+        <v>5462</v>
+      </c>
+      <c r="D1677" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1677" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1677" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1677" s="9" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H1677" s="8"/>
+      <c r="I1677" s="9" t="s">
+        <v>5466</v>
+      </c>
+      <c r="J1677" s="9" t="s">
+        <v>5799</v>
+      </c>
+      <c r="K1677" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1678" s="9" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B1678" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1678" s="9" t="s">
+        <v>5468</v>
+      </c>
+      <c r="D1678" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1678" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1678" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1678" s="8"/>
+      <c r="H1678" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1678" s="9" t="s">
+        <v>5469</v>
+      </c>
+      <c r="J1678" s="9" t="s">
+        <v>5800</v>
+      </c>
+      <c r="K1678" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1679" s="9" t="s">
+        <v>5470</v>
+      </c>
+      <c r="B1679" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1679" s="9" t="s">
+        <v>5471</v>
+      </c>
+      <c r="D1679" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1679" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1679" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1679" s="8"/>
+      <c r="H1679" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1679" s="9" t="s">
+        <v>5472</v>
+      </c>
+      <c r="J1679" s="9" t="s">
+        <v>5801</v>
+      </c>
+      <c r="K1679" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1680" s="9" t="s">
+        <v>5473</v>
+      </c>
+      <c r="B1680" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1680" s="9" t="s">
+        <v>5474</v>
+      </c>
+      <c r="D1680" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1680" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1680" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1680" s="8"/>
+      <c r="H1680" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1680" s="9" t="s">
+        <v>5475</v>
+      </c>
+      <c r="J1680" s="9" t="s">
+        <v>5802</v>
+      </c>
+      <c r="K1680" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1681" s="9" t="s">
+        <v>5476</v>
+      </c>
+      <c r="B1681" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1681" s="9" t="s">
+        <v>5477</v>
+      </c>
+      <c r="D1681" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1681" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1681" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1681" s="8"/>
+      <c r="H1681" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1681" s="9" t="s">
+        <v>5478</v>
+      </c>
+      <c r="J1681" s="9" t="s">
+        <v>5803</v>
+      </c>
+      <c r="K1681" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1682" s="9" t="s">
+        <v>5479</v>
+      </c>
+      <c r="B1682" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1682" s="9" t="s">
+        <v>5480</v>
+      </c>
+      <c r="D1682" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1682" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1682" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1682" s="8"/>
+      <c r="H1682" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1682" s="9" t="s">
+        <v>5481</v>
+      </c>
+      <c r="J1682" s="9" t="s">
+        <v>5804</v>
+      </c>
+      <c r="K1682" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1683" s="9" t="s">
+        <v>5482</v>
+      </c>
+      <c r="B1683" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1683" s="9" t="s">
+        <v>5483</v>
+      </c>
+      <c r="D1683" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1683" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1683" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1683" s="8"/>
+      <c r="H1683" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1683" s="9" t="s">
+        <v>5484</v>
+      </c>
+      <c r="J1683" s="9" t="s">
+        <v>5805</v>
+      </c>
+      <c r="K1683" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1684" s="9" t="s">
+        <v>5485</v>
+      </c>
+      <c r="B1684" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1684" s="9" t="s">
+        <v>5486</v>
+      </c>
+      <c r="D1684" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1684" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1684" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G1684" s="8"/>
+      <c r="H1684" s="9" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I1684" s="9" t="s">
+        <v>5487</v>
+      </c>
+      <c r="J1684" s="9" t="s">
+        <v>5806</v>
+      </c>
+      <c r="K1684" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1685" s="9" t="s">
+        <v>5488</v>
+      </c>
+      <c r="B1685" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1685" s="9" t="s">
+        <v>5489</v>
+      </c>
+      <c r="D1685" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1685" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1685" s="9" t="s">
+        <v>5490</v>
+      </c>
+      <c r="G1685" s="9" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H1685" s="8"/>
+      <c r="I1685" s="9" t="s">
+        <v>5491</v>
+      </c>
+      <c r="J1685" s="9" t="s">
+        <v>5807</v>
+      </c>
+      <c r="K1685" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1686" s="9" t="s">
+        <v>5492</v>
+      </c>
+      <c r="B1686" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1686" s="9" t="s">
+        <v>5493</v>
+      </c>
+      <c r="D1686" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1686" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1686" s="9" t="s">
+        <v>5490</v>
+      </c>
+      <c r="G1686" s="8"/>
+      <c r="H1686" s="9" t="s">
+        <v>5488</v>
+      </c>
+      <c r="I1686" s="9" t="s">
+        <v>5494</v>
+      </c>
+      <c r="J1686" s="9" t="s">
+        <v>5808</v>
+      </c>
+      <c r="K1686" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1687" s="9" t="s">
+        <v>5495</v>
+      </c>
+      <c r="B1687" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1687" s="9" t="s">
+        <v>5496</v>
+      </c>
+      <c r="D1687" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1687" s="9" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F1687" s="9" t="s">
+        <v>5490</v>
+      </c>
+      <c r="G1687" s="8"/>
+      <c r="H1687" s="9" t="s">
+        <v>5488</v>
+      </c>
+      <c r="I1687" s="9" t="s">
+        <v>5497</v>
+      </c>
+      <c r="J1687" s="9" t="s">
+        <v>5809</v>
+      </c>
+      <c r="K1687" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1688" s="9" t="s">
+        <v>5498</v>
+      </c>
+      <c r="B1688" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1688" s="9" t="s">
+        <v>5499</v>
+      </c>
+      <c r="D1688" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1688" s="8"/>
+      <c r="F1688" s="9" t="s">
+        <v>5500</v>
+      </c>
+      <c r="G1688" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1688" s="8"/>
+      <c r="I1688" s="9" t="s">
+        <v>5502</v>
+      </c>
+      <c r="J1688" s="9" t="s">
+        <v>5810</v>
+      </c>
+      <c r="K1688" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1689" s="9" t="s">
+        <v>5503</v>
+      </c>
+      <c r="B1689" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1689" s="9" t="s">
+        <v>5504</v>
+      </c>
+      <c r="D1689" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1689" s="8"/>
+      <c r="F1689" s="9" t="s">
+        <v>5500</v>
+      </c>
+      <c r="G1689" s="8"/>
+      <c r="H1689" s="9" t="s">
+        <v>5498</v>
+      </c>
+      <c r="I1689" s="9" t="s">
+        <v>5505</v>
+      </c>
+      <c r="J1689" s="9" t="s">
+        <v>5811</v>
+      </c>
+      <c r="K1689" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1690" s="9" t="s">
+        <v>5506</v>
+      </c>
+      <c r="B1690" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1690" s="9" t="s">
+        <v>5507</v>
+      </c>
+      <c r="D1690" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1690" s="8"/>
+      <c r="F1690" s="9" t="s">
+        <v>5500</v>
+      </c>
+      <c r="G1690" s="8"/>
+      <c r="H1690" s="9" t="s">
+        <v>5498</v>
+      </c>
+      <c r="I1690" s="9" t="s">
+        <v>5508</v>
+      </c>
+      <c r="J1690" s="9" t="s">
+        <v>5812</v>
+      </c>
+      <c r="K1690" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1691" s="9" t="s">
+        <v>5509</v>
+      </c>
+      <c r="B1691" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1691" s="9" t="s">
+        <v>5510</v>
+      </c>
+      <c r="D1691" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1691" s="8"/>
+      <c r="F1691" s="9" t="s">
+        <v>5511</v>
+      </c>
+      <c r="G1691" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1691" s="8"/>
+      <c r="I1691" s="9" t="s">
+        <v>5512</v>
+      </c>
+      <c r="J1691" s="9" t="s">
+        <v>5813</v>
+      </c>
+      <c r="K1691" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1692" s="9" t="s">
+        <v>5513</v>
+      </c>
+      <c r="B1692" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1692" s="9" t="s">
+        <v>5514</v>
+      </c>
+      <c r="D1692" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1692" s="8"/>
+      <c r="F1692" s="9" t="s">
+        <v>5511</v>
+      </c>
+      <c r="G1692" s="8"/>
+      <c r="H1692" s="9" t="s">
+        <v>5509</v>
+      </c>
+      <c r="I1692" s="9" t="s">
+        <v>5515</v>
+      </c>
+      <c r="J1692" s="9" t="s">
+        <v>5814</v>
+      </c>
+      <c r="K1692" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1693" s="9" t="s">
+        <v>5516</v>
+      </c>
+      <c r="B1693" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1693" s="9" t="s">
+        <v>5517</v>
+      </c>
+      <c r="D1693" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1693" s="8"/>
+      <c r="F1693" s="9" t="s">
+        <v>5511</v>
+      </c>
+      <c r="G1693" s="8"/>
+      <c r="H1693" s="9" t="s">
+        <v>5509</v>
+      </c>
+      <c r="I1693" s="9" t="s">
+        <v>5518</v>
+      </c>
+      <c r="J1693" s="9" t="s">
+        <v>5815</v>
+      </c>
+      <c r="K1693" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1694" s="9" t="s">
+        <v>5519</v>
+      </c>
+      <c r="B1694" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1694" s="9" t="s">
+        <v>5520</v>
+      </c>
+      <c r="D1694" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1694" s="8"/>
+      <c r="F1694" s="9" t="s">
+        <v>5521</v>
+      </c>
+      <c r="G1694" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1694" s="8"/>
+      <c r="I1694" s="9" t="s">
+        <v>5522</v>
+      </c>
+      <c r="J1694" s="9" t="s">
+        <v>5816</v>
+      </c>
+      <c r="K1694" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1695" s="9" t="s">
+        <v>5523</v>
+      </c>
+      <c r="B1695" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1695" s="9" t="s">
+        <v>5524</v>
+      </c>
+      <c r="D1695" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1695" s="8"/>
+      <c r="F1695" s="9" t="s">
+        <v>5521</v>
+      </c>
+      <c r="G1695" s="8"/>
+      <c r="H1695" s="9" t="s">
+        <v>5519</v>
+      </c>
+      <c r="I1695" s="9" t="s">
+        <v>5525</v>
+      </c>
+      <c r="J1695" s="9" t="s">
+        <v>5817</v>
+      </c>
+      <c r="K1695" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1696" s="9" t="s">
+        <v>5526</v>
+      </c>
+      <c r="B1696" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1696" s="9" t="s">
+        <v>5527</v>
+      </c>
+      <c r="D1696" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1696" s="8"/>
+      <c r="F1696" s="9" t="s">
+        <v>5521</v>
+      </c>
+      <c r="G1696" s="8"/>
+      <c r="H1696" s="9" t="s">
+        <v>5519</v>
+      </c>
+      <c r="I1696" s="9" t="s">
+        <v>5528</v>
+      </c>
+      <c r="J1696" s="9" t="s">
+        <v>5818</v>
+      </c>
+      <c r="K1696" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1697" s="9" t="s">
+        <v>5529</v>
+      </c>
+      <c r="B1697" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1697" s="9" t="s">
+        <v>5530</v>
+      </c>
+      <c r="D1697" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1697" s="8"/>
+      <c r="F1697" s="9" t="s">
+        <v>5531</v>
+      </c>
+      <c r="G1697" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1697" s="8"/>
+      <c r="I1697" s="9" t="s">
+        <v>5532</v>
+      </c>
+      <c r="J1697" s="9" t="s">
+        <v>5819</v>
+      </c>
+      <c r="K1697" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1698" s="9" t="s">
+        <v>5533</v>
+      </c>
+      <c r="B1698" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1698" s="9" t="s">
+        <v>5534</v>
+      </c>
+      <c r="D1698" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1698" s="8"/>
+      <c r="F1698" s="9" t="s">
+        <v>5531</v>
+      </c>
+      <c r="G1698" s="8"/>
+      <c r="H1698" s="9" t="s">
+        <v>5529</v>
+      </c>
+      <c r="I1698" s="9" t="s">
+        <v>5535</v>
+      </c>
+      <c r="J1698" s="9" t="s">
+        <v>5820</v>
+      </c>
+      <c r="K1698" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1699" s="9" t="s">
+        <v>5536</v>
+      </c>
+      <c r="B1699" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1699" s="9" t="s">
+        <v>5537</v>
+      </c>
+      <c r="D1699" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1699" s="8"/>
+      <c r="F1699" s="9" t="s">
+        <v>5531</v>
+      </c>
+      <c r="G1699" s="8"/>
+      <c r="H1699" s="9" t="s">
+        <v>5529</v>
+      </c>
+      <c r="I1699" s="9" t="s">
+        <v>5538</v>
+      </c>
+      <c r="J1699" s="9" t="s">
+        <v>5821</v>
+      </c>
+      <c r="K1699" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1700" s="9" t="s">
+        <v>5539</v>
+      </c>
+      <c r="B1700" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1700" s="9" t="s">
+        <v>5540</v>
+      </c>
+      <c r="D1700" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1700" s="8"/>
+      <c r="F1700" s="9" t="s">
+        <v>5541</v>
+      </c>
+      <c r="G1700" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1700" s="8"/>
+      <c r="I1700" s="9" t="s">
+        <v>5542</v>
+      </c>
+      <c r="J1700" s="9" t="s">
+        <v>5822</v>
+      </c>
+      <c r="K1700" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1701" s="9" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B1701" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1701" s="9" t="s">
+        <v>5544</v>
+      </c>
+      <c r="D1701" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1701" s="8"/>
+      <c r="F1701" s="9" t="s">
+        <v>5541</v>
+      </c>
+      <c r="G1701" s="8"/>
+      <c r="H1701" s="9" t="s">
+        <v>5539</v>
+      </c>
+      <c r="I1701" s="9" t="s">
+        <v>5545</v>
+      </c>
+      <c r="J1701" s="9" t="s">
+        <v>5823</v>
+      </c>
+      <c r="K1701" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1702" s="9" t="s">
+        <v>5546</v>
+      </c>
+      <c r="B1702" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1702" s="9" t="s">
+        <v>5547</v>
+      </c>
+      <c r="D1702" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1702" s="8"/>
+      <c r="F1702" s="9" t="s">
+        <v>5541</v>
+      </c>
+      <c r="G1702" s="8"/>
+      <c r="H1702" s="9" t="s">
+        <v>5539</v>
+      </c>
+      <c r="I1702" s="9" t="s">
+        <v>5548</v>
+      </c>
+      <c r="J1702" s="9" t="s">
+        <v>5824</v>
+      </c>
+      <c r="K1702" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1703" s="9" t="s">
+        <v>5549</v>
+      </c>
+      <c r="B1703" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1703" s="9" t="s">
+        <v>5550</v>
+      </c>
+      <c r="D1703" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1703" s="8"/>
+      <c r="F1703" s="9" t="s">
+        <v>5551</v>
+      </c>
+      <c r="G1703" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1703" s="8"/>
+      <c r="I1703" s="9" t="s">
+        <v>5552</v>
+      </c>
+      <c r="J1703" s="9" t="s">
+        <v>5825</v>
+      </c>
+      <c r="K1703" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1704" s="9" t="s">
+        <v>5553</v>
+      </c>
+      <c r="B1704" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1704" s="9" t="s">
+        <v>5554</v>
+      </c>
+      <c r="D1704" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1704" s="8"/>
+      <c r="F1704" s="9" t="s">
+        <v>5551</v>
+      </c>
+      <c r="G1704" s="8"/>
+      <c r="H1704" s="9" t="s">
+        <v>5549</v>
+      </c>
+      <c r="I1704" s="9" t="s">
+        <v>5555</v>
+      </c>
+      <c r="J1704" s="9" t="s">
+        <v>5826</v>
+      </c>
+      <c r="K1704" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1705" s="9" t="s">
+        <v>5556</v>
+      </c>
+      <c r="B1705" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1705" s="9" t="s">
+        <v>5557</v>
+      </c>
+      <c r="D1705" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1705" s="8"/>
+      <c r="F1705" s="9" t="s">
+        <v>5551</v>
+      </c>
+      <c r="G1705" s="8"/>
+      <c r="H1705" s="9" t="s">
+        <v>5549</v>
+      </c>
+      <c r="I1705" s="9" t="s">
+        <v>5558</v>
+      </c>
+      <c r="J1705" s="9" t="s">
+        <v>5827</v>
+      </c>
+      <c r="K1705" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1706" s="9" t="s">
+        <v>5559</v>
+      </c>
+      <c r="B1706" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1706" s="9" t="s">
+        <v>5560</v>
+      </c>
+      <c r="D1706" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1706" s="8"/>
+      <c r="F1706" s="9" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G1706" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1706" s="8"/>
+      <c r="I1706" s="9" t="s">
+        <v>5562</v>
+      </c>
+      <c r="J1706" s="9" t="s">
+        <v>5828</v>
+      </c>
+      <c r="K1706" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1707" s="9" t="s">
+        <v>5563</v>
+      </c>
+      <c r="B1707" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1707" s="9" t="s">
+        <v>5564</v>
+      </c>
+      <c r="D1707" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1707" s="8"/>
+      <c r="F1707" s="9" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G1707" s="8"/>
+      <c r="H1707" s="9" t="s">
+        <v>5559</v>
+      </c>
+      <c r="I1707" s="9" t="s">
+        <v>5565</v>
+      </c>
+      <c r="J1707" s="9" t="s">
+        <v>5829</v>
+      </c>
+      <c r="K1707" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1708" s="9" t="s">
+        <v>5566</v>
+      </c>
+      <c r="B1708" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1708" s="9" t="s">
+        <v>5567</v>
+      </c>
+      <c r="D1708" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1708" s="8"/>
+      <c r="F1708" s="9" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G1708" s="8"/>
+      <c r="H1708" s="9" t="s">
+        <v>5559</v>
+      </c>
+      <c r="I1708" s="9" t="s">
+        <v>5568</v>
+      </c>
+      <c r="J1708" s="9" t="s">
+        <v>5830</v>
+      </c>
+      <c r="K1708" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1709" s="9" t="s">
+        <v>5569</v>
+      </c>
+      <c r="B1709" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1709" s="9" t="s">
+        <v>5570</v>
+      </c>
+      <c r="D1709" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1709" s="8"/>
+      <c r="F1709" s="9" t="s">
+        <v>5571</v>
+      </c>
+      <c r="G1709" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1709" s="8"/>
+      <c r="I1709" s="9" t="s">
+        <v>5572</v>
+      </c>
+      <c r="J1709" s="9" t="s">
+        <v>5831</v>
+      </c>
+      <c r="K1709" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1710" s="9" t="s">
+        <v>5573</v>
+      </c>
+      <c r="B1710" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1710" s="9" t="s">
+        <v>5574</v>
+      </c>
+      <c r="D1710" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1710" s="8"/>
+      <c r="F1710" s="9" t="s">
+        <v>5571</v>
+      </c>
+      <c r="G1710" s="8"/>
+      <c r="H1710" s="9" t="s">
+        <v>5569</v>
+      </c>
+      <c r="I1710" s="9" t="s">
+        <v>5575</v>
+      </c>
+      <c r="J1710" s="9" t="s">
+        <v>5832</v>
+      </c>
+      <c r="K1710" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1711" s="9" t="s">
+        <v>5576</v>
+      </c>
+      <c r="B1711" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1711" s="9" t="s">
+        <v>5577</v>
+      </c>
+      <c r="D1711" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1711" s="8"/>
+      <c r="F1711" s="9" t="s">
+        <v>5571</v>
+      </c>
+      <c r="G1711" s="8"/>
+      <c r="H1711" s="9" t="s">
+        <v>5569</v>
+      </c>
+      <c r="I1711" s="9" t="s">
+        <v>5578</v>
+      </c>
+      <c r="J1711" s="9" t="s">
+        <v>5833</v>
+      </c>
+      <c r="K1711" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1712" s="9" t="s">
+        <v>5579</v>
+      </c>
+      <c r="B1712" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1712" s="9" t="s">
+        <v>5580</v>
+      </c>
+      <c r="D1712" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1712" s="8"/>
+      <c r="F1712" s="9" t="s">
+        <v>5581</v>
+      </c>
+      <c r="G1712" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1712" s="8"/>
+      <c r="I1712" s="9" t="s">
+        <v>5582</v>
+      </c>
+      <c r="J1712" s="9" t="s">
+        <v>5834</v>
+      </c>
+      <c r="K1712" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1713" s="9" t="s">
+        <v>5583</v>
+      </c>
+      <c r="B1713" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1713" s="9" t="s">
+        <v>5584</v>
+      </c>
+      <c r="D1713" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1713" s="8"/>
+      <c r="F1713" s="9" t="s">
+        <v>5581</v>
+      </c>
+      <c r="G1713" s="8"/>
+      <c r="H1713" s="9" t="s">
+        <v>5579</v>
+      </c>
+      <c r="I1713" s="9" t="s">
+        <v>5585</v>
+      </c>
+      <c r="J1713" s="9" t="s">
+        <v>5835</v>
+      </c>
+      <c r="K1713" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1714" s="9" t="s">
+        <v>5586</v>
+      </c>
+      <c r="B1714" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1714" s="9" t="s">
+        <v>5587</v>
+      </c>
+      <c r="D1714" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1714" s="8"/>
+      <c r="F1714" s="9" t="s">
+        <v>5581</v>
+      </c>
+      <c r="G1714" s="8"/>
+      <c r="H1714" s="9" t="s">
+        <v>5579</v>
+      </c>
+      <c r="I1714" s="9" t="s">
+        <v>5588</v>
+      </c>
+      <c r="J1714" s="9" t="s">
+        <v>5836</v>
+      </c>
+      <c r="K1714" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1715" s="9" t="s">
+        <v>5589</v>
+      </c>
+      <c r="B1715" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1715" s="9" t="s">
+        <v>5590</v>
+      </c>
+      <c r="D1715" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1715" s="8"/>
+      <c r="F1715" s="9" t="s">
+        <v>5591</v>
+      </c>
+      <c r="G1715" s="9" t="s">
+        <v>5501</v>
+      </c>
+      <c r="H1715" s="8"/>
+      <c r="I1715" s="9" t="s">
+        <v>5592</v>
+      </c>
+      <c r="J1715" s="9" t="s">
+        <v>5837</v>
+      </c>
+      <c r="K1715" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1716" s="9" t="s">
+        <v>5593</v>
+      </c>
+      <c r="B1716" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1716" s="9" t="s">
+        <v>5594</v>
+      </c>
+      <c r="D1716" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1716" s="8"/>
+      <c r="F1716" s="9" t="s">
+        <v>5591</v>
+      </c>
+      <c r="G1716" s="8"/>
+      <c r="H1716" s="9" t="s">
+        <v>5589</v>
+      </c>
+      <c r="I1716" s="9" t="s">
+        <v>5595</v>
+      </c>
+      <c r="J1716" s="9" t="s">
+        <v>5838</v>
+      </c>
+      <c r="K1716" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1717" s="9" t="s">
+        <v>5596</v>
+      </c>
+      <c r="B1717" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1717" s="9" t="s">
+        <v>5597</v>
+      </c>
+      <c r="D1717" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1717" s="8"/>
+      <c r="F1717" s="9" t="s">
+        <v>5591</v>
+      </c>
+      <c r="G1717" s="8"/>
+      <c r="H1717" s="9" t="s">
+        <v>5589</v>
+      </c>
+      <c r="I1717" s="9" t="s">
+        <v>5598</v>
+      </c>
+      <c r="J1717" s="9" t="s">
+        <v>5839</v>
+      </c>
+      <c r="K1717" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1718" s="9" t="s">
+        <v>5599</v>
+      </c>
+      <c r="B1718" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1718" s="9" t="s">
+        <v>5600</v>
+      </c>
+      <c r="D1718" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1718" s="8"/>
+      <c r="F1718" s="9" t="s">
+        <v>5601</v>
+      </c>
+      <c r="G1718" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1718" s="8"/>
+      <c r="I1718" s="9" t="s">
+        <v>5603</v>
+      </c>
+      <c r="J1718" s="9" t="s">
+        <v>5840</v>
+      </c>
+      <c r="K1718" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1719" s="9" t="s">
+        <v>5604</v>
+      </c>
+      <c r="B1719" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1719" s="9" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D1719" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1719" s="8"/>
+      <c r="F1719" s="9" t="s">
+        <v>5601</v>
+      </c>
+      <c r="G1719" s="8"/>
+      <c r="H1719" s="9" t="s">
+        <v>5599</v>
+      </c>
+      <c r="I1719" s="9" t="s">
+        <v>5606</v>
+      </c>
+      <c r="J1719" s="9" t="s">
+        <v>5841</v>
+      </c>
+      <c r="K1719" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1720" s="9" t="s">
+        <v>5607</v>
+      </c>
+      <c r="B1720" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1720" s="9" t="s">
+        <v>5608</v>
+      </c>
+      <c r="D1720" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1720" s="8"/>
+      <c r="F1720" s="9" t="s">
+        <v>5601</v>
+      </c>
+      <c r="G1720" s="8"/>
+      <c r="H1720" s="9" t="s">
+        <v>5599</v>
+      </c>
+      <c r="I1720" s="9" t="s">
+        <v>5609</v>
+      </c>
+      <c r="J1720" s="9" t="s">
+        <v>5842</v>
+      </c>
+      <c r="K1720" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1721" s="9" t="s">
+        <v>5610</v>
+      </c>
+      <c r="B1721" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1721" s="9" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D1721" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1721" s="8"/>
+      <c r="F1721" s="9" t="s">
+        <v>5612</v>
+      </c>
+      <c r="G1721" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1721" s="8"/>
+      <c r="I1721" s="9" t="s">
+        <v>5613</v>
+      </c>
+      <c r="J1721" s="9" t="s">
+        <v>5843</v>
+      </c>
+      <c r="K1721" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1722" s="9" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B1722" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1722" s="9" t="s">
+        <v>5615</v>
+      </c>
+      <c r="D1722" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1722" s="8"/>
+      <c r="F1722" s="9" t="s">
+        <v>5612</v>
+      </c>
+      <c r="G1722" s="8"/>
+      <c r="H1722" s="9" t="s">
+        <v>5610</v>
+      </c>
+      <c r="I1722" s="9" t="s">
+        <v>5616</v>
+      </c>
+      <c r="J1722" s="9" t="s">
+        <v>5844</v>
+      </c>
+      <c r="K1722" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1723" s="9" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B1723" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1723" s="9" t="s">
+        <v>5618</v>
+      </c>
+      <c r="D1723" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1723" s="8"/>
+      <c r="F1723" s="9" t="s">
+        <v>5612</v>
+      </c>
+      <c r="G1723" s="8"/>
+      <c r="H1723" s="9" t="s">
+        <v>5610</v>
+      </c>
+      <c r="I1723" s="9" t="s">
+        <v>5619</v>
+      </c>
+      <c r="J1723" s="9" t="s">
+        <v>5845</v>
+      </c>
+      <c r="K1723" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1724" s="9" t="s">
+        <v>5620</v>
+      </c>
+      <c r="B1724" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1724" s="9" t="s">
+        <v>5621</v>
+      </c>
+      <c r="D1724" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1724" s="8"/>
+      <c r="F1724" s="9" t="s">
+        <v>5622</v>
+      </c>
+      <c r="G1724" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1724" s="8"/>
+      <c r="I1724" s="9" t="s">
+        <v>5623</v>
+      </c>
+      <c r="J1724" s="9" t="s">
+        <v>5846</v>
+      </c>
+      <c r="K1724" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1725" s="9" t="s">
+        <v>5624</v>
+      </c>
+      <c r="B1725" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1725" s="9" t="s">
+        <v>5625</v>
+      </c>
+      <c r="D1725" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1725" s="8"/>
+      <c r="F1725" s="9" t="s">
+        <v>5622</v>
+      </c>
+      <c r="G1725" s="8"/>
+      <c r="H1725" s="9" t="s">
+        <v>5620</v>
+      </c>
+      <c r="I1725" s="9" t="s">
+        <v>5626</v>
+      </c>
+      <c r="J1725" s="9" t="s">
+        <v>5847</v>
+      </c>
+      <c r="K1725" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1726" s="9" t="s">
+        <v>5627</v>
+      </c>
+      <c r="B1726" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1726" s="9" t="s">
+        <v>5628</v>
+      </c>
+      <c r="D1726" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1726" s="8"/>
+      <c r="F1726" s="9" t="s">
+        <v>5622</v>
+      </c>
+      <c r="G1726" s="8"/>
+      <c r="H1726" s="9" t="s">
+        <v>5620</v>
+      </c>
+      <c r="I1726" s="9" t="s">
+        <v>5629</v>
+      </c>
+      <c r="J1726" s="9" t="s">
+        <v>5848</v>
+      </c>
+      <c r="K1726" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1727" s="9" t="s">
+        <v>5630</v>
+      </c>
+      <c r="B1727" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1727" s="9" t="s">
+        <v>5631</v>
+      </c>
+      <c r="D1727" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1727" s="8"/>
+      <c r="F1727" s="9" t="s">
+        <v>5632</v>
+      </c>
+      <c r="G1727" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1727" s="8"/>
+      <c r="I1727" s="9" t="s">
+        <v>5633</v>
+      </c>
+      <c r="J1727" s="9" t="s">
+        <v>5849</v>
+      </c>
+      <c r="K1727" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1728" s="9" t="s">
+        <v>5634</v>
+      </c>
+      <c r="B1728" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1728" s="9" t="s">
+        <v>5635</v>
+      </c>
+      <c r="D1728" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1728" s="8"/>
+      <c r="F1728" s="9" t="s">
+        <v>5632</v>
+      </c>
+      <c r="G1728" s="8"/>
+      <c r="H1728" s="9" t="s">
+        <v>5630</v>
+      </c>
+      <c r="I1728" s="9" t="s">
+        <v>5636</v>
+      </c>
+      <c r="J1728" s="9" t="s">
+        <v>5850</v>
+      </c>
+      <c r="K1728" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1729" s="9" t="s">
+        <v>5637</v>
+      </c>
+      <c r="B1729" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1729" s="9" t="s">
+        <v>5638</v>
+      </c>
+      <c r="D1729" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1729" s="8"/>
+      <c r="F1729" s="9" t="s">
+        <v>5632</v>
+      </c>
+      <c r="G1729" s="8"/>
+      <c r="H1729" s="9" t="s">
+        <v>5630</v>
+      </c>
+      <c r="I1729" s="9" t="s">
+        <v>5639</v>
+      </c>
+      <c r="J1729" s="9" t="s">
+        <v>5851</v>
+      </c>
+      <c r="K1729" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1730" s="9" t="s">
+        <v>5640</v>
+      </c>
+      <c r="B1730" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1730" s="9" t="s">
+        <v>5641</v>
+      </c>
+      <c r="D1730" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1730" s="8"/>
+      <c r="F1730" s="9" t="s">
+        <v>5642</v>
+      </c>
+      <c r="G1730" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1730" s="8"/>
+      <c r="I1730" s="9" t="s">
+        <v>5643</v>
+      </c>
+      <c r="J1730" s="9" t="s">
+        <v>5852</v>
+      </c>
+      <c r="K1730" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1731" s="9" t="s">
+        <v>5644</v>
+      </c>
+      <c r="B1731" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1731" s="9" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D1731" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1731" s="8"/>
+      <c r="F1731" s="9" t="s">
+        <v>5642</v>
+      </c>
+      <c r="G1731" s="8"/>
+      <c r="H1731" s="9" t="s">
+        <v>5640</v>
+      </c>
+      <c r="I1731" s="9" t="s">
+        <v>5646</v>
+      </c>
+      <c r="J1731" s="9" t="s">
+        <v>5853</v>
+      </c>
+      <c r="K1731" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1732" s="9" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B1732" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1732" s="9" t="s">
+        <v>5648</v>
+      </c>
+      <c r="D1732" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1732" s="8"/>
+      <c r="F1732" s="9" t="s">
+        <v>5642</v>
+      </c>
+      <c r="G1732" s="8"/>
+      <c r="H1732" s="9" t="s">
+        <v>5640</v>
+      </c>
+      <c r="I1732" s="9" t="s">
+        <v>5649</v>
+      </c>
+      <c r="J1732" s="9" t="s">
+        <v>5854</v>
+      </c>
+      <c r="K1732" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1733" s="9" t="s">
+        <v>5650</v>
+      </c>
+      <c r="B1733" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1733" s="9" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D1733" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1733" s="8"/>
+      <c r="F1733" s="9" t="s">
+        <v>5652</v>
+      </c>
+      <c r="G1733" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1733" s="8"/>
+      <c r="I1733" s="9" t="s">
+        <v>5653</v>
+      </c>
+      <c r="J1733" s="9" t="s">
+        <v>5855</v>
+      </c>
+      <c r="K1733" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1734" s="9" t="s">
+        <v>5654</v>
+      </c>
+      <c r="B1734" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1734" s="9" t="s">
+        <v>5655</v>
+      </c>
+      <c r="D1734" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1734" s="8"/>
+      <c r="F1734" s="9" t="s">
+        <v>5652</v>
+      </c>
+      <c r="G1734" s="8"/>
+      <c r="H1734" s="9" t="s">
+        <v>5650</v>
+      </c>
+      <c r="I1734" s="9" t="s">
+        <v>5656</v>
+      </c>
+      <c r="J1734" s="9" t="s">
+        <v>5856</v>
+      </c>
+      <c r="K1734" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1735" s="9" t="s">
+        <v>5657</v>
+      </c>
+      <c r="B1735" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1735" s="9" t="s">
+        <v>5658</v>
+      </c>
+      <c r="D1735" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1735" s="8"/>
+      <c r="F1735" s="9" t="s">
+        <v>5652</v>
+      </c>
+      <c r="G1735" s="8"/>
+      <c r="H1735" s="9" t="s">
+        <v>5650</v>
+      </c>
+      <c r="I1735" s="9" t="s">
+        <v>5659</v>
+      </c>
+      <c r="J1735" s="9" t="s">
+        <v>5857</v>
+      </c>
+      <c r="K1735" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1736" s="9" t="s">
+        <v>5660</v>
+      </c>
+      <c r="B1736" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1736" s="9" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D1736" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1736" s="8"/>
+      <c r="F1736" s="9" t="s">
+        <v>5662</v>
+      </c>
+      <c r="G1736" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1736" s="8"/>
+      <c r="I1736" s="9" t="s">
+        <v>5663</v>
+      </c>
+      <c r="J1736" s="9" t="s">
+        <v>5858</v>
+      </c>
+      <c r="K1736" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1737" s="9" t="s">
+        <v>5664</v>
+      </c>
+      <c r="B1737" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1737" s="9" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D1737" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1737" s="8"/>
+      <c r="F1737" s="9" t="s">
+        <v>5662</v>
+      </c>
+      <c r="G1737" s="8"/>
+      <c r="H1737" s="9" t="s">
+        <v>5660</v>
+      </c>
+      <c r="I1737" s="9" t="s">
+        <v>5666</v>
+      </c>
+      <c r="J1737" s="9" t="s">
+        <v>5859</v>
+      </c>
+      <c r="K1737" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1738" s="9" t="s">
+        <v>5667</v>
+      </c>
+      <c r="B1738" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1738" s="9" t="s">
+        <v>5668</v>
+      </c>
+      <c r="D1738" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1738" s="8"/>
+      <c r="F1738" s="9" t="s">
+        <v>5662</v>
+      </c>
+      <c r="G1738" s="8"/>
+      <c r="H1738" s="9" t="s">
+        <v>5660</v>
+      </c>
+      <c r="I1738" s="9" t="s">
+        <v>5669</v>
+      </c>
+      <c r="J1738" s="9" t="s">
+        <v>5860</v>
+      </c>
+      <c r="K1738" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1739" s="9" t="s">
+        <v>5670</v>
+      </c>
+      <c r="B1739" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1739" s="9" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D1739" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1739" s="8"/>
+      <c r="F1739" s="9" t="s">
+        <v>5672</v>
+      </c>
+      <c r="G1739" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1739" s="8"/>
+      <c r="I1739" s="9" t="s">
+        <v>5673</v>
+      </c>
+      <c r="J1739" s="9" t="s">
+        <v>5861</v>
+      </c>
+      <c r="K1739" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1740" s="9" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B1740" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1740" s="9" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D1740" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1740" s="8"/>
+      <c r="F1740" s="9" t="s">
+        <v>5672</v>
+      </c>
+      <c r="G1740" s="8"/>
+      <c r="H1740" s="9" t="s">
+        <v>5670</v>
+      </c>
+      <c r="I1740" s="9" t="s">
+        <v>5676</v>
+      </c>
+      <c r="J1740" s="9" t="s">
+        <v>5862</v>
+      </c>
+      <c r="K1740" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1741" s="9" t="s">
+        <v>5677</v>
+      </c>
+      <c r="B1741" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1741" s="9" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D1741" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1741" s="8"/>
+      <c r="F1741" s="9" t="s">
+        <v>5672</v>
+      </c>
+      <c r="G1741" s="8"/>
+      <c r="H1741" s="9" t="s">
+        <v>5670</v>
+      </c>
+      <c r="I1741" s="9" t="s">
+        <v>5679</v>
+      </c>
+      <c r="J1741" s="9" t="s">
+        <v>5863</v>
+      </c>
+      <c r="K1741" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1742" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="B1742" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1742" s="9" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D1742" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1742" s="8"/>
+      <c r="F1742" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1742" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1742" s="8"/>
+      <c r="I1742" s="9" t="s">
+        <v>5683</v>
+      </c>
+      <c r="J1742" s="9" t="s">
+        <v>5864</v>
+      </c>
+      <c r="K1742" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1743" s="9" t="s">
+        <v>5684</v>
+      </c>
+      <c r="B1743" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1743" s="9" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D1743" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1743" s="8"/>
+      <c r="F1743" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1743" s="8"/>
+      <c r="H1743" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1743" s="9" t="s">
+        <v>5686</v>
+      </c>
+      <c r="J1743" s="9" t="s">
+        <v>5865</v>
+      </c>
+      <c r="K1743" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1744" s="9" t="s">
+        <v>5687</v>
+      </c>
+      <c r="B1744" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1744" s="9" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D1744" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1744" s="8"/>
+      <c r="F1744" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1744" s="8"/>
+      <c r="H1744" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1744" s="9" t="s">
+        <v>5689</v>
+      </c>
+      <c r="J1744" s="9" t="s">
+        <v>5866</v>
+      </c>
+      <c r="K1744" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1745" s="9" t="s">
+        <v>5690</v>
+      </c>
+      <c r="B1745" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1745" s="9" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D1745" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1745" s="8"/>
+      <c r="F1745" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1745" s="8"/>
+      <c r="H1745" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1745" s="9" t="s">
+        <v>5692</v>
+      </c>
+      <c r="J1745" s="9" t="s">
+        <v>5867</v>
+      </c>
+      <c r="K1745" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1746" s="9" t="s">
+        <v>5693</v>
+      </c>
+      <c r="B1746" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1746" s="9" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D1746" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1746" s="8"/>
+      <c r="F1746" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1746" s="8"/>
+      <c r="H1746" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1746" s="9" t="s">
+        <v>5695</v>
+      </c>
+      <c r="J1746" s="9" t="s">
+        <v>5868</v>
+      </c>
+      <c r="K1746" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1747" s="9" t="s">
+        <v>5696</v>
+      </c>
+      <c r="B1747" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1747" s="9" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D1747" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1747" s="8"/>
+      <c r="F1747" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1747" s="8"/>
+      <c r="H1747" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1747" s="9" t="s">
+        <v>5698</v>
+      </c>
+      <c r="J1747" s="9" t="s">
+        <v>5869</v>
+      </c>
+      <c r="K1747" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1748" s="9" t="s">
+        <v>5699</v>
+      </c>
+      <c r="B1748" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1748" s="9" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D1748" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1748" s="8"/>
+      <c r="F1748" s="9" t="s">
+        <v>5701</v>
+      </c>
+      <c r="G1748" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H1748" s="8"/>
+      <c r="I1748" s="9" t="s">
+        <v>5702</v>
+      </c>
+      <c r="J1748" s="9" t="s">
+        <v>5870</v>
+      </c>
+      <c r="K1748" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1749" s="9" t="s">
+        <v>5703</v>
+      </c>
+      <c r="B1749" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1749" s="9" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D1749" s="9" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E1749" s="8"/>
+      <c r="F1749" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1749" s="8"/>
+      <c r="H1749" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1749" s="9" t="s">
+        <v>5705</v>
+      </c>
+      <c r="J1749" s="9" t="s">
+        <v>5871</v>
+      </c>
+      <c r="K1749" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1750" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="B1750" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1750" s="9" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D1750" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1750" s="9" t="s">
+        <v>5709</v>
+      </c>
+      <c r="F1750" s="9" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G1750" s="9" t="s">
+        <v>5711</v>
+      </c>
+      <c r="H1750" s="8"/>
+      <c r="I1750" s="9" t="s">
+        <v>5712</v>
+      </c>
+      <c r="J1750" s="9" t="s">
+        <v>5872</v>
+      </c>
+      <c r="K1750" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1751" s="9" t="s">
+        <v>5713</v>
+      </c>
+      <c r="B1751" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1751" s="9" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D1751" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1751" s="9" t="s">
+        <v>5715</v>
+      </c>
+      <c r="F1751" s="9" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G1751" s="8"/>
+      <c r="H1751" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="I1751" s="9" t="s">
+        <v>5716</v>
+      </c>
+      <c r="J1751" s="9" t="s">
+        <v>5873</v>
+      </c>
+      <c r="K1751" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1752" s="9" t="s">
+        <v>5717</v>
+      </c>
+      <c r="B1752" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1752" s="9" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D1752" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1752" s="9" t="s">
+        <v>5719</v>
+      </c>
+      <c r="F1752" s="9" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G1752" s="8"/>
+      <c r="H1752" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="I1752" s="9" t="s">
+        <v>5720</v>
+      </c>
+      <c r="J1752" s="9" t="s">
+        <v>5874</v>
+      </c>
+      <c r="K1752" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1753" s="9" t="s">
+        <v>5721</v>
+      </c>
+      <c r="B1753" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1753" s="9" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D1753" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1753" s="9" t="s">
+        <v>5709</v>
+      </c>
+      <c r="F1753" s="9" t="s">
+        <v>5723</v>
+      </c>
+      <c r="G1753" s="9" t="s">
+        <v>5724</v>
+      </c>
+      <c r="H1753" s="8"/>
+      <c r="I1753" s="9" t="s">
+        <v>5725</v>
+      </c>
+      <c r="J1753" s="9" t="s">
+        <v>5875</v>
+      </c>
+      <c r="K1753" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1754" s="9" t="s">
+        <v>5726</v>
+      </c>
+      <c r="B1754" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1754" s="9" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D1754" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1754" s="9" t="s">
+        <v>5715</v>
+      </c>
+      <c r="F1754" s="9" t="s">
+        <v>5723</v>
+      </c>
+      <c r="G1754" s="8"/>
+      <c r="H1754" s="9" t="s">
+        <v>5721</v>
+      </c>
+      <c r="I1754" s="9" t="s">
+        <v>5728</v>
+      </c>
+      <c r="J1754" s="9" t="s">
+        <v>5876</v>
+      </c>
+      <c r="K1754" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1755" s="9" t="s">
+        <v>5729</v>
+      </c>
+      <c r="B1755" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1755" s="9" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D1755" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1755" s="9" t="s">
+        <v>5719</v>
+      </c>
+      <c r="F1755" s="9" t="s">
+        <v>5723</v>
+      </c>
+      <c r="G1755" s="8"/>
+      <c r="H1755" s="9" t="s">
+        <v>5721</v>
+      </c>
+      <c r="I1755" s="9" t="s">
+        <v>5731</v>
+      </c>
+      <c r="J1755" s="9" t="s">
+        <v>5877</v>
+      </c>
+      <c r="K1755" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1756" s="1" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1756" s="1" t="s">
         <v>5268</v>
       </c>
-      <c r="D1610" s="1" t="s">
+      <c r="D1756" s="1" t="s">
         <v>4232</v>
       </c>
-      <c r="E1610" s="1" t="s">
+      <c r="E1756" s="1" t="s">
         <v>5269</v>
       </c>
-      <c r="F1610" s="1" t="s">
+      <c r="F1756" s="1" t="s">
         <v>5270</v>
       </c>
-      <c r="G1610" s="1" t="s">
+      <c r="G1756" s="1" t="s">
         <v>5271</v>
       </c>
-      <c r="I1610" s="1" t="s">
+      <c r="I1756" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="J1610" s="1" t="s">
+      <c r="J1756" s="1" t="s">
         <v>5273</v>
       </c>
-      <c r="K1610" s="1" t="s">
+      <c r="K1756" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1609 B1611:B1048576">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1609 K1611:K1048576">
       <formula1>"csv_equals,csv_containsAll,string_equals,double_equals,assertNull,justExec,SQLException"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -19408,9 +19408,6 @@
     <t>单分区-float型主键大于范围查询</t>
   </si>
   <si>
-    <t>select price from $schema36 where price&gt;605.77</t>
-  </si>
-  <si>
     <t>dqlc1_1695</t>
   </si>
   <si>
@@ -19711,9 +19708,6 @@
     <t>hash分区-float型主键大于范围查询</t>
   </si>
   <si>
-    <t>select price,age from $schema46 where price&gt;605.77</t>
-  </si>
-  <si>
     <t>dqlc1_1725</t>
   </si>
   <si>
@@ -20469,6 +20463,14 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Join/queryc1_1754.csv</t>
+  </si>
+  <si>
+    <t>select price,age from $schema46 where price&gt;605.771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price from $schema36 where price&gt;605.771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -20862,8 +20864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1729" workbookViewId="0">
-      <selection activeCell="D1750" sqref="D1750"/>
+    <sheetView tabSelected="1" topLeftCell="D1690" workbookViewId="0">
+      <selection activeCell="I1696" sqref="I1696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -65916,7 +65918,7 @@
         <v>5279</v>
       </c>
       <c r="J1610" s="9" t="s">
-        <v>5732</v>
+        <v>5730</v>
       </c>
       <c r="K1610" s="9" t="s">
         <v>44</v>
@@ -65947,7 +65949,7 @@
         <v>5281</v>
       </c>
       <c r="J1611" s="9" t="s">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="K1611" s="9" t="s">
         <v>44</v>
@@ -65978,7 +65980,7 @@
         <v>5283</v>
       </c>
       <c r="J1612" s="9" t="s">
-        <v>5734</v>
+        <v>5732</v>
       </c>
       <c r="K1612" s="9" t="s">
         <v>44</v>
@@ -66009,7 +66011,7 @@
         <v>5285</v>
       </c>
       <c r="J1613" s="9" t="s">
-        <v>5735</v>
+        <v>5733</v>
       </c>
       <c r="K1613" s="9" t="s">
         <v>44</v>
@@ -66040,7 +66042,7 @@
         <v>5287</v>
       </c>
       <c r="J1614" s="9" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
       <c r="K1614" s="9" t="s">
         <v>44</v>
@@ -66071,7 +66073,7 @@
         <v>5289</v>
       </c>
       <c r="J1615" s="9" t="s">
-        <v>5737</v>
+        <v>5735</v>
       </c>
       <c r="K1615" s="9" t="s">
         <v>44</v>
@@ -66102,7 +66104,7 @@
         <v>5291</v>
       </c>
       <c r="J1616" s="9" t="s">
-        <v>5738</v>
+        <v>5736</v>
       </c>
       <c r="K1616" s="9" t="s">
         <v>44</v>
@@ -66133,7 +66135,7 @@
         <v>5293</v>
       </c>
       <c r="J1617" s="9" t="s">
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="K1617" s="9" t="s">
         <v>44</v>
@@ -66164,7 +66166,7 @@
         <v>5295</v>
       </c>
       <c r="J1618" s="9" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="K1618" s="9" t="s">
         <v>44</v>
@@ -66195,7 +66197,7 @@
         <v>5297</v>
       </c>
       <c r="J1619" s="9" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="K1619" s="9" t="s">
         <v>44</v>
@@ -66226,7 +66228,7 @@
         <v>5299</v>
       </c>
       <c r="J1620" s="9" t="s">
-        <v>5742</v>
+        <v>5740</v>
       </c>
       <c r="K1620" s="9" t="s">
         <v>44</v>
@@ -66257,7 +66259,7 @@
         <v>5301</v>
       </c>
       <c r="J1621" s="9" t="s">
-        <v>5743</v>
+        <v>5741</v>
       </c>
       <c r="K1621" s="9" t="s">
         <v>44</v>
@@ -66288,7 +66290,7 @@
         <v>5303</v>
       </c>
       <c r="J1622" s="9" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="K1622" s="9" t="s">
         <v>44</v>
@@ -66319,7 +66321,7 @@
         <v>5305</v>
       </c>
       <c r="J1623" s="9" t="s">
-        <v>5745</v>
+        <v>5743</v>
       </c>
       <c r="K1623" s="9" t="s">
         <v>44</v>
@@ -66350,7 +66352,7 @@
         <v>5307</v>
       </c>
       <c r="J1624" s="9" t="s">
-        <v>5746</v>
+        <v>5744</v>
       </c>
       <c r="K1624" s="9" t="s">
         <v>44</v>
@@ -66381,7 +66383,7 @@
         <v>5309</v>
       </c>
       <c r="J1625" s="9" t="s">
-        <v>5747</v>
+        <v>5745</v>
       </c>
       <c r="K1625" s="9" t="s">
         <v>44</v>
@@ -66412,7 +66414,7 @@
         <v>5311</v>
       </c>
       <c r="J1626" s="9" t="s">
-        <v>5748</v>
+        <v>5746</v>
       </c>
       <c r="K1626" s="9" t="s">
         <v>44</v>
@@ -66443,7 +66445,7 @@
         <v>5313</v>
       </c>
       <c r="J1627" s="9" t="s">
-        <v>5749</v>
+        <v>5747</v>
       </c>
       <c r="K1627" s="9" t="s">
         <v>44</v>
@@ -66474,7 +66476,7 @@
         <v>5315</v>
       </c>
       <c r="J1628" s="9" t="s">
-        <v>5750</v>
+        <v>5748</v>
       </c>
       <c r="K1628" s="9" t="s">
         <v>44</v>
@@ -66505,7 +66507,7 @@
         <v>5317</v>
       </c>
       <c r="J1629" s="9" t="s">
-        <v>5751</v>
+        <v>5749</v>
       </c>
       <c r="K1629" s="9" t="s">
         <v>44</v>
@@ -66536,7 +66538,7 @@
         <v>5319</v>
       </c>
       <c r="J1630" s="9" t="s">
-        <v>5752</v>
+        <v>5750</v>
       </c>
       <c r="K1630" s="9" t="s">
         <v>44</v>
@@ -66567,7 +66569,7 @@
         <v>5321</v>
       </c>
       <c r="J1631" s="9" t="s">
-        <v>5753</v>
+        <v>5751</v>
       </c>
       <c r="K1631" s="9" t="s">
         <v>44</v>
@@ -66598,7 +66600,7 @@
         <v>5323</v>
       </c>
       <c r="J1632" s="9" t="s">
-        <v>5754</v>
+        <v>5752</v>
       </c>
       <c r="K1632" s="9" t="s">
         <v>44</v>
@@ -66629,7 +66631,7 @@
         <v>5325</v>
       </c>
       <c r="J1633" s="9" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="K1633" s="9" t="s">
         <v>44</v>
@@ -66660,7 +66662,7 @@
         <v>5327</v>
       </c>
       <c r="J1634" s="9" t="s">
-        <v>5756</v>
+        <v>5754</v>
       </c>
       <c r="K1634" s="9" t="s">
         <v>44</v>
@@ -66691,7 +66693,7 @@
         <v>5329</v>
       </c>
       <c r="J1635" s="9" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="K1635" s="9" t="s">
         <v>44</v>
@@ -66722,7 +66724,7 @@
         <v>5331</v>
       </c>
       <c r="J1636" s="9" t="s">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="K1636" s="9" t="s">
         <v>44</v>
@@ -66753,7 +66755,7 @@
         <v>5333</v>
       </c>
       <c r="J1637" s="9" t="s">
-        <v>5759</v>
+        <v>5757</v>
       </c>
       <c r="K1637" s="9" t="s">
         <v>44</v>
@@ -66784,7 +66786,7 @@
         <v>5335</v>
       </c>
       <c r="J1638" s="9" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="K1638" s="9" t="s">
         <v>44</v>
@@ -66815,7 +66817,7 @@
         <v>5337</v>
       </c>
       <c r="J1639" s="9" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="K1639" s="9" t="s">
         <v>44</v>
@@ -66846,7 +66848,7 @@
         <v>5339</v>
       </c>
       <c r="J1640" s="9" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="K1640" s="9" t="s">
         <v>44</v>
@@ -66877,7 +66879,7 @@
         <v>5341</v>
       </c>
       <c r="J1641" s="9" t="s">
-        <v>5763</v>
+        <v>5761</v>
       </c>
       <c r="K1641" s="9" t="s">
         <v>44</v>
@@ -66908,7 +66910,7 @@
         <v>5343</v>
       </c>
       <c r="J1642" s="9" t="s">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="K1642" s="9" t="s">
         <v>44</v>
@@ -66939,7 +66941,7 @@
         <v>5345</v>
       </c>
       <c r="J1643" s="9" t="s">
-        <v>5765</v>
+        <v>5763</v>
       </c>
       <c r="K1643" s="9" t="s">
         <v>44</v>
@@ -66970,7 +66972,7 @@
         <v>5347</v>
       </c>
       <c r="J1644" s="9" t="s">
-        <v>5766</v>
+        <v>5764</v>
       </c>
       <c r="K1644" s="9" t="s">
         <v>44</v>
@@ -67001,7 +67003,7 @@
         <v>5353</v>
       </c>
       <c r="J1645" s="9" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="K1645" s="9" t="s">
         <v>44</v>
@@ -67032,7 +67034,7 @@
         <v>5356</v>
       </c>
       <c r="J1646" s="9" t="s">
-        <v>5768</v>
+        <v>5766</v>
       </c>
       <c r="K1646" s="9" t="s">
         <v>44</v>
@@ -67063,7 +67065,7 @@
         <v>5359</v>
       </c>
       <c r="J1647" s="9" t="s">
-        <v>5769</v>
+        <v>5767</v>
       </c>
       <c r="K1647" s="9" t="s">
         <v>44</v>
@@ -67094,7 +67096,7 @@
         <v>5364</v>
       </c>
       <c r="J1648" s="9" t="s">
-        <v>5770</v>
+        <v>5768</v>
       </c>
       <c r="K1648" s="9" t="s">
         <v>44</v>
@@ -67123,7 +67125,7 @@
         <v>5367</v>
       </c>
       <c r="J1649" s="9" t="s">
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="K1649" s="9" t="s">
         <v>44</v>
@@ -67154,7 +67156,7 @@
         <v>5371</v>
       </c>
       <c r="J1650" s="9" t="s">
-        <v>5772</v>
+        <v>5770</v>
       </c>
       <c r="K1650" s="9" t="s">
         <v>44</v>
@@ -67187,7 +67189,7 @@
         <v>5378</v>
       </c>
       <c r="J1651" s="9" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="K1651" s="9" t="s">
         <v>44</v>
@@ -67220,7 +67222,7 @@
         <v>5381</v>
       </c>
       <c r="J1652" s="9" t="s">
-        <v>5774</v>
+        <v>5772</v>
       </c>
       <c r="K1652" s="9" t="s">
         <v>155</v>
@@ -67253,7 +67255,7 @@
         <v>5384</v>
       </c>
       <c r="J1653" s="9" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="K1653" s="9" t="s">
         <v>44</v>
@@ -67286,7 +67288,7 @@
         <v>5387</v>
       </c>
       <c r="J1654" s="9" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="K1654" s="9" t="s">
         <v>155</v>
@@ -67319,7 +67321,7 @@
         <v>5391</v>
       </c>
       <c r="J1655" s="9" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="K1655" s="9" t="s">
         <v>155</v>
@@ -67352,7 +67354,7 @@
         <v>5394</v>
       </c>
       <c r="J1656" s="9" t="s">
-        <v>5778</v>
+        <v>5776</v>
       </c>
       <c r="K1656" s="9" t="s">
         <v>155</v>
@@ -67385,7 +67387,7 @@
         <v>5397</v>
       </c>
       <c r="J1657" s="9" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
       <c r="K1657" s="9" t="s">
         <v>155</v>
@@ -67418,7 +67420,7 @@
         <v>5400</v>
       </c>
       <c r="J1658" s="9" t="s">
-        <v>5780</v>
+        <v>5778</v>
       </c>
       <c r="K1658" s="9" t="s">
         <v>155</v>
@@ -67451,7 +67453,7 @@
         <v>5403</v>
       </c>
       <c r="J1659" s="9" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="K1659" s="9" t="s">
         <v>44</v>
@@ -67484,7 +67486,7 @@
         <v>5406</v>
       </c>
       <c r="J1660" s="9" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="K1660" s="9" t="s">
         <v>155</v>
@@ -67517,7 +67519,7 @@
         <v>5409</v>
       </c>
       <c r="J1661" s="9" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="K1661" s="9" t="s">
         <v>44</v>
@@ -67550,7 +67552,7 @@
         <v>5414</v>
       </c>
       <c r="J1662" s="9" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="K1662" s="9" t="s">
         <v>155</v>
@@ -67583,7 +67585,7 @@
         <v>5417</v>
       </c>
       <c r="J1663" s="9" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="K1663" s="9" t="s">
         <v>44</v>
@@ -67616,7 +67618,7 @@
         <v>5420</v>
       </c>
       <c r="J1664" s="9" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="K1664" s="9" t="s">
         <v>155</v>
@@ -67649,7 +67651,7 @@
         <v>5423</v>
       </c>
       <c r="J1665" s="9" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="K1665" s="9" t="s">
         <v>155</v>
@@ -67682,7 +67684,7 @@
         <v>5426</v>
       </c>
       <c r="J1666" s="9" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="K1666" s="9" t="s">
         <v>155</v>
@@ -67715,7 +67717,7 @@
         <v>5429</v>
       </c>
       <c r="J1667" s="9" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="K1667" s="9" t="s">
         <v>155</v>
@@ -67748,7 +67750,7 @@
         <v>5434</v>
       </c>
       <c r="J1668" s="9" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="K1668" s="9" t="s">
         <v>155</v>
@@ -67781,7 +67783,7 @@
         <v>5437</v>
       </c>
       <c r="J1669" s="9" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="K1669" s="9" t="s">
         <v>155</v>
@@ -67814,7 +67816,7 @@
         <v>5440</v>
       </c>
       <c r="J1670" s="9" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="K1670" s="9" t="s">
         <v>44</v>
@@ -67847,7 +67849,7 @@
         <v>5445</v>
       </c>
       <c r="J1671" s="9" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="K1671" s="9" t="s">
         <v>155</v>
@@ -67880,7 +67882,7 @@
         <v>5448</v>
       </c>
       <c r="J1672" s="9" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
       <c r="K1672" s="9" t="s">
         <v>155</v>
@@ -67913,7 +67915,7 @@
         <v>5451</v>
       </c>
       <c r="J1673" s="9" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="K1673" s="9" t="s">
         <v>155</v>
@@ -67946,7 +67948,7 @@
         <v>5454</v>
       </c>
       <c r="J1674" s="9" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="K1674" s="9" t="s">
         <v>155</v>
@@ -67979,7 +67981,7 @@
         <v>5457</v>
       </c>
       <c r="J1675" s="9" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="K1675" s="9" t="s">
         <v>155</v>
@@ -68012,7 +68014,7 @@
         <v>5460</v>
       </c>
       <c r="J1676" s="9" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="K1676" s="9" t="s">
         <v>155</v>
@@ -68045,7 +68047,7 @@
         <v>5466</v>
       </c>
       <c r="J1677" s="9" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="K1677" s="9" t="s">
         <v>155</v>
@@ -68078,7 +68080,7 @@
         <v>5469</v>
       </c>
       <c r="J1678" s="9" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="K1678" s="9" t="s">
         <v>155</v>
@@ -68111,7 +68113,7 @@
         <v>5472</v>
       </c>
       <c r="J1679" s="9" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="K1679" s="9" t="s">
         <v>155</v>
@@ -68144,7 +68146,7 @@
         <v>5475</v>
       </c>
       <c r="J1680" s="9" t="s">
-        <v>5802</v>
+        <v>5800</v>
       </c>
       <c r="K1680" s="9" t="s">
         <v>155</v>
@@ -68177,7 +68179,7 @@
         <v>5478</v>
       </c>
       <c r="J1681" s="9" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="K1681" s="9" t="s">
         <v>155</v>
@@ -68210,7 +68212,7 @@
         <v>5481</v>
       </c>
       <c r="J1682" s="9" t="s">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="K1682" s="9" t="s">
         <v>155</v>
@@ -68243,7 +68245,7 @@
         <v>5484</v>
       </c>
       <c r="J1683" s="9" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="K1683" s="9" t="s">
         <v>155</v>
@@ -68276,7 +68278,7 @@
         <v>5487</v>
       </c>
       <c r="J1684" s="9" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="K1684" s="9" t="s">
         <v>155</v>
@@ -68309,7 +68311,7 @@
         <v>5491</v>
       </c>
       <c r="J1685" s="9" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="K1685" s="9" t="s">
         <v>155</v>
@@ -68342,7 +68344,7 @@
         <v>5494</v>
       </c>
       <c r="J1686" s="9" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="K1686" s="9" t="s">
         <v>155</v>
@@ -68375,7 +68377,7 @@
         <v>5497</v>
       </c>
       <c r="J1687" s="9" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="K1687" s="9" t="s">
         <v>155</v>
@@ -68406,7 +68408,7 @@
         <v>5502</v>
       </c>
       <c r="J1688" s="9" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="K1688" s="9" t="s">
         <v>44</v>
@@ -68437,7 +68439,7 @@
         <v>5505</v>
       </c>
       <c r="J1689" s="9" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="K1689" s="9" t="s">
         <v>44</v>
@@ -68468,7 +68470,7 @@
         <v>5508</v>
       </c>
       <c r="J1690" s="9" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="K1690" s="9" t="s">
         <v>44</v>
@@ -68499,7 +68501,7 @@
         <v>5512</v>
       </c>
       <c r="J1691" s="9" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="K1691" s="9" t="s">
         <v>44</v>
@@ -68530,7 +68532,7 @@
         <v>5515</v>
       </c>
       <c r="J1692" s="9" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="K1692" s="9" t="s">
         <v>44</v>
@@ -68561,7 +68563,7 @@
         <v>5518</v>
       </c>
       <c r="J1693" s="9" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="K1693" s="9" t="s">
         <v>44</v>
@@ -68592,7 +68594,7 @@
         <v>5522</v>
       </c>
       <c r="J1694" s="9" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="K1694" s="9" t="s">
         <v>44</v>
@@ -68620,10 +68622,10 @@
         <v>5519</v>
       </c>
       <c r="I1695" s="9" t="s">
-        <v>5525</v>
+        <v>5877</v>
       </c>
       <c r="J1695" s="9" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="K1695" s="9" t="s">
         <v>44</v>
@@ -68631,13 +68633,13 @@
     </row>
     <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1696" s="9" t="s">
+        <v>5525</v>
+      </c>
+      <c r="B1696" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1696" s="9" t="s">
         <v>5526</v>
-      </c>
-      <c r="B1696" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1696" s="9" t="s">
-        <v>5527</v>
       </c>
       <c r="D1696" s="9" t="s">
         <v>5374</v>
@@ -68651,10 +68653,10 @@
         <v>5519</v>
       </c>
       <c r="I1696" s="9" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="J1696" s="9" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="K1696" s="9" t="s">
         <v>44</v>
@@ -68662,30 +68664,30 @@
     </row>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1697" s="9" t="s">
+        <v>5528</v>
+      </c>
+      <c r="B1697" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1697" s="9" t="s">
         <v>5529</v>
-      </c>
-      <c r="B1697" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1697" s="9" t="s">
-        <v>5530</v>
       </c>
       <c r="D1697" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1697" s="8"/>
       <c r="F1697" s="9" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="G1697" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1697" s="8"/>
       <c r="I1697" s="9" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="J1697" s="9" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="K1697" s="9" t="s">
         <v>44</v>
@@ -68693,30 +68695,30 @@
     </row>
     <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1698" s="9" t="s">
+        <v>5532</v>
+      </c>
+      <c r="B1698" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1698" s="9" t="s">
         <v>5533</v>
-      </c>
-      <c r="B1698" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1698" s="9" t="s">
-        <v>5534</v>
       </c>
       <c r="D1698" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1698" s="8"/>
       <c r="F1698" s="9" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="G1698" s="8"/>
       <c r="H1698" s="9" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="I1698" s="9" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="J1698" s="9" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="K1698" s="9" t="s">
         <v>44</v>
@@ -68724,30 +68726,30 @@
     </row>
     <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1699" s="9" t="s">
+        <v>5535</v>
+      </c>
+      <c r="B1699" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1699" s="9" t="s">
         <v>5536</v>
-      </c>
-      <c r="B1699" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1699" s="9" t="s">
-        <v>5537</v>
       </c>
       <c r="D1699" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1699" s="8"/>
       <c r="F1699" s="9" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="G1699" s="8"/>
       <c r="H1699" s="9" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="I1699" s="9" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="J1699" s="9" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="K1699" s="9" t="s">
         <v>44</v>
@@ -68755,30 +68757,30 @@
     </row>
     <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1700" s="9" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B1700" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1700" s="9" t="s">
         <v>5539</v>
-      </c>
-      <c r="B1700" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1700" s="9" t="s">
-        <v>5540</v>
       </c>
       <c r="D1700" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1700" s="8"/>
       <c r="F1700" s="9" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="G1700" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1700" s="8"/>
       <c r="I1700" s="9" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
       <c r="J1700" s="9" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="K1700" s="9" t="s">
         <v>44</v>
@@ -68786,30 +68788,30 @@
     </row>
     <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1701" s="9" t="s">
+        <v>5542</v>
+      </c>
+      <c r="B1701" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1701" s="9" t="s">
         <v>5543</v>
-      </c>
-      <c r="B1701" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1701" s="9" t="s">
-        <v>5544</v>
       </c>
       <c r="D1701" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1701" s="8"/>
       <c r="F1701" s="9" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="G1701" s="8"/>
       <c r="H1701" s="9" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="I1701" s="9" t="s">
-        <v>5545</v>
+        <v>5544</v>
       </c>
       <c r="J1701" s="9" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="K1701" s="9" t="s">
         <v>44</v>
@@ -68817,30 +68819,30 @@
     </row>
     <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1702" s="9" t="s">
+        <v>5545</v>
+      </c>
+      <c r="B1702" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1702" s="9" t="s">
         <v>5546</v>
-      </c>
-      <c r="B1702" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1702" s="9" t="s">
-        <v>5547</v>
       </c>
       <c r="D1702" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1702" s="8"/>
       <c r="F1702" s="9" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="G1702" s="8"/>
       <c r="H1702" s="9" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="I1702" s="9" t="s">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="J1702" s="9" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="K1702" s="9" t="s">
         <v>44</v>
@@ -68848,30 +68850,30 @@
     </row>
     <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1703" s="9" t="s">
+        <v>5548</v>
+      </c>
+      <c r="B1703" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1703" s="9" t="s">
         <v>5549</v>
-      </c>
-      <c r="B1703" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1703" s="9" t="s">
-        <v>5550</v>
       </c>
       <c r="D1703" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1703" s="8"/>
       <c r="F1703" s="9" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="G1703" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1703" s="8"/>
       <c r="I1703" s="9" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
       <c r="J1703" s="9" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="K1703" s="9" t="s">
         <v>44</v>
@@ -68879,30 +68881,30 @@
     </row>
     <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1704" s="9" t="s">
+        <v>5552</v>
+      </c>
+      <c r="B1704" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1704" s="9" t="s">
         <v>5553</v>
-      </c>
-      <c r="B1704" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1704" s="9" t="s">
-        <v>5554</v>
       </c>
       <c r="D1704" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1704" s="8"/>
       <c r="F1704" s="9" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="G1704" s="8"/>
       <c r="H1704" s="9" t="s">
-        <v>5549</v>
+        <v>5548</v>
       </c>
       <c r="I1704" s="9" t="s">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="J1704" s="9" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="K1704" s="9" t="s">
         <v>44</v>
@@ -68910,30 +68912,30 @@
     </row>
     <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1705" s="9" t="s">
+        <v>5555</v>
+      </c>
+      <c r="B1705" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1705" s="9" t="s">
         <v>5556</v>
-      </c>
-      <c r="B1705" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1705" s="9" t="s">
-        <v>5557</v>
       </c>
       <c r="D1705" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1705" s="8"/>
       <c r="F1705" s="9" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="G1705" s="8"/>
       <c r="H1705" s="9" t="s">
-        <v>5549</v>
+        <v>5548</v>
       </c>
       <c r="I1705" s="9" t="s">
-        <v>5558</v>
+        <v>5557</v>
       </c>
       <c r="J1705" s="9" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="K1705" s="9" t="s">
         <v>44</v>
@@ -68941,30 +68943,30 @@
     </row>
     <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1706" s="9" t="s">
+        <v>5558</v>
+      </c>
+      <c r="B1706" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1706" s="9" t="s">
         <v>5559</v>
-      </c>
-      <c r="B1706" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1706" s="9" t="s">
-        <v>5560</v>
       </c>
       <c r="D1706" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1706" s="8"/>
       <c r="F1706" s="9" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="G1706" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1706" s="8"/>
       <c r="I1706" s="9" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="J1706" s="9" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="K1706" s="9" t="s">
         <v>44</v>
@@ -68972,30 +68974,30 @@
     </row>
     <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1707" s="9" t="s">
+        <v>5562</v>
+      </c>
+      <c r="B1707" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1707" s="9" t="s">
         <v>5563</v>
-      </c>
-      <c r="B1707" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1707" s="9" t="s">
-        <v>5564</v>
       </c>
       <c r="D1707" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1707" s="8"/>
       <c r="F1707" s="9" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="G1707" s="8"/>
       <c r="H1707" s="9" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="I1707" s="9" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="J1707" s="9" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="K1707" s="9" t="s">
         <v>44</v>
@@ -69003,30 +69005,30 @@
     </row>
     <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1708" s="9" t="s">
+        <v>5565</v>
+      </c>
+      <c r="B1708" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1708" s="9" t="s">
         <v>5566</v>
-      </c>
-      <c r="B1708" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1708" s="9" t="s">
-        <v>5567</v>
       </c>
       <c r="D1708" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1708" s="8"/>
       <c r="F1708" s="9" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="G1708" s="8"/>
       <c r="H1708" s="9" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="I1708" s="9" t="s">
-        <v>5568</v>
+        <v>5567</v>
       </c>
       <c r="J1708" s="9" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="K1708" s="9" t="s">
         <v>44</v>
@@ -69034,30 +69036,30 @@
     </row>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1709" s="9" t="s">
+        <v>5568</v>
+      </c>
+      <c r="B1709" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1709" s="9" t="s">
         <v>5569</v>
-      </c>
-      <c r="B1709" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1709" s="9" t="s">
-        <v>5570</v>
       </c>
       <c r="D1709" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1709" s="8"/>
       <c r="F1709" s="9" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="G1709" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1709" s="8"/>
       <c r="I1709" s="9" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="J1709" s="9" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="K1709" s="9" t="s">
         <v>44</v>
@@ -69065,30 +69067,30 @@
     </row>
     <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1710" s="9" t="s">
+        <v>5572</v>
+      </c>
+      <c r="B1710" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1710" s="9" t="s">
         <v>5573</v>
-      </c>
-      <c r="B1710" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1710" s="9" t="s">
-        <v>5574</v>
       </c>
       <c r="D1710" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1710" s="8"/>
       <c r="F1710" s="9" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="G1710" s="8"/>
       <c r="H1710" s="9" t="s">
-        <v>5569</v>
+        <v>5568</v>
       </c>
       <c r="I1710" s="9" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="J1710" s="9" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
       <c r="K1710" s="9" t="s">
         <v>44</v>
@@ -69096,30 +69098,30 @@
     </row>
     <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1711" s="9" t="s">
+        <v>5575</v>
+      </c>
+      <c r="B1711" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1711" s="9" t="s">
         <v>5576</v>
-      </c>
-      <c r="B1711" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1711" s="9" t="s">
-        <v>5577</v>
       </c>
       <c r="D1711" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1711" s="8"/>
       <c r="F1711" s="9" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="G1711" s="8"/>
       <c r="H1711" s="9" t="s">
-        <v>5569</v>
+        <v>5568</v>
       </c>
       <c r="I1711" s="9" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="J1711" s="9" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="K1711" s="9" t="s">
         <v>44</v>
@@ -69127,30 +69129,30 @@
     </row>
     <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1712" s="9" t="s">
+        <v>5578</v>
+      </c>
+      <c r="B1712" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1712" s="9" t="s">
         <v>5579</v>
-      </c>
-      <c r="B1712" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1712" s="9" t="s">
-        <v>5580</v>
       </c>
       <c r="D1712" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1712" s="8"/>
       <c r="F1712" s="9" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="G1712" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1712" s="8"/>
       <c r="I1712" s="9" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="J1712" s="9" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="K1712" s="9" t="s">
         <v>155</v>
@@ -69158,30 +69160,30 @@
     </row>
     <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1713" s="9" t="s">
+        <v>5582</v>
+      </c>
+      <c r="B1713" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1713" s="9" t="s">
         <v>5583</v>
-      </c>
-      <c r="B1713" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1713" s="9" t="s">
-        <v>5584</v>
       </c>
       <c r="D1713" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1713" s="8"/>
       <c r="F1713" s="9" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="G1713" s="8"/>
       <c r="H1713" s="9" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="I1713" s="9" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="J1713" s="9" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
       <c r="K1713" s="9" t="s">
         <v>155</v>
@@ -69189,30 +69191,30 @@
     </row>
     <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1714" s="9" t="s">
+        <v>5585</v>
+      </c>
+      <c r="B1714" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1714" s="9" t="s">
         <v>5586</v>
-      </c>
-      <c r="B1714" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1714" s="9" t="s">
-        <v>5587</v>
       </c>
       <c r="D1714" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1714" s="8"/>
       <c r="F1714" s="9" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="G1714" s="8"/>
       <c r="H1714" s="9" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="I1714" s="9" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="J1714" s="9" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="K1714" s="9" t="s">
         <v>155</v>
@@ -69220,30 +69222,30 @@
     </row>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1715" s="9" t="s">
+        <v>5588</v>
+      </c>
+      <c r="B1715" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1715" s="9" t="s">
         <v>5589</v>
-      </c>
-      <c r="B1715" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1715" s="9" t="s">
-        <v>5590</v>
       </c>
       <c r="D1715" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1715" s="8"/>
       <c r="F1715" s="9" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="G1715" s="9" t="s">
         <v>5501</v>
       </c>
       <c r="H1715" s="8"/>
       <c r="I1715" s="9" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="J1715" s="9" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="K1715" s="9" t="s">
         <v>44</v>
@@ -69251,30 +69253,30 @@
     </row>
     <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1716" s="9" t="s">
+        <v>5592</v>
+      </c>
+      <c r="B1716" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1716" s="9" t="s">
         <v>5593</v>
-      </c>
-      <c r="B1716" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1716" s="9" t="s">
-        <v>5594</v>
       </c>
       <c r="D1716" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1716" s="8"/>
       <c r="F1716" s="9" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="G1716" s="8"/>
       <c r="H1716" s="9" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="I1716" s="9" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
       <c r="J1716" s="9" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="K1716" s="9" t="s">
         <v>44</v>
@@ -69282,30 +69284,30 @@
     </row>
     <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1717" s="9" t="s">
+        <v>5595</v>
+      </c>
+      <c r="B1717" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1717" s="9" t="s">
         <v>5596</v>
-      </c>
-      <c r="B1717" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1717" s="9" t="s">
-        <v>5597</v>
       </c>
       <c r="D1717" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1717" s="8"/>
       <c r="F1717" s="9" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="G1717" s="8"/>
       <c r="H1717" s="9" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="I1717" s="9" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="J1717" s="9" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="K1717" s="9" t="s">
         <v>44</v>
@@ -69313,30 +69315,30 @@
     </row>
     <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1718" s="9" t="s">
+        <v>5598</v>
+      </c>
+      <c r="B1718" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1718" s="9" t="s">
         <v>5599</v>
-      </c>
-      <c r="B1718" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1718" s="9" t="s">
-        <v>5600</v>
       </c>
       <c r="D1718" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1718" s="8"/>
       <c r="F1718" s="9" t="s">
+        <v>5600</v>
+      </c>
+      <c r="G1718" s="9" t="s">
         <v>5601</v>
-      </c>
-      <c r="G1718" s="9" t="s">
-        <v>5602</v>
       </c>
       <c r="H1718" s="8"/>
       <c r="I1718" s="9" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="J1718" s="9" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="K1718" s="9" t="s">
         <v>44</v>
@@ -69344,30 +69346,30 @@
     </row>
     <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1719" s="9" t="s">
+        <v>5603</v>
+      </c>
+      <c r="B1719" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1719" s="9" t="s">
         <v>5604</v>
-      </c>
-      <c r="B1719" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1719" s="9" t="s">
-        <v>5605</v>
       </c>
       <c r="D1719" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1719" s="8"/>
       <c r="F1719" s="9" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="G1719" s="8"/>
       <c r="H1719" s="9" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="I1719" s="9" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="J1719" s="9" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="K1719" s="9" t="s">
         <v>44</v>
@@ -69375,30 +69377,30 @@
     </row>
     <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1720" s="9" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B1720" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1720" s="9" t="s">
         <v>5607</v>
-      </c>
-      <c r="B1720" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1720" s="9" t="s">
-        <v>5608</v>
       </c>
       <c r="D1720" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1720" s="8"/>
       <c r="F1720" s="9" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="G1720" s="8"/>
       <c r="H1720" s="9" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="I1720" s="9" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="J1720" s="9" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="K1720" s="9" t="s">
         <v>44</v>
@@ -69406,30 +69408,30 @@
     </row>
     <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1721" s="9" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B1721" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1721" s="9" t="s">
         <v>5610</v>
-      </c>
-      <c r="B1721" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1721" s="9" t="s">
-        <v>5611</v>
       </c>
       <c r="D1721" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1721" s="8"/>
       <c r="F1721" s="9" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="G1721" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1721" s="8"/>
       <c r="I1721" s="9" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="J1721" s="9" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
       <c r="K1721" s="9" t="s">
         <v>44</v>
@@ -69437,30 +69439,30 @@
     </row>
     <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1722" s="9" t="s">
+        <v>5613</v>
+      </c>
+      <c r="B1722" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1722" s="9" t="s">
         <v>5614</v>
-      </c>
-      <c r="B1722" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1722" s="9" t="s">
-        <v>5615</v>
       </c>
       <c r="D1722" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1722" s="8"/>
       <c r="F1722" s="9" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="G1722" s="8"/>
       <c r="H1722" s="9" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="I1722" s="9" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="J1722" s="9" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="K1722" s="9" t="s">
         <v>44</v>
@@ -69468,30 +69470,30 @@
     </row>
     <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1723" s="9" t="s">
+        <v>5616</v>
+      </c>
+      <c r="B1723" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1723" s="9" t="s">
         <v>5617</v>
-      </c>
-      <c r="B1723" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1723" s="9" t="s">
-        <v>5618</v>
       </c>
       <c r="D1723" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1723" s="8"/>
       <c r="F1723" s="9" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="G1723" s="8"/>
       <c r="H1723" s="9" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="I1723" s="9" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="J1723" s="9" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="K1723" s="9" t="s">
         <v>44</v>
@@ -69499,30 +69501,30 @@
     </row>
     <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1724" s="9" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B1724" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1724" s="9" t="s">
         <v>5620</v>
-      </c>
-      <c r="B1724" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1724" s="9" t="s">
-        <v>5621</v>
       </c>
       <c r="D1724" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1724" s="8"/>
       <c r="F1724" s="9" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="G1724" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1724" s="8"/>
       <c r="I1724" s="9" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="J1724" s="9" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="K1724" s="9" t="s">
         <v>44</v>
@@ -69530,30 +69532,30 @@
     </row>
     <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1725" s="9" t="s">
+        <v>5623</v>
+      </c>
+      <c r="B1725" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1725" s="9" t="s">
         <v>5624</v>
-      </c>
-      <c r="B1725" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1725" s="9" t="s">
-        <v>5625</v>
       </c>
       <c r="D1725" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1725" s="8"/>
       <c r="F1725" s="9" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="G1725" s="8"/>
       <c r="H1725" s="9" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="I1725" s="9" t="s">
-        <v>5626</v>
+        <v>5876</v>
       </c>
       <c r="J1725" s="9" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="K1725" s="9" t="s">
         <v>44</v>
@@ -69561,30 +69563,30 @@
     </row>
     <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1726" s="9" t="s">
-        <v>5627</v>
+        <v>5625</v>
       </c>
       <c r="B1726" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1726" s="9" t="s">
-        <v>5628</v>
+        <v>5626</v>
       </c>
       <c r="D1726" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1726" s="8"/>
       <c r="F1726" s="9" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="G1726" s="8"/>
       <c r="H1726" s="9" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="I1726" s="9" t="s">
-        <v>5629</v>
+        <v>5627</v>
       </c>
       <c r="J1726" s="9" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="K1726" s="9" t="s">
         <v>44</v>
@@ -69592,30 +69594,30 @@
     </row>
     <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1727" s="9" t="s">
-        <v>5630</v>
+        <v>5628</v>
       </c>
       <c r="B1727" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1727" s="9" t="s">
-        <v>5631</v>
+        <v>5629</v>
       </c>
       <c r="D1727" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1727" s="8"/>
       <c r="F1727" s="9" t="s">
-        <v>5632</v>
+        <v>5630</v>
       </c>
       <c r="G1727" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1727" s="8"/>
       <c r="I1727" s="9" t="s">
-        <v>5633</v>
+        <v>5631</v>
       </c>
       <c r="J1727" s="9" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="K1727" s="9" t="s">
         <v>44</v>
@@ -69623,30 +69625,30 @@
     </row>
     <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1728" s="9" t="s">
-        <v>5634</v>
+        <v>5632</v>
       </c>
       <c r="B1728" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1728" s="9" t="s">
-        <v>5635</v>
+        <v>5633</v>
       </c>
       <c r="D1728" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1728" s="8"/>
       <c r="F1728" s="9" t="s">
-        <v>5632</v>
+        <v>5630</v>
       </c>
       <c r="G1728" s="8"/>
       <c r="H1728" s="9" t="s">
-        <v>5630</v>
+        <v>5628</v>
       </c>
       <c r="I1728" s="9" t="s">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="J1728" s="9" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="K1728" s="9" t="s">
         <v>44</v>
@@ -69654,30 +69656,30 @@
     </row>
     <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1729" s="9" t="s">
-        <v>5637</v>
+        <v>5635</v>
       </c>
       <c r="B1729" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1729" s="9" t="s">
-        <v>5638</v>
+        <v>5636</v>
       </c>
       <c r="D1729" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1729" s="8"/>
       <c r="F1729" s="9" t="s">
-        <v>5632</v>
+        <v>5630</v>
       </c>
       <c r="G1729" s="8"/>
       <c r="H1729" s="9" t="s">
-        <v>5630</v>
+        <v>5628</v>
       </c>
       <c r="I1729" s="9" t="s">
-        <v>5639</v>
+        <v>5637</v>
       </c>
       <c r="J1729" s="9" t="s">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="K1729" s="9" t="s">
         <v>44</v>
@@ -69685,30 +69687,30 @@
     </row>
     <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1730" s="9" t="s">
-        <v>5640</v>
+        <v>5638</v>
       </c>
       <c r="B1730" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1730" s="9" t="s">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="D1730" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1730" s="8"/>
       <c r="F1730" s="9" t="s">
-        <v>5642</v>
+        <v>5640</v>
       </c>
       <c r="G1730" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1730" s="8"/>
       <c r="I1730" s="9" t="s">
-        <v>5643</v>
+        <v>5641</v>
       </c>
       <c r="J1730" s="9" t="s">
-        <v>5852</v>
+        <v>5850</v>
       </c>
       <c r="K1730" s="9" t="s">
         <v>44</v>
@@ -69716,30 +69718,30 @@
     </row>
     <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1731" s="9" t="s">
-        <v>5644</v>
+        <v>5642</v>
       </c>
       <c r="B1731" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1731" s="9" t="s">
-        <v>5645</v>
+        <v>5643</v>
       </c>
       <c r="D1731" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1731" s="8"/>
       <c r="F1731" s="9" t="s">
-        <v>5642</v>
+        <v>5640</v>
       </c>
       <c r="G1731" s="8"/>
       <c r="H1731" s="9" t="s">
-        <v>5640</v>
+        <v>5638</v>
       </c>
       <c r="I1731" s="9" t="s">
-        <v>5646</v>
+        <v>5644</v>
       </c>
       <c r="J1731" s="9" t="s">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="K1731" s="9" t="s">
         <v>44</v>
@@ -69747,30 +69749,30 @@
     </row>
     <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1732" s="9" t="s">
-        <v>5647</v>
+        <v>5645</v>
       </c>
       <c r="B1732" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1732" s="9" t="s">
-        <v>5648</v>
+        <v>5646</v>
       </c>
       <c r="D1732" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1732" s="8"/>
       <c r="F1732" s="9" t="s">
-        <v>5642</v>
+        <v>5640</v>
       </c>
       <c r="G1732" s="8"/>
       <c r="H1732" s="9" t="s">
-        <v>5640</v>
+        <v>5638</v>
       </c>
       <c r="I1732" s="9" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="J1732" s="9" t="s">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="K1732" s="9" t="s">
         <v>44</v>
@@ -69778,30 +69780,30 @@
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1733" s="9" t="s">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="B1733" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1733" s="9" t="s">
-        <v>5651</v>
+        <v>5649</v>
       </c>
       <c r="D1733" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1733" s="8"/>
       <c r="F1733" s="9" t="s">
-        <v>5652</v>
+        <v>5650</v>
       </c>
       <c r="G1733" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1733" s="8"/>
       <c r="I1733" s="9" t="s">
-        <v>5653</v>
+        <v>5651</v>
       </c>
       <c r="J1733" s="9" t="s">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="K1733" s="9" t="s">
         <v>44</v>
@@ -69809,30 +69811,30 @@
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1734" s="9" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="B1734" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1734" s="9" t="s">
-        <v>5655</v>
+        <v>5653</v>
       </c>
       <c r="D1734" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1734" s="8"/>
       <c r="F1734" s="9" t="s">
-        <v>5652</v>
+        <v>5650</v>
       </c>
       <c r="G1734" s="8"/>
       <c r="H1734" s="9" t="s">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="I1734" s="9" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="J1734" s="9" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="K1734" s="9" t="s">
         <v>44</v>
@@ -69840,30 +69842,30 @@
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1735" s="9" t="s">
-        <v>5657</v>
+        <v>5655</v>
       </c>
       <c r="B1735" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1735" s="9" t="s">
-        <v>5658</v>
+        <v>5656</v>
       </c>
       <c r="D1735" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1735" s="8"/>
       <c r="F1735" s="9" t="s">
-        <v>5652</v>
+        <v>5650</v>
       </c>
       <c r="G1735" s="8"/>
       <c r="H1735" s="9" t="s">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="I1735" s="9" t="s">
-        <v>5659</v>
+        <v>5657</v>
       </c>
       <c r="J1735" s="9" t="s">
-        <v>5857</v>
+        <v>5855</v>
       </c>
       <c r="K1735" s="9" t="s">
         <v>44</v>
@@ -69871,30 +69873,30 @@
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1736" s="9" t="s">
-        <v>5660</v>
+        <v>5658</v>
       </c>
       <c r="B1736" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1736" s="9" t="s">
-        <v>5661</v>
+        <v>5659</v>
       </c>
       <c r="D1736" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1736" s="8"/>
       <c r="F1736" s="9" t="s">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="G1736" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1736" s="8"/>
       <c r="I1736" s="9" t="s">
-        <v>5663</v>
+        <v>5661</v>
       </c>
       <c r="J1736" s="9" t="s">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="K1736" s="9" t="s">
         <v>44</v>
@@ -69902,30 +69904,30 @@
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1737" s="9" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="B1737" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1737" s="9" t="s">
-        <v>5665</v>
+        <v>5663</v>
       </c>
       <c r="D1737" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1737" s="8"/>
       <c r="F1737" s="9" t="s">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="G1737" s="8"/>
       <c r="H1737" s="9" t="s">
-        <v>5660</v>
+        <v>5658</v>
       </c>
       <c r="I1737" s="9" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="J1737" s="9" t="s">
-        <v>5859</v>
+        <v>5857</v>
       </c>
       <c r="K1737" s="9" t="s">
         <v>44</v>
@@ -69933,30 +69935,30 @@
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1738" s="9" t="s">
-        <v>5667</v>
+        <v>5665</v>
       </c>
       <c r="B1738" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1738" s="9" t="s">
-        <v>5668</v>
+        <v>5666</v>
       </c>
       <c r="D1738" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1738" s="8"/>
       <c r="F1738" s="9" t="s">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="G1738" s="8"/>
       <c r="H1738" s="9" t="s">
-        <v>5660</v>
+        <v>5658</v>
       </c>
       <c r="I1738" s="9" t="s">
-        <v>5669</v>
+        <v>5667</v>
       </c>
       <c r="J1738" s="9" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="K1738" s="9" t="s">
         <v>44</v>
@@ -69964,30 +69966,30 @@
     </row>
     <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1739" s="9" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="B1739" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1739" s="9" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="D1739" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1739" s="8"/>
       <c r="F1739" s="9" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="G1739" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1739" s="8"/>
       <c r="I1739" s="9" t="s">
-        <v>5673</v>
+        <v>5671</v>
       </c>
       <c r="J1739" s="9" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="K1739" s="9" t="s">
         <v>44</v>
@@ -69995,30 +69997,30 @@
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1740" s="9" t="s">
-        <v>5674</v>
+        <v>5672</v>
       </c>
       <c r="B1740" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1740" s="9" t="s">
-        <v>5675</v>
+        <v>5673</v>
       </c>
       <c r="D1740" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1740" s="8"/>
       <c r="F1740" s="9" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="G1740" s="8"/>
       <c r="H1740" s="9" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="I1740" s="9" t="s">
-        <v>5676</v>
+        <v>5674</v>
       </c>
       <c r="J1740" s="9" t="s">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="K1740" s="9" t="s">
         <v>44</v>
@@ -70026,30 +70028,30 @@
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1741" s="9" t="s">
-        <v>5677</v>
+        <v>5675</v>
       </c>
       <c r="B1741" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1741" s="9" t="s">
-        <v>5678</v>
+        <v>5676</v>
       </c>
       <c r="D1741" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1741" s="8"/>
       <c r="F1741" s="9" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="G1741" s="8"/>
       <c r="H1741" s="9" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="I1741" s="9" t="s">
-        <v>5679</v>
+        <v>5677</v>
       </c>
       <c r="J1741" s="9" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="K1741" s="9" t="s">
         <v>44</v>
@@ -70057,30 +70059,30 @@
     </row>
     <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1742" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="B1742" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1742" s="9" t="s">
-        <v>5681</v>
+        <v>5679</v>
       </c>
       <c r="D1742" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1742" s="8"/>
       <c r="F1742" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1742" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1742" s="8"/>
       <c r="I1742" s="9" t="s">
-        <v>5683</v>
+        <v>5681</v>
       </c>
       <c r="J1742" s="9" t="s">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="K1742" s="9" t="s">
         <v>44</v>
@@ -70088,30 +70090,30 @@
     </row>
     <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1743" s="9" t="s">
-        <v>5684</v>
+        <v>5682</v>
       </c>
       <c r="B1743" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1743" s="9" t="s">
-        <v>5685</v>
+        <v>5683</v>
       </c>
       <c r="D1743" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1743" s="8"/>
       <c r="F1743" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1743" s="8"/>
       <c r="H1743" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="I1743" s="9" t="s">
-        <v>5686</v>
+        <v>5684</v>
       </c>
       <c r="J1743" s="9" t="s">
-        <v>5865</v>
+        <v>5863</v>
       </c>
       <c r="K1743" s="9" t="s">
         <v>44</v>
@@ -70119,30 +70121,30 @@
     </row>
     <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1744" s="9" t="s">
-        <v>5687</v>
+        <v>5685</v>
       </c>
       <c r="B1744" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1744" s="9" t="s">
-        <v>5688</v>
+        <v>5686</v>
       </c>
       <c r="D1744" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1744" s="8"/>
       <c r="F1744" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1744" s="8"/>
       <c r="H1744" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="I1744" s="9" t="s">
-        <v>5689</v>
+        <v>5687</v>
       </c>
       <c r="J1744" s="9" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="K1744" s="9" t="s">
         <v>44</v>
@@ -70150,30 +70152,30 @@
     </row>
     <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1745" s="9" t="s">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="B1745" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1745" s="9" t="s">
-        <v>5691</v>
+        <v>5689</v>
       </c>
       <c r="D1745" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1745" s="8"/>
       <c r="F1745" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1745" s="8"/>
       <c r="H1745" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="I1745" s="9" t="s">
-        <v>5692</v>
+        <v>5690</v>
       </c>
       <c r="J1745" s="9" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="K1745" s="9" t="s">
         <v>44</v>
@@ -70181,30 +70183,30 @@
     </row>
     <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1746" s="9" t="s">
-        <v>5693</v>
+        <v>5691</v>
       </c>
       <c r="B1746" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1746" s="9" t="s">
-        <v>5694</v>
+        <v>5692</v>
       </c>
       <c r="D1746" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1746" s="8"/>
       <c r="F1746" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1746" s="8"/>
       <c r="H1746" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="I1746" s="9" t="s">
-        <v>5695</v>
+        <v>5693</v>
       </c>
       <c r="J1746" s="9" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="K1746" s="9" t="s">
         <v>155</v>
@@ -70212,30 +70214,30 @@
     </row>
     <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1747" s="9" t="s">
-        <v>5696</v>
+        <v>5694</v>
       </c>
       <c r="B1747" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1747" s="9" t="s">
-        <v>5697</v>
+        <v>5695</v>
       </c>
       <c r="D1747" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1747" s="8"/>
       <c r="F1747" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1747" s="8"/>
       <c r="H1747" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="I1747" s="9" t="s">
-        <v>5698</v>
+        <v>5696</v>
       </c>
       <c r="J1747" s="9" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="K1747" s="9" t="s">
         <v>155</v>
@@ -70243,30 +70245,30 @@
     </row>
     <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1748" s="9" t="s">
-        <v>5699</v>
+        <v>5697</v>
       </c>
       <c r="B1748" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1748" s="9" t="s">
-        <v>5700</v>
+        <v>5698</v>
       </c>
       <c r="D1748" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1748" s="8"/>
       <c r="F1748" s="9" t="s">
-        <v>5701</v>
+        <v>5699</v>
       </c>
       <c r="G1748" s="9" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="H1748" s="8"/>
       <c r="I1748" s="9" t="s">
-        <v>5702</v>
+        <v>5700</v>
       </c>
       <c r="J1748" s="9" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="K1748" s="9" t="s">
         <v>155</v>
@@ -70274,30 +70276,30 @@
     </row>
     <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1749" s="9" t="s">
-        <v>5703</v>
+        <v>5701</v>
       </c>
       <c r="B1749" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1749" s="9" t="s">
-        <v>5704</v>
+        <v>5702</v>
       </c>
       <c r="D1749" s="9" t="s">
         <v>5374</v>
       </c>
       <c r="E1749" s="8"/>
       <c r="F1749" s="9" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G1749" s="8"/>
       <c r="H1749" s="9" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="I1749" s="9" t="s">
-        <v>5705</v>
+        <v>5703</v>
       </c>
       <c r="J1749" s="9" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
       <c r="K1749" s="9" t="s">
         <v>44</v>
@@ -70305,32 +70307,32 @@
     </row>
     <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1750" s="9" t="s">
+        <v>5704</v>
+      </c>
+      <c r="B1750" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1750" s="9" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D1750" s="9" t="s">
         <v>5706</v>
       </c>
-      <c r="B1750" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1750" s="9" t="s">
+      <c r="E1750" s="9" t="s">
         <v>5707</v>
       </c>
-      <c r="D1750" s="9" t="s">
+      <c r="F1750" s="9" t="s">
         <v>5708</v>
       </c>
-      <c r="E1750" s="9" t="s">
+      <c r="G1750" s="9" t="s">
         <v>5709</v>
-      </c>
-      <c r="F1750" s="9" t="s">
-        <v>5710</v>
-      </c>
-      <c r="G1750" s="9" t="s">
-        <v>5711</v>
       </c>
       <c r="H1750" s="8"/>
       <c r="I1750" s="9" t="s">
-        <v>5712</v>
+        <v>5710</v>
       </c>
       <c r="J1750" s="9" t="s">
-        <v>5872</v>
+        <v>5870</v>
       </c>
       <c r="K1750" s="9" t="s">
         <v>44</v>
@@ -70338,32 +70340,32 @@
     </row>
     <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1751" s="9" t="s">
+        <v>5711</v>
+      </c>
+      <c r="B1751" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1751" s="9" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D1751" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E1751" s="9" t="s">
         <v>5713</v>
       </c>
-      <c r="B1751" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1751" s="9" t="s">
-        <v>5714</v>
-      </c>
-      <c r="D1751" s="9" t="s">
+      <c r="F1751" s="9" t="s">
         <v>5708</v>
-      </c>
-      <c r="E1751" s="9" t="s">
-        <v>5715</v>
-      </c>
-      <c r="F1751" s="9" t="s">
-        <v>5710</v>
       </c>
       <c r="G1751" s="8"/>
       <c r="H1751" s="9" t="s">
-        <v>5706</v>
+        <v>5704</v>
       </c>
       <c r="I1751" s="9" t="s">
-        <v>5716</v>
+        <v>5714</v>
       </c>
       <c r="J1751" s="9" t="s">
-        <v>5873</v>
+        <v>5871</v>
       </c>
       <c r="K1751" s="9" t="s">
         <v>44</v>
@@ -70371,32 +70373,32 @@
     </row>
     <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1752" s="9" t="s">
+        <v>5715</v>
+      </c>
+      <c r="B1752" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1752" s="9" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D1752" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E1752" s="9" t="s">
         <v>5717</v>
       </c>
-      <c r="B1752" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1752" s="9" t="s">
-        <v>5718</v>
-      </c>
-      <c r="D1752" s="9" t="s">
+      <c r="F1752" s="9" t="s">
         <v>5708</v>
-      </c>
-      <c r="E1752" s="9" t="s">
-        <v>5719</v>
-      </c>
-      <c r="F1752" s="9" t="s">
-        <v>5710</v>
       </c>
       <c r="G1752" s="8"/>
       <c r="H1752" s="9" t="s">
-        <v>5706</v>
+        <v>5704</v>
       </c>
       <c r="I1752" s="9" t="s">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="J1752" s="9" t="s">
-        <v>5874</v>
+        <v>5872</v>
       </c>
       <c r="K1752" s="9" t="s">
         <v>44</v>
@@ -70404,32 +70406,32 @@
     </row>
     <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1753" s="9" t="s">
+        <v>5719</v>
+      </c>
+      <c r="B1753" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1753" s="9" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D1753" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E1753" s="9" t="s">
+        <v>5707</v>
+      </c>
+      <c r="F1753" s="9" t="s">
         <v>5721</v>
       </c>
-      <c r="B1753" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1753" s="9" t="s">
+      <c r="G1753" s="9" t="s">
         <v>5722</v>
-      </c>
-      <c r="D1753" s="9" t="s">
-        <v>5708</v>
-      </c>
-      <c r="E1753" s="9" t="s">
-        <v>5709</v>
-      </c>
-      <c r="F1753" s="9" t="s">
-        <v>5723</v>
-      </c>
-      <c r="G1753" s="9" t="s">
-        <v>5724</v>
       </c>
       <c r="H1753" s="8"/>
       <c r="I1753" s="9" t="s">
-        <v>5725</v>
+        <v>5723</v>
       </c>
       <c r="J1753" s="9" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="K1753" s="9" t="s">
         <v>44</v>
@@ -70437,32 +70439,32 @@
     </row>
     <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1754" s="9" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="B1754" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1754" s="9" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="D1754" s="9" t="s">
-        <v>5708</v>
+        <v>5706</v>
       </c>
       <c r="E1754" s="9" t="s">
-        <v>5715</v>
+        <v>5713</v>
       </c>
       <c r="F1754" s="9" t="s">
-        <v>5723</v>
+        <v>5721</v>
       </c>
       <c r="G1754" s="8"/>
       <c r="H1754" s="9" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="I1754" s="9" t="s">
-        <v>5728</v>
+        <v>5726</v>
       </c>
       <c r="J1754" s="9" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="K1754" s="9" t="s">
         <v>44</v>
@@ -70470,32 +70472,32 @@
     </row>
     <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1755" s="9" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="B1755" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C1755" s="9" t="s">
-        <v>5730</v>
+        <v>5728</v>
       </c>
       <c r="D1755" s="9" t="s">
-        <v>5708</v>
+        <v>5706</v>
       </c>
       <c r="E1755" s="9" t="s">
-        <v>5719</v>
+        <v>5717</v>
       </c>
       <c r="F1755" s="9" t="s">
-        <v>5723</v>
+        <v>5721</v>
       </c>
       <c r="G1755" s="8"/>
       <c r="H1755" s="9" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="I1755" s="9" t="s">
-        <v>5731</v>
+        <v>5729</v>
       </c>
       <c r="J1755" s="9" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="K1755" s="9" t="s">
         <v>44</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15294" uniqueCount="5878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15304" uniqueCount="5884">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20470,6 +20470,29 @@
   </si>
   <si>
     <t>select price from $schema36 where price&gt;605.771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1756</t>
+  </si>
+  <si>
+    <t>char_length获取中文长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select char_length(name) cn,char_length(address) ca from $schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/StringFunction/queryc1_1756.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20862,10 +20885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1756"/>
+  <dimension ref="A1:K1757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1690" workbookViewId="0">
-      <selection activeCell="I1696" sqref="I1696"/>
+    <sheetView tabSelected="1" topLeftCell="A1733" workbookViewId="0">
+      <selection activeCell="C1764" sqref="C1764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -70532,6 +70555,38 @@
         <v>5273</v>
       </c>
       <c r="K1756" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1757" s="9" t="s">
+        <v>5878</v>
+      </c>
+      <c r="B1757" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1757" s="1" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D1757" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1757" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1757" s="1" t="s">
+        <v>5880</v>
+      </c>
+      <c r="G1757" s="9" t="s">
+        <v>5881</v>
+      </c>
+      <c r="I1757" s="1" t="s">
+        <v>5882</v>
+      </c>
+      <c r="J1757" s="1" t="s">
+        <v>5883</v>
+      </c>
+      <c r="K1757" s="9" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15304" uniqueCount="5884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15520" uniqueCount="5962">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20494,6 +20494,284 @@
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/StringFunction/queryc1_1756.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从数据表中查询常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunctions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 1 from $schema52 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1757</t>
+  </si>
+  <si>
+    <t>dqlc1_1758</t>
+  </si>
+  <si>
+    <t>dqlc1_1759</t>
+  </si>
+  <si>
+    <t>dqlc1_1760</t>
+  </si>
+  <si>
+    <t>dqlc1_1761</t>
+  </si>
+  <si>
+    <t>dqlc1_1762</t>
+  </si>
+  <si>
+    <t>dqlc1_1763</t>
+  </si>
+  <si>
+    <t>dqlc1_1764</t>
+  </si>
+  <si>
+    <t>dqlc1_1765</t>
+  </si>
+  <si>
+    <t>dqlc1_1766</t>
+  </si>
+  <si>
+    <t>dqlc1_1767</t>
+  </si>
+  <si>
+    <t>dqlc1_1768</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1757.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1769</t>
+  </si>
+  <si>
+    <t>dqlc1_1770</t>
+  </si>
+  <si>
+    <t>dqlc1_1771</t>
+  </si>
+  <si>
+    <t>dqlc1_1772</t>
+  </si>
+  <si>
+    <t>dqlc1_1773</t>
+  </si>
+  <si>
+    <t>dqlc1_1774</t>
+  </si>
+  <si>
+    <t>dqlc1_1775</t>
+  </si>
+  <si>
+    <t>dqlc1_1776</t>
+  </si>
+  <si>
+    <t>dqlc1_1777</t>
+  </si>
+  <si>
+    <t>dqlc1_1778</t>
+  </si>
+  <si>
+    <t>dqlc1_1779</t>
+  </si>
+  <si>
+    <t>mid函数截取起始值越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String function</t>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abc',0,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid(' abc ',0,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('0123',0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abcde',10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('2',2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abc',4,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abcde',-10,8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abcdefg',7.5,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid(123,4,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid(123.0,0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abcde',6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abcde',-6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mid('abcde',0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring函数截取起始值越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('abcefg',10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('http://www.baidu.com',22,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('1234567',9,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('abc',4,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('abc',0,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString(' abc ',0,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('0123',0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('abcdef',-10,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString(123,4,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString(123.0,0,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('www.baidu.com' from 0 for 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('www.baidu.com' from 15 for 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring函数从指定起始索引处截取到最后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('www.baidu.com' from 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring函数从指定起始索引处截取到最后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select subString('www.baidu.com',5)</t>
+  </si>
+  <si>
+    <t>select subString('www.baidu.com',1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pow函数第二个参数为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numeric function</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>select pow(16,0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1780</t>
+  </si>
+  <si>
+    <t>dqlc1_1781</t>
+  </si>
+  <si>
+    <t>dqlc1_1782</t>
+  </si>
+  <si>
+    <t>dqlc1_1783</t>
+  </si>
+  <si>
+    <t>dqlc1_1784</t>
+  </si>
+  <si>
+    <t>dqlc1_1785</t>
+  </si>
+  <si>
+    <t>dqlc1_1786</t>
   </si>
 </sst>
 </file>
@@ -20885,10 +21163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1757"/>
+  <dimension ref="A1:K1787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1733" workbookViewId="0">
-      <selection activeCell="C1764" sqref="C1764"/>
+    <sheetView tabSelected="1" topLeftCell="A1754" workbookViewId="0">
+      <selection activeCell="D1761" sqref="D1761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -70588,6 +70866,828 @@
       </c>
       <c r="K1757" s="9" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1758" s="9" t="s">
+        <v>5888</v>
+      </c>
+      <c r="B1758" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1758" s="9" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D1758" s="9" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E1758" s="9"/>
+      <c r="F1758" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="G1758" s="9"/>
+      <c r="H1758" s="9" t="s">
+        <v>5886</v>
+      </c>
+      <c r="I1758" s="9" t="s">
+        <v>5887</v>
+      </c>
+      <c r="J1758" s="9" t="s">
+        <v>5900</v>
+      </c>
+      <c r="K1758" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1759" s="9" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B1759" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1759" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1759" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1759" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1759" s="9"/>
+      <c r="G1759" s="9"/>
+      <c r="H1759" s="9"/>
+      <c r="I1759" s="9" t="s">
+        <v>5915</v>
+      </c>
+      <c r="J1759" s="9"/>
+      <c r="K1759" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1760" s="9" t="s">
+        <v>5890</v>
+      </c>
+      <c r="B1760" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1760" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1760" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1760" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1760" s="9"/>
+      <c r="G1760" s="9"/>
+      <c r="H1760" s="9"/>
+      <c r="I1760" s="9" t="s">
+        <v>5916</v>
+      </c>
+      <c r="J1760" s="9"/>
+      <c r="K1760" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1761" s="9" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B1761" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1761" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1761" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1761" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1761" s="9"/>
+      <c r="G1761" s="9"/>
+      <c r="H1761" s="9"/>
+      <c r="I1761" s="9" t="s">
+        <v>5917</v>
+      </c>
+      <c r="J1761" s="9"/>
+      <c r="K1761" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1762" s="9" t="s">
+        <v>5892</v>
+      </c>
+      <c r="B1762" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1762" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1762" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1762" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1762" s="9"/>
+      <c r="G1762" s="9"/>
+      <c r="H1762" s="9"/>
+      <c r="I1762" s="9" t="s">
+        <v>5918</v>
+      </c>
+      <c r="J1762" s="9"/>
+      <c r="K1762" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1763" s="9" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B1763" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1763" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1763" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1763" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1763" s="9"/>
+      <c r="G1763" s="9"/>
+      <c r="H1763" s="9"/>
+      <c r="I1763" s="9" t="s">
+        <v>5919</v>
+      </c>
+      <c r="J1763" s="9"/>
+      <c r="K1763" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1764" s="9" t="s">
+        <v>5894</v>
+      </c>
+      <c r="B1764" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1764" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1764" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1764" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1764" s="9"/>
+      <c r="G1764" s="9"/>
+      <c r="H1764" s="9"/>
+      <c r="I1764" s="9" t="s">
+        <v>5920</v>
+      </c>
+      <c r="J1764" s="9"/>
+      <c r="K1764" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1765" s="9" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B1765" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1765" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1765" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1765" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1765" s="9"/>
+      <c r="G1765" s="9"/>
+      <c r="H1765" s="9"/>
+      <c r="I1765" s="9" t="s">
+        <v>5921</v>
+      </c>
+      <c r="J1765" s="9"/>
+      <c r="K1765" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1766" s="9" t="s">
+        <v>5896</v>
+      </c>
+      <c r="B1766" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1766" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1766" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1766" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1766" s="9"/>
+      <c r="G1766" s="9"/>
+      <c r="H1766" s="9"/>
+      <c r="I1766" s="9" t="s">
+        <v>5922</v>
+      </c>
+      <c r="J1766" s="9"/>
+      <c r="K1766" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1767" s="9" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B1767" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1767" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1767" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1767" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1767" s="9"/>
+      <c r="G1767" s="9"/>
+      <c r="H1767" s="9"/>
+      <c r="I1767" s="9" t="s">
+        <v>5923</v>
+      </c>
+      <c r="J1767" s="9"/>
+      <c r="K1767" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1768" s="9" t="s">
+        <v>5898</v>
+      </c>
+      <c r="B1768" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1768" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1768" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1768" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1768" s="9"/>
+      <c r="G1768" s="9"/>
+      <c r="H1768" s="9"/>
+      <c r="I1768" s="9" t="s">
+        <v>5924</v>
+      </c>
+      <c r="J1768" s="9"/>
+      <c r="K1768" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1769" s="9" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B1769" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1769" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1769" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1769" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1769" s="9"/>
+      <c r="G1769" s="9"/>
+      <c r="H1769" s="9"/>
+      <c r="I1769" s="9" t="s">
+        <v>5925</v>
+      </c>
+      <c r="J1769" s="9"/>
+      <c r="K1769" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1770" s="9" t="s">
+        <v>5901</v>
+      </c>
+      <c r="B1770" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1770" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1770" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1770" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1770" s="9"/>
+      <c r="G1770" s="9"/>
+      <c r="H1770" s="9"/>
+      <c r="I1770" s="9" t="s">
+        <v>5926</v>
+      </c>
+      <c r="J1770" s="9"/>
+      <c r="K1770" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1771" s="9" t="s">
+        <v>5902</v>
+      </c>
+      <c r="B1771" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1771" s="9" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1771" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1771" s="9" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1771" s="9"/>
+      <c r="G1771" s="9"/>
+      <c r="H1771" s="9"/>
+      <c r="I1771" s="9" t="s">
+        <v>5927</v>
+      </c>
+      <c r="J1771" s="9"/>
+      <c r="K1771" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1772" s="9" t="s">
+        <v>5903</v>
+      </c>
+      <c r="B1772" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1772" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1772" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1772" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1772" s="9"/>
+      <c r="G1772" s="9"/>
+      <c r="H1772" s="9"/>
+      <c r="I1772" s="9" t="s">
+        <v>5930</v>
+      </c>
+      <c r="J1772" s="9"/>
+      <c r="K1772" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1773" s="9" t="s">
+        <v>5904</v>
+      </c>
+      <c r="B1773" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1773" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1773" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1773" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1773" s="9"/>
+      <c r="G1773" s="9"/>
+      <c r="H1773" s="9"/>
+      <c r="I1773" s="9" t="s">
+        <v>5931</v>
+      </c>
+      <c r="J1773" s="9"/>
+      <c r="K1773" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1774" s="9" t="s">
+        <v>5905</v>
+      </c>
+      <c r="B1774" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1774" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1774" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1774" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1774" s="9"/>
+      <c r="G1774" s="9"/>
+      <c r="H1774" s="9"/>
+      <c r="I1774" s="9" t="s">
+        <v>5932</v>
+      </c>
+      <c r="J1774" s="9"/>
+      <c r="K1774" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1775" s="9" t="s">
+        <v>5906</v>
+      </c>
+      <c r="B1775" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1775" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1775" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1775" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1775" s="9"/>
+      <c r="G1775" s="9"/>
+      <c r="H1775" s="9"/>
+      <c r="I1775" s="9" t="s">
+        <v>5933</v>
+      </c>
+      <c r="J1775" s="9"/>
+      <c r="K1775" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1776" s="9" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B1776" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1776" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1776" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1776" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1776" s="9"/>
+      <c r="G1776" s="9"/>
+      <c r="H1776" s="9"/>
+      <c r="I1776" s="9" t="s">
+        <v>5934</v>
+      </c>
+      <c r="J1776" s="9"/>
+      <c r="K1776" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1777" s="9" t="s">
+        <v>5908</v>
+      </c>
+      <c r="B1777" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1777" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1777" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1777" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1777" s="9"/>
+      <c r="G1777" s="9"/>
+      <c r="H1777" s="9"/>
+      <c r="I1777" s="9" t="s">
+        <v>5935</v>
+      </c>
+      <c r="J1777" s="9"/>
+      <c r="K1777" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1778" s="9" t="s">
+        <v>5909</v>
+      </c>
+      <c r="B1778" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1778" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1778" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1778" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1778" s="9"/>
+      <c r="G1778" s="9"/>
+      <c r="H1778" s="9"/>
+      <c r="I1778" s="9" t="s">
+        <v>5936</v>
+      </c>
+      <c r="J1778" s="9"/>
+      <c r="K1778" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1779" s="9" t="s">
+        <v>5910</v>
+      </c>
+      <c r="B1779" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1779" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1779" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1779" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1779" s="9"/>
+      <c r="G1779" s="9"/>
+      <c r="H1779" s="9"/>
+      <c r="I1779" s="9" t="s">
+        <v>5937</v>
+      </c>
+      <c r="J1779" s="9"/>
+      <c r="K1779" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1780" s="9" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B1780" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1780" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1780" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1780" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1780" s="9"/>
+      <c r="G1780" s="9"/>
+      <c r="H1780" s="9"/>
+      <c r="I1780" s="9" t="s">
+        <v>5938</v>
+      </c>
+      <c r="J1780" s="9"/>
+      <c r="K1780" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1781" s="9" t="s">
+        <v>5955</v>
+      </c>
+      <c r="B1781" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1781" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1781" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1781" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1781" s="9"/>
+      <c r="G1781" s="9"/>
+      <c r="H1781" s="9"/>
+      <c r="I1781" s="9" t="s">
+        <v>5939</v>
+      </c>
+      <c r="J1781" s="9"/>
+      <c r="K1781" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1782" s="9" t="s">
+        <v>5956</v>
+      </c>
+      <c r="B1782" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1782" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1782" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1782" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1782" s="9"/>
+      <c r="G1782" s="9"/>
+      <c r="H1782" s="9"/>
+      <c r="I1782" s="9" t="s">
+        <v>5940</v>
+      </c>
+      <c r="J1782" s="9"/>
+      <c r="K1782" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1783" s="9" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B1783" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1783" s="9" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D1783" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1783" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1783" s="9"/>
+      <c r="G1783" s="9"/>
+      <c r="H1783" s="9"/>
+      <c r="I1783" s="9" t="s">
+        <v>5941</v>
+      </c>
+      <c r="J1783" s="9"/>
+      <c r="K1783" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1784" s="9" t="s">
+        <v>5958</v>
+      </c>
+      <c r="B1784" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1784" s="9" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D1784" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1784" s="9" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1784" s="9"/>
+      <c r="G1784" s="9"/>
+      <c r="H1784" s="9"/>
+      <c r="I1784" s="9" t="s">
+        <v>5943</v>
+      </c>
+      <c r="J1784" s="9" t="s">
+        <v>5944</v>
+      </c>
+      <c r="K1784" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1785" s="9" t="s">
+        <v>5959</v>
+      </c>
+      <c r="B1785" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1785" s="9" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D1785" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1785" s="9" t="s">
+        <v>5946</v>
+      </c>
+      <c r="F1785" s="9"/>
+      <c r="G1785" s="9"/>
+      <c r="H1785" s="9"/>
+      <c r="I1785" s="9" t="s">
+        <v>5947</v>
+      </c>
+      <c r="J1785" s="9" t="s">
+        <v>5944</v>
+      </c>
+      <c r="K1785" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1786" s="9" t="s">
+        <v>5960</v>
+      </c>
+      <c r="B1786" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1786" s="9" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D1786" s="9" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E1786" s="9" t="s">
+        <v>5946</v>
+      </c>
+      <c r="F1786" s="9"/>
+      <c r="G1786" s="9"/>
+      <c r="H1786" s="9"/>
+      <c r="I1786" s="9" t="s">
+        <v>5948</v>
+      </c>
+      <c r="J1786" s="8" t="s">
+        <v>5949</v>
+      </c>
+      <c r="K1786" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1787" s="9" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B1787" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1787" s="9" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D1787" s="9" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E1787" s="9" t="s">
+        <v>5952</v>
+      </c>
+      <c r="F1787" s="9"/>
+      <c r="G1787" s="9"/>
+      <c r="H1787" s="9"/>
+      <c r="I1787" s="9" t="s">
+        <v>5953</v>
+      </c>
+      <c r="J1787" s="9" t="s">
+        <v>5954</v>
+      </c>
+      <c r="K1787" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1791</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1793</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15555" uniqueCount="5985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15574" uniqueCount="5996">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20852,10 +20852,6 @@
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Subquery/queryc1_1790.csv</t>
   </si>
   <si>
-    <t xml:space="preserve"> select name,boyfriend_id from $schema7 where boyfriend_id not in (select id from $schema8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select id from $schema8 where id in (select boyfriend_id from $schema7) order by id desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20865,6 +20861,51 @@
   </si>
   <si>
     <t>子查询-主键在另一个表非主键里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子查询带有条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema8 where id in (select id from $schema7 where id&gt;6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1791</t>
+  </si>
+  <si>
+    <t>select name,boyfriend_id from $schema7 where boyfriend_id not in (select id from $schema8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/Subquery/queryc1_1791.csv</t>
+  </si>
+  <si>
+    <t>换行符转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema57_com_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select content from $schema57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1792</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1792.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21244,10 +21285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1791"/>
+  <dimension ref="A1:K1793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1757" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71775,7 +71816,7 @@
       <c r="A1788" s="7" t="s">
         <v>5963</v>
       </c>
-      <c r="B1788" s="7" t="s">
+      <c r="B1788" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1788" s="1" t="s">
@@ -71801,7 +71842,7 @@
       <c r="A1789" s="7" t="s">
         <v>5975</v>
       </c>
-      <c r="B1789" s="7" t="s">
+      <c r="B1789" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1789" s="7" t="s">
@@ -71832,11 +71873,11 @@
       <c r="A1790" s="7" t="s">
         <v>5976</v>
       </c>
-      <c r="B1790" s="7" t="s">
+      <c r="B1790" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1790" s="7" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="D1790" s="7" t="s">
         <v>5972</v>
@@ -71850,7 +71891,7 @@
         <v>5974</v>
       </c>
       <c r="I1790" s="7" t="s">
-        <v>5981</v>
+        <v>5987</v>
       </c>
       <c r="J1790" s="7" t="s">
         <v>5979</v>
@@ -71863,11 +71904,11 @@
       <c r="A1791" s="7" t="s">
         <v>5977</v>
       </c>
-      <c r="B1791" s="7" t="s">
+      <c r="B1791" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1791" s="7" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
       <c r="D1791" s="7" t="s">
         <v>5972</v>
@@ -71881,7 +71922,7 @@
         <v>5974</v>
       </c>
       <c r="I1791" s="7" t="s">
-        <v>5982</v>
+        <v>5981</v>
       </c>
       <c r="J1791" s="7" t="s">
         <v>5980</v>
@@ -71890,8 +71931,72 @@
         <v>153</v>
       </c>
     </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1792" s="7" t="s">
+        <v>5986</v>
+      </c>
+      <c r="B1792" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1792" s="7" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D1792" s="7" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E1792" s="7"/>
+      <c r="F1792" s="7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G1792" s="7"/>
+      <c r="H1792" s="7" t="s">
+        <v>4196</v>
+      </c>
+      <c r="I1792" s="7" t="s">
+        <v>5985</v>
+      </c>
+      <c r="J1792" s="7" t="s">
+        <v>5988</v>
+      </c>
+      <c r="K1792" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1793" s="7" t="s">
+        <v>5994</v>
+      </c>
+      <c r="B1793" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1793" s="7" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D1793" s="7" t="s">
+        <v>5362</v>
+      </c>
+      <c r="E1793" s="7" t="s">
+        <v>5990</v>
+      </c>
+      <c r="F1793" s="7" t="s">
+        <v>5991</v>
+      </c>
+      <c r="G1793" s="7" t="s">
+        <v>5992</v>
+      </c>
+      <c r="H1793" s="7"/>
+      <c r="I1793" s="7" t="s">
+        <v>5993</v>
+      </c>
+      <c r="J1793" s="1" t="s">
+        <v>5995</v>
+      </c>
+      <c r="K1793" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A1791"/>
+  <autoFilter ref="A1:A1793"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15574" uniqueCount="5996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15604" uniqueCount="6015">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20789,10 +20789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$schema56' or `TABLE_SCHEMA` in ('MYSQL', 'INFORMATION_SCHEMA')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http\n.baidu\t.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20906,6 +20902,80 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1792.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$schema56' or `TABLE_SCHEMA` in ('INFORMATION_SCHEMA')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar array字段在中间，通过array后字段条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array22_value59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array22 where name='lala'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float array字段在中间，通过array后字段条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array23</t>
+  </si>
+  <si>
+    <t>array23_value60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1793</t>
+  </si>
+  <si>
+    <t>float array字段在中间，通过array后字段条件仅查询主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1794</t>
+  </si>
+  <si>
+    <t>dqlc1_1795</t>
+  </si>
+  <si>
+    <t>dqlc1_1794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array23 where id&lt;2 or name&gt;'P'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1793.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1794.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1795.csv</t>
+  </si>
+  <si>
+    <t>select user_data from $array23 where amount&lt;1000 and age&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21285,10 +21355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1793"/>
+  <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A1774" workbookViewId="0">
+      <selection activeCell="C1799" sqref="C1799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21816,10 +21886,10 @@
         <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>9</v>
@@ -71829,7 +71899,7 @@
         <v>5962</v>
       </c>
       <c r="I1788" s="1" t="s">
-        <v>5964</v>
+        <v>5995</v>
       </c>
       <c r="J1788" s="7" t="s">
         <v>5961</v>
@@ -71840,30 +71910,30 @@
     </row>
     <row r="1789" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1789" s="7" t="s">
-        <v>5975</v>
+        <v>5974</v>
       </c>
       <c r="B1789" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1789" s="7" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D1789" s="7" t="s">
         <v>5967</v>
-      </c>
-      <c r="D1789" s="7" t="s">
-        <v>5968</v>
       </c>
       <c r="E1789" s="7"/>
       <c r="F1789" s="7" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
       <c r="G1789" s="7"/>
       <c r="H1789" s="7" t="s">
+        <v>5969</v>
+      </c>
+      <c r="I1789" s="7" t="s">
         <v>5970</v>
       </c>
-      <c r="I1789" s="7" t="s">
-        <v>5971</v>
-      </c>
       <c r="J1789" s="1" t="s">
-        <v>5978</v>
+        <v>5977</v>
       </c>
       <c r="K1789" s="7" t="s">
         <v>44</v>
@@ -71871,30 +71941,30 @@
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1790" s="7" t="s">
-        <v>5976</v>
+        <v>5975</v>
       </c>
       <c r="B1790" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1790" s="7" t="s">
-        <v>5982</v>
+        <v>5981</v>
       </c>
       <c r="D1790" s="7" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="E1790" s="7"/>
       <c r="F1790" s="7" t="s">
-        <v>5973</v>
+        <v>5972</v>
       </c>
       <c r="G1790" s="7"/>
       <c r="H1790" s="7" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
       <c r="I1790" s="7" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
       <c r="J1790" s="7" t="s">
-        <v>5979</v>
+        <v>5978</v>
       </c>
       <c r="K1790" s="7" t="s">
         <v>44</v>
@@ -71902,30 +71972,30 @@
     </row>
     <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1791" s="7" t="s">
-        <v>5977</v>
+        <v>5976</v>
       </c>
       <c r="B1791" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1791" s="7" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="D1791" s="7" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="E1791" s="7"/>
       <c r="F1791" s="7" t="s">
-        <v>5973</v>
+        <v>5972</v>
       </c>
       <c r="G1791" s="7"/>
       <c r="H1791" s="7" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
       <c r="I1791" s="7" t="s">
-        <v>5981</v>
+        <v>5980</v>
       </c>
       <c r="J1791" s="7" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
       <c r="K1791" s="7" t="s">
         <v>153</v>
@@ -71933,16 +72003,16 @@
     </row>
     <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1792" s="7" t="s">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="B1792" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1792" s="7" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
       <c r="D1792" s="7" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
       <c r="E1792" s="7"/>
       <c r="F1792" s="7" t="s">
@@ -71953,10 +72023,10 @@
         <v>4196</v>
       </c>
       <c r="I1792" s="7" t="s">
-        <v>5985</v>
+        <v>5984</v>
       </c>
       <c r="J1792" s="7" t="s">
-        <v>5988</v>
+        <v>5987</v>
       </c>
       <c r="K1792" s="1" t="s">
         <v>153</v>
@@ -71964,35 +72034,134 @@
     </row>
     <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1793" s="7" t="s">
-        <v>5994</v>
+        <v>5993</v>
       </c>
       <c r="B1793" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C1793" s="7" t="s">
-        <v>5989</v>
+        <v>5988</v>
       </c>
       <c r="D1793" s="7" t="s">
         <v>5362</v>
       </c>
       <c r="E1793" s="7" t="s">
+        <v>5989</v>
+      </c>
+      <c r="F1793" s="7" t="s">
         <v>5990</v>
       </c>
-      <c r="F1793" s="7" t="s">
+      <c r="G1793" s="7" t="s">
         <v>5991</v>
-      </c>
-      <c r="G1793" s="7" t="s">
-        <v>5992</v>
       </c>
       <c r="H1793" s="7"/>
       <c r="I1793" s="7" t="s">
-        <v>5993</v>
+        <v>5992</v>
       </c>
       <c r="J1793" s="1" t="s">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="K1793" s="1" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1794" s="7" t="s">
+        <v>6005</v>
+      </c>
+      <c r="B1794" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1794" s="7" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D1794" s="7" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E1794" s="7" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F1794" s="7" t="s">
+        <v>5999</v>
+      </c>
+      <c r="G1794" s="7" t="s">
+        <v>6000</v>
+      </c>
+      <c r="H1794" s="7"/>
+      <c r="I1794" s="7" t="s">
+        <v>6001</v>
+      </c>
+      <c r="J1794" s="7" t="s">
+        <v>6011</v>
+      </c>
+      <c r="K1794" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1795" s="7" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B1795" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1795" s="7" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D1795" s="7" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E1795" s="7" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F1795" s="7" t="s">
+        <v>6003</v>
+      </c>
+      <c r="G1795" s="7" t="s">
+        <v>6004</v>
+      </c>
+      <c r="H1795" s="7"/>
+      <c r="I1795" s="7" t="s">
+        <v>6010</v>
+      </c>
+      <c r="J1795" s="7" t="s">
+        <v>6012</v>
+      </c>
+      <c r="K1795" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1796" s="7" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B1796" s="7" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1796" s="7" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D1796" s="7" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E1796" s="7" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F1796" s="7" t="s">
+        <v>6003</v>
+      </c>
+      <c r="G1796" s="7"/>
+      <c r="H1796" s="7" t="s">
+        <v>6009</v>
+      </c>
+      <c r="I1796" s="7" t="s">
+        <v>6014</v>
+      </c>
+      <c r="J1796" s="7" t="s">
+        <v>6013</v>
+      </c>
+      <c r="K1796" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -20947,10 +20947,6 @@
     <t>dqlc1_1793</t>
   </si>
   <si>
-    <t>float array字段在中间，通过array后字段条件仅查询主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dqlc1_1794</t>
   </si>
   <si>
@@ -20976,6 +20972,10 @@
   </si>
   <si>
     <t>select user_data from $array23 where amount&lt;1000 and age&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float array字段在中间，通过array后字段条件仅查询array字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21357,8 +21357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1774" workbookViewId="0">
-      <selection activeCell="C1799" sqref="C1799"/>
+    <sheetView tabSelected="1" topLeftCell="A1771" workbookViewId="0">
+      <selection activeCell="C1803" sqref="C1803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -72092,7 +72092,7 @@
         <v>6001</v>
       </c>
       <c r="J1794" s="7" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="K1794" s="7" t="s">
         <v>153</v>
@@ -72100,7 +72100,7 @@
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1795" s="7" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B1795" s="7" t="s">
         <v>34</v>
@@ -72122,10 +72122,10 @@
       </c>
       <c r="H1795" s="7"/>
       <c r="I1795" s="7" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="J1795" s="7" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="K1795" s="7" t="s">
         <v>44</v>
@@ -72133,13 +72133,13 @@
     </row>
     <row r="1796" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1796" s="7" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B1796" s="7" t="s">
-        <v>4533</v>
+        <v>34</v>
       </c>
       <c r="C1796" s="7" t="s">
-        <v>6006</v>
+        <v>6014</v>
       </c>
       <c r="D1796" s="7" t="s">
         <v>5997</v>
@@ -72152,13 +72152,13 @@
       </c>
       <c r="G1796" s="7"/>
       <c r="H1796" s="7" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="I1796" s="7" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="J1796" s="7" t="s">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="K1796" s="7" t="s">
         <v>44</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -21358,7 +21358,7 @@
   <dimension ref="A1:K1796"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1771" workbookViewId="0">
-      <selection activeCell="C1803" sqref="C1803"/>
+      <selection activeCell="C1800" sqref="C1800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -72070,7 +72070,7 @@
         <v>6005</v>
       </c>
       <c r="B1794" s="7" t="s">
-        <v>34</v>
+        <v>4533</v>
       </c>
       <c r="C1794" s="7" t="s">
         <v>5996</v>
@@ -72103,7 +72103,7 @@
         <v>6006</v>
       </c>
       <c r="B1795" s="7" t="s">
-        <v>34</v>
+        <v>4533</v>
       </c>
       <c r="C1795" s="7" t="s">
         <v>6002</v>
@@ -72136,7 +72136,7 @@
         <v>6007</v>
       </c>
       <c r="B1796" s="7" t="s">
-        <v>34</v>
+        <v>4533</v>
       </c>
       <c r="C1796" s="7" t="s">
         <v>6014</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -18556,14 +18556,6 @@
     <t>justExec</t>
   </si>
   <si>
-    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select repeat('http://www.baidu.com; ',3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20976,6 +20968,14 @@
   </si>
   <si>
     <t>float array字段在中间，通过array后字段条件仅查询array字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:''"&lt;&gt;?'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:'"&lt;&gt;?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21357,8 +21357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1771" workbookViewId="0">
-      <selection activeCell="C1800" sqref="C1800"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21444,10 +21444,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>5248</v>
+        <v>6013</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5249</v>
+        <v>6014</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -21886,10 +21886,10 @@
         <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5965</v>
+        <v>5963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>5964</v>
+        <v>5962</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>9</v>
@@ -21912,10 +21912,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="J21" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>9</v>
@@ -26380,10 +26380,10 @@
         <v>413</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="J191" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>9</v>
@@ -36067,10 +36067,10 @@
         <v>979</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>5947</v>
+        <v>5945</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>5948</v>
+        <v>5946</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>9</v>
@@ -36096,7 +36096,7 @@
         <v>993</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>5949</v>
+        <v>5947</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>9</v>
@@ -42198,10 +42198,10 @@
         <v>1406</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>5954</v>
+        <v>5952</v>
       </c>
       <c r="J801" s="1" t="s">
-        <v>5955</v>
+        <v>5953</v>
       </c>
       <c r="K801" s="1" t="s">
         <v>9</v>
@@ -42224,10 +42224,10 @@
         <v>1406</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>5956</v>
+        <v>5954</v>
       </c>
       <c r="J802" s="1" t="s">
-        <v>5957</v>
+        <v>5955</v>
       </c>
       <c r="K802" s="1" t="s">
         <v>9</v>
@@ -43146,7 +43146,7 @@
         <v>4220</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>5958</v>
+        <v>5956</v>
       </c>
       <c r="J837" s="1" t="s">
         <v>4659</v>
@@ -46556,7 +46556,7 @@
         <v>1679</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="J967" s="1" t="s">
         <v>1711</v>
@@ -63271,7 +63271,7 @@
         <v>4046</v>
       </c>
       <c r="I1514" s="1" t="s">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="J1514" s="1" t="s">
         <v>5133</v>
@@ -63463,7 +63463,7 @@
         <v>4046</v>
       </c>
       <c r="I1520" s="1" t="s">
-        <v>5951</v>
+        <v>5949</v>
       </c>
       <c r="J1520" s="1" t="s">
         <v>5139</v>
@@ -66365,7 +66365,7 @@
         <v>5241</v>
       </c>
       <c r="B1609" s="8" t="s">
-        <v>34</v>
+        <v>4533</v>
       </c>
       <c r="C1609" s="1" t="s">
         <v>5242</v>
@@ -66388,30 +66388,30 @@
     </row>
     <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1610" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="B1610" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1610" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1610" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1610" s="6"/>
       <c r="F1610" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1610" s="7" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="H1610" s="6"/>
       <c r="I1610" s="7" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="J1610" s="7" t="s">
-        <v>5716</v>
+        <v>5714</v>
       </c>
       <c r="K1610" s="7" t="s">
         <v>44</v>
@@ -66419,30 +66419,30 @@
     </row>
     <row r="1611" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1611" s="7" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="B1611" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1611" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1611" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1611" s="6"/>
       <c r="F1611" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1611" s="6"/>
       <c r="H1611" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1611" s="7" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="J1611" s="7" t="s">
-        <v>5717</v>
+        <v>5715</v>
       </c>
       <c r="K1611" s="7" t="s">
         <v>44</v>
@@ -66450,30 +66450,30 @@
     </row>
     <row r="1612" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1612" s="7" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="B1612" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1612" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1612" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1612" s="6"/>
       <c r="F1612" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1612" s="6"/>
       <c r="H1612" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1612" s="7" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="J1612" s="7" t="s">
-        <v>5718</v>
+        <v>5716</v>
       </c>
       <c r="K1612" s="7" t="s">
         <v>44</v>
@@ -66481,30 +66481,30 @@
     </row>
     <row r="1613" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1613" s="7" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="B1613" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1613" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1613" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1613" s="6"/>
       <c r="F1613" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1613" s="6"/>
       <c r="H1613" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1613" s="7" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="J1613" s="7" t="s">
-        <v>5719</v>
+        <v>5717</v>
       </c>
       <c r="K1613" s="7" t="s">
         <v>44</v>
@@ -66512,30 +66512,30 @@
     </row>
     <row r="1614" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1614" s="7" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="B1614" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1614" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1614" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1614" s="6"/>
       <c r="F1614" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1614" s="6"/>
       <c r="H1614" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1614" s="7" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="J1614" s="7" t="s">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="K1614" s="7" t="s">
         <v>44</v>
@@ -66543,30 +66543,30 @@
     </row>
     <row r="1615" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1615" s="7" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="B1615" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1615" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1615" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1615" s="6"/>
       <c r="F1615" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1615" s="6"/>
       <c r="H1615" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1615" s="7" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="J1615" s="7" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="K1615" s="7" t="s">
         <v>44</v>
@@ -66574,30 +66574,30 @@
     </row>
     <row r="1616" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1616" s="7" t="s">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="B1616" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1616" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1616" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1616" s="6"/>
       <c r="F1616" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1616" s="6"/>
       <c r="H1616" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1616" s="7" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="J1616" s="7" t="s">
-        <v>5722</v>
+        <v>5720</v>
       </c>
       <c r="K1616" s="7" t="s">
         <v>44</v>
@@ -66605,30 +66605,30 @@
     </row>
     <row r="1617" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1617" s="7" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="B1617" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1617" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1617" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1617" s="6"/>
       <c r="F1617" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1617" s="6"/>
       <c r="H1617" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1617" s="7" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="J1617" s="7" t="s">
-        <v>5723</v>
+        <v>5721</v>
       </c>
       <c r="K1617" s="7" t="s">
         <v>44</v>
@@ -66636,30 +66636,30 @@
     </row>
     <row r="1618" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1618" s="7" t="s">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="B1618" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1618" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1618" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1618" s="6"/>
       <c r="F1618" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1618" s="6"/>
       <c r="H1618" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1618" s="7" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="J1618" s="7" t="s">
-        <v>5724</v>
+        <v>5722</v>
       </c>
       <c r="K1618" s="7" t="s">
         <v>44</v>
@@ -66667,30 +66667,30 @@
     </row>
     <row r="1619" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1619" s="7" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="B1619" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1619" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1619" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1619" s="6"/>
       <c r="F1619" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1619" s="6"/>
       <c r="H1619" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1619" s="7" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="J1619" s="7" t="s">
-        <v>5725</v>
+        <v>5723</v>
       </c>
       <c r="K1619" s="7" t="s">
         <v>44</v>
@@ -66698,30 +66698,30 @@
     </row>
     <row r="1620" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1620" s="7" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="B1620" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1620" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1620" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1620" s="6"/>
       <c r="F1620" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1620" s="6"/>
       <c r="H1620" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1620" s="7" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="J1620" s="7" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="K1620" s="7" t="s">
         <v>44</v>
@@ -66729,30 +66729,30 @@
     </row>
     <row r="1621" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1621" s="7" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="B1621" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1621" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1621" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1621" s="6"/>
       <c r="F1621" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1621" s="6"/>
       <c r="H1621" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1621" s="7" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="J1621" s="7" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="K1621" s="7" t="s">
         <v>44</v>
@@ -66760,30 +66760,30 @@
     </row>
     <row r="1622" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1622" s="7" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="B1622" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1622" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1622" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1622" s="6"/>
       <c r="F1622" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1622" s="6"/>
       <c r="H1622" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1622" s="7" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="J1622" s="7" t="s">
-        <v>5728</v>
+        <v>5726</v>
       </c>
       <c r="K1622" s="7" t="s">
         <v>44</v>
@@ -66791,30 +66791,30 @@
     </row>
     <row r="1623" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1623" s="7" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="B1623" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1623" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1623" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1623" s="6"/>
       <c r="F1623" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1623" s="6"/>
       <c r="H1623" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1623" s="7" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="J1623" s="7" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="K1623" s="7" t="s">
         <v>44</v>
@@ -66822,30 +66822,30 @@
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1624" s="7" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="B1624" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1624" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1624" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1624" s="6"/>
       <c r="F1624" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1624" s="6"/>
       <c r="H1624" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1624" s="7" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="J1624" s="7" t="s">
-        <v>5730</v>
+        <v>5728</v>
       </c>
       <c r="K1624" s="7" t="s">
         <v>44</v>
@@ -66853,30 +66853,30 @@
     </row>
     <row r="1625" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1625" s="7" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="B1625" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1625" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1625" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1625" s="6"/>
       <c r="F1625" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1625" s="6"/>
       <c r="H1625" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1625" s="7" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="J1625" s="7" t="s">
-        <v>5731</v>
+        <v>5729</v>
       </c>
       <c r="K1625" s="7" t="s">
         <v>44</v>
@@ -66884,30 +66884,30 @@
     </row>
     <row r="1626" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1626" s="7" t="s">
-        <v>5298</v>
+        <v>5296</v>
       </c>
       <c r="B1626" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1626" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1626" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1626" s="6"/>
       <c r="F1626" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1626" s="6"/>
       <c r="H1626" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1626" s="7" t="s">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="J1626" s="7" t="s">
-        <v>5732</v>
+        <v>5730</v>
       </c>
       <c r="K1626" s="7" t="s">
         <v>44</v>
@@ -66915,30 +66915,30 @@
     </row>
     <row r="1627" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1627" s="7" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="B1627" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1627" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1627" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1627" s="6"/>
       <c r="F1627" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1627" s="6"/>
       <c r="H1627" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1627" s="7" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="J1627" s="7" t="s">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="K1627" s="7" t="s">
         <v>44</v>
@@ -66946,30 +66946,30 @@
     </row>
     <row r="1628" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1628" s="7" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="B1628" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1628" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1628" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1628" s="6"/>
       <c r="F1628" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1628" s="6"/>
       <c r="H1628" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1628" s="7" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="J1628" s="7" t="s">
-        <v>5734</v>
+        <v>5732</v>
       </c>
       <c r="K1628" s="7" t="s">
         <v>44</v>
@@ -66977,30 +66977,30 @@
     </row>
     <row r="1629" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1629" s="7" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="B1629" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1629" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1629" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1629" s="6"/>
       <c r="F1629" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1629" s="6"/>
       <c r="H1629" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1629" s="7" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="J1629" s="7" t="s">
-        <v>5735</v>
+        <v>5733</v>
       </c>
       <c r="K1629" s="7" t="s">
         <v>44</v>
@@ -67008,30 +67008,30 @@
     </row>
     <row r="1630" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1630" s="7" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="B1630" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1630" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1630" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1630" s="6"/>
       <c r="F1630" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1630" s="6"/>
       <c r="H1630" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1630" s="7" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="J1630" s="7" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
       <c r="K1630" s="7" t="s">
         <v>44</v>
@@ -67039,30 +67039,30 @@
     </row>
     <row r="1631" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1631" s="7" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="B1631" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1631" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1631" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1631" s="6"/>
       <c r="F1631" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1631" s="6"/>
       <c r="H1631" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1631" s="7" t="s">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="J1631" s="7" t="s">
-        <v>5737</v>
+        <v>5735</v>
       </c>
       <c r="K1631" s="7" t="s">
         <v>44</v>
@@ -67070,30 +67070,30 @@
     </row>
     <row r="1632" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1632" s="7" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="B1632" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1632" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1632" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1632" s="6"/>
       <c r="F1632" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1632" s="6"/>
       <c r="H1632" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1632" s="7" t="s">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="J1632" s="7" t="s">
-        <v>5738</v>
+        <v>5736</v>
       </c>
       <c r="K1632" s="7" t="s">
         <v>44</v>
@@ -67101,30 +67101,30 @@
     </row>
     <row r="1633" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1633" s="7" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="B1633" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1633" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1633" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1633" s="6"/>
       <c r="F1633" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1633" s="6"/>
       <c r="H1633" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1633" s="7" t="s">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="J1633" s="7" t="s">
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="K1633" s="7" t="s">
         <v>44</v>
@@ -67132,30 +67132,30 @@
     </row>
     <row r="1634" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1634" s="7" t="s">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="B1634" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1634" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1634" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1634" s="6"/>
       <c r="F1634" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1634" s="6"/>
       <c r="H1634" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1634" s="7" t="s">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="J1634" s="7" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="K1634" s="7" t="s">
         <v>44</v>
@@ -67163,30 +67163,30 @@
     </row>
     <row r="1635" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1635" s="7" t="s">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="B1635" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1635" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1635" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1635" s="6"/>
       <c r="F1635" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1635" s="6"/>
       <c r="H1635" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1635" s="7" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="J1635" s="7" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="K1635" s="7" t="s">
         <v>44</v>
@@ -67194,30 +67194,30 @@
     </row>
     <row r="1636" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1636" s="7" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="B1636" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1636" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1636" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1636" s="6"/>
       <c r="F1636" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1636" s="6"/>
       <c r="H1636" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1636" s="7" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="J1636" s="7" t="s">
-        <v>5742</v>
+        <v>5740</v>
       </c>
       <c r="K1636" s="7" t="s">
         <v>44</v>
@@ -67225,30 +67225,30 @@
     </row>
     <row r="1637" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1637" s="7" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="B1637" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1637" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1637" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1637" s="6"/>
       <c r="F1637" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1637" s="6"/>
       <c r="H1637" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1637" s="7" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="J1637" s="7" t="s">
-        <v>5743</v>
+        <v>5741</v>
       </c>
       <c r="K1637" s="7" t="s">
         <v>44</v>
@@ -67256,30 +67256,30 @@
     </row>
     <row r="1638" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1638" s="7" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="B1638" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1638" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1638" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1638" s="6"/>
       <c r="F1638" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1638" s="6"/>
       <c r="H1638" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1638" s="7" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="J1638" s="7" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="K1638" s="7" t="s">
         <v>44</v>
@@ -67287,30 +67287,30 @@
     </row>
     <row r="1639" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1639" s="7" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="B1639" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1639" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1639" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1639" s="6"/>
       <c r="F1639" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1639" s="6"/>
       <c r="H1639" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1639" s="7" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="J1639" s="7" t="s">
-        <v>5745</v>
+        <v>5743</v>
       </c>
       <c r="K1639" s="7" t="s">
         <v>44</v>
@@ -67318,30 +67318,30 @@
     </row>
     <row r="1640" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1640" s="7" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="B1640" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1640" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1640" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1640" s="6"/>
       <c r="F1640" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1640" s="6"/>
       <c r="H1640" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1640" s="7" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="J1640" s="7" t="s">
-        <v>5746</v>
+        <v>5744</v>
       </c>
       <c r="K1640" s="7" t="s">
         <v>44</v>
@@ -67349,30 +67349,30 @@
     </row>
     <row r="1641" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1641" s="7" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="B1641" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1641" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1641" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1641" s="6"/>
       <c r="F1641" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1641" s="6"/>
       <c r="H1641" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1641" s="7" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="J1641" s="7" t="s">
-        <v>5747</v>
+        <v>5745</v>
       </c>
       <c r="K1641" s="7" t="s">
         <v>44</v>
@@ -67380,30 +67380,30 @@
     </row>
     <row r="1642" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1642" s="7" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="B1642" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1642" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1642" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1642" s="6"/>
       <c r="F1642" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1642" s="6"/>
       <c r="H1642" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1642" s="7" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="J1642" s="7" t="s">
-        <v>5748</v>
+        <v>5746</v>
       </c>
       <c r="K1642" s="7" t="s">
         <v>44</v>
@@ -67411,30 +67411,30 @@
     </row>
     <row r="1643" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1643" s="7" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="B1643" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1643" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1643" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1643" s="6"/>
       <c r="F1643" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1643" s="6"/>
       <c r="H1643" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1643" s="7" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="J1643" s="7" t="s">
-        <v>5749</v>
+        <v>5747</v>
       </c>
       <c r="K1643" s="7" t="s">
         <v>44</v>
@@ -67442,30 +67442,30 @@
     </row>
     <row r="1644" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1644" s="7" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="B1644" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1644" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D1644" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="E1644" s="6"/>
       <c r="F1644" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G1644" s="6"/>
       <c r="H1644" s="7" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="I1644" s="7" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="J1644" s="7" t="s">
-        <v>5750</v>
+        <v>5748</v>
       </c>
       <c r="K1644" s="7" t="s">
         <v>44</v>
@@ -67473,30 +67473,30 @@
     </row>
     <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1645" s="9" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="B1645" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1645" s="7" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="D1645" s="7" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="E1645" s="6"/>
       <c r="F1645" s="7" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="G1645" s="7" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="H1645" s="6"/>
       <c r="I1645" s="7" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="J1645" s="7" t="s">
-        <v>5751</v>
+        <v>5749</v>
       </c>
       <c r="K1645" s="7" t="s">
         <v>44</v>
@@ -67504,30 +67504,30 @@
     </row>
     <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1646" s="9" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="B1646" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1646" s="7" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="D1646" s="7" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="E1646" s="6"/>
       <c r="F1646" s="7" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="G1646" s="6"/>
       <c r="H1646" s="7" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="I1646" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="J1646" s="7" t="s">
-        <v>5752</v>
+        <v>5750</v>
       </c>
       <c r="K1646" s="7" t="s">
         <v>44</v>
@@ -67535,30 +67535,30 @@
     </row>
     <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1647" s="9" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="B1647" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1647" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="D1647" s="7" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="E1647" s="6"/>
       <c r="F1647" s="7" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="G1647" s="6"/>
       <c r="H1647" s="7" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="I1647" s="7" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="J1647" s="7" t="s">
-        <v>5753</v>
+        <v>5751</v>
       </c>
       <c r="K1647" s="7" t="s">
         <v>44</v>
@@ -67566,30 +67566,30 @@
     </row>
     <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1648" s="9" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="B1648" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1648" s="7" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="D1648" s="7" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="E1648" s="6"/>
       <c r="F1648" s="7" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="G1648" s="7" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="H1648" s="6"/>
       <c r="I1648" s="7" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="J1648" s="7" t="s">
-        <v>5754</v>
+        <v>5752</v>
       </c>
       <c r="K1648" s="7" t="s">
         <v>44</v>
@@ -67597,28 +67597,28 @@
     </row>
     <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1649" s="9" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="B1649" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1649" s="7" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="D1649" s="7" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="E1649" s="6"/>
       <c r="F1649" s="7" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="G1649" s="6"/>
       <c r="H1649" s="6"/>
       <c r="I1649" s="7" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="J1649" s="7" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="K1649" s="7" t="s">
         <v>44</v>
@@ -67626,30 +67626,30 @@
     </row>
     <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1650" s="9" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="B1650" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1650" s="7" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="D1650" s="7" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="E1650" s="6"/>
       <c r="F1650" s="7" t="s">
         <v>2167</v>
       </c>
       <c r="G1650" s="7" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
       <c r="H1650" s="6"/>
       <c r="I1650" s="7" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="J1650" s="7" t="s">
-        <v>5756</v>
+        <v>5754</v>
       </c>
       <c r="K1650" s="7" t="s">
         <v>44</v>
@@ -67657,32 +67657,32 @@
     </row>
     <row r="1651" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1651" s="7" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B1651" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1651" s="7" t="s">
+        <v>5359</v>
+      </c>
+      <c r="D1651" s="7" t="s">
         <v>5360</v>
       </c>
-      <c r="B1651" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1651" s="7" t="s">
+      <c r="E1651" s="7" t="s">
         <v>5361</v>
       </c>
-      <c r="D1651" s="7" t="s">
+      <c r="F1651" s="7" t="s">
         <v>5362</v>
       </c>
-      <c r="E1651" s="7" t="s">
+      <c r="G1651" s="7" t="s">
         <v>5363</v>
-      </c>
-      <c r="F1651" s="7" t="s">
-        <v>5364</v>
-      </c>
-      <c r="G1651" s="7" t="s">
-        <v>5365</v>
       </c>
       <c r="H1651" s="6"/>
       <c r="I1651" s="7" t="s">
-        <v>5366</v>
+        <v>5364</v>
       </c>
       <c r="J1651" s="7" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="K1651" s="7" t="s">
         <v>44</v>
@@ -67690,32 +67690,32 @@
     </row>
     <row r="1652" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1652" s="7" t="s">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="B1652" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1652" s="7" t="s">
-        <v>5368</v>
+        <v>5366</v>
       </c>
       <c r="D1652" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1652" s="7" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F1652" s="7" t="s">
         <v>5362</v>
-      </c>
-      <c r="E1652" s="7" t="s">
-        <v>5363</v>
-      </c>
-      <c r="F1652" s="7" t="s">
-        <v>5364</v>
       </c>
       <c r="G1652" s="6"/>
       <c r="H1652" s="7" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="I1652" s="7" t="s">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="J1652" s="7" t="s">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="K1652" s="7" t="s">
         <v>153</v>
@@ -67723,32 +67723,32 @@
     </row>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1653" s="7" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="B1653" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1653" s="7" t="s">
-        <v>5371</v>
+        <v>5369</v>
       </c>
       <c r="D1653" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1653" s="7" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F1653" s="7" t="s">
         <v>5362</v>
-      </c>
-      <c r="E1653" s="7" t="s">
-        <v>5363</v>
-      </c>
-      <c r="F1653" s="7" t="s">
-        <v>5364</v>
       </c>
       <c r="G1653" s="6"/>
       <c r="H1653" s="7" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="I1653" s="7" t="s">
-        <v>5372</v>
+        <v>5370</v>
       </c>
       <c r="J1653" s="7" t="s">
-        <v>5759</v>
+        <v>5757</v>
       </c>
       <c r="K1653" s="7" t="s">
         <v>44</v>
@@ -67756,32 +67756,32 @@
     </row>
     <row r="1654" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1654" s="7" t="s">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="B1654" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1654" s="7" t="s">
-        <v>5374</v>
+        <v>5372</v>
       </c>
       <c r="D1654" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1654" s="7" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F1654" s="7" t="s">
         <v>5362</v>
-      </c>
-      <c r="E1654" s="7" t="s">
-        <v>5363</v>
-      </c>
-      <c r="F1654" s="7" t="s">
-        <v>5364</v>
       </c>
       <c r="G1654" s="6"/>
       <c r="H1654" s="7" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="I1654" s="7" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="J1654" s="7" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="K1654" s="7" t="s">
         <v>153</v>
@@ -67789,32 +67789,32 @@
     </row>
     <row r="1655" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1655" s="7" t="s">
+        <v>5374</v>
+      </c>
+      <c r="B1655" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1655" s="7" t="s">
+        <v>5375</v>
+      </c>
+      <c r="D1655" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1655" s="7" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F1655" s="7" t="s">
         <v>5376</v>
       </c>
-      <c r="B1655" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1655" s="7" t="s">
-        <v>5377</v>
-      </c>
-      <c r="D1655" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="E1655" s="7" t="s">
-        <v>5363</v>
-      </c>
-      <c r="F1655" s="7" t="s">
-        <v>5378</v>
-      </c>
       <c r="G1655" s="7" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
       <c r="H1655" s="6"/>
       <c r="I1655" s="7" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="J1655" s="7" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="K1655" s="7" t="s">
         <v>153</v>
@@ -67822,32 +67822,32 @@
     </row>
     <row r="1656" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1656" s="7" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="B1656" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1656" s="7" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="D1656" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1656" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1656" s="7" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="G1656" s="6"/>
       <c r="H1656" s="7" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="I1656" s="7" t="s">
-        <v>5382</v>
+        <v>5380</v>
       </c>
       <c r="J1656" s="7" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="K1656" s="7" t="s">
         <v>153</v>
@@ -67855,32 +67855,32 @@
     </row>
     <row r="1657" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1657" s="7" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="B1657" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1657" s="7" t="s">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="D1657" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1657" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1657" s="7" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="G1657" s="6"/>
       <c r="H1657" s="7" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="I1657" s="7" t="s">
-        <v>5385</v>
+        <v>5383</v>
       </c>
       <c r="J1657" s="7" t="s">
-        <v>5763</v>
+        <v>5761</v>
       </c>
       <c r="K1657" s="7" t="s">
         <v>153</v>
@@ -67888,32 +67888,32 @@
     </row>
     <row r="1658" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1658" s="7" t="s">
-        <v>5386</v>
+        <v>5384</v>
       </c>
       <c r="B1658" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1658" s="7" t="s">
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="D1658" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1658" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1658" s="7" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="G1658" s="6"/>
       <c r="H1658" s="7" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="I1658" s="7" t="s">
-        <v>5388</v>
+        <v>5386</v>
       </c>
       <c r="J1658" s="7" t="s">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="K1658" s="7" t="s">
         <v>153</v>
@@ -67921,32 +67921,32 @@
     </row>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1659" s="7" t="s">
-        <v>5389</v>
+        <v>5387</v>
       </c>
       <c r="B1659" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1659" s="7" t="s">
-        <v>5390</v>
+        <v>5388</v>
       </c>
       <c r="D1659" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1659" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1659" s="7" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="G1659" s="6"/>
       <c r="H1659" s="7" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="I1659" s="7" t="s">
-        <v>5391</v>
+        <v>5389</v>
       </c>
       <c r="J1659" s="7" t="s">
-        <v>5765</v>
+        <v>5763</v>
       </c>
       <c r="K1659" s="7" t="s">
         <v>44</v>
@@ -67954,32 +67954,32 @@
     </row>
     <row r="1660" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1660" s="7" t="s">
-        <v>5392</v>
+        <v>5390</v>
       </c>
       <c r="B1660" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1660" s="7" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
       <c r="D1660" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1660" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1660" s="7" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="G1660" s="6"/>
       <c r="H1660" s="7" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="I1660" s="7" t="s">
-        <v>5394</v>
+        <v>5392</v>
       </c>
       <c r="J1660" s="7" t="s">
-        <v>5766</v>
+        <v>5764</v>
       </c>
       <c r="K1660" s="7" t="s">
         <v>153</v>
@@ -67987,32 +67987,32 @@
     </row>
     <row r="1661" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1661" s="7" t="s">
-        <v>5395</v>
+        <v>5393</v>
       </c>
       <c r="B1661" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1661" s="7" t="s">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="D1661" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1661" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1661" s="7" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="G1661" s="6"/>
       <c r="H1661" s="7" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="I1661" s="7" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="J1661" s="7" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="K1661" s="7" t="s">
         <v>44</v>
@@ -68020,32 +68020,32 @@
     </row>
     <row r="1662" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1662" s="7" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B1662" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1662" s="7" t="s">
+        <v>5397</v>
+      </c>
+      <c r="D1662" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1662" s="7" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F1662" s="7" t="s">
         <v>5398</v>
       </c>
-      <c r="B1662" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1662" s="7" t="s">
+      <c r="G1662" s="7" t="s">
         <v>5399</v>
-      </c>
-      <c r="D1662" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="E1662" s="7" t="s">
-        <v>5363</v>
-      </c>
-      <c r="F1662" s="7" t="s">
-        <v>5400</v>
-      </c>
-      <c r="G1662" s="7" t="s">
-        <v>5401</v>
       </c>
       <c r="H1662" s="6"/>
       <c r="I1662" s="7" t="s">
-        <v>5402</v>
+        <v>5400</v>
       </c>
       <c r="J1662" s="7" t="s">
-        <v>5768</v>
+        <v>5766</v>
       </c>
       <c r="K1662" s="7" t="s">
         <v>153</v>
@@ -68053,32 +68053,32 @@
     </row>
     <row r="1663" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1663" s="7" t="s">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="B1663" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1663" s="7" t="s">
-        <v>5404</v>
+        <v>5402</v>
       </c>
       <c r="D1663" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1663" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1663" s="7" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="G1663" s="6"/>
       <c r="H1663" s="7" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="I1663" s="7" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
       <c r="J1663" s="7" t="s">
-        <v>5769</v>
+        <v>5767</v>
       </c>
       <c r="K1663" s="7" t="s">
         <v>44</v>
@@ -68086,32 +68086,32 @@
     </row>
     <row r="1664" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1664" s="7" t="s">
-        <v>5406</v>
+        <v>5404</v>
       </c>
       <c r="B1664" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1664" s="7" t="s">
-        <v>5407</v>
+        <v>5405</v>
       </c>
       <c r="D1664" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1664" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1664" s="7" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="G1664" s="6"/>
       <c r="H1664" s="7" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="I1664" s="7" t="s">
-        <v>5408</v>
+        <v>5406</v>
       </c>
       <c r="J1664" s="7" t="s">
-        <v>5770</v>
+        <v>5768</v>
       </c>
       <c r="K1664" s="7" t="s">
         <v>153</v>
@@ -68119,32 +68119,32 @@
     </row>
     <row r="1665" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1665" s="7" t="s">
-        <v>5409</v>
+        <v>5407</v>
       </c>
       <c r="B1665" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1665" s="7" t="s">
-        <v>5410</v>
+        <v>5408</v>
       </c>
       <c r="D1665" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1665" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1665" s="7" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="G1665" s="6"/>
       <c r="H1665" s="7" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="I1665" s="7" t="s">
-        <v>5411</v>
+        <v>5409</v>
       </c>
       <c r="J1665" s="7" t="s">
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="K1665" s="7" t="s">
         <v>153</v>
@@ -68152,32 +68152,32 @@
     </row>
     <row r="1666" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1666" s="7" t="s">
-        <v>5412</v>
+        <v>5410</v>
       </c>
       <c r="B1666" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1666" s="7" t="s">
-        <v>5413</v>
+        <v>5411</v>
       </c>
       <c r="D1666" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1666" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1666" s="7" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="G1666" s="6"/>
       <c r="H1666" s="7" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="I1666" s="7" t="s">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="J1666" s="7" t="s">
-        <v>5772</v>
+        <v>5770</v>
       </c>
       <c r="K1666" s="7" t="s">
         <v>153</v>
@@ -68185,32 +68185,32 @@
     </row>
     <row r="1667" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1667" s="7" t="s">
-        <v>5415</v>
+        <v>5413</v>
       </c>
       <c r="B1667" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1667" s="7" t="s">
-        <v>5416</v>
+        <v>5414</v>
       </c>
       <c r="D1667" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1667" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1667" s="7" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="G1667" s="6"/>
       <c r="H1667" s="7" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="I1667" s="7" t="s">
-        <v>5417</v>
+        <v>5415</v>
       </c>
       <c r="J1667" s="7" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="K1667" s="7" t="s">
         <v>153</v>
@@ -68218,32 +68218,32 @@
     </row>
     <row r="1668" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1668" s="7" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B1668" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1668" s="7" t="s">
+        <v>5417</v>
+      </c>
+      <c r="D1668" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1668" s="7" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F1668" s="7" t="s">
         <v>5418</v>
       </c>
-      <c r="B1668" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1668" s="7" t="s">
+      <c r="G1668" s="7" t="s">
         <v>5419</v>
-      </c>
-      <c r="D1668" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="E1668" s="7" t="s">
-        <v>5363</v>
-      </c>
-      <c r="F1668" s="7" t="s">
-        <v>5420</v>
-      </c>
-      <c r="G1668" s="7" t="s">
-        <v>5421</v>
       </c>
       <c r="H1668" s="6"/>
       <c r="I1668" s="7" t="s">
-        <v>5422</v>
+        <v>5420</v>
       </c>
       <c r="J1668" s="7" t="s">
-        <v>5774</v>
+        <v>5772</v>
       </c>
       <c r="K1668" s="7" t="s">
         <v>153</v>
@@ -68251,32 +68251,32 @@
     </row>
     <row r="1669" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1669" s="7" t="s">
-        <v>5423</v>
+        <v>5421</v>
       </c>
       <c r="B1669" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1669" s="7" t="s">
-        <v>5424</v>
+        <v>5422</v>
       </c>
       <c r="D1669" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1669" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1669" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1669" s="6"/>
       <c r="H1669" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1669" s="7" t="s">
-        <v>5425</v>
+        <v>5423</v>
       </c>
       <c r="J1669" s="7" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="K1669" s="7" t="s">
         <v>153</v>
@@ -68284,32 +68284,32 @@
     </row>
     <row r="1670" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1670" s="7" t="s">
-        <v>5426</v>
+        <v>5424</v>
       </c>
       <c r="B1670" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1670" s="7" t="s">
-        <v>5427</v>
+        <v>5425</v>
       </c>
       <c r="D1670" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1670" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1670" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1670" s="6"/>
       <c r="H1670" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1670" s="7" t="s">
-        <v>5428</v>
+        <v>5426</v>
       </c>
       <c r="J1670" s="7" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="K1670" s="7" t="s">
         <v>44</v>
@@ -68317,32 +68317,32 @@
     </row>
     <row r="1671" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1671" s="9" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="B1671" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1671" s="7" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D1671" s="7" t="s">
+        <v>5429</v>
+      </c>
+      <c r="E1671" s="7" t="s">
         <v>5430</v>
       </c>
-      <c r="D1671" s="7" t="s">
-        <v>5431</v>
-      </c>
-      <c r="E1671" s="7" t="s">
-        <v>5432</v>
-      </c>
       <c r="F1671" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1671" s="6"/>
       <c r="H1671" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1671" s="7" t="s">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="J1671" s="7" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="K1671" s="7" t="s">
         <v>153</v>
@@ -68350,32 +68350,32 @@
     </row>
     <row r="1672" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1672" s="7" t="s">
-        <v>5434</v>
+        <v>5432</v>
       </c>
       <c r="B1672" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1672" s="7" t="s">
-        <v>5435</v>
+        <v>5433</v>
       </c>
       <c r="D1672" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1672" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1672" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1672" s="6"/>
       <c r="H1672" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1672" s="7" t="s">
-        <v>5436</v>
+        <v>5434</v>
       </c>
       <c r="J1672" s="7" t="s">
-        <v>5778</v>
+        <v>5776</v>
       </c>
       <c r="K1672" s="7" t="s">
         <v>153</v>
@@ -68383,32 +68383,32 @@
     </row>
     <row r="1673" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1673" s="7" t="s">
-        <v>5437</v>
+        <v>5435</v>
       </c>
       <c r="B1673" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1673" s="7" t="s">
-        <v>5438</v>
+        <v>5436</v>
       </c>
       <c r="D1673" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1673" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1673" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1673" s="6"/>
       <c r="H1673" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1673" s="7" t="s">
-        <v>5439</v>
+        <v>5437</v>
       </c>
       <c r="J1673" s="7" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
       <c r="K1673" s="7" t="s">
         <v>153</v>
@@ -68416,32 +68416,32 @@
     </row>
     <row r="1674" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1674" s="7" t="s">
-        <v>5440</v>
+        <v>5438</v>
       </c>
       <c r="B1674" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1674" s="7" t="s">
-        <v>5441</v>
+        <v>5439</v>
       </c>
       <c r="D1674" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1674" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1674" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1674" s="6"/>
       <c r="H1674" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1674" s="7" t="s">
-        <v>5442</v>
+        <v>5440</v>
       </c>
       <c r="J1674" s="7" t="s">
-        <v>5780</v>
+        <v>5778</v>
       </c>
       <c r="K1674" s="7" t="s">
         <v>153</v>
@@ -68449,32 +68449,32 @@
     </row>
     <row r="1675" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1675" s="7" t="s">
-        <v>5443</v>
+        <v>5441</v>
       </c>
       <c r="B1675" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1675" s="7" t="s">
-        <v>5444</v>
+        <v>5442</v>
       </c>
       <c r="D1675" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1675" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1675" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1675" s="6"/>
       <c r="H1675" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1675" s="7" t="s">
-        <v>5445</v>
+        <v>5443</v>
       </c>
       <c r="J1675" s="7" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="K1675" s="7" t="s">
         <v>153</v>
@@ -68482,32 +68482,32 @@
     </row>
     <row r="1676" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1676" s="7" t="s">
-        <v>5446</v>
+        <v>5444</v>
       </c>
       <c r="B1676" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1676" s="7" t="s">
-        <v>5447</v>
+        <v>5445</v>
       </c>
       <c r="D1676" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1676" s="7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="F1676" s="7" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="G1676" s="6"/>
       <c r="H1676" s="7" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I1676" s="7" t="s">
-        <v>5448</v>
+        <v>5446</v>
       </c>
       <c r="J1676" s="7" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="K1676" s="7" t="s">
         <v>153</v>
@@ -68515,32 +68515,32 @@
     </row>
     <row r="1677" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1677" s="7" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B1677" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1677" s="7" t="s">
+        <v>5448</v>
+      </c>
+      <c r="D1677" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1677" s="7" t="s">
         <v>5449</v>
       </c>
-      <c r="B1677" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1677" s="7" t="s">
+      <c r="F1677" s="7" t="s">
         <v>5450</v>
       </c>
-      <c r="D1677" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="E1677" s="7" t="s">
+      <c r="G1677" s="7" t="s">
         <v>5451</v>
-      </c>
-      <c r="F1677" s="7" t="s">
-        <v>5452</v>
-      </c>
-      <c r="G1677" s="7" t="s">
-        <v>5453</v>
       </c>
       <c r="H1677" s="6"/>
       <c r="I1677" s="7" t="s">
-        <v>5454</v>
+        <v>5452</v>
       </c>
       <c r="J1677" s="7" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="K1677" s="7" t="s">
         <v>153</v>
@@ -68548,32 +68548,32 @@
     </row>
     <row r="1678" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1678" s="7" t="s">
-        <v>5455</v>
+        <v>5453</v>
       </c>
       <c r="B1678" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1678" s="7" t="s">
-        <v>5456</v>
+        <v>5454</v>
       </c>
       <c r="D1678" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1678" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1678" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1678" s="6"/>
       <c r="H1678" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1678" s="7" t="s">
-        <v>5457</v>
+        <v>5455</v>
       </c>
       <c r="J1678" s="7" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="K1678" s="7" t="s">
         <v>153</v>
@@ -68581,32 +68581,32 @@
     </row>
     <row r="1679" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1679" s="7" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="B1679" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1679" s="7" t="s">
-        <v>5459</v>
+        <v>5457</v>
       </c>
       <c r="D1679" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1679" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1679" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1679" s="6"/>
       <c r="H1679" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1679" s="7" t="s">
-        <v>5460</v>
+        <v>5458</v>
       </c>
       <c r="J1679" s="7" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="K1679" s="7" t="s">
         <v>153</v>
@@ -68614,32 +68614,32 @@
     </row>
     <row r="1680" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1680" s="7" t="s">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="B1680" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1680" s="7" t="s">
-        <v>5462</v>
+        <v>5460</v>
       </c>
       <c r="D1680" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1680" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1680" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1680" s="6"/>
       <c r="H1680" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1680" s="7" t="s">
-        <v>5463</v>
+        <v>5461</v>
       </c>
       <c r="J1680" s="7" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="K1680" s="7" t="s">
         <v>153</v>
@@ -68647,32 +68647,32 @@
     </row>
     <row r="1681" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1681" s="7" t="s">
-        <v>5464</v>
+        <v>5462</v>
       </c>
       <c r="B1681" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1681" s="7" t="s">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="D1681" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1681" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1681" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1681" s="6"/>
       <c r="H1681" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1681" s="7" t="s">
-        <v>5466</v>
+        <v>5464</v>
       </c>
       <c r="J1681" s="7" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="K1681" s="7" t="s">
         <v>153</v>
@@ -68680,32 +68680,32 @@
     </row>
     <row r="1682" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1682" s="7" t="s">
-        <v>5467</v>
+        <v>5465</v>
       </c>
       <c r="B1682" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1682" s="7" t="s">
-        <v>5468</v>
+        <v>5466</v>
       </c>
       <c r="D1682" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1682" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1682" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1682" s="6"/>
       <c r="H1682" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1682" s="7" t="s">
-        <v>5469</v>
+        <v>5467</v>
       </c>
       <c r="J1682" s="7" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="K1682" s="7" t="s">
         <v>153</v>
@@ -68713,32 +68713,32 @@
     </row>
     <row r="1683" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1683" s="7" t="s">
-        <v>5470</v>
+        <v>5468</v>
       </c>
       <c r="B1683" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1683" s="7" t="s">
-        <v>5471</v>
+        <v>5469</v>
       </c>
       <c r="D1683" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1683" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1683" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1683" s="6"/>
       <c r="H1683" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1683" s="7" t="s">
-        <v>5472</v>
+        <v>5470</v>
       </c>
       <c r="J1683" s="7" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="K1683" s="7" t="s">
         <v>153</v>
@@ -68746,32 +68746,32 @@
     </row>
     <row r="1684" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1684" s="7" t="s">
-        <v>5473</v>
+        <v>5471</v>
       </c>
       <c r="B1684" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1684" s="7" t="s">
-        <v>5474</v>
+        <v>5472</v>
       </c>
       <c r="D1684" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1684" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1684" s="7" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G1684" s="6"/>
       <c r="H1684" s="7" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I1684" s="7" t="s">
-        <v>5475</v>
+        <v>5473</v>
       </c>
       <c r="J1684" s="7" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="K1684" s="7" t="s">
         <v>153</v>
@@ -68779,32 +68779,32 @@
     </row>
     <row r="1685" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1685" s="7" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B1685" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1685" s="7" t="s">
+        <v>5475</v>
+      </c>
+      <c r="D1685" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1685" s="7" t="s">
+        <v>5449</v>
+      </c>
+      <c r="F1685" s="7" t="s">
         <v>5476</v>
       </c>
-      <c r="B1685" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1685" s="7" t="s">
-        <v>5477</v>
-      </c>
-      <c r="D1685" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="E1685" s="7" t="s">
+      <c r="G1685" s="7" t="s">
         <v>5451</v>
-      </c>
-      <c r="F1685" s="7" t="s">
-        <v>5478</v>
-      </c>
-      <c r="G1685" s="7" t="s">
-        <v>5453</v>
       </c>
       <c r="H1685" s="6"/>
       <c r="I1685" s="7" t="s">
-        <v>5479</v>
+        <v>5477</v>
       </c>
       <c r="J1685" s="7" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="K1685" s="7" t="s">
         <v>153</v>
@@ -68812,32 +68812,32 @@
     </row>
     <row r="1686" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1686" s="7" t="s">
-        <v>5480</v>
+        <v>5478</v>
       </c>
       <c r="B1686" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1686" s="7" t="s">
-        <v>5481</v>
+        <v>5479</v>
       </c>
       <c r="D1686" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1686" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1686" s="7" t="s">
-        <v>5478</v>
+        <v>5476</v>
       </c>
       <c r="G1686" s="6"/>
       <c r="H1686" s="7" t="s">
-        <v>5476</v>
+        <v>5474</v>
       </c>
       <c r="I1686" s="7" t="s">
-        <v>5482</v>
+        <v>5480</v>
       </c>
       <c r="J1686" s="7" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="K1686" s="7" t="s">
         <v>153</v>
@@ -68845,32 +68845,32 @@
     </row>
     <row r="1687" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1687" s="7" t="s">
-        <v>5483</v>
+        <v>5481</v>
       </c>
       <c r="B1687" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1687" s="7" t="s">
-        <v>5484</v>
+        <v>5482</v>
       </c>
       <c r="D1687" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1687" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="F1687" s="7" t="s">
-        <v>5478</v>
+        <v>5476</v>
       </c>
       <c r="G1687" s="6"/>
       <c r="H1687" s="7" t="s">
-        <v>5476</v>
+        <v>5474</v>
       </c>
       <c r="I1687" s="7" t="s">
-        <v>5485</v>
+        <v>5483</v>
       </c>
       <c r="J1687" s="7" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="K1687" s="7" t="s">
         <v>153</v>
@@ -68878,30 +68878,30 @@
     </row>
     <row r="1688" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1688" s="7" t="s">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="B1688" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1688" s="7" t="s">
-        <v>5487</v>
+        <v>5485</v>
       </c>
       <c r="D1688" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1688" s="6"/>
       <c r="F1688" s="7" t="s">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="G1688" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1688" s="6"/>
       <c r="I1688" s="7" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="J1688" s="7" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
       <c r="K1688" s="7" t="s">
         <v>44</v>
@@ -68909,30 +68909,30 @@
     </row>
     <row r="1689" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1689" s="7" t="s">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="B1689" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1689" s="7" t="s">
-        <v>5492</v>
+        <v>5490</v>
       </c>
       <c r="D1689" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1689" s="6"/>
       <c r="F1689" s="7" t="s">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="G1689" s="6"/>
       <c r="H1689" s="7" t="s">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="I1689" s="7" t="s">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="J1689" s="7" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="K1689" s="7" t="s">
         <v>44</v>
@@ -68940,30 +68940,30 @@
     </row>
     <row r="1690" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1690" s="7" t="s">
-        <v>5494</v>
+        <v>5492</v>
       </c>
       <c r="B1690" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1690" s="7" t="s">
-        <v>5495</v>
+        <v>5493</v>
       </c>
       <c r="D1690" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1690" s="6"/>
       <c r="F1690" s="7" t="s">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="G1690" s="6"/>
       <c r="H1690" s="7" t="s">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="I1690" s="7" t="s">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="J1690" s="7" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="K1690" s="7" t="s">
         <v>44</v>
@@ -68971,30 +68971,30 @@
     </row>
     <row r="1691" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1691" s="7" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="B1691" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1691" s="7" t="s">
-        <v>5498</v>
+        <v>5496</v>
       </c>
       <c r="D1691" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1691" s="6"/>
       <c r="F1691" s="7" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="G1691" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1691" s="6"/>
       <c r="I1691" s="7" t="s">
-        <v>5500</v>
+        <v>5498</v>
       </c>
       <c r="J1691" s="7" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="K1691" s="7" t="s">
         <v>44</v>
@@ -69002,30 +69002,30 @@
     </row>
     <row r="1692" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1692" s="7" t="s">
-        <v>5501</v>
+        <v>5499</v>
       </c>
       <c r="B1692" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1692" s="7" t="s">
-        <v>5502</v>
+        <v>5500</v>
       </c>
       <c r="D1692" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1692" s="6"/>
       <c r="F1692" s="7" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="G1692" s="6"/>
       <c r="H1692" s="7" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="I1692" s="7" t="s">
-        <v>5503</v>
+        <v>5501</v>
       </c>
       <c r="J1692" s="7" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="K1692" s="7" t="s">
         <v>44</v>
@@ -69033,30 +69033,30 @@
     </row>
     <row r="1693" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1693" s="7" t="s">
-        <v>5504</v>
+        <v>5502</v>
       </c>
       <c r="B1693" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1693" s="7" t="s">
-        <v>5505</v>
+        <v>5503</v>
       </c>
       <c r="D1693" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1693" s="6"/>
       <c r="F1693" s="7" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="G1693" s="6"/>
       <c r="H1693" s="7" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="I1693" s="7" t="s">
-        <v>5506</v>
+        <v>5504</v>
       </c>
       <c r="J1693" s="7" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="K1693" s="7" t="s">
         <v>44</v>
@@ -69064,30 +69064,30 @@
     </row>
     <row r="1694" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1694" s="7" t="s">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="B1694" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1694" s="7" t="s">
-        <v>5508</v>
+        <v>5506</v>
       </c>
       <c r="D1694" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1694" s="6"/>
       <c r="F1694" s="7" t="s">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="G1694" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1694" s="6"/>
       <c r="I1694" s="7" t="s">
-        <v>5952</v>
+        <v>5950</v>
       </c>
       <c r="J1694" s="7" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="K1694" s="7" t="s">
         <v>44</v>
@@ -69095,30 +69095,30 @@
     </row>
     <row r="1695" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1695" s="7" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="B1695" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1695" s="7" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="D1695" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1695" s="6"/>
       <c r="F1695" s="7" t="s">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="G1695" s="6"/>
       <c r="H1695" s="7" t="s">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="I1695" s="7" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="J1695" s="7" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="K1695" s="7" t="s">
         <v>44</v>
@@ -69126,30 +69126,30 @@
     </row>
     <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1696" s="7" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="B1696" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1696" s="7" t="s">
-        <v>5513</v>
+        <v>5511</v>
       </c>
       <c r="D1696" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1696" s="6"/>
       <c r="F1696" s="7" t="s">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="G1696" s="6"/>
       <c r="H1696" s="7" t="s">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="I1696" s="7" t="s">
-        <v>5514</v>
+        <v>5512</v>
       </c>
       <c r="J1696" s="7" t="s">
-        <v>5802</v>
+        <v>5800</v>
       </c>
       <c r="K1696" s="7" t="s">
         <v>44</v>
@@ -69157,30 +69157,30 @@
     </row>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1697" s="7" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="B1697" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1697" s="7" t="s">
-        <v>5516</v>
+        <v>5514</v>
       </c>
       <c r="D1697" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1697" s="6"/>
       <c r="F1697" s="7" t="s">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="G1697" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1697" s="6"/>
       <c r="I1697" s="7" t="s">
-        <v>5518</v>
+        <v>5516</v>
       </c>
       <c r="J1697" s="7" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="K1697" s="7" t="s">
         <v>44</v>
@@ -69188,30 +69188,30 @@
     </row>
     <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1698" s="7" t="s">
-        <v>5519</v>
+        <v>5517</v>
       </c>
       <c r="B1698" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1698" s="7" t="s">
-        <v>5520</v>
+        <v>5518</v>
       </c>
       <c r="D1698" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1698" s="6"/>
       <c r="F1698" s="7" t="s">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="G1698" s="6"/>
       <c r="H1698" s="7" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="I1698" s="7" t="s">
-        <v>5521</v>
+        <v>5519</v>
       </c>
       <c r="J1698" s="7" t="s">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="K1698" s="7" t="s">
         <v>44</v>
@@ -69219,30 +69219,30 @@
     </row>
     <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1699" s="7" t="s">
-        <v>5522</v>
+        <v>5520</v>
       </c>
       <c r="B1699" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1699" s="7" t="s">
-        <v>5523</v>
+        <v>5521</v>
       </c>
       <c r="D1699" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1699" s="6"/>
       <c r="F1699" s="7" t="s">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="G1699" s="6"/>
       <c r="H1699" s="7" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="I1699" s="7" t="s">
-        <v>5524</v>
+        <v>5522</v>
       </c>
       <c r="J1699" s="7" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="K1699" s="7" t="s">
         <v>44</v>
@@ -69250,30 +69250,30 @@
     </row>
     <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1700" s="7" t="s">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="B1700" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1700" s="7" t="s">
-        <v>5526</v>
+        <v>5524</v>
       </c>
       <c r="D1700" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1700" s="6"/>
       <c r="F1700" s="7" t="s">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="G1700" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1700" s="6"/>
       <c r="I1700" s="7" t="s">
-        <v>5528</v>
+        <v>5526</v>
       </c>
       <c r="J1700" s="7" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="K1700" s="7" t="s">
         <v>44</v>
@@ -69281,30 +69281,30 @@
     </row>
     <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1701" s="7" t="s">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="B1701" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1701" s="7" t="s">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="D1701" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1701" s="6"/>
       <c r="F1701" s="7" t="s">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="G1701" s="6"/>
       <c r="H1701" s="7" t="s">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="I1701" s="7" t="s">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="J1701" s="7" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="K1701" s="7" t="s">
         <v>44</v>
@@ -69312,30 +69312,30 @@
     </row>
     <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1702" s="7" t="s">
-        <v>5532</v>
+        <v>5530</v>
       </c>
       <c r="B1702" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1702" s="7" t="s">
-        <v>5533</v>
+        <v>5531</v>
       </c>
       <c r="D1702" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1702" s="6"/>
       <c r="F1702" s="7" t="s">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="G1702" s="6"/>
       <c r="H1702" s="7" t="s">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="I1702" s="7" t="s">
-        <v>5534</v>
+        <v>5532</v>
       </c>
       <c r="J1702" s="7" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="K1702" s="7" t="s">
         <v>44</v>
@@ -69343,30 +69343,30 @@
     </row>
     <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1703" s="7" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="B1703" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1703" s="7" t="s">
-        <v>5536</v>
+        <v>5534</v>
       </c>
       <c r="D1703" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1703" s="6"/>
       <c r="F1703" s="7" t="s">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="G1703" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1703" s="6"/>
       <c r="I1703" s="7" t="s">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="J1703" s="7" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="K1703" s="7" t="s">
         <v>44</v>
@@ -69374,30 +69374,30 @@
     </row>
     <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1704" s="7" t="s">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="B1704" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1704" s="7" t="s">
-        <v>5540</v>
+        <v>5538</v>
       </c>
       <c r="D1704" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1704" s="6"/>
       <c r="F1704" s="7" t="s">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="G1704" s="6"/>
       <c r="H1704" s="7" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="I1704" s="7" t="s">
-        <v>5541</v>
+        <v>5539</v>
       </c>
       <c r="J1704" s="7" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="K1704" s="7" t="s">
         <v>44</v>
@@ -69405,30 +69405,30 @@
     </row>
     <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1705" s="7" t="s">
-        <v>5542</v>
+        <v>5540</v>
       </c>
       <c r="B1705" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1705" s="7" t="s">
-        <v>5543</v>
+        <v>5541</v>
       </c>
       <c r="D1705" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1705" s="6"/>
       <c r="F1705" s="7" t="s">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="G1705" s="6"/>
       <c r="H1705" s="7" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="I1705" s="7" t="s">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="J1705" s="7" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="K1705" s="7" t="s">
         <v>44</v>
@@ -69436,30 +69436,30 @@
     </row>
     <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1706" s="7" t="s">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="B1706" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1706" s="7" t="s">
-        <v>5546</v>
+        <v>5544</v>
       </c>
       <c r="D1706" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1706" s="6"/>
       <c r="F1706" s="7" t="s">
-        <v>5547</v>
+        <v>5545</v>
       </c>
       <c r="G1706" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1706" s="6"/>
       <c r="I1706" s="7" t="s">
-        <v>5548</v>
+        <v>5546</v>
       </c>
       <c r="J1706" s="7" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="K1706" s="7" t="s">
         <v>44</v>
@@ -69467,30 +69467,30 @@
     </row>
     <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1707" s="7" t="s">
-        <v>5549</v>
+        <v>5547</v>
       </c>
       <c r="B1707" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1707" s="7" t="s">
-        <v>5550</v>
+        <v>5548</v>
       </c>
       <c r="D1707" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1707" s="6"/>
       <c r="F1707" s="7" t="s">
-        <v>5547</v>
+        <v>5545</v>
       </c>
       <c r="G1707" s="6"/>
       <c r="H1707" s="7" t="s">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="I1707" s="7" t="s">
-        <v>5551</v>
+        <v>5549</v>
       </c>
       <c r="J1707" s="7" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="K1707" s="7" t="s">
         <v>44</v>
@@ -69498,30 +69498,30 @@
     </row>
     <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1708" s="7" t="s">
-        <v>5552</v>
+        <v>5550</v>
       </c>
       <c r="B1708" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1708" s="7" t="s">
-        <v>5553</v>
+        <v>5551</v>
       </c>
       <c r="D1708" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1708" s="6"/>
       <c r="F1708" s="7" t="s">
-        <v>5547</v>
+        <v>5545</v>
       </c>
       <c r="G1708" s="6"/>
       <c r="H1708" s="7" t="s">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="I1708" s="7" t="s">
-        <v>5554</v>
+        <v>5552</v>
       </c>
       <c r="J1708" s="7" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="K1708" s="7" t="s">
         <v>44</v>
@@ -69529,30 +69529,30 @@
     </row>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1709" s="7" t="s">
-        <v>5555</v>
+        <v>5553</v>
       </c>
       <c r="B1709" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1709" s="7" t="s">
-        <v>5556</v>
+        <v>5554</v>
       </c>
       <c r="D1709" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1709" s="6"/>
       <c r="F1709" s="7" t="s">
-        <v>5557</v>
+        <v>5555</v>
       </c>
       <c r="G1709" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1709" s="6"/>
       <c r="I1709" s="7" t="s">
-        <v>5558</v>
+        <v>5556</v>
       </c>
       <c r="J1709" s="7" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="K1709" s="7" t="s">
         <v>44</v>
@@ -69560,30 +69560,30 @@
     </row>
     <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1710" s="7" t="s">
-        <v>5559</v>
+        <v>5557</v>
       </c>
       <c r="B1710" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1710" s="7" t="s">
-        <v>5560</v>
+        <v>5558</v>
       </c>
       <c r="D1710" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1710" s="6"/>
       <c r="F1710" s="7" t="s">
-        <v>5557</v>
+        <v>5555</v>
       </c>
       <c r="G1710" s="6"/>
       <c r="H1710" s="7" t="s">
-        <v>5555</v>
+        <v>5553</v>
       </c>
       <c r="I1710" s="7" t="s">
-        <v>5561</v>
+        <v>5559</v>
       </c>
       <c r="J1710" s="7" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="K1710" s="7" t="s">
         <v>44</v>
@@ -69591,30 +69591,30 @@
     </row>
     <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1711" s="7" t="s">
-        <v>5562</v>
+        <v>5560</v>
       </c>
       <c r="B1711" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1711" s="7" t="s">
-        <v>5563</v>
+        <v>5561</v>
       </c>
       <c r="D1711" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1711" s="6"/>
       <c r="F1711" s="7" t="s">
-        <v>5557</v>
+        <v>5555</v>
       </c>
       <c r="G1711" s="6"/>
       <c r="H1711" s="7" t="s">
-        <v>5555</v>
+        <v>5553</v>
       </c>
       <c r="I1711" s="7" t="s">
-        <v>5564</v>
+        <v>5562</v>
       </c>
       <c r="J1711" s="7" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="K1711" s="7" t="s">
         <v>44</v>
@@ -69622,30 +69622,30 @@
     </row>
     <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1712" s="7" t="s">
-        <v>5565</v>
+        <v>5563</v>
       </c>
       <c r="B1712" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1712" s="7" t="s">
-        <v>5566</v>
+        <v>5564</v>
       </c>
       <c r="D1712" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1712" s="6"/>
       <c r="F1712" s="7" t="s">
-        <v>5567</v>
+        <v>5565</v>
       </c>
       <c r="G1712" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1712" s="6"/>
       <c r="I1712" s="7" t="s">
-        <v>5568</v>
+        <v>5566</v>
       </c>
       <c r="J1712" s="7" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="K1712" s="7" t="s">
         <v>153</v>
@@ -69653,30 +69653,30 @@
     </row>
     <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1713" s="7" t="s">
-        <v>5569</v>
+        <v>5567</v>
       </c>
       <c r="B1713" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1713" s="7" t="s">
-        <v>5570</v>
+        <v>5568</v>
       </c>
       <c r="D1713" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1713" s="6"/>
       <c r="F1713" s="7" t="s">
-        <v>5567</v>
+        <v>5565</v>
       </c>
       <c r="G1713" s="6"/>
       <c r="H1713" s="7" t="s">
-        <v>5565</v>
+        <v>5563</v>
       </c>
       <c r="I1713" s="7" t="s">
-        <v>5571</v>
+        <v>5569</v>
       </c>
       <c r="J1713" s="7" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="K1713" s="7" t="s">
         <v>153</v>
@@ -69684,30 +69684,30 @@
     </row>
     <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1714" s="7" t="s">
-        <v>5572</v>
+        <v>5570</v>
       </c>
       <c r="B1714" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1714" s="7" t="s">
-        <v>5573</v>
+        <v>5571</v>
       </c>
       <c r="D1714" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1714" s="6"/>
       <c r="F1714" s="7" t="s">
-        <v>5567</v>
+        <v>5565</v>
       </c>
       <c r="G1714" s="6"/>
       <c r="H1714" s="7" t="s">
-        <v>5565</v>
+        <v>5563</v>
       </c>
       <c r="I1714" s="7" t="s">
-        <v>5574</v>
+        <v>5572</v>
       </c>
       <c r="J1714" s="7" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="K1714" s="7" t="s">
         <v>153</v>
@@ -69715,30 +69715,30 @@
     </row>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1715" s="7" t="s">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="B1715" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1715" s="7" t="s">
-        <v>5576</v>
+        <v>5574</v>
       </c>
       <c r="D1715" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1715" s="6"/>
       <c r="F1715" s="7" t="s">
-        <v>5577</v>
+        <v>5575</v>
       </c>
       <c r="G1715" s="7" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H1715" s="6"/>
       <c r="I1715" s="7" t="s">
-        <v>5578</v>
+        <v>5576</v>
       </c>
       <c r="J1715" s="7" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="K1715" s="7" t="s">
         <v>44</v>
@@ -69746,30 +69746,30 @@
     </row>
     <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1716" s="7" t="s">
-        <v>5579</v>
+        <v>5577</v>
       </c>
       <c r="B1716" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1716" s="7" t="s">
-        <v>5580</v>
+        <v>5578</v>
       </c>
       <c r="D1716" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1716" s="6"/>
       <c r="F1716" s="7" t="s">
-        <v>5577</v>
+        <v>5575</v>
       </c>
       <c r="G1716" s="6"/>
       <c r="H1716" s="7" t="s">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="I1716" s="7" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
       <c r="J1716" s="7" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="K1716" s="7" t="s">
         <v>44</v>
@@ -69777,30 +69777,30 @@
     </row>
     <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1717" s="7" t="s">
-        <v>5582</v>
+        <v>5580</v>
       </c>
       <c r="B1717" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1717" s="7" t="s">
-        <v>5583</v>
+        <v>5581</v>
       </c>
       <c r="D1717" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1717" s="6"/>
       <c r="F1717" s="7" t="s">
-        <v>5577</v>
+        <v>5575</v>
       </c>
       <c r="G1717" s="6"/>
       <c r="H1717" s="7" t="s">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="I1717" s="7" t="s">
-        <v>5584</v>
+        <v>5582</v>
       </c>
       <c r="J1717" s="7" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="K1717" s="7" t="s">
         <v>44</v>
@@ -69808,30 +69808,30 @@
     </row>
     <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1718" s="7" t="s">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="B1718" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1718" s="7" t="s">
-        <v>5586</v>
+        <v>5584</v>
       </c>
       <c r="D1718" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1718" s="6"/>
       <c r="F1718" s="7" t="s">
-        <v>5587</v>
+        <v>5585</v>
       </c>
       <c r="G1718" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1718" s="6"/>
       <c r="I1718" s="7" t="s">
-        <v>5589</v>
+        <v>5587</v>
       </c>
       <c r="J1718" s="7" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="K1718" s="7" t="s">
         <v>44</v>
@@ -69839,30 +69839,30 @@
     </row>
     <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1719" s="7" t="s">
-        <v>5590</v>
+        <v>5588</v>
       </c>
       <c r="B1719" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1719" s="7" t="s">
-        <v>5591</v>
+        <v>5589</v>
       </c>
       <c r="D1719" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1719" s="6"/>
       <c r="F1719" s="7" t="s">
-        <v>5587</v>
+        <v>5585</v>
       </c>
       <c r="G1719" s="6"/>
       <c r="H1719" s="7" t="s">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="I1719" s="7" t="s">
-        <v>5592</v>
+        <v>5590</v>
       </c>
       <c r="J1719" s="7" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="K1719" s="7" t="s">
         <v>44</v>
@@ -69870,30 +69870,30 @@
     </row>
     <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1720" s="7" t="s">
-        <v>5593</v>
+        <v>5591</v>
       </c>
       <c r="B1720" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1720" s="7" t="s">
-        <v>5594</v>
+        <v>5592</v>
       </c>
       <c r="D1720" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1720" s="6"/>
       <c r="F1720" s="7" t="s">
-        <v>5587</v>
+        <v>5585</v>
       </c>
       <c r="G1720" s="6"/>
       <c r="H1720" s="7" t="s">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="I1720" s="7" t="s">
-        <v>5595</v>
+        <v>5593</v>
       </c>
       <c r="J1720" s="7" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="K1720" s="7" t="s">
         <v>44</v>
@@ -69901,30 +69901,30 @@
     </row>
     <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1721" s="7" t="s">
-        <v>5596</v>
+        <v>5594</v>
       </c>
       <c r="B1721" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1721" s="7" t="s">
-        <v>5597</v>
+        <v>5595</v>
       </c>
       <c r="D1721" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1721" s="6"/>
       <c r="F1721" s="7" t="s">
-        <v>5598</v>
+        <v>5596</v>
       </c>
       <c r="G1721" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1721" s="6"/>
       <c r="I1721" s="7" t="s">
-        <v>5599</v>
+        <v>5597</v>
       </c>
       <c r="J1721" s="7" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="K1721" s="7" t="s">
         <v>44</v>
@@ -69932,30 +69932,30 @@
     </row>
     <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1722" s="7" t="s">
-        <v>5600</v>
+        <v>5598</v>
       </c>
       <c r="B1722" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1722" s="7" t="s">
-        <v>5601</v>
+        <v>5599</v>
       </c>
       <c r="D1722" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1722" s="6"/>
       <c r="F1722" s="7" t="s">
-        <v>5598</v>
+        <v>5596</v>
       </c>
       <c r="G1722" s="6"/>
       <c r="H1722" s="7" t="s">
-        <v>5596</v>
+        <v>5594</v>
       </c>
       <c r="I1722" s="7" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="J1722" s="7" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="K1722" s="7" t="s">
         <v>44</v>
@@ -69963,30 +69963,30 @@
     </row>
     <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1723" s="7" t="s">
-        <v>5603</v>
+        <v>5601</v>
       </c>
       <c r="B1723" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1723" s="7" t="s">
-        <v>5604</v>
+        <v>5602</v>
       </c>
       <c r="D1723" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1723" s="6"/>
       <c r="F1723" s="7" t="s">
-        <v>5598</v>
+        <v>5596</v>
       </c>
       <c r="G1723" s="6"/>
       <c r="H1723" s="7" t="s">
-        <v>5596</v>
+        <v>5594</v>
       </c>
       <c r="I1723" s="7" t="s">
-        <v>5605</v>
+        <v>5603</v>
       </c>
       <c r="J1723" s="7" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="K1723" s="7" t="s">
         <v>44</v>
@@ -69994,30 +69994,30 @@
     </row>
     <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1724" s="7" t="s">
-        <v>5606</v>
+        <v>5604</v>
       </c>
       <c r="B1724" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1724" s="7" t="s">
-        <v>5607</v>
+        <v>5605</v>
       </c>
       <c r="D1724" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1724" s="6"/>
       <c r="F1724" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="G1724" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1724" s="6"/>
       <c r="I1724" s="7" t="s">
-        <v>5953</v>
+        <v>5951</v>
       </c>
       <c r="J1724" s="7" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="K1724" s="7" t="s">
         <v>44</v>
@@ -70025,30 +70025,30 @@
     </row>
     <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1725" s="7" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
       <c r="B1725" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1725" s="7" t="s">
-        <v>5610</v>
+        <v>5608</v>
       </c>
       <c r="D1725" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1725" s="6"/>
       <c r="F1725" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="G1725" s="6"/>
       <c r="H1725" s="7" t="s">
-        <v>5606</v>
+        <v>5604</v>
       </c>
       <c r="I1725" s="7" t="s">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="J1725" s="7" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="K1725" s="7" t="s">
         <v>44</v>
@@ -70056,30 +70056,30 @@
     </row>
     <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1726" s="7" t="s">
-        <v>5611</v>
+        <v>5609</v>
       </c>
       <c r="B1726" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1726" s="7" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="D1726" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1726" s="6"/>
       <c r="F1726" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="G1726" s="6"/>
       <c r="H1726" s="7" t="s">
-        <v>5606</v>
+        <v>5604</v>
       </c>
       <c r="I1726" s="7" t="s">
-        <v>5613</v>
+        <v>5611</v>
       </c>
       <c r="J1726" s="7" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
       <c r="K1726" s="7" t="s">
         <v>44</v>
@@ -70087,30 +70087,30 @@
     </row>
     <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1727" s="7" t="s">
-        <v>5614</v>
+        <v>5612</v>
       </c>
       <c r="B1727" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1727" s="7" t="s">
-        <v>5615</v>
+        <v>5613</v>
       </c>
       <c r="D1727" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1727" s="6"/>
       <c r="F1727" s="7" t="s">
-        <v>5616</v>
+        <v>5614</v>
       </c>
       <c r="G1727" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1727" s="6"/>
       <c r="I1727" s="7" t="s">
-        <v>5617</v>
+        <v>5615</v>
       </c>
       <c r="J1727" s="7" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="K1727" s="7" t="s">
         <v>44</v>
@@ -70118,30 +70118,30 @@
     </row>
     <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1728" s="7" t="s">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="B1728" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1728" s="7" t="s">
-        <v>5619</v>
+        <v>5617</v>
       </c>
       <c r="D1728" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1728" s="6"/>
       <c r="F1728" s="7" t="s">
-        <v>5616</v>
+        <v>5614</v>
       </c>
       <c r="G1728" s="6"/>
       <c r="H1728" s="7" t="s">
-        <v>5614</v>
+        <v>5612</v>
       </c>
       <c r="I1728" s="7" t="s">
-        <v>5620</v>
+        <v>5618</v>
       </c>
       <c r="J1728" s="7" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="K1728" s="7" t="s">
         <v>44</v>
@@ -70149,30 +70149,30 @@
     </row>
     <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1729" s="7" t="s">
-        <v>5621</v>
+        <v>5619</v>
       </c>
       <c r="B1729" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1729" s="7" t="s">
-        <v>5622</v>
+        <v>5620</v>
       </c>
       <c r="D1729" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1729" s="6"/>
       <c r="F1729" s="7" t="s">
-        <v>5616</v>
+        <v>5614</v>
       </c>
       <c r="G1729" s="6"/>
       <c r="H1729" s="7" t="s">
-        <v>5614</v>
+        <v>5612</v>
       </c>
       <c r="I1729" s="7" t="s">
-        <v>5623</v>
+        <v>5621</v>
       </c>
       <c r="J1729" s="7" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
       <c r="K1729" s="7" t="s">
         <v>44</v>
@@ -70180,30 +70180,30 @@
     </row>
     <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1730" s="7" t="s">
-        <v>5624</v>
+        <v>5622</v>
       </c>
       <c r="B1730" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1730" s="7" t="s">
-        <v>5625</v>
+        <v>5623</v>
       </c>
       <c r="D1730" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1730" s="6"/>
       <c r="F1730" s="7" t="s">
-        <v>5626</v>
+        <v>5624</v>
       </c>
       <c r="G1730" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1730" s="6"/>
       <c r="I1730" s="7" t="s">
-        <v>5627</v>
+        <v>5625</v>
       </c>
       <c r="J1730" s="7" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="K1730" s="7" t="s">
         <v>44</v>
@@ -70211,30 +70211,30 @@
     </row>
     <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1731" s="7" t="s">
-        <v>5628</v>
+        <v>5626</v>
       </c>
       <c r="B1731" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1731" s="7" t="s">
-        <v>5629</v>
+        <v>5627</v>
       </c>
       <c r="D1731" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1731" s="6"/>
       <c r="F1731" s="7" t="s">
-        <v>5626</v>
+        <v>5624</v>
       </c>
       <c r="G1731" s="6"/>
       <c r="H1731" s="7" t="s">
-        <v>5624</v>
+        <v>5622</v>
       </c>
       <c r="I1731" s="7" t="s">
-        <v>5630</v>
+        <v>5628</v>
       </c>
       <c r="J1731" s="7" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="K1731" s="7" t="s">
         <v>44</v>
@@ -70242,30 +70242,30 @@
     </row>
     <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1732" s="7" t="s">
-        <v>5631</v>
+        <v>5629</v>
       </c>
       <c r="B1732" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1732" s="7" t="s">
-        <v>5632</v>
+        <v>5630</v>
       </c>
       <c r="D1732" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1732" s="6"/>
       <c r="F1732" s="7" t="s">
-        <v>5626</v>
+        <v>5624</v>
       </c>
       <c r="G1732" s="6"/>
       <c r="H1732" s="7" t="s">
-        <v>5624</v>
+        <v>5622</v>
       </c>
       <c r="I1732" s="7" t="s">
-        <v>5633</v>
+        <v>5631</v>
       </c>
       <c r="J1732" s="7" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="K1732" s="7" t="s">
         <v>44</v>
@@ -70273,30 +70273,30 @@
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1733" s="7" t="s">
-        <v>5634</v>
+        <v>5632</v>
       </c>
       <c r="B1733" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1733" s="7" t="s">
-        <v>5635</v>
+        <v>5633</v>
       </c>
       <c r="D1733" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1733" s="6"/>
       <c r="F1733" s="7" t="s">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="G1733" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1733" s="6"/>
       <c r="I1733" s="7" t="s">
-        <v>5637</v>
+        <v>5635</v>
       </c>
       <c r="J1733" s="7" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="K1733" s="7" t="s">
         <v>44</v>
@@ -70304,30 +70304,30 @@
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1734" s="7" t="s">
-        <v>5638</v>
+        <v>5636</v>
       </c>
       <c r="B1734" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1734" s="7" t="s">
-        <v>5639</v>
+        <v>5637</v>
       </c>
       <c r="D1734" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1734" s="6"/>
       <c r="F1734" s="7" t="s">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="G1734" s="6"/>
       <c r="H1734" s="7" t="s">
-        <v>5634</v>
+        <v>5632</v>
       </c>
       <c r="I1734" s="7" t="s">
-        <v>5640</v>
+        <v>5638</v>
       </c>
       <c r="J1734" s="7" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="K1734" s="7" t="s">
         <v>44</v>
@@ -70335,30 +70335,30 @@
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1735" s="7" t="s">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="B1735" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1735" s="7" t="s">
-        <v>5642</v>
+        <v>5640</v>
       </c>
       <c r="D1735" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1735" s="6"/>
       <c r="F1735" s="7" t="s">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="G1735" s="6"/>
       <c r="H1735" s="7" t="s">
-        <v>5634</v>
+        <v>5632</v>
       </c>
       <c r="I1735" s="7" t="s">
-        <v>5643</v>
+        <v>5641</v>
       </c>
       <c r="J1735" s="7" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="K1735" s="7" t="s">
         <v>44</v>
@@ -70366,30 +70366,30 @@
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1736" s="7" t="s">
-        <v>5644</v>
+        <v>5642</v>
       </c>
       <c r="B1736" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1736" s="7" t="s">
-        <v>5645</v>
+        <v>5643</v>
       </c>
       <c r="D1736" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1736" s="6"/>
       <c r="F1736" s="7" t="s">
-        <v>5646</v>
+        <v>5644</v>
       </c>
       <c r="G1736" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1736" s="6"/>
       <c r="I1736" s="7" t="s">
-        <v>5647</v>
+        <v>5645</v>
       </c>
       <c r="J1736" s="7" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="K1736" s="7" t="s">
         <v>44</v>
@@ -70397,30 +70397,30 @@
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1737" s="7" t="s">
-        <v>5648</v>
+        <v>5646</v>
       </c>
       <c r="B1737" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1737" s="7" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="D1737" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1737" s="6"/>
       <c r="F1737" s="7" t="s">
-        <v>5646</v>
+        <v>5644</v>
       </c>
       <c r="G1737" s="6"/>
       <c r="H1737" s="7" t="s">
-        <v>5644</v>
+        <v>5642</v>
       </c>
       <c r="I1737" s="7" t="s">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="J1737" s="7" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
       <c r="K1737" s="7" t="s">
         <v>44</v>
@@ -70428,30 +70428,30 @@
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1738" s="7" t="s">
-        <v>5651</v>
+        <v>5649</v>
       </c>
       <c r="B1738" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1738" s="7" t="s">
-        <v>5652</v>
+        <v>5650</v>
       </c>
       <c r="D1738" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1738" s="6"/>
       <c r="F1738" s="7" t="s">
-        <v>5646</v>
+        <v>5644</v>
       </c>
       <c r="G1738" s="6"/>
       <c r="H1738" s="7" t="s">
-        <v>5644</v>
+        <v>5642</v>
       </c>
       <c r="I1738" s="7" t="s">
-        <v>5653</v>
+        <v>5651</v>
       </c>
       <c r="J1738" s="7" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="K1738" s="7" t="s">
         <v>44</v>
@@ -70459,30 +70459,30 @@
     </row>
     <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1739" s="7" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="B1739" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1739" s="7" t="s">
-        <v>5655</v>
+        <v>5653</v>
       </c>
       <c r="D1739" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1739" s="6"/>
       <c r="F1739" s="7" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="G1739" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1739" s="6"/>
       <c r="I1739" s="7" t="s">
-        <v>5657</v>
+        <v>5655</v>
       </c>
       <c r="J1739" s="7" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="K1739" s="7" t="s">
         <v>44</v>
@@ -70490,30 +70490,30 @@
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1740" s="7" t="s">
-        <v>5658</v>
+        <v>5656</v>
       </c>
       <c r="B1740" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1740" s="7" t="s">
-        <v>5659</v>
+        <v>5657</v>
       </c>
       <c r="D1740" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1740" s="6"/>
       <c r="F1740" s="7" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="G1740" s="6"/>
       <c r="H1740" s="7" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="I1740" s="7" t="s">
-        <v>5660</v>
+        <v>5658</v>
       </c>
       <c r="J1740" s="7" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="K1740" s="7" t="s">
         <v>44</v>
@@ -70521,30 +70521,30 @@
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1741" s="7" t="s">
-        <v>5661</v>
+        <v>5659</v>
       </c>
       <c r="B1741" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1741" s="7" t="s">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="D1741" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1741" s="6"/>
       <c r="F1741" s="7" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="G1741" s="6"/>
       <c r="H1741" s="7" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="I1741" s="7" t="s">
-        <v>5663</v>
+        <v>5661</v>
       </c>
       <c r="J1741" s="7" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="K1741" s="7" t="s">
         <v>44</v>
@@ -70552,30 +70552,30 @@
     </row>
     <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1742" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="B1742" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1742" s="7" t="s">
-        <v>5665</v>
+        <v>5663</v>
       </c>
       <c r="D1742" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1742" s="6"/>
       <c r="F1742" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1742" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1742" s="6"/>
       <c r="I1742" s="7" t="s">
-        <v>5667</v>
+        <v>5665</v>
       </c>
       <c r="J1742" s="7" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="K1742" s="7" t="s">
         <v>44</v>
@@ -70583,30 +70583,30 @@
     </row>
     <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1743" s="7" t="s">
-        <v>5668</v>
+        <v>5666</v>
       </c>
       <c r="B1743" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1743" s="7" t="s">
-        <v>5669</v>
+        <v>5667</v>
       </c>
       <c r="D1743" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1743" s="6"/>
       <c r="F1743" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1743" s="6"/>
       <c r="H1743" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I1743" s="7" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="J1743" s="7" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="K1743" s="7" t="s">
         <v>44</v>
@@ -70614,30 +70614,30 @@
     </row>
     <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1744" s="7" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="B1744" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1744" s="7" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="D1744" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1744" s="6"/>
       <c r="F1744" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1744" s="6"/>
       <c r="H1744" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I1744" s="7" t="s">
-        <v>5673</v>
+        <v>5671</v>
       </c>
       <c r="J1744" s="7" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="K1744" s="7" t="s">
         <v>44</v>
@@ -70645,30 +70645,30 @@
     </row>
     <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1745" s="7" t="s">
-        <v>5674</v>
+        <v>5672</v>
       </c>
       <c r="B1745" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1745" s="7" t="s">
-        <v>5675</v>
+        <v>5673</v>
       </c>
       <c r="D1745" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1745" s="6"/>
       <c r="F1745" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1745" s="6"/>
       <c r="H1745" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I1745" s="7" t="s">
-        <v>5676</v>
+        <v>5674</v>
       </c>
       <c r="J1745" s="7" t="s">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="K1745" s="7" t="s">
         <v>44</v>
@@ -70676,30 +70676,30 @@
     </row>
     <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1746" s="7" t="s">
-        <v>5677</v>
+        <v>5675</v>
       </c>
       <c r="B1746" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1746" s="7" t="s">
-        <v>5678</v>
+        <v>5676</v>
       </c>
       <c r="D1746" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1746" s="6"/>
       <c r="F1746" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1746" s="6"/>
       <c r="H1746" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I1746" s="7" t="s">
-        <v>5679</v>
+        <v>5677</v>
       </c>
       <c r="J1746" s="7" t="s">
-        <v>5852</v>
+        <v>5850</v>
       </c>
       <c r="K1746" s="7" t="s">
         <v>153</v>
@@ -70707,30 +70707,30 @@
     </row>
     <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1747" s="7" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="B1747" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1747" s="7" t="s">
-        <v>5681</v>
+        <v>5679</v>
       </c>
       <c r="D1747" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1747" s="6"/>
       <c r="F1747" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1747" s="6"/>
       <c r="H1747" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I1747" s="7" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="J1747" s="7" t="s">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="K1747" s="7" t="s">
         <v>153</v>
@@ -70738,30 +70738,30 @@
     </row>
     <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1748" s="7" t="s">
-        <v>5683</v>
+        <v>5681</v>
       </c>
       <c r="B1748" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1748" s="7" t="s">
-        <v>5684</v>
+        <v>5682</v>
       </c>
       <c r="D1748" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1748" s="6"/>
       <c r="F1748" s="7" t="s">
-        <v>5685</v>
+        <v>5683</v>
       </c>
       <c r="G1748" s="7" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="H1748" s="6"/>
       <c r="I1748" s="7" t="s">
-        <v>5686</v>
+        <v>5684</v>
       </c>
       <c r="J1748" s="7" t="s">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="K1748" s="7" t="s">
         <v>153</v>
@@ -70769,30 +70769,30 @@
     </row>
     <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1749" s="7" t="s">
-        <v>5687</v>
+        <v>5685</v>
       </c>
       <c r="B1749" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1749" s="7" t="s">
-        <v>5688</v>
+        <v>5686</v>
       </c>
       <c r="D1749" s="7" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="E1749" s="6"/>
       <c r="F1749" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1749" s="6"/>
       <c r="H1749" s="7" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I1749" s="7" t="s">
-        <v>5689</v>
+        <v>5687</v>
       </c>
       <c r="J1749" s="7" t="s">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="K1749" s="7" t="s">
         <v>44</v>
@@ -70800,32 +70800,32 @@
     </row>
     <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1750" s="7" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B1750" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1750" s="7" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D1750" s="7" t="s">
         <v>5690</v>
       </c>
-      <c r="B1750" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1750" s="7" t="s">
+      <c r="E1750" s="7" t="s">
         <v>5691</v>
       </c>
-      <c r="D1750" s="7" t="s">
+      <c r="F1750" s="7" t="s">
         <v>5692</v>
       </c>
-      <c r="E1750" s="7" t="s">
+      <c r="G1750" s="7" t="s">
         <v>5693</v>
-      </c>
-      <c r="F1750" s="7" t="s">
-        <v>5694</v>
-      </c>
-      <c r="G1750" s="7" t="s">
-        <v>5695</v>
       </c>
       <c r="H1750" s="6"/>
       <c r="I1750" s="7" t="s">
-        <v>5696</v>
+        <v>5694</v>
       </c>
       <c r="J1750" s="7" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="K1750" s="7" t="s">
         <v>44</v>
@@ -70833,32 +70833,32 @@
     </row>
     <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1751" s="7" t="s">
+        <v>5695</v>
+      </c>
+      <c r="B1751" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1751" s="7" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D1751" s="7" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E1751" s="7" t="s">
         <v>5697</v>
       </c>
-      <c r="B1751" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1751" s="7" t="s">
-        <v>5698</v>
-      </c>
-      <c r="D1751" s="7" t="s">
+      <c r="F1751" s="7" t="s">
         <v>5692</v>
-      </c>
-      <c r="E1751" s="7" t="s">
-        <v>5699</v>
-      </c>
-      <c r="F1751" s="7" t="s">
-        <v>5694</v>
       </c>
       <c r="G1751" s="6"/>
       <c r="H1751" s="7" t="s">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="I1751" s="7" t="s">
-        <v>5700</v>
+        <v>5698</v>
       </c>
       <c r="J1751" s="7" t="s">
-        <v>5857</v>
+        <v>5855</v>
       </c>
       <c r="K1751" s="7" t="s">
         <v>44</v>
@@ -70866,32 +70866,32 @@
     </row>
     <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1752" s="7" t="s">
+        <v>5699</v>
+      </c>
+      <c r="B1752" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1752" s="7" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D1752" s="7" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E1752" s="7" t="s">
         <v>5701</v>
       </c>
-      <c r="B1752" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1752" s="7" t="s">
-        <v>5702</v>
-      </c>
-      <c r="D1752" s="7" t="s">
+      <c r="F1752" s="7" t="s">
         <v>5692</v>
-      </c>
-      <c r="E1752" s="7" t="s">
-        <v>5703</v>
-      </c>
-      <c r="F1752" s="7" t="s">
-        <v>5694</v>
       </c>
       <c r="G1752" s="6"/>
       <c r="H1752" s="7" t="s">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="I1752" s="7" t="s">
-        <v>5704</v>
+        <v>5702</v>
       </c>
       <c r="J1752" s="7" t="s">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="K1752" s="7" t="s">
         <v>44</v>
@@ -70899,32 +70899,32 @@
     </row>
     <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1753" s="7" t="s">
+        <v>5703</v>
+      </c>
+      <c r="B1753" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1753" s="7" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D1753" s="7" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E1753" s="7" t="s">
+        <v>5691</v>
+      </c>
+      <c r="F1753" s="7" t="s">
         <v>5705</v>
       </c>
-      <c r="B1753" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1753" s="7" t="s">
+      <c r="G1753" s="7" t="s">
         <v>5706</v>
-      </c>
-      <c r="D1753" s="7" t="s">
-        <v>5692</v>
-      </c>
-      <c r="E1753" s="7" t="s">
-        <v>5693</v>
-      </c>
-      <c r="F1753" s="7" t="s">
-        <v>5707</v>
-      </c>
-      <c r="G1753" s="7" t="s">
-        <v>5708</v>
       </c>
       <c r="H1753" s="6"/>
       <c r="I1753" s="7" t="s">
-        <v>5709</v>
+        <v>5707</v>
       </c>
       <c r="J1753" s="7" t="s">
-        <v>5859</v>
+        <v>5857</v>
       </c>
       <c r="K1753" s="7" t="s">
         <v>44</v>
@@ -70932,32 +70932,32 @@
     </row>
     <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1754" s="7" t="s">
-        <v>5710</v>
+        <v>5708</v>
       </c>
       <c r="B1754" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1754" s="7" t="s">
-        <v>5711</v>
+        <v>5709</v>
       </c>
       <c r="D1754" s="7" t="s">
-        <v>5692</v>
+        <v>5690</v>
       </c>
       <c r="E1754" s="7" t="s">
-        <v>5699</v>
+        <v>5697</v>
       </c>
       <c r="F1754" s="7" t="s">
-        <v>5707</v>
+        <v>5705</v>
       </c>
       <c r="G1754" s="6"/>
       <c r="H1754" s="7" t="s">
-        <v>5705</v>
+        <v>5703</v>
       </c>
       <c r="I1754" s="7" t="s">
-        <v>5712</v>
+        <v>5710</v>
       </c>
       <c r="J1754" s="7" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="K1754" s="7" t="s">
         <v>44</v>
@@ -70965,32 +70965,32 @@
     </row>
     <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1755" s="7" t="s">
-        <v>5713</v>
+        <v>5711</v>
       </c>
       <c r="B1755" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1755" s="7" t="s">
-        <v>5714</v>
+        <v>5712</v>
       </c>
       <c r="D1755" s="7" t="s">
-        <v>5692</v>
+        <v>5690</v>
       </c>
       <c r="E1755" s="7" t="s">
-        <v>5703</v>
+        <v>5701</v>
       </c>
       <c r="F1755" s="7" t="s">
-        <v>5707</v>
+        <v>5705</v>
       </c>
       <c r="G1755" s="6"/>
       <c r="H1755" s="7" t="s">
-        <v>5705</v>
+        <v>5703</v>
       </c>
       <c r="I1755" s="7" t="s">
-        <v>5715</v>
+        <v>5713</v>
       </c>
       <c r="J1755" s="7" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="K1755" s="7" t="s">
         <v>44</v>
@@ -70998,31 +70998,31 @@
     </row>
     <row r="1756" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1756" s="9" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="B1756" s="8" t="s">
         <v>4533</v>
       </c>
       <c r="C1756" s="1" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="D1756" s="1" t="s">
         <v>4222</v>
       </c>
       <c r="E1756" s="1" t="s">
+        <v>5255</v>
+      </c>
+      <c r="F1756" s="1" t="s">
+        <v>5256</v>
+      </c>
+      <c r="G1756" s="1" t="s">
         <v>5257</v>
       </c>
-      <c r="F1756" s="1" t="s">
+      <c r="I1756" s="1" t="s">
         <v>5258</v>
       </c>
-      <c r="G1756" s="1" t="s">
+      <c r="J1756" s="1" t="s">
         <v>5259</v>
-      </c>
-      <c r="I1756" s="1" t="s">
-        <v>5260</v>
-      </c>
-      <c r="J1756" s="1" t="s">
-        <v>5261</v>
       </c>
       <c r="K1756" s="1" t="s">
         <v>44</v>
@@ -71030,13 +71030,13 @@
     </row>
     <row r="1757" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1757" s="7" t="s">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="B1757" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1757" s="1" t="s">
-        <v>5865</v>
+        <v>5863</v>
       </c>
       <c r="D1757" s="7" t="s">
         <v>35</v>
@@ -71045,16 +71045,16 @@
         <v>81</v>
       </c>
       <c r="F1757" s="1" t="s">
+        <v>5864</v>
+      </c>
+      <c r="G1757" s="7" t="s">
+        <v>5865</v>
+      </c>
+      <c r="I1757" s="1" t="s">
         <v>5866</v>
       </c>
-      <c r="G1757" s="7" t="s">
+      <c r="J1757" s="1" t="s">
         <v>5867</v>
-      </c>
-      <c r="I1757" s="1" t="s">
-        <v>5868</v>
-      </c>
-      <c r="J1757" s="1" t="s">
-        <v>5869</v>
       </c>
       <c r="K1757" s="7" t="s">
         <v>44</v>
@@ -71062,30 +71062,30 @@
     </row>
     <row r="1758" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1758" s="7" t="s">
-        <v>5874</v>
+        <v>5872</v>
       </c>
       <c r="B1758" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1758" s="7" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="D1758" s="7" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
       <c r="E1758" s="7"/>
       <c r="F1758" s="7" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1758" s="7"/>
       <c r="H1758" s="7" t="s">
-        <v>5872</v>
+        <v>5870</v>
       </c>
       <c r="I1758" s="7" t="s">
-        <v>5873</v>
+        <v>5871</v>
       </c>
       <c r="J1758" s="7" t="s">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="K1758" s="1" t="s">
         <v>153</v>
@@ -71093,25 +71093,25 @@
     </row>
     <row r="1759" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1759" s="7" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="B1759" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1759" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1759" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1759" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1759" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1759" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1759" s="7"/>
       <c r="G1759" s="7"/>
       <c r="H1759" s="7"/>
       <c r="I1759" s="7" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="J1759" s="7"/>
       <c r="K1759" s="1" t="s">
@@ -71120,25 +71120,25 @@
     </row>
     <row r="1760" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1760" s="7" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="B1760" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1760" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1760" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1760" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1760" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1760" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1760" s="7"/>
       <c r="G1760" s="7"/>
       <c r="H1760" s="7"/>
       <c r="I1760" s="7" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="J1760" s="7"/>
       <c r="K1760" s="7" t="s">
@@ -71147,25 +71147,25 @@
     </row>
     <row r="1761" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1761" s="7" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="B1761" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1761" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1761" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1761" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1761" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1761" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1761" s="7"/>
       <c r="G1761" s="7"/>
       <c r="H1761" s="7"/>
       <c r="I1761" s="7" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="J1761" s="7"/>
       <c r="K1761" s="7" t="s">
@@ -71174,25 +71174,25 @@
     </row>
     <row r="1762" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1762" s="7" t="s">
-        <v>5878</v>
+        <v>5876</v>
       </c>
       <c r="B1762" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1762" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1762" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1762" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1762" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1762" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1762" s="7"/>
       <c r="G1762" s="7"/>
       <c r="H1762" s="7"/>
       <c r="I1762" s="7" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="J1762" s="7"/>
       <c r="K1762" s="7" t="s">
@@ -71201,25 +71201,25 @@
     </row>
     <row r="1763" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1763" s="7" t="s">
-        <v>5879</v>
+        <v>5877</v>
       </c>
       <c r="B1763" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1763" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1763" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1763" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1763" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1763" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1763" s="7"/>
       <c r="G1763" s="7"/>
       <c r="H1763" s="7"/>
       <c r="I1763" s="7" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="J1763" s="7"/>
       <c r="K1763" s="7" t="s">
@@ -71228,25 +71228,25 @@
     </row>
     <row r="1764" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1764" s="7" t="s">
-        <v>5880</v>
+        <v>5878</v>
       </c>
       <c r="B1764" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1764" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1764" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1764" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1764" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1764" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1764" s="7"/>
       <c r="G1764" s="7"/>
       <c r="H1764" s="7"/>
       <c r="I1764" s="7" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="J1764" s="7"/>
       <c r="K1764" s="7" t="s">
@@ -71255,25 +71255,25 @@
     </row>
     <row r="1765" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1765" s="7" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
       <c r="B1765" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1765" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1765" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1765" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1765" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1765" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1765" s="7"/>
       <c r="G1765" s="7"/>
       <c r="H1765" s="7"/>
       <c r="I1765" s="7" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="J1765" s="7"/>
       <c r="K1765" s="7" t="s">
@@ -71282,25 +71282,25 @@
     </row>
     <row r="1766" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1766" s="7" t="s">
-        <v>5882</v>
+        <v>5880</v>
       </c>
       <c r="B1766" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1766" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1766" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1766" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1766" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1766" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1766" s="7"/>
       <c r="G1766" s="7"/>
       <c r="H1766" s="7"/>
       <c r="I1766" s="7" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
       <c r="J1766" s="7"/>
       <c r="K1766" s="7" t="s">
@@ -71309,25 +71309,25 @@
     </row>
     <row r="1767" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1767" s="7" t="s">
-        <v>5883</v>
+        <v>5881</v>
       </c>
       <c r="B1767" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1767" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1767" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1767" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1767" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1767" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="7"/>
       <c r="H1767" s="7"/>
       <c r="I1767" s="7" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="J1767" s="7"/>
       <c r="K1767" s="7" t="s">
@@ -71336,25 +71336,25 @@
     </row>
     <row r="1768" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1768" s="7" t="s">
-        <v>5884</v>
+        <v>5882</v>
       </c>
       <c r="B1768" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1768" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1768" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1768" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1768" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1768" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="7"/>
       <c r="H1768" s="7"/>
       <c r="I1768" s="7" t="s">
-        <v>5910</v>
+        <v>5908</v>
       </c>
       <c r="J1768" s="7"/>
       <c r="K1768" s="7" t="s">
@@ -71363,25 +71363,25 @@
     </row>
     <row r="1769" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1769" s="7" t="s">
-        <v>5885</v>
+        <v>5883</v>
       </c>
       <c r="B1769" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1769" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1769" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1769" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1769" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1769" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1769" s="7"/>
       <c r="G1769" s="7"/>
       <c r="H1769" s="7"/>
       <c r="I1769" s="7" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="J1769" s="7"/>
       <c r="K1769" s="7" t="s">
@@ -71390,25 +71390,25 @@
     </row>
     <row r="1770" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1770" s="7" t="s">
-        <v>5887</v>
+        <v>5885</v>
       </c>
       <c r="B1770" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1770" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1770" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1770" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1770" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1770" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1770" s="7"/>
       <c r="G1770" s="7"/>
       <c r="H1770" s="7"/>
       <c r="I1770" s="7" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="J1770" s="7"/>
       <c r="K1770" s="7" t="s">
@@ -71417,25 +71417,25 @@
     </row>
     <row r="1771" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1771" s="7" t="s">
-        <v>5888</v>
+        <v>5886</v>
       </c>
       <c r="B1771" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1771" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D1771" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E1771" s="7" t="s">
         <v>5898</v>
-      </c>
-      <c r="D1771" s="7" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E1771" s="7" t="s">
-        <v>5900</v>
       </c>
       <c r="F1771" s="7"/>
       <c r="G1771" s="7"/>
       <c r="H1771" s="7"/>
       <c r="I1771" s="7" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="J1771" s="7"/>
       <c r="K1771" s="7" t="s">
@@ -71444,25 +71444,25 @@
     </row>
     <row r="1772" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1772" s="7" t="s">
-        <v>5889</v>
+        <v>5887</v>
       </c>
       <c r="B1772" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1772" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1772" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1772" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1772" s="7"/>
       <c r="G1772" s="7"/>
       <c r="H1772" s="7"/>
       <c r="I1772" s="7" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="J1772" s="7"/>
       <c r="K1772" s="7" t="s">
@@ -71471,25 +71471,25 @@
     </row>
     <row r="1773" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1773" s="7" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="B1773" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1773" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1773" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1773" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1773" s="7"/>
       <c r="G1773" s="7"/>
       <c r="H1773" s="7"/>
       <c r="I1773" s="7" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="J1773" s="7"/>
       <c r="K1773" s="7" t="s">
@@ -71498,25 +71498,25 @@
     </row>
     <row r="1774" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1774" s="7" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
       <c r="B1774" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1774" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1774" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1774" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1774" s="7"/>
       <c r="G1774" s="7"/>
       <c r="H1774" s="7"/>
       <c r="I1774" s="7" t="s">
-        <v>5918</v>
+        <v>5916</v>
       </c>
       <c r="J1774" s="7"/>
       <c r="K1774" s="7" t="s">
@@ -71525,25 +71525,25 @@
     </row>
     <row r="1775" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1775" s="7" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="B1775" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1775" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1775" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1775" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="7"/>
       <c r="H1775" s="7"/>
       <c r="I1775" s="7" t="s">
-        <v>5919</v>
+        <v>5917</v>
       </c>
       <c r="J1775" s="7"/>
       <c r="K1775" s="7" t="s">
@@ -71552,25 +71552,25 @@
     </row>
     <row r="1776" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1776" s="7" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="B1776" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1776" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1776" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1776" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1776" s="7"/>
       <c r="G1776" s="7"/>
       <c r="H1776" s="7"/>
       <c r="I1776" s="7" t="s">
-        <v>5920</v>
+        <v>5918</v>
       </c>
       <c r="J1776" s="7"/>
       <c r="K1776" s="7" t="s">
@@ -71579,25 +71579,25 @@
     </row>
     <row r="1777" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1777" s="7" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="B1777" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1777" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1777" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1777" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="7"/>
       <c r="H1777" s="7"/>
       <c r="I1777" s="7" t="s">
-        <v>5921</v>
+        <v>5919</v>
       </c>
       <c r="J1777" s="7"/>
       <c r="K1777" s="7" t="s">
@@ -71606,25 +71606,25 @@
     </row>
     <row r="1778" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1778" s="7" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
       <c r="B1778" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1778" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1778" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1778" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1778" s="7"/>
       <c r="G1778" s="7"/>
       <c r="H1778" s="7"/>
       <c r="I1778" s="7" t="s">
-        <v>5922</v>
+        <v>5920</v>
       </c>
       <c r="J1778" s="7"/>
       <c r="K1778" s="7" t="s">
@@ -71633,25 +71633,25 @@
     </row>
     <row r="1779" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1779" s="7" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="B1779" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1779" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1779" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1779" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1779" s="7"/>
       <c r="G1779" s="7"/>
       <c r="H1779" s="7"/>
       <c r="I1779" s="7" t="s">
-        <v>5923</v>
+        <v>5921</v>
       </c>
       <c r="J1779" s="7"/>
       <c r="K1779" s="7" t="s">
@@ -71660,25 +71660,25 @@
     </row>
     <row r="1780" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1780" s="7" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B1780" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1780" s="7" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D1780" s="7" t="s">
         <v>5897</v>
       </c>
-      <c r="B1780" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1780" s="7" t="s">
-        <v>5914</v>
-      </c>
-      <c r="D1780" s="7" t="s">
-        <v>5899</v>
-      </c>
       <c r="E1780" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1780" s="7"/>
       <c r="G1780" s="7"/>
       <c r="H1780" s="7"/>
       <c r="I1780" s="7" t="s">
-        <v>5924</v>
+        <v>5922</v>
       </c>
       <c r="J1780" s="7"/>
       <c r="K1780" s="7" t="s">
@@ -71687,25 +71687,25 @@
     </row>
     <row r="1781" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1781" s="7" t="s">
-        <v>5940</v>
+        <v>5938</v>
       </c>
       <c r="B1781" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1781" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1781" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1781" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="7"/>
       <c r="H1781" s="7"/>
       <c r="I1781" s="7" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="J1781" s="7"/>
       <c r="K1781" s="7" t="s">
@@ -71714,25 +71714,25 @@
     </row>
     <row r="1782" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1782" s="7" t="s">
-        <v>5941</v>
+        <v>5939</v>
       </c>
       <c r="B1782" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1782" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1782" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1782" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1782" s="7"/>
       <c r="G1782" s="7"/>
       <c r="H1782" s="7"/>
       <c r="I1782" s="7" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="J1782" s="7"/>
       <c r="K1782" s="7" t="s">
@@ -71741,25 +71741,25 @@
     </row>
     <row r="1783" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1783" s="7" t="s">
-        <v>5942</v>
+        <v>5940</v>
       </c>
       <c r="B1783" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1783" s="7" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D1783" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1783" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1783" s="7"/>
       <c r="G1783" s="7"/>
       <c r="H1783" s="7"/>
       <c r="I1783" s="7" t="s">
-        <v>5927</v>
+        <v>5925</v>
       </c>
       <c r="J1783" s="7"/>
       <c r="K1783" s="7" t="s">
@@ -71768,28 +71768,28 @@
     </row>
     <row r="1784" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1784" s="7" t="s">
-        <v>5943</v>
+        <v>5941</v>
       </c>
       <c r="B1784" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1784" s="7" t="s">
-        <v>5928</v>
+        <v>5926</v>
       </c>
       <c r="D1784" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1784" s="7" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="F1784" s="7"/>
       <c r="G1784" s="7"/>
       <c r="H1784" s="7"/>
       <c r="I1784" s="7" t="s">
-        <v>5929</v>
+        <v>5927</v>
       </c>
       <c r="J1784" s="7" t="s">
-        <v>5930</v>
+        <v>5928</v>
       </c>
       <c r="K1784" s="7" t="s">
         <v>9</v>
@@ -71797,28 +71797,28 @@
     </row>
     <row r="1785" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1785" s="7" t="s">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="B1785" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1785" s="7" t="s">
-        <v>5931</v>
+        <v>5929</v>
       </c>
       <c r="D1785" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1785" s="7" t="s">
-        <v>5932</v>
+        <v>5930</v>
       </c>
       <c r="F1785" s="7"/>
       <c r="G1785" s="7"/>
       <c r="H1785" s="7"/>
       <c r="I1785" s="7" t="s">
-        <v>5933</v>
+        <v>5931</v>
       </c>
       <c r="J1785" s="7" t="s">
-        <v>5930</v>
+        <v>5928</v>
       </c>
       <c r="K1785" s="7" t="s">
         <v>9</v>
@@ -71826,28 +71826,28 @@
     </row>
     <row r="1786" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1786" s="7" t="s">
-        <v>5945</v>
+        <v>5943</v>
       </c>
       <c r="B1786" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1786" s="7" t="s">
-        <v>5931</v>
+        <v>5929</v>
       </c>
       <c r="D1786" s="7" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E1786" s="7" t="s">
-        <v>5932</v>
+        <v>5930</v>
       </c>
       <c r="F1786" s="7"/>
       <c r="G1786" s="7"/>
       <c r="H1786" s="7"/>
       <c r="I1786" s="7" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J1786" s="6" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="K1786" s="7" t="s">
         <v>9</v>
@@ -71855,28 +71855,28 @@
     </row>
     <row r="1787" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1787" s="7" t="s">
-        <v>5946</v>
+        <v>5944</v>
       </c>
       <c r="B1787" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1787" s="7" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D1787" s="7" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E1787" s="7" t="s">
         <v>5936</v>
-      </c>
-      <c r="D1787" s="7" t="s">
-        <v>5937</v>
-      </c>
-      <c r="E1787" s="7" t="s">
-        <v>5938</v>
       </c>
       <c r="F1787" s="7"/>
       <c r="G1787" s="7"/>
       <c r="H1787" s="7"/>
       <c r="I1787" s="7" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="J1787" s="7" t="s">
-        <v>5959</v>
+        <v>5957</v>
       </c>
       <c r="K1787" s="7" t="s">
         <v>9</v>
@@ -71884,25 +71884,25 @@
     </row>
     <row r="1788" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1788" s="7" t="s">
-        <v>5963</v>
+        <v>5961</v>
       </c>
       <c r="B1788" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1788" s="1" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D1788" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="F1788" s="7" t="s">
         <v>5960</v>
       </c>
-      <c r="D1788" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="F1788" s="7" t="s">
-        <v>5962</v>
-      </c>
       <c r="I1788" s="1" t="s">
-        <v>5995</v>
+        <v>5993</v>
       </c>
       <c r="J1788" s="7" t="s">
-        <v>5961</v>
+        <v>5959</v>
       </c>
       <c r="K1788" s="1" t="s">
         <v>44</v>
@@ -71910,30 +71910,30 @@
     </row>
     <row r="1789" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1789" s="7" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="B1789" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1789" s="7" t="s">
-        <v>5966</v>
+        <v>5964</v>
       </c>
       <c r="D1789" s="7" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="E1789" s="7"/>
       <c r="F1789" s="7" t="s">
-        <v>5968</v>
+        <v>5966</v>
       </c>
       <c r="G1789" s="7"/>
       <c r="H1789" s="7" t="s">
-        <v>5969</v>
+        <v>5967</v>
       </c>
       <c r="I1789" s="7" t="s">
-        <v>5970</v>
+        <v>5968</v>
       </c>
       <c r="J1789" s="1" t="s">
-        <v>5977</v>
+        <v>5975</v>
       </c>
       <c r="K1789" s="7" t="s">
         <v>44</v>
@@ -71941,30 +71941,30 @@
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1790" s="7" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="B1790" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1790" s="7" t="s">
-        <v>5981</v>
+        <v>5979</v>
       </c>
       <c r="D1790" s="7" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="E1790" s="7"/>
       <c r="F1790" s="7" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="G1790" s="7"/>
       <c r="H1790" s="7" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="I1790" s="7" t="s">
-        <v>5986</v>
+        <v>5984</v>
       </c>
       <c r="J1790" s="7" t="s">
-        <v>5978</v>
+        <v>5976</v>
       </c>
       <c r="K1790" s="7" t="s">
         <v>44</v>
@@ -71972,30 +71972,30 @@
     </row>
     <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1791" s="7" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="B1791" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1791" s="7" t="s">
-        <v>5982</v>
+        <v>5980</v>
       </c>
       <c r="D1791" s="7" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="E1791" s="7"/>
       <c r="F1791" s="7" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="G1791" s="7"/>
       <c r="H1791" s="7" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="I1791" s="7" t="s">
-        <v>5980</v>
+        <v>5978</v>
       </c>
       <c r="J1791" s="7" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="K1791" s="7" t="s">
         <v>153</v>
@@ -72003,16 +72003,16 @@
     </row>
     <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1792" s="7" t="s">
-        <v>5985</v>
+        <v>5983</v>
       </c>
       <c r="B1792" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1792" s="7" t="s">
-        <v>5983</v>
+        <v>5981</v>
       </c>
       <c r="D1792" s="7" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="E1792" s="7"/>
       <c r="F1792" s="7" t="s">
@@ -72023,10 +72023,10 @@
         <v>4196</v>
       </c>
       <c r="I1792" s="7" t="s">
-        <v>5984</v>
+        <v>5982</v>
       </c>
       <c r="J1792" s="7" t="s">
-        <v>5987</v>
+        <v>5985</v>
       </c>
       <c r="K1792" s="1" t="s">
         <v>153</v>
@@ -72034,32 +72034,32 @@
     </row>
     <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1793" s="7" t="s">
-        <v>5993</v>
+        <v>5991</v>
       </c>
       <c r="B1793" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C1793" s="7" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D1793" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E1793" s="7" t="s">
+        <v>5987</v>
+      </c>
+      <c r="F1793" s="7" t="s">
         <v>5988</v>
       </c>
-      <c r="D1793" s="7" t="s">
-        <v>5362</v>
-      </c>
-      <c r="E1793" s="7" t="s">
+      <c r="G1793" s="7" t="s">
         <v>5989</v>
-      </c>
-      <c r="F1793" s="7" t="s">
-        <v>5990</v>
-      </c>
-      <c r="G1793" s="7" t="s">
-        <v>5991</v>
       </c>
       <c r="H1793" s="7"/>
       <c r="I1793" s="7" t="s">
+        <v>5990</v>
+      </c>
+      <c r="J1793" s="1" t="s">
         <v>5992</v>
-      </c>
-      <c r="J1793" s="1" t="s">
-        <v>5994</v>
       </c>
       <c r="K1793" s="1" t="s">
         <v>153</v>
@@ -72067,32 +72067,32 @@
     </row>
     <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1794" s="7" t="s">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B1794" s="7" t="s">
         <v>4533</v>
       </c>
       <c r="C1794" s="7" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D1794" s="7" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E1794" s="7" t="s">
         <v>5996</v>
       </c>
-      <c r="D1794" s="7" t="s">
+      <c r="F1794" s="7" t="s">
         <v>5997</v>
       </c>
-      <c r="E1794" s="7" t="s">
+      <c r="G1794" s="7" t="s">
         <v>5998</v>
-      </c>
-      <c r="F1794" s="7" t="s">
-        <v>5999</v>
-      </c>
-      <c r="G1794" s="7" t="s">
-        <v>6000</v>
       </c>
       <c r="H1794" s="7"/>
       <c r="I1794" s="7" t="s">
-        <v>6001</v>
+        <v>5999</v>
       </c>
       <c r="J1794" s="7" t="s">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="K1794" s="7" t="s">
         <v>153</v>
@@ -72100,32 +72100,32 @@
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1795" s="7" t="s">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B1795" s="7" t="s">
         <v>4533</v>
       </c>
       <c r="C1795" s="7" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D1795" s="7" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E1795" s="7" t="s">
+        <v>5996</v>
+      </c>
+      <c r="F1795" s="7" t="s">
+        <v>6001</v>
+      </c>
+      <c r="G1795" s="7" t="s">
         <v>6002</v>
-      </c>
-      <c r="D1795" s="7" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E1795" s="7" t="s">
-        <v>5998</v>
-      </c>
-      <c r="F1795" s="7" t="s">
-        <v>6003</v>
-      </c>
-      <c r="G1795" s="7" t="s">
-        <v>6004</v>
       </c>
       <c r="H1795" s="7"/>
       <c r="I1795" s="7" t="s">
+        <v>6007</v>
+      </c>
+      <c r="J1795" s="7" t="s">
         <v>6009</v>
-      </c>
-      <c r="J1795" s="7" t="s">
-        <v>6011</v>
       </c>
       <c r="K1795" s="7" t="s">
         <v>44</v>
@@ -72133,32 +72133,32 @@
     </row>
     <row r="1796" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1796" s="7" t="s">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="B1796" s="7" t="s">
         <v>4533</v>
       </c>
       <c r="C1796" s="7" t="s">
-        <v>6014</v>
+        <v>6012</v>
       </c>
       <c r="D1796" s="7" t="s">
-        <v>5997</v>
+        <v>5995</v>
       </c>
       <c r="E1796" s="7" t="s">
-        <v>5998</v>
+        <v>5996</v>
       </c>
       <c r="F1796" s="7" t="s">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="G1796" s="7"/>
       <c r="H1796" s="7" t="s">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="I1796" s="7" t="s">
-        <v>6013</v>
+        <v>6011</v>
       </c>
       <c r="J1796" s="7" t="s">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="K1796" s="7" t="s">
         <v>44</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1793</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1796</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -20897,10 +20897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$schema56' or `TABLE_SCHEMA` in ('INFORMATION_SCHEMA')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar array字段在中间，通过array后字段条件查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20976,6 +20972,10 @@
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:'"&lt;&gt;?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$schema56' or `TABLE_SCHEMA` in ('INFORMATION_SCHEMA') or `TABLE_NAME` in ('TABLE_BUCKETS','TABLES_PRIV','DB','ANALYZE_TASK','TABLE_STATS','USER','CM_SKETCH')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21357,8 +21357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A1759" workbookViewId="0">
+      <selection activeCell="I1788" sqref="I1788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21444,10 +21444,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
+        <v>6012</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6013</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6014</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -66365,7 +66365,7 @@
         <v>5241</v>
       </c>
       <c r="B1609" s="8" t="s">
-        <v>4533</v>
+        <v>34</v>
       </c>
       <c r="C1609" s="1" t="s">
         <v>5242</v>
@@ -71899,7 +71899,7 @@
         <v>5960</v>
       </c>
       <c r="I1788" s="1" t="s">
-        <v>5993</v>
+        <v>6014</v>
       </c>
       <c r="J1788" s="7" t="s">
         <v>5959</v>
@@ -72036,7 +72036,7 @@
       <c r="A1793" s="7" t="s">
         <v>5991</v>
       </c>
-      <c r="B1793" s="7" t="s">
+      <c r="B1793" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C1793" s="7" t="s">
@@ -72067,32 +72067,32 @@
     </row>
     <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1794" s="7" t="s">
-        <v>6003</v>
-      </c>
-      <c r="B1794" s="7" t="s">
-        <v>4533</v>
+        <v>6002</v>
+      </c>
+      <c r="B1794" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C1794" s="7" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D1794" s="7" t="s">
         <v>5994</v>
       </c>
-      <c r="D1794" s="7" t="s">
+      <c r="E1794" s="7" t="s">
         <v>5995</v>
       </c>
-      <c r="E1794" s="7" t="s">
+      <c r="F1794" s="7" t="s">
         <v>5996</v>
       </c>
-      <c r="F1794" s="7" t="s">
+      <c r="G1794" s="7" t="s">
         <v>5997</v>
-      </c>
-      <c r="G1794" s="7" t="s">
-        <v>5998</v>
       </c>
       <c r="H1794" s="7"/>
       <c r="I1794" s="7" t="s">
-        <v>5999</v>
+        <v>5998</v>
       </c>
       <c r="J1794" s="7" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="K1794" s="7" t="s">
         <v>153</v>
@@ -72100,32 +72100,32 @@
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1795" s="7" t="s">
-        <v>6004</v>
-      </c>
-      <c r="B1795" s="7" t="s">
-        <v>4533</v>
+        <v>6003</v>
+      </c>
+      <c r="B1795" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C1795" s="7" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D1795" s="7" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E1795" s="7" t="s">
+        <v>5995</v>
+      </c>
+      <c r="F1795" s="7" t="s">
         <v>6000</v>
       </c>
-      <c r="D1795" s="7" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E1795" s="7" t="s">
-        <v>5996</v>
-      </c>
-      <c r="F1795" s="7" t="s">
+      <c r="G1795" s="7" t="s">
         <v>6001</v>
-      </c>
-      <c r="G1795" s="7" t="s">
-        <v>6002</v>
       </c>
       <c r="H1795" s="7"/>
       <c r="I1795" s="7" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="J1795" s="7" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="K1795" s="7" t="s">
         <v>44</v>
@@ -72133,39 +72133,39 @@
     </row>
     <row r="1796" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1796" s="7" t="s">
-        <v>6005</v>
-      </c>
-      <c r="B1796" s="7" t="s">
-        <v>4533</v>
+        <v>6004</v>
+      </c>
+      <c r="B1796" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C1796" s="7" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="D1796" s="7" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E1796" s="7" t="s">
         <v>5995</v>
       </c>
-      <c r="E1796" s="7" t="s">
-        <v>5996</v>
-      </c>
       <c r="F1796" s="7" t="s">
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="G1796" s="7"/>
       <c r="H1796" s="7" t="s">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="I1796" s="7" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="J1796" s="7" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="K1796" s="7" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1793"/>
+  <autoFilter ref="A1:K1796"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dql/casegroup1/mysql_dql_cases1.xlsx
@@ -21357,8 +21357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1759" workbookViewId="0">
-      <selection activeCell="I1788" sqref="I1788"/>
+    <sheetView tabSelected="1" topLeftCell="A1597" workbookViewId="0">
+      <selection activeCell="C1610" sqref="C1610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -66365,7 +66365,7 @@
         <v>5241</v>
       </c>
       <c r="B1609" s="8" t="s">
-        <v>34</v>
+        <v>4533</v>
       </c>
       <c r="C1609" s="1" t="s">
         <v>5242</v>
